--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D3E60F-0688-40C6-973A-8EDFA12C8291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8320D7A-EBC4-4581-B22A-FBC8FD5ADECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="123">
   <si>
     <t>Date</t>
   </si>
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1183,7 +1183,9 @@
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43980</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="G2" s="1">
         <v>-37.596122999999999</v>
       </c>
@@ -1215,7 +1217,9 @@
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43980</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G3" s="1">
         <v>-37.772379999999998</v>
       </c>
@@ -1247,7 +1251,9 @@
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43973</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="G4" s="1">
         <v>-37.689366</v>
       </c>
@@ -1279,7 +1285,9 @@
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43967</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="G5" s="1">
         <v>-37.678277999999999</v>
       </c>
@@ -1311,7 +1319,9 @@
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43967</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="G6" s="1">
         <v>-37.810712000000002</v>
       </c>
@@ -1377,7 +1387,9 @@
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43964</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="G8" s="1">
         <v>-37.811678000000001</v>
       </c>
@@ -1409,7 +1421,9 @@
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43961</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G9" s="1">
         <v>-37.797176999999998</v>
       </c>
@@ -1441,7 +1455,9 @@
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43958</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="G10" s="1">
         <v>-37.759222999999999</v>
       </c>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8320D7A-EBC4-4581-B22A-FBC8FD5ADECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CAAFD1-FA87-4C6E-B94B-61CF3772F58C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="127">
   <si>
     <t>Date</t>
   </si>
@@ -405,6 +405,18 @@
   </si>
   <si>
     <t>The Learning Sanctuary, Yarraville</t>
+  </si>
+  <si>
+    <t>Domino’s Pizza, Fairfield</t>
+  </si>
+  <si>
+    <t>The Comfort Group, Deer Park</t>
+  </si>
+  <si>
+    <t>8/306 Station St, Fairfield VIC 3078</t>
+  </si>
+  <si>
+    <t>447 Foleys Rd, Ravenhall VIC 3023</t>
   </si>
 </sst>
 </file>
@@ -800,8 +812,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:J53" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J53" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:J55" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J55" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="8"/>
@@ -1115,27 +1127,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.3984375" customWidth="1"/>
-    <col min="3" max="3" width="22.265625" customWidth="1"/>
-    <col min="4" max="4" width="25.265625" customWidth="1"/>
-    <col min="5" max="5" width="16.73046875" customWidth="1"/>
-    <col min="6" max="6" width="96.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="96.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="15.86328125" customWidth="1"/>
-    <col min="10" max="10" width="20.3984375" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1167,455 +1179,459 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43966</v>
+        <v>43968</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G2" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>144.921401</v>
+        <v>144.78539799999999</v>
       </c>
       <c r="I2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43968</v>
       </c>
       <c r="J2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>43966</v>
+        <v>43968</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G3" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="H3" s="1">
-        <v>144.888195</v>
+        <v>145.02005199999999</v>
       </c>
       <c r="I3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43968</v>
       </c>
       <c r="J3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>43966</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="4">
-        <v>43959</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G4" s="1">
-        <v>-37.689366</v>
+        <v>-37.596122999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>144.958878</v>
+        <v>144.921401</v>
       </c>
       <c r="I4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="J4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43953</v>
+        <v>43966</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43980</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43980</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.772379999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>144.43268900000001</v>
+        <v>144.888195</v>
       </c>
       <c r="I5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43966</v>
       </c>
       <c r="J5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G6" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.689366</v>
       </c>
       <c r="H6" s="1">
-        <v>144.836118</v>
+        <v>144.958878</v>
       </c>
       <c r="I6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="J6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>43953</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="4">
-        <v>43951</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="E7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="G7" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>144.83348079999999</v>
+        <v>144.43268900000001</v>
       </c>
       <c r="I7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="J7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43967</v>
       </c>
       <c r="E8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
+        <v>43967</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G8" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>144.889926</v>
+        <v>144.836118</v>
       </c>
       <c r="I8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="J8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43947</v>
+        <v>43951</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="E9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="G9" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>144.894632</v>
+        <v>144.83348079999999</v>
       </c>
       <c r="I9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43951</v>
       </c>
       <c r="J9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43944</v>
+        <v>43950</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
+        <v>43964</v>
       </c>
       <c r="E10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
+        <v>43964</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G10" s="1">
-        <v>-37.759222999999999</v>
+        <v>-37.811678000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>144.816754</v>
+        <v>144.889926</v>
       </c>
       <c r="I10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43944</v>
+        <v>43950</v>
       </c>
       <c r="J10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <v>43907</v>
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>43947</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43961</v>
       </c>
       <c r="E11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43961</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-37.797176999999998</v>
+      </c>
+      <c r="H11" s="1">
+        <v>144.894632</v>
+      </c>
+      <c r="I11" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43947</v>
+      </c>
+      <c r="J11" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>43944</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43958</v>
+      </c>
+      <c r="E12" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43958</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-37.759222999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>144.816754</v>
+      </c>
+      <c r="I12" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43944</v>
+      </c>
+      <c r="J12" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43921</v>
       </c>
-      <c r="F11" s="1" t="str">
+      <c r="E13" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
+      </c>
+      <c r="F13" s="1" t="str">
         <f>VIC_public_exposure_sites[[#This Row],[Location]] &amp; ", VIC, AU"</f>
         <v>Toorak Primary School, VIC, AU</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G13" s="1">
         <v>-37.844318000000001</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H13" s="1">
         <v>145.009818</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43907</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43907</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>43905</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43919</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43919</v>
       </c>
-      <c r="F12" s="1" t="str">
+      <c r="F14" s="1" t="str">
         <f>VIC_public_exposure_sites[[#This Row],[Location]] &amp; ", VIC, AU"</f>
         <v>Carey Grammar, VIC, AU</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G14" s="1">
         <v>-37.813239000000003</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H14" s="1">
         <v>145.048047</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43905</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43905</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2">
-        <v>43914</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="1">
-        <v>-37.776940699999997</v>
-      </c>
-      <c r="H13" s="1">
-        <v>144.98702499999999</v>
-      </c>
-      <c r="I13" s="2">
-        <v>43900</v>
-      </c>
-      <c r="J13" s="2">
-        <v>43900</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2">
-        <v>43914</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="1">
-        <v>-37.772095999999998</v>
-      </c>
-      <c r="H14" s="1">
-        <v>144.91609500000001</v>
-      </c>
-      <c r="I14" s="2">
-        <v>43900</v>
-      </c>
-      <c r="J14" s="2">
-        <v>43900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -1624,13 +1640,13 @@
         <v>43914</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G15" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="H15" s="1">
-        <v>144.83348079999999</v>
+        <v>144.98702499999999</v>
       </c>
       <c r="I15" s="2">
         <v>43900</v>
@@ -1639,53 +1655,53 @@
         <v>43900</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G16" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>144.83348079999999</v>
+        <v>144.91609500000001</v>
       </c>
       <c r="I16" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="J16" s="2">
-        <v>43899</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E17" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>97</v>
@@ -1697,27 +1713,27 @@
         <v>144.83348079999999</v>
       </c>
       <c r="I17" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="J17" s="2">
-        <v>43899</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>97</v>
@@ -1729,27 +1745,27 @@
         <v>144.83348079999999</v>
       </c>
       <c r="I18" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="J18" s="2">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>97</v>
@@ -1761,27 +1777,27 @@
         <v>144.83348079999999</v>
       </c>
       <c r="I19" s="2">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="J19" s="2">
-        <v>43897</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>97</v>
@@ -1793,27 +1809,27 @@
         <v>144.83348079999999</v>
       </c>
       <c r="I20" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="J20" s="2">
-        <v>43896</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>97</v>
@@ -1825,85 +1841,85 @@
         <v>144.83348079999999</v>
       </c>
       <c r="I21" s="2">
+        <v>43897</v>
+      </c>
+      <c r="J21" s="2">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43910</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="H22" s="1">
+        <v>144.83348079999999</v>
+      </c>
+      <c r="I22" s="2">
         <v>43896</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J22" s="2">
         <v>43896</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="2">
-        <v>43912</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="1">
-        <v>-37.821452700000002</v>
-      </c>
-      <c r="H22" s="1">
-        <v>144.98347200000001</v>
-      </c>
-      <c r="I22" s="2">
-        <v>43898</v>
-      </c>
-      <c r="J22" s="2">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G23" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>145.0729384</v>
+        <v>144.83348079999999</v>
       </c>
       <c r="I23" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="J23" s="2">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
@@ -1912,13 +1928,13 @@
         <v>43912</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G24" s="1">
-        <v>-37.790782999999998</v>
+        <v>-37.821452700000002</v>
       </c>
       <c r="H24" s="1">
-        <v>144.99816200000001</v>
+        <v>144.98347200000001</v>
       </c>
       <c r="I24" s="2">
         <v>43898</v>
@@ -1927,79 +1943,79 @@
         <v>43898</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G25" s="1">
-        <v>-37.824981299999997</v>
+        <v>-37.800963000000003</v>
       </c>
       <c r="H25" s="1">
-        <v>144.98361299999999</v>
+        <v>145.0729384</v>
       </c>
       <c r="I25" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="J25" s="2">
-        <v>43897</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G26" s="1">
-        <v>-37.841103699999998</v>
+        <v>-37.790782999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>144.955806</v>
+        <v>144.99816200000001</v>
       </c>
       <c r="I26" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="J26" s="2">
-        <v>43897</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>28</v>
@@ -2008,13 +2024,13 @@
         <v>43911</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G27" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.824981299999997</v>
       </c>
       <c r="H27" s="1">
-        <v>144.9564881</v>
+        <v>144.98361299999999</v>
       </c>
       <c r="I27" s="2">
         <v>43897</v>
@@ -2023,47 +2039,47 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G28" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.841103699999998</v>
       </c>
       <c r="H28" s="1">
-        <v>144.9564881</v>
+        <v>144.955806</v>
       </c>
       <c r="I28" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="J28" s="2">
-        <v>43896</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>28</v>
@@ -2072,13 +2088,13 @@
         <v>43911</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G29" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="H29" s="1">
-        <v>144.31841800000001</v>
+        <v>144.9564881</v>
       </c>
       <c r="I29" s="2">
         <v>43897</v>
@@ -2087,15 +2103,15 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>32</v>
@@ -2104,13 +2120,13 @@
         <v>43910</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G30" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="H30" s="1">
-        <v>144.31841800000001</v>
+        <v>144.9564881</v>
       </c>
       <c r="I30" s="2">
         <v>43896</v>
@@ -2119,15 +2135,15 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>28</v>
@@ -2136,13 +2152,13 @@
         <v>43911</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G31" s="1">
-        <v>-37.863344400000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="H31" s="1">
-        <v>145.08682759999999</v>
+        <v>144.31841800000001</v>
       </c>
       <c r="I31" s="2">
         <v>43897</v>
@@ -2151,15 +2167,15 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>32</v>
@@ -2168,13 +2184,13 @@
         <v>43910</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G32" s="1">
-        <v>-37.809265000000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="H32" s="1">
-        <v>144.99495099999999</v>
+        <v>144.31841800000001</v>
       </c>
       <c r="I32" s="2">
         <v>43896</v>
@@ -2183,111 +2199,111 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="2">
+        <v>43911</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-37.863344400000003</v>
+      </c>
+      <c r="H33" s="1">
+        <v>145.08682759999999</v>
+      </c>
+      <c r="I33" s="2">
+        <v>43897</v>
+      </c>
+      <c r="J33" s="2">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="2">
+        <v>43910</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-37.809265000000003</v>
+      </c>
+      <c r="H34" s="1">
+        <v>144.99495099999999</v>
+      </c>
+      <c r="I34" s="2">
+        <v>43896</v>
+      </c>
+      <c r="J34" s="2">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E35" s="2">
         <v>43910</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G35" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H35" s="1">
         <v>144.83348079999999</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I35" s="2">
         <v>43896</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J35" s="2">
         <v>43896</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="2">
-        <v>43909</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34" s="1">
-        <v>-37.797809200000003</v>
-      </c>
-      <c r="H34" s="1">
-        <v>144.96801239999999</v>
-      </c>
-      <c r="I34" s="2">
-        <v>43895</v>
-      </c>
-      <c r="J34" s="2">
-        <v>43895</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="2">
-        <v>43909</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G35" s="1">
-        <v>-37.816394899999999</v>
-      </c>
-      <c r="H35" s="1">
-        <v>144.9526066</v>
-      </c>
-      <c r="I35" s="2">
-        <v>43895</v>
-      </c>
-      <c r="J35" s="2">
-        <v>43895</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>60</v>
@@ -2296,13 +2312,13 @@
         <v>43909</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G36" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.797809200000003</v>
       </c>
       <c r="H36" s="1">
-        <v>144.35683760000001</v>
+        <v>144.96801239999999</v>
       </c>
       <c r="I36" s="2">
         <v>43895</v>
@@ -2311,103 +2327,103 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E37" s="2">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G37" s="1">
-        <v>-37.028215000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="H37" s="1">
-        <v>145.14336</v>
+        <v>144.9526066</v>
       </c>
       <c r="I37" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="J37" s="2">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E38" s="2">
         <v>43909</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G38" s="1">
-        <v>-37.720556999999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="H38" s="1">
-        <v>145.04823200000001</v>
+        <v>144.35683760000001</v>
       </c>
       <c r="I38" s="2">
+        <v>43895</v>
+      </c>
+      <c r="J38" s="2">
+        <v>43895</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="2">
+        <v>43907</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-37.028215000000003</v>
+      </c>
+      <c r="H39" s="1">
+        <v>145.14336</v>
+      </c>
+      <c r="I39" s="2">
         <v>43893</v>
-      </c>
-      <c r="J38" s="2">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="2">
-        <v>43909</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G39" s="1">
-        <v>-37.720556999999999</v>
-      </c>
-      <c r="H39" s="1">
-        <v>145.04823200000001</v>
-      </c>
-      <c r="I39" s="2">
-        <v>43894</v>
       </c>
       <c r="J39" s="2">
         <v>43893</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>67</v>
       </c>
@@ -2433,85 +2449,85 @@
         <v>145.04823200000001</v>
       </c>
       <c r="I40" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="J40" s="2">
         <v>43893</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E41" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G41" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="H41" s="1">
-        <v>144.83348079999999</v>
+        <v>145.04823200000001</v>
       </c>
       <c r="I41" s="2">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="J41" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G42" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="H42" s="1">
-        <v>144.35683760000001</v>
+        <v>145.04823200000001</v>
       </c>
       <c r="I42" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="J42" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43893</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>74</v>
@@ -2520,13 +2536,13 @@
         <v>43906</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="G43" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="H43" s="1">
-        <v>144.9526066</v>
+        <v>144.83348079999999</v>
       </c>
       <c r="I43" s="2">
         <v>43892</v>
@@ -2535,15 +2551,15 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>74</v>
@@ -2552,13 +2568,13 @@
         <v>43906</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G44" s="1">
-        <v>-37.816394899999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="H44" s="1">
-        <v>144.9526066</v>
+        <v>144.35683760000001</v>
       </c>
       <c r="I44" s="2">
         <v>43892</v>
@@ -2567,15 +2583,15 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>74</v>
@@ -2584,13 +2600,13 @@
         <v>43906</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G45" s="1">
-        <v>-37.826660799999999</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="H45" s="1">
-        <v>145.0587903</v>
+        <v>144.9526066</v>
       </c>
       <c r="I45" s="2">
         <v>43892</v>
@@ -2599,30 +2615,30 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G46" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="H46" s="1">
-        <v>145.00550799999999</v>
+        <v>144.9526066</v>
       </c>
       <c r="I46" s="2">
         <v>43892</v>
@@ -2631,39 +2647,39 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G47" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.826660799999999</v>
       </c>
       <c r="H47" s="1">
-        <v>145.00550799999999</v>
+        <v>145.0587903</v>
       </c>
       <c r="I47" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="J47" s="2">
         <v>43892</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>78</v>
       </c>
@@ -2689,13 +2705,13 @@
         <v>145.00550799999999</v>
       </c>
       <c r="I48" s="2">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="J48" s="2">
         <v>43892</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>78</v>
       </c>
@@ -2721,13 +2737,13 @@
         <v>145.00550799999999</v>
       </c>
       <c r="I49" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="J49" s="2">
         <v>43892</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>78</v>
       </c>
@@ -2753,91 +2769,91 @@
         <v>145.00550799999999</v>
       </c>
       <c r="I50" s="2">
-        <v>43896</v>
+        <v>43894</v>
       </c>
       <c r="J50" s="2">
         <v>43892</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="2">
+        <v>43910</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G51" s="1">
+        <v>-37.848232000000003</v>
+      </c>
+      <c r="H51" s="1">
+        <v>145.00550799999999</v>
+      </c>
+      <c r="I51" s="2">
+        <v>43895</v>
+      </c>
+      <c r="J51" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="2">
+        <v>43910</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G52" s="1">
+        <v>-37.848232000000003</v>
+      </c>
+      <c r="H52" s="1">
+        <v>145.00550799999999</v>
+      </c>
+      <c r="I52" s="2">
+        <v>43896</v>
+      </c>
+      <c r="J52" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E53" s="2">
         <v>43904</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G51" s="1">
-        <v>-37.667110999999998</v>
-      </c>
-      <c r="H51" s="1">
-        <v>144.83348079999999</v>
-      </c>
-      <c r="I51" s="2">
-        <v>43890</v>
-      </c>
-      <c r="J51" s="2">
-        <v>43890</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="2">
-        <v>43904</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G52" s="1">
-        <v>-37.667110999999998</v>
-      </c>
-      <c r="H52" s="1">
-        <v>144.83348079999999</v>
-      </c>
-      <c r="I52" s="2">
-        <v>43890</v>
-      </c>
-      <c r="J52" s="2">
-        <v>43890</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E53" s="2">
-        <v>43903</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>97</v>
@@ -2849,9 +2865,73 @@
         <v>144.83348079999999</v>
       </c>
       <c r="I53" s="2">
+        <v>43890</v>
+      </c>
+      <c r="J53" s="2">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="2">
+        <v>43904</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="H54" s="1">
+        <v>144.83348079999999</v>
+      </c>
+      <c r="I54" s="2">
+        <v>43890</v>
+      </c>
+      <c r="J54" s="2">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="2">
+        <v>43903</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G55" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="H55" s="1">
+        <v>144.83348079999999</v>
+      </c>
+      <c r="I55" s="2">
         <v>43889</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J55" s="2">
         <v>43889</v>
       </c>
     </row>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CAAFD1-FA87-4C6E-B94B-61CF3772F58C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F91756-4A42-437C-8449-E0338DC03803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="137">
   <si>
     <t>Date</t>
   </si>
@@ -380,12 +380,6 @@
     <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
   </si>
   <si>
-    <t>MacDonalds Restaurant, Fawkner</t>
-  </si>
-  <si>
-    <t>MacDonalds Restaurant, Craigieburn</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cedar Meats Australia, Brooklyn </t>
   </si>
   <si>
@@ -417,6 +411,42 @@
   </si>
   <si>
     <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+  </si>
+  <si>
+    <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+  </si>
+  <si>
+    <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+  </si>
+  <si>
+    <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+  </si>
+  <si>
+    <t>McDonalds Restaurant, Fawkner</t>
+  </si>
+  <si>
+    <t>McDonalds Restaurant, Craigieburn</t>
+  </si>
+  <si>
+    <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+  </si>
+  <si>
+    <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+  </si>
+  <si>
+    <t>107 Gamon St, Yarraville VIC 3013</t>
+  </si>
+  <si>
+    <t>48 Geelong Rd, Footscray VIC 3011</t>
+  </si>
+  <si>
+    <t>176 Furlong Rd, St Albans VIC 3021</t>
+  </si>
+  <si>
+    <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+  </si>
+  <si>
+    <t>349 Barkers Rd, Kew VIC 3101</t>
   </si>
 </sst>
 </file>
@@ -464,12 +494,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1130,14 +1161,14 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="96.42578125" bestFit="1" customWidth="1"/>
@@ -1185,7 +1216,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
@@ -1196,7 +1227,7 @@
         <v>43982</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G2" s="1">
         <v>-37.783104999999999</v>
@@ -1219,7 +1250,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
@@ -1230,7 +1261,7 @@
         <v>43982</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G3" s="1">
         <v>-37.766146999999997</v>
@@ -1251,9 +1282,9 @@
       <c r="A4" s="4">
         <v>43966</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
@@ -1264,7 +1295,7 @@
         <v>43980</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1">
         <v>-37.596122999999999</v>
@@ -1285,9 +1316,9 @@
       <c r="A5" s="4">
         <v>43966</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
@@ -1298,7 +1329,7 @@
         <v>43980</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G5" s="1">
         <v>-37.772379999999998</v>
@@ -1319,9 +1350,9 @@
       <c r="A6" s="4">
         <v>43959</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
@@ -1332,7 +1363,7 @@
         <v>43973</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G6" s="1">
         <v>-37.689366</v>
@@ -1355,7 +1386,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
@@ -1366,7 +1397,7 @@
         <v>43967</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G7" s="1">
         <v>-37.678277999999999</v>
@@ -1389,7 +1420,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
@@ -1400,7 +1431,7 @@
         <v>43967</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G8" s="1">
         <v>-37.810712000000002</v>
@@ -1423,7 +1454,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
@@ -1457,7 +1488,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
@@ -1468,7 +1499,7 @@
         <v>43964</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="G10" s="1">
         <v>-37.811678000000001</v>
@@ -1491,7 +1522,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
@@ -1502,7 +1533,7 @@
         <v>43961</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="G11" s="1">
         <v>-37.797176999999998</v>
@@ -1525,7 +1556,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
@@ -1536,7 +1567,7 @@
         <v>43958</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G12" s="1">
         <v>-37.759222999999999</v>
@@ -1569,9 +1600,8 @@
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43921</v>
       </c>
-      <c r="F13" s="1" t="str">
-        <f>VIC_public_exposure_sites[[#This Row],[Location]] &amp; ", VIC, AU"</f>
-        <v>Toorak Primary School, VIC, AU</v>
+      <c r="F13" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="G13" s="1">
         <v>-37.844318000000001</v>
@@ -1604,9 +1634,8 @@
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43919</v>
       </c>
-      <c r="F14" s="1" t="str">
-        <f>VIC_public_exposure_sites[[#This Row],[Location]] &amp; ", VIC, AU"</f>
-        <v>Carey Grammar, VIC, AU</v>
+      <c r="F14" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="G14" s="1">
         <v>-37.813239000000003</v>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F91756-4A42-437C-8449-E0338DC03803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5AF2E3-0D6B-437B-9BC7-B9116420EF36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-195" yWindow="-195" windowWidth="29190" windowHeight="15990" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC public exposure sites" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="161">
   <si>
     <t>Date</t>
   </si>
@@ -447,13 +447,85 @@
   </si>
   <si>
     <t>349 Barkers Rd, Kew VIC 3101</t>
+  </si>
+  <si>
+    <t>McDonalds Restaurant, Melton East</t>
+  </si>
+  <si>
+    <t>McDonalds Restaurant, Laverton North</t>
+  </si>
+  <si>
+    <t>McDonalds Restaurant, Taylors Lakes</t>
+  </si>
+  <si>
+    <t>McDonalds Restaurant, Campbellfield</t>
+  </si>
+  <si>
+    <t>McDonalds Restaurant, Sunbury</t>
+  </si>
+  <si>
+    <t>McDonalds Restaurant, Yallambie</t>
+  </si>
+  <si>
+    <t>McDonalds Restaurant, Hoppers Crossing</t>
+  </si>
+  <si>
+    <t>McDonalds Restaurant, Riverdale Village</t>
+  </si>
+  <si>
+    <t>McDonalds Restaurant, Sandown</t>
+  </si>
+  <si>
+    <t>McDonalds Restaurant, Calder Highway Northbound/Outbound</t>
+  </si>
+  <si>
+    <t>McDonalds Restaurant, Calder Highway Southbound/Inbound</t>
+  </si>
+  <si>
+    <t>McDonalds Restaurant, BP Rockbank Service Centre Outbound</t>
+  </si>
+  <si>
+    <t>66-84 High St, Melton VIC 3337</t>
+  </si>
+  <si>
+    <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+  </si>
+  <si>
+    <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+  </si>
+  <si>
+    <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+  </si>
+  <si>
+    <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+  </si>
+  <si>
+    <t>7-11 Horne St, Sunbury VIC 3429</t>
+  </si>
+  <si>
+    <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+  </si>
+  <si>
+    <t>388 Davis Rd, Tarneit VIC 3029</t>
+  </si>
+  <si>
+    <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+  </si>
+  <si>
+    <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+  </si>
+  <si>
+    <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+  </si>
+  <si>
+    <t>1789 Western Fwy, Rockbank VIC 3335</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +544,12 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -843,8 +921,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:J55" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J55" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:J67" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J67" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="8"/>
@@ -1158,27 +1236,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="96.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.3984375" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" customWidth="1"/>
+    <col min="3" max="3" width="49.73046875" customWidth="1"/>
+    <col min="4" max="4" width="25.265625" customWidth="1"/>
+    <col min="5" max="5" width="16.73046875" customWidth="1"/>
+    <col min="6" max="6" width="96.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.86328125" customWidth="1"/>
+    <col min="10" max="10" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1210,655 +1286,667 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43982</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>124</v>
+        <v>43983</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="G2" s="1">
-        <v>-37.783104999999999</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>144.78539799999999</v>
+        <v>144.60470799999999</v>
       </c>
       <c r="I2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="J2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43982</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>123</v>
+        <v>43983</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="G3" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>145.02005199999999</v>
+        <v>144.78155899999999</v>
       </c>
       <c r="I3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="J3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43968</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>125</v>
+        <v>43983</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="G4" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>144.921401</v>
+        <v>145.086489</v>
       </c>
       <c r="I4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="J4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B5" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>126</v>
+        <v>43983</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G5" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="H5" s="1">
-        <v>144.888195</v>
+        <v>144.80232599999999</v>
       </c>
       <c r="I5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="J5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B6" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43983</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>127</v>
+        <v>43983</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="G6" s="1">
-        <v>-37.689366</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>144.958878</v>
+        <v>144.955354</v>
       </c>
       <c r="I6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="J6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="D7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43983</v>
       </c>
       <c r="E7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>130</v>
+        <v>43983</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="G7" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.576594</v>
       </c>
       <c r="H7" s="1">
-        <v>144.43268900000001</v>
+        <v>144.72866500000001</v>
       </c>
       <c r="I7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="J7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="D8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43983</v>
       </c>
       <c r="E8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>131</v>
+        <v>43983</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="G8" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>144.836118</v>
+        <v>144.70157699999999</v>
       </c>
       <c r="I8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43969</v>
       </c>
       <c r="J8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
-        <v>43951</v>
+        <v>43969</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="D9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43983</v>
       </c>
       <c r="E9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>97</v>
+        <v>43983</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="G9" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="H9" s="1">
-        <v>144.83348079999999</v>
+        <v>144.65285299999999</v>
       </c>
       <c r="I9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43969</v>
       </c>
       <c r="J9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
-        <v>43950</v>
+        <v>43969</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="D10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43983</v>
       </c>
       <c r="E10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>132</v>
+        <v>43983</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="G10" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>144.889926</v>
+        <v>145.16768400000001</v>
       </c>
       <c r="I10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43969</v>
       </c>
       <c r="J10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
-        <v>43947</v>
+        <v>43969</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="D11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43983</v>
       </c>
       <c r="E11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>133</v>
+        <v>43983</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="G11" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>144.894632</v>
+        <v>144.74749</v>
       </c>
       <c r="I11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43969</v>
       </c>
       <c r="J11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
-        <v>43944</v>
+        <v>43969</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="D12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
+        <v>43983</v>
       </c>
       <c r="E12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>134</v>
+        <v>43983</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="G12" s="1">
-        <v>-37.759222999999999</v>
+        <v>-37.665416999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>144.816754</v>
+        <v>144.75335899999999</v>
       </c>
       <c r="I12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43944</v>
+        <v>43969</v>
       </c>
       <c r="J12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>43907</v>
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="4">
+        <v>43969</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="D13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43983</v>
       </c>
       <c r="E13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>135</v>
+        <v>43983</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="G13" s="1">
-        <v>-37.844318000000001</v>
+        <v>-37.738990000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>145.009818</v>
+        <v>144.67997600000001</v>
       </c>
       <c r="I13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
+        <v>43969</v>
       </c>
       <c r="J13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>43905</v>
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="4">
+        <v>43968</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="D14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43919</v>
+        <v>43982</v>
       </c>
       <c r="E14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43919</v>
+        <v>43982</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G14" s="1">
-        <v>-37.813239000000003</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>145.048047</v>
+        <v>144.78539799999999</v>
       </c>
       <c r="I14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43905</v>
+        <v>43968</v>
       </c>
       <c r="J14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43905</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="4">
+        <v>43968</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>121</v>
+      </c>
+      <c r="D15" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43982</v>
       </c>
       <c r="E15" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43982</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="G15" s="1">
-        <v>-37.776940699999997</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="H15" s="1">
-        <v>144.98702499999999</v>
+        <v>145.02005199999999</v>
       </c>
       <c r="I15" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43968</v>
       </c>
       <c r="J15" s="2">
-        <v>43900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="4">
+        <v>43966</v>
+      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>129</v>
+      </c>
+      <c r="D16" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43980</v>
       </c>
       <c r="E16" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43980</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="G16" s="1">
-        <v>-37.772095999999998</v>
+        <v>-37.596122999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>144.91609500000001</v>
+        <v>144.921401</v>
       </c>
       <c r="I16" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43966</v>
       </c>
       <c r="J16" s="2">
-        <v>43900</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="4">
+        <v>43966</v>
+      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
+      </c>
+      <c r="D17" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43980</v>
       </c>
       <c r="E17" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43980</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="G17" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772379999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>144.83348079999999</v>
+        <v>144.888195</v>
       </c>
       <c r="I17" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43966</v>
       </c>
       <c r="J17" s="2">
-        <v>43900</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="4">
+        <v>43959</v>
+      </c>
+      <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>128</v>
+      </c>
+      <c r="D18" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43973</v>
       </c>
       <c r="E18" s="2">
-        <v>43913</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43973</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="G18" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.689366</v>
       </c>
       <c r="H18" s="1">
-        <v>144.83348079999999</v>
+        <v>144.958878</v>
       </c>
       <c r="I18" s="2">
-        <v>43899</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43959</v>
       </c>
       <c r="J18" s="2">
-        <v>43899</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="4">
+        <v>43953</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>116</v>
+      </c>
+      <c r="D19" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43967</v>
       </c>
       <c r="E19" s="2">
-        <v>43913</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43967</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="G19" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>144.83348079999999</v>
+        <v>144.43268900000001</v>
       </c>
       <c r="I19" s="2">
-        <v>43899</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43953</v>
       </c>
       <c r="J19" s="2">
-        <v>43899</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="4">
+        <v>43953</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
+      </c>
+      <c r="D20" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43967</v>
       </c>
       <c r="E20" s="2">
-        <v>43912</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43967</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="G20" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>144.83348079999999</v>
+        <v>144.836118</v>
       </c>
       <c r="I20" s="2">
-        <v>43898</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43953</v>
       </c>
       <c r="J20" s="2">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="4">
+        <v>43951</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>118</v>
+      </c>
+      <c r="D21" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43965</v>
       </c>
       <c r="E21" s="2">
-        <v>43911</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43965</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>97</v>
@@ -1870,373 +1958,385 @@
         <v>144.83348079999999</v>
       </c>
       <c r="I21" s="2">
-        <v>43897</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43951</v>
       </c>
       <c r="J21" s="2">
-        <v>43897</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>30</v>
-      </c>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="4">
+        <v>43950</v>
+      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>120</v>
+      </c>
+      <c r="D22" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43964</v>
       </c>
       <c r="E22" s="2">
-        <v>43910</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43964</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-37.811678000000001</v>
+      </c>
+      <c r="H22" s="1">
+        <v>144.889926</v>
+      </c>
+      <c r="I22" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43950</v>
+      </c>
+      <c r="J22" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="4">
+        <v>43947</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43961</v>
+      </c>
+      <c r="E23" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43961</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-37.797176999999998</v>
+      </c>
+      <c r="H23" s="1">
+        <v>144.894632</v>
+      </c>
+      <c r="I23" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43947</v>
+      </c>
+      <c r="J23" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" s="4">
+        <v>43944</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43958</v>
+      </c>
+      <c r="E24" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43958</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-37.759222999999999</v>
+      </c>
+      <c r="H24" s="1">
+        <v>144.816754</v>
+      </c>
+      <c r="I24" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43944</v>
+      </c>
+      <c r="J24" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43921</v>
+      </c>
+      <c r="E25" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-37.844318000000001</v>
+      </c>
+      <c r="H25" s="1">
+        <v>145.009818</v>
+      </c>
+      <c r="I25" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="J25" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43919</v>
+      </c>
+      <c r="E26" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43919</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-37.813239000000003</v>
+      </c>
+      <c r="H26" s="1">
+        <v>145.048047</v>
+      </c>
+      <c r="I26" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="J26" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2">
+        <v>43914</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-37.776940699999997</v>
+      </c>
+      <c r="H27" s="1">
+        <v>144.98702499999999</v>
+      </c>
+      <c r="I27" s="2">
+        <v>43900</v>
+      </c>
+      <c r="J27" s="2">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2">
+        <v>43914</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-37.772095999999998</v>
+      </c>
+      <c r="H28" s="1">
+        <v>144.91609500000001</v>
+      </c>
+      <c r="I28" s="2">
+        <v>43900</v>
+      </c>
+      <c r="J28" s="2">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2">
+        <v>43914</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G29" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H29" s="1">
         <v>144.83348079999999</v>
       </c>
-      <c r="I22" s="2">
-        <v>43896</v>
-      </c>
-      <c r="J22" s="2">
-        <v>43896</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="2">
-        <v>43910</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="I29" s="2">
+        <v>43900</v>
+      </c>
+      <c r="J29" s="2">
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="2">
+        <v>43913</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G30" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H30" s="1">
         <v>144.83348079999999</v>
       </c>
-      <c r="I23" s="2">
-        <v>43896</v>
-      </c>
-      <c r="J23" s="2">
-        <v>43896</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="I30" s="2">
+        <v>43899</v>
+      </c>
+      <c r="J30" s="2">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="2">
+        <v>43913</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="H31" s="1">
+        <v>144.83348079999999</v>
+      </c>
+      <c r="I31" s="2">
+        <v>43899</v>
+      </c>
+      <c r="J31" s="2">
+        <v>43899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E32" s="2">
         <v>43912</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="1">
-        <v>-37.821452700000002</v>
-      </c>
-      <c r="H24" s="1">
-        <v>144.98347200000001</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="F32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="H32" s="1">
+        <v>144.83348079999999</v>
+      </c>
+      <c r="I32" s="2">
         <v>43898</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J32" s="2">
         <v>43898</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="2">
-        <v>43912</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="1">
-        <v>-37.800963000000003</v>
-      </c>
-      <c r="H25" s="1">
-        <v>145.0729384</v>
-      </c>
-      <c r="I25" s="2">
-        <v>43898</v>
-      </c>
-      <c r="J25" s="2">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="2">
-        <v>43912</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="1">
-        <v>-37.790782999999998</v>
-      </c>
-      <c r="H26" s="1">
-        <v>144.99816200000001</v>
-      </c>
-      <c r="I26" s="2">
-        <v>43898</v>
-      </c>
-      <c r="J26" s="2">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="2">
-        <v>43911</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="1">
-        <v>-37.824981299999997</v>
-      </c>
-      <c r="H27" s="1">
-        <v>144.98361299999999</v>
-      </c>
-      <c r="I27" s="2">
-        <v>43897</v>
-      </c>
-      <c r="J27" s="2">
-        <v>43897</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="2">
-        <v>43911</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="1">
-        <v>-37.841103699999998</v>
-      </c>
-      <c r="H28" s="1">
-        <v>144.955806</v>
-      </c>
-      <c r="I28" s="2">
-        <v>43897</v>
-      </c>
-      <c r="J28" s="2">
-        <v>43897</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="2">
-        <v>43911</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" s="1">
-        <v>-37.832173099999999</v>
-      </c>
-      <c r="H29" s="1">
-        <v>144.9564881</v>
-      </c>
-      <c r="I29" s="2">
-        <v>43897</v>
-      </c>
-      <c r="J29" s="2">
-        <v>43897</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="2">
-        <v>43910</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G30" s="1">
-        <v>-37.832173099999999</v>
-      </c>
-      <c r="H30" s="1">
-        <v>144.9564881</v>
-      </c>
-      <c r="I30" s="2">
-        <v>43896</v>
-      </c>
-      <c r="J30" s="2">
-        <v>43896</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="2">
-        <v>43911</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="1">
-        <v>-38.199002999999998</v>
-      </c>
-      <c r="H31" s="1">
-        <v>144.31841800000001</v>
-      </c>
-      <c r="I31" s="2">
-        <v>43897</v>
-      </c>
-      <c r="J31" s="2">
-        <v>43897</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="2">
-        <v>43910</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="1">
-        <v>-38.199002999999998</v>
-      </c>
-      <c r="H32" s="1">
-        <v>144.31841800000001</v>
-      </c>
-      <c r="I32" s="2">
-        <v>43896</v>
-      </c>
-      <c r="J32" s="2">
-        <v>43896</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>28</v>
@@ -2245,13 +2345,13 @@
         <v>43911</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G33" s="1">
-        <v>-37.863344400000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="H33" s="1">
-        <v>145.08682759999999</v>
+        <v>144.83348079999999</v>
       </c>
       <c r="I33" s="2">
         <v>43897</v>
@@ -2260,15 +2360,15 @@
         <v>43897</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>32</v>
@@ -2277,13 +2377,13 @@
         <v>43910</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G34" s="1">
-        <v>-37.809265000000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="H34" s="1">
-        <v>144.99495099999999</v>
+        <v>144.83348079999999</v>
       </c>
       <c r="I34" s="2">
         <v>43896</v>
@@ -2292,15 +2392,15 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>32</v>
@@ -2324,629 +2424,629 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="2">
+        <v>43912</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-37.821452700000002</v>
+      </c>
+      <c r="H36" s="1">
+        <v>144.98347200000001</v>
+      </c>
+      <c r="I36" s="2">
+        <v>43898</v>
+      </c>
+      <c r="J36" s="2">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="2">
+        <v>43912</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="1">
+        <v>-37.800963000000003</v>
+      </c>
+      <c r="H37" s="1">
+        <v>145.0729384</v>
+      </c>
+      <c r="I37" s="2">
+        <v>43898</v>
+      </c>
+      <c r="J37" s="2">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43912</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-37.790782999999998</v>
+      </c>
+      <c r="H38" s="1">
+        <v>144.99816200000001</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43898</v>
+      </c>
+      <c r="J38" s="2">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="2">
+        <v>43911</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-37.824981299999997</v>
+      </c>
+      <c r="H39" s="1">
+        <v>144.98361299999999</v>
+      </c>
+      <c r="I39" s="2">
+        <v>43897</v>
+      </c>
+      <c r="J39" s="2">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="2">
+        <v>43911</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="1">
+        <v>-37.841103699999998</v>
+      </c>
+      <c r="H40" s="1">
+        <v>144.955806</v>
+      </c>
+      <c r="I40" s="2">
+        <v>43897</v>
+      </c>
+      <c r="J40" s="2">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="2">
+        <v>43911</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="1">
+        <v>-37.832173099999999</v>
+      </c>
+      <c r="H41" s="1">
+        <v>144.9564881</v>
+      </c>
+      <c r="I41" s="2">
+        <v>43897</v>
+      </c>
+      <c r="J41" s="2">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="2">
+        <v>43910</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" s="1">
+        <v>-37.832173099999999</v>
+      </c>
+      <c r="H42" s="1">
+        <v>144.9564881</v>
+      </c>
+      <c r="I42" s="2">
+        <v>43896</v>
+      </c>
+      <c r="J42" s="2">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="2">
+        <v>43911</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="1">
+        <v>-38.199002999999998</v>
+      </c>
+      <c r="H43" s="1">
+        <v>144.31841800000001</v>
+      </c>
+      <c r="I43" s="2">
+        <v>43897</v>
+      </c>
+      <c r="J43" s="2">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="2">
+        <v>43910</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="1">
+        <v>-38.199002999999998</v>
+      </c>
+      <c r="H44" s="1">
+        <v>144.31841800000001</v>
+      </c>
+      <c r="I44" s="2">
+        <v>43896</v>
+      </c>
+      <c r="J44" s="2">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="2">
+        <v>43911</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" s="1">
+        <v>-37.863344400000003</v>
+      </c>
+      <c r="H45" s="1">
+        <v>145.08682759999999</v>
+      </c>
+      <c r="I45" s="2">
+        <v>43897</v>
+      </c>
+      <c r="J45" s="2">
+        <v>43897</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="2">
+        <v>43910</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="1">
+        <v>-37.809265000000003</v>
+      </c>
+      <c r="H46" s="1">
+        <v>144.99495099999999</v>
+      </c>
+      <c r="I46" s="2">
+        <v>43896</v>
+      </c>
+      <c r="J46" s="2">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="2">
+        <v>43910</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="H47" s="1">
+        <v>144.83348079999999</v>
+      </c>
+      <c r="I47" s="2">
+        <v>43896</v>
+      </c>
+      <c r="J47" s="2">
+        <v>43896</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E48" s="2">
         <v>43909</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G48" s="1">
         <v>-37.797809200000003</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H48" s="1">
         <v>144.96801239999999</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I48" s="2">
         <v>43895</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J48" s="2">
         <v>43895</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E49" s="2">
         <v>43909</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G49" s="1">
         <v>-37.816394899999999</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H49" s="1">
         <v>144.9526066</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I49" s="2">
         <v>43895</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J49" s="2">
         <v>43895</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E50" s="2">
         <v>43909</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G50" s="1">
         <v>-38.145009600000002</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H50" s="1">
         <v>144.35683760000001</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I50" s="2">
         <v>43895</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J50" s="2">
         <v>43895</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E51" s="2">
         <v>43907</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G51" s="1">
         <v>-37.028215000000003</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H51" s="1">
         <v>145.14336</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I51" s="2">
         <v>43893</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J51" s="2">
         <v>43893</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E52" s="2">
         <v>43909</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G52" s="1">
         <v>-37.720556999999999</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H52" s="1">
         <v>145.04823200000001</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I52" s="2">
         <v>43893</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J52" s="2">
         <v>43893</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E53" s="2">
         <v>43909</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G53" s="1">
         <v>-37.720556999999999</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H53" s="1">
         <v>145.04823200000001</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I53" s="2">
         <v>43894</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J53" s="2">
         <v>43893</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E54" s="2">
         <v>43909</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G54" s="1">
         <v>-37.720556999999999</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H54" s="1">
         <v>145.04823200000001</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I54" s="2">
         <v>43895</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J54" s="2">
         <v>43893</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E55" s="2">
         <v>43906</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G43" s="1">
-        <v>-37.667110999999998</v>
-      </c>
-      <c r="H43" s="1">
-        <v>144.83348079999999</v>
-      </c>
-      <c r="I43" s="2">
-        <v>43892</v>
-      </c>
-      <c r="J43" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="2">
-        <v>43906</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G44" s="1">
-        <v>-38.145009600000002</v>
-      </c>
-      <c r="H44" s="1">
-        <v>144.35683760000001</v>
-      </c>
-      <c r="I44" s="2">
-        <v>43892</v>
-      </c>
-      <c r="J44" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E45" s="2">
-        <v>43906</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G45" s="1">
-        <v>-37.816394899999999</v>
-      </c>
-      <c r="H45" s="1">
-        <v>144.9526066</v>
-      </c>
-      <c r="I45" s="2">
-        <v>43892</v>
-      </c>
-      <c r="J45" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="2">
-        <v>43906</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="1">
-        <v>-37.816394899999999</v>
-      </c>
-      <c r="H46" s="1">
-        <v>144.9526066</v>
-      </c>
-      <c r="I46" s="2">
-        <v>43892</v>
-      </c>
-      <c r="J46" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" s="2">
-        <v>43906</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G47" s="1">
-        <v>-37.826660799999999</v>
-      </c>
-      <c r="H47" s="1">
-        <v>145.0587903</v>
-      </c>
-      <c r="I47" s="2">
-        <v>43892</v>
-      </c>
-      <c r="J47" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="2">
-        <v>43910</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G48" s="1">
-        <v>-37.848232000000003</v>
-      </c>
-      <c r="H48" s="1">
-        <v>145.00550799999999</v>
-      </c>
-      <c r="I48" s="2">
-        <v>43892</v>
-      </c>
-      <c r="J48" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="2">
-        <v>43910</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G49" s="1">
-        <v>-37.848232000000003</v>
-      </c>
-      <c r="H49" s="1">
-        <v>145.00550799999999</v>
-      </c>
-      <c r="I49" s="2">
-        <v>43893</v>
-      </c>
-      <c r="J49" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E50" s="2">
-        <v>43910</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G50" s="1">
-        <v>-37.848232000000003</v>
-      </c>
-      <c r="H50" s="1">
-        <v>145.00550799999999</v>
-      </c>
-      <c r="I50" s="2">
-        <v>43894</v>
-      </c>
-      <c r="J50" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="2">
-        <v>43910</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G51" s="1">
-        <v>-37.848232000000003</v>
-      </c>
-      <c r="H51" s="1">
-        <v>145.00550799999999</v>
-      </c>
-      <c r="I51" s="2">
-        <v>43895</v>
-      </c>
-      <c r="J51" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="2">
-        <v>43910</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G52" s="1">
-        <v>-37.848232000000003</v>
-      </c>
-      <c r="H52" s="1">
-        <v>145.00550799999999</v>
-      </c>
-      <c r="I52" s="2">
-        <v>43896</v>
-      </c>
-      <c r="J52" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E53" s="2">
-        <v>43904</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G53" s="1">
-        <v>-37.667110999999998</v>
-      </c>
-      <c r="H53" s="1">
-        <v>144.83348079999999</v>
-      </c>
-      <c r="I53" s="2">
-        <v>43890</v>
-      </c>
-      <c r="J53" s="2">
-        <v>43890</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" s="2">
-        <v>43904</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G54" s="1">
-        <v>-37.667110999999998</v>
-      </c>
-      <c r="H54" s="1">
-        <v>144.83348079999999</v>
-      </c>
-      <c r="I54" s="2">
-        <v>43890</v>
-      </c>
-      <c r="J54" s="2">
-        <v>43890</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55" s="2">
-        <v>43903</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>97</v>
@@ -2958,16 +3058,402 @@
         <v>144.83348079999999</v>
       </c>
       <c r="I55" s="2">
+        <v>43892</v>
+      </c>
+      <c r="J55" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="2">
+        <v>43906</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" s="1">
+        <v>-38.145009600000002</v>
+      </c>
+      <c r="H56" s="1">
+        <v>144.35683760000001</v>
+      </c>
+      <c r="I56" s="2">
+        <v>43892</v>
+      </c>
+      <c r="J56" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="2">
+        <v>43906</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G57" s="1">
+        <v>-37.816394899999999</v>
+      </c>
+      <c r="H57" s="1">
+        <v>144.9526066</v>
+      </c>
+      <c r="I57" s="2">
+        <v>43892</v>
+      </c>
+      <c r="J57" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="2">
+        <v>43906</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G58" s="1">
+        <v>-37.816394899999999</v>
+      </c>
+      <c r="H58" s="1">
+        <v>144.9526066</v>
+      </c>
+      <c r="I58" s="2">
+        <v>43892</v>
+      </c>
+      <c r="J58" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="2">
+        <v>43906</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G59" s="1">
+        <v>-37.826660799999999</v>
+      </c>
+      <c r="H59" s="1">
+        <v>145.0587903</v>
+      </c>
+      <c r="I59" s="2">
+        <v>43892</v>
+      </c>
+      <c r="J59" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="2">
+        <v>43910</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G60" s="1">
+        <v>-37.848232000000003</v>
+      </c>
+      <c r="H60" s="1">
+        <v>145.00550799999999</v>
+      </c>
+      <c r="I60" s="2">
+        <v>43892</v>
+      </c>
+      <c r="J60" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="2">
+        <v>43910</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G61" s="1">
+        <v>-37.848232000000003</v>
+      </c>
+      <c r="H61" s="1">
+        <v>145.00550799999999</v>
+      </c>
+      <c r="I61" s="2">
+        <v>43893</v>
+      </c>
+      <c r="J61" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="2">
+        <v>43910</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G62" s="1">
+        <v>-37.848232000000003</v>
+      </c>
+      <c r="H62" s="1">
+        <v>145.00550799999999</v>
+      </c>
+      <c r="I62" s="2">
+        <v>43894</v>
+      </c>
+      <c r="J62" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="2">
+        <v>43910</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G63" s="1">
+        <v>-37.848232000000003</v>
+      </c>
+      <c r="H63" s="1">
+        <v>145.00550799999999</v>
+      </c>
+      <c r="I63" s="2">
+        <v>43895</v>
+      </c>
+      <c r="J63" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="2">
+        <v>43910</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G64" s="1">
+        <v>-37.848232000000003</v>
+      </c>
+      <c r="H64" s="1">
+        <v>145.00550799999999</v>
+      </c>
+      <c r="I64" s="2">
+        <v>43896</v>
+      </c>
+      <c r="J64" s="2">
+        <v>43892</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65" s="2">
+        <v>43904</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G65" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="H65" s="1">
+        <v>144.83348079999999</v>
+      </c>
+      <c r="I65" s="2">
+        <v>43890</v>
+      </c>
+      <c r="J65" s="2">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66" s="2">
+        <v>43904</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G66" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="H66" s="1">
+        <v>144.83348079999999</v>
+      </c>
+      <c r="I66" s="2">
+        <v>43890</v>
+      </c>
+      <c r="J66" s="2">
+        <v>43890</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" s="2">
+        <v>43903</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G67" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="H67" s="1">
+        <v>144.83348079999999</v>
+      </c>
+      <c r="I67" s="2">
         <v>43889</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J67" s="2">
         <v>43889</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5AF2E3-0D6B-437B-9BC7-B9116420EF36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE9B913-FCE8-4587-9C58-5D1DB0A331CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-195" yWindow="-195" windowWidth="29190" windowHeight="15990" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="28770" windowHeight="15000" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC public exposure sites" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="163">
   <si>
     <t>Date</t>
   </si>
@@ -519,6 +519,12 @@
   </si>
   <si>
     <t>1789 Western Fwy, Rockbank VIC 3335</t>
+  </si>
+  <si>
+    <t>Villa Maria Aged Care facility, Bundoora</t>
+  </si>
+  <si>
+    <t>1428 Plenty Rd, Bundoora VIC 3083</t>
   </si>
 </sst>
 </file>
@@ -921,19 +927,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:J67" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J67" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:J68" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J68" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{00BBE98B-CFE5-4E6E-BEE1-82771B152607}" name="Location" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{DE78F3D9-079C-462E-820F-C45FF7810726}" name="Exposure Date" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{78D0D3E4-FEAB-438E-93D1-655FC72C65B7}" name="Exposure Start Date" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{2CC131BD-98E1-4A40-87C0-41E319F81D64}" name="Onset of symptoms up to" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{23761236-70D9-4987-859C-768C8269BF16}" name="Onset End Date" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{8622C8B5-3655-444D-B8EB-E8B75B0C5F18}" name="Location for Geocoding" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{BCBA3A15-1C23-4B92-A8CC-E716035D4373}" name="Latitude" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{6B289C17-6F7F-48A4-B992-C86D180F888E}" name="Longitude" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{DE78F3D9-079C-462E-820F-C45FF7810726}" name="Exposure Date" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{78D0D3E4-FEAB-438E-93D1-655FC72C65B7}" name="Exposure Start Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1236,25 +1242,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.3984375" customWidth="1"/>
-    <col min="2" max="2" width="25.59765625" customWidth="1"/>
-    <col min="3" max="3" width="49.73046875" customWidth="1"/>
-    <col min="4" max="4" width="25.265625" customWidth="1"/>
-    <col min="5" max="5" width="16.73046875" customWidth="1"/>
-    <col min="6" max="6" width="96.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="15.86328125" customWidth="1"/>
-    <col min="10" max="10" width="20.3984375" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="96.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1265,1072 +1271,1074 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43969</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D2" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="E2" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="F2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="E2" s="2">
+      <c r="G2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="1">
-        <v>-37.689222999999998</v>
-      </c>
-      <c r="H2" s="1">
-        <v>144.60470799999999</v>
-      </c>
-      <c r="I2" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
-      </c>
-      <c r="J2" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-37.692610000000002</v>
+      </c>
+      <c r="J2" s="1">
+        <v>145.06382099999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43969</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="E3" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="F3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-37.843631999999999</v>
-      </c>
-      <c r="H3" s="1">
-        <v>144.78155899999999</v>
-      </c>
-      <c r="I3" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
-      </c>
-      <c r="J3" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-37.689222999999998</v>
+      </c>
+      <c r="J3" s="1">
+        <v>144.60470799999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43969</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="E4" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="F4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-37.730747999999998</v>
-      </c>
-      <c r="H4" s="1">
-        <v>145.086489</v>
-      </c>
-      <c r="I4" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
-      </c>
-      <c r="J4" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-37.843631999999999</v>
+      </c>
+      <c r="J4" s="1">
+        <v>144.78155899999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43969</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="E5" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="F5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-37.702513000000003</v>
-      </c>
-      <c r="H5" s="1">
-        <v>144.80232599999999</v>
-      </c>
-      <c r="I5" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
-      </c>
-      <c r="J5" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-37.730747999999998</v>
+      </c>
+      <c r="J5" s="1">
+        <v>145.086489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43969</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="E6" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="F6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-37.673996000000002</v>
-      </c>
-      <c r="H6" s="1">
-        <v>144.955354</v>
-      </c>
-      <c r="I6" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
-      </c>
-      <c r="J6" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-37.702513000000003</v>
+      </c>
+      <c r="J6" s="1">
+        <v>144.80232599999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43969</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="E7" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="F7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="1">
-        <v>-37.576594</v>
-      </c>
-      <c r="H7" s="1">
-        <v>144.72866500000001</v>
-      </c>
-      <c r="I7" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
-      </c>
-      <c r="J7" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-37.673996000000002</v>
+      </c>
+      <c r="J7" s="1">
+        <v>144.955354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43969</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D8" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="E8" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="F8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-37.879995000000001</v>
-      </c>
-      <c r="H8" s="1">
-        <v>144.70157699999999</v>
-      </c>
-      <c r="I8" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
-      </c>
-      <c r="J8" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-37.576594</v>
+      </c>
+      <c r="J8" s="1">
+        <v>144.72866500000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43969</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="E9" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="F9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-37.834014000000003</v>
-      </c>
-      <c r="H9" s="1">
-        <v>144.65285299999999</v>
-      </c>
-      <c r="I9" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
-      </c>
-      <c r="J9" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-37.879995000000001</v>
+      </c>
+      <c r="J9" s="1">
+        <v>144.70157699999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43969</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="E10" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="F10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="1">
-        <v>-37.942098999999999</v>
-      </c>
-      <c r="H10" s="1">
-        <v>145.16768400000001</v>
-      </c>
-      <c r="I10" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
-      </c>
-      <c r="J10" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-37.834014000000003</v>
+      </c>
+      <c r="J10" s="1">
+        <v>144.65285299999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43969</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="E11" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="F11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="E11" s="2">
+      <c r="G11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" s="1">
-        <v>-37.664667000000001</v>
-      </c>
-      <c r="H11" s="1">
-        <v>144.74749</v>
-      </c>
-      <c r="I11" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
-      </c>
-      <c r="J11" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-37.942098999999999</v>
+      </c>
+      <c r="J11" s="1">
+        <v>145.16768400000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43969</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="E12" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="F12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="E12" s="2">
+      <c r="G12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" s="1">
-        <v>-37.665416999999998</v>
-      </c>
-      <c r="H12" s="1">
-        <v>144.75335899999999</v>
-      </c>
-      <c r="I12" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
-      </c>
-      <c r="J12" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-37.664667000000001</v>
+      </c>
+      <c r="J12" s="1">
+        <v>144.74749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43969</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="E13" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="F13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="E13" s="2">
+      <c r="G13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G13" s="1">
-        <v>-37.738990000000001</v>
-      </c>
-      <c r="H13" s="1">
-        <v>144.67997600000001</v>
-      </c>
-      <c r="I13" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
-      </c>
-      <c r="J13" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-37.665416999999998</v>
+      </c>
+      <c r="J13" s="1">
+        <v>144.75335899999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="D14" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="E14" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="F14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43982</v>
-      </c>
-      <c r="E14" s="2">
+        <v>43983</v>
+      </c>
+      <c r="G14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43982</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" s="1">
-        <v>-37.783104999999999</v>
-      </c>
-      <c r="H14" s="1">
-        <v>144.78539799999999</v>
-      </c>
-      <c r="I14" s="2">
+        <v>43983</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-37.738990000000001</v>
+      </c>
+      <c r="J14" s="1">
+        <v>144.67997600000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>43966</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43968</v>
-      </c>
-      <c r="J14" s="2">
+        <v>43966</v>
+      </c>
+      <c r="E15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43968</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="4">
-        <v>43968</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="2">
+        <v>43966</v>
+      </c>
+      <c r="F15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43982</v>
-      </c>
-      <c r="E15" s="2">
+        <v>43980</v>
+      </c>
+      <c r="G15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43982</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="1">
-        <v>-37.766146999999997</v>
-      </c>
-      <c r="H15" s="1">
-        <v>145.02005199999999</v>
-      </c>
-      <c r="I15" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43968</v>
-      </c>
-      <c r="J15" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43968</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43980</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-37.596122999999999</v>
+      </c>
+      <c r="J15" s="1">
+        <v>144.921401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43966</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D16" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43966</v>
+      </c>
+      <c r="E16" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43966</v>
+      </c>
+      <c r="F16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43980</v>
       </c>
-      <c r="E16" s="2">
+      <c r="G16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43980</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="1">
-        <v>-37.596122999999999</v>
-      </c>
-      <c r="H16" s="1">
-        <v>144.921401</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="H16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-37.772379999999998</v>
+      </c>
+      <c r="J16" s="1">
+        <v>144.888195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>43959</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
-      </c>
-      <c r="J16" s="2">
+        <v>43959</v>
+      </c>
+      <c r="E17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="2">
+        <v>43959</v>
+      </c>
+      <c r="F17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
-      </c>
-      <c r="E17" s="2">
+        <v>43973</v>
+      </c>
+      <c r="G17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="1">
-        <v>-37.772379999999998</v>
-      </c>
-      <c r="H17" s="1">
-        <v>144.888195</v>
-      </c>
-      <c r="I17" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
-      </c>
-      <c r="J17" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+        <v>43973</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-37.783104999999999</v>
+      </c>
+      <c r="J17" s="1">
+        <v>144.78539799999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43959</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D18" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43959</v>
+      </c>
+      <c r="E18" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43959</v>
+      </c>
+      <c r="F18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43973</v>
       </c>
-      <c r="E18" s="2">
+      <c r="G18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43973</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="1">
-        <v>-37.689366</v>
-      </c>
-      <c r="H18" s="1">
-        <v>144.958878</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="H18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-37.766146999999997</v>
+      </c>
+      <c r="J18" s="1">
+        <v>145.02005199999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>43959</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43959</v>
       </c>
-      <c r="J18" s="2">
+      <c r="E19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43959</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="4">
+      <c r="F19" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43973</v>
+      </c>
+      <c r="G19" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43973</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-37.689366</v>
+      </c>
+      <c r="J19" s="1">
+        <v>144.958878</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>43953</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43953</v>
+      </c>
+      <c r="E20" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43953</v>
+      </c>
+      <c r="F20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43967</v>
       </c>
-      <c r="E19" s="2">
+      <c r="G20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43967</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="1">
+      <c r="I20" s="1">
         <v>-37.678277999999999</v>
       </c>
-      <c r="H19" s="1">
+      <c r="J20" s="1">
         <v>144.43268900000001</v>
       </c>
-      <c r="I19" s="2">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>43953</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43953</v>
       </c>
-      <c r="J19" s="2">
+      <c r="E21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43953</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="F21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43967</v>
       </c>
-      <c r="E20" s="2">
+      <c r="G21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43967</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="1">
+      <c r="I21" s="1">
         <v>-37.810712000000002</v>
       </c>
-      <c r="H20" s="1">
+      <c r="J21" s="1">
         <v>144.836118</v>
       </c>
-      <c r="I20" s="2">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>43951</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
-      </c>
-      <c r="J20" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="4">
         <v>43951</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="F22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43965</v>
       </c>
-      <c r="E21" s="2">
+      <c r="G22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43965</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="1">
+      <c r="I22" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="H21" s="1">
+      <c r="J22" s="1">
         <v>144.83348079999999</v>
       </c>
-      <c r="I21" s="2">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>43950</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
-      </c>
-      <c r="J21" s="2">
+        <v>43950</v>
+      </c>
+      <c r="E23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="4">
         <v>43950</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="F23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43964</v>
       </c>
-      <c r="E22" s="2">
+      <c r="G23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43964</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G22" s="1">
+      <c r="I23" s="1">
         <v>-37.811678000000001</v>
       </c>
-      <c r="H22" s="1">
+      <c r="J23" s="1">
         <v>144.889926</v>
       </c>
-      <c r="I22" s="2">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>43947</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
-      </c>
-      <c r="J22" s="2">
+        <v>43947</v>
+      </c>
+      <c r="E24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="4">
         <v>43947</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="F24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43961</v>
       </c>
-      <c r="E23" s="2">
+      <c r="G24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43961</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G23" s="1">
+      <c r="I24" s="1">
         <v>-37.797176999999998</v>
       </c>
-      <c r="H23" s="1">
+      <c r="J24" s="1">
         <v>144.894632</v>
       </c>
-      <c r="I23" s="2">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>43944</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
-      </c>
-      <c r="J23" s="2">
+        <v>43944</v>
+      </c>
+      <c r="E25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="4">
         <v>43944</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="F25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43958</v>
       </c>
-      <c r="E24" s="2">
+      <c r="G25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43958</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="1">
+      <c r="I25" s="1">
         <v>-37.759222999999999</v>
       </c>
-      <c r="H24" s="1">
+      <c r="J25" s="1">
         <v>144.816754</v>
       </c>
-      <c r="I24" s="2">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43944</v>
-      </c>
-      <c r="J24" s="2">
+        <v>43907</v>
+      </c>
+      <c r="E26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="2">
         <v>43907</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="F26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43921</v>
       </c>
-      <c r="E25" s="2">
+      <c r="G26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43921</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G25" s="1">
+      <c r="I26" s="1">
         <v>-37.844318000000001</v>
       </c>
-      <c r="H25" s="1">
+      <c r="J26" s="1">
         <v>145.009818</v>
       </c>
-      <c r="I25" s="2">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
-      </c>
-      <c r="J25" s="2">
+        <v>43905</v>
+      </c>
+      <c r="E27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="2">
         <v>43905</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="2">
+      <c r="F27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43919</v>
       </c>
-      <c r="E26" s="2">
+      <c r="G27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43919</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="1">
+      <c r="I27" s="1">
         <v>-37.813239000000003</v>
       </c>
-      <c r="H26" s="1">
+      <c r="J27" s="1">
         <v>145.048047</v>
       </c>
-      <c r="I26" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43905</v>
-      </c>
-      <c r="J26" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43905</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="2">
-        <v>43914</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="1">
-        <v>-37.776940699999997</v>
-      </c>
-      <c r="H27" s="1">
-        <v>144.98702499999999</v>
-      </c>
-      <c r="I27" s="2">
-        <v>43900</v>
-      </c>
-      <c r="J27" s="2">
-        <v>43900</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2">
+        <v>43900</v>
+      </c>
+      <c r="E28" s="2">
+        <v>43900</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="2">
+      <c r="G28" s="2">
         <v>43914</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" s="1">
-        <v>-37.772095999999998</v>
-      </c>
-      <c r="H28" s="1">
-        <v>144.91609500000001</v>
-      </c>
-      <c r="I28" s="2">
-        <v>43900</v>
-      </c>
-      <c r="J28" s="2">
-        <v>43900</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-37.776940699999997</v>
+      </c>
+      <c r="J28" s="1">
+        <v>144.98702499999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="2">
+        <v>43900</v>
+      </c>
+      <c r="E29" s="2">
+        <v>43900</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2">
+        <v>43914</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-37.772095999999998</v>
+      </c>
+      <c r="J29" s="1">
+        <v>144.91609500000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="2">
+        <v>43900</v>
+      </c>
+      <c r="E30" s="2">
+        <v>43900</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="2">
+      <c r="G30" s="2">
         <v>43914</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="1">
+      <c r="I30" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="H29" s="1">
+      <c r="J30" s="1">
         <v>144.83348079999999</v>
       </c>
-      <c r="I29" s="2">
-        <v>43900</v>
-      </c>
-      <c r="J29" s="2">
-        <v>43900</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="2">
-        <v>43913</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G30" s="1">
-        <v>-37.667110999999998</v>
-      </c>
-      <c r="H30" s="1">
-        <v>144.83348079999999</v>
-      </c>
-      <c r="I30" s="2">
-        <v>43899</v>
-      </c>
-      <c r="J30" s="2">
-        <v>43899</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2">
+        <v>43899</v>
+      </c>
+      <c r="E31" s="2">
+        <v>43899</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="2">
+        <v>43913</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="J31" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="2">
+        <v>43899</v>
+      </c>
+      <c r="E32" s="2">
+        <v>43899</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="2">
+      <c r="G32" s="2">
         <v>43913</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G31" s="1">
+      <c r="I32" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="H31" s="1">
+      <c r="J32" s="1">
         <v>144.83348079999999</v>
       </c>
-      <c r="I31" s="2">
-        <v>43899</v>
-      </c>
-      <c r="J31" s="2">
-        <v>43899</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="2">
-        <v>43912</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="1">
-        <v>-37.667110999999998</v>
-      </c>
-      <c r="H32" s="1">
-        <v>144.83348079999999</v>
-      </c>
-      <c r="I32" s="2">
-        <v>43898</v>
-      </c>
-      <c r="J32" s="2">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>24</v>
@@ -2338,541 +2346,541 @@
       <c r="C33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2">
+        <v>43898</v>
+      </c>
+      <c r="E33" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="2">
+        <v>43912</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="J33" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2">
+        <v>43897</v>
+      </c>
+      <c r="E34" s="2">
+        <v>43897</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="2">
+      <c r="G34" s="2">
         <v>43911</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="1">
+      <c r="I34" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="H33" s="1">
+      <c r="J34" s="1">
         <v>144.83348079999999</v>
       </c>
-      <c r="I33" s="2">
-        <v>43897</v>
-      </c>
-      <c r="J33" s="2">
-        <v>43897</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="2">
-        <v>43910</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G34" s="1">
-        <v>-37.667110999999998</v>
-      </c>
-      <c r="H34" s="1">
-        <v>144.83348079999999</v>
-      </c>
-      <c r="I34" s="2">
-        <v>43896</v>
-      </c>
-      <c r="J34" s="2">
-        <v>43896</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="2">
+        <v>43896</v>
+      </c>
+      <c r="E35" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="2">
+        <v>43910</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="J35" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="2">
+        <v>43896</v>
+      </c>
+      <c r="E36" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="2">
+      <c r="G36" s="2">
         <v>43910</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G35" s="1">
+      <c r="I36" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="H35" s="1">
+      <c r="J36" s="1">
         <v>144.83348079999999</v>
       </c>
-      <c r="I35" s="2">
-        <v>43896</v>
-      </c>
-      <c r="J35" s="2">
-        <v>43896</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="2">
-        <v>43912</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G36" s="1">
-        <v>-37.821452700000002</v>
-      </c>
-      <c r="H36" s="1">
-        <v>144.98347200000001</v>
-      </c>
-      <c r="I36" s="2">
-        <v>43898</v>
-      </c>
-      <c r="J36" s="2">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="2">
+        <v>43898</v>
+      </c>
+      <c r="E37" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="2">
+      <c r="G37" s="2">
         <v>43912</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" s="1">
-        <v>-37.800963000000003</v>
-      </c>
-      <c r="H37" s="1">
-        <v>145.0729384</v>
-      </c>
-      <c r="I37" s="2">
-        <v>43898</v>
-      </c>
-      <c r="J37" s="2">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-37.821452700000002</v>
+      </c>
+      <c r="J37" s="1">
+        <v>144.98347200000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="2">
+        <v>43898</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43912</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="1">
+        <v>-37.800963000000003</v>
+      </c>
+      <c r="J38" s="1">
+        <v>145.0729384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="2">
+        <v>43898</v>
+      </c>
+      <c r="E39" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G39" s="2">
         <v>43912</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="1">
+      <c r="I39" s="1">
         <v>-37.790782999999998</v>
       </c>
-      <c r="H38" s="1">
+      <c r="J39" s="1">
         <v>144.99816200000001</v>
       </c>
-      <c r="I38" s="2">
-        <v>43898</v>
-      </c>
-      <c r="J38" s="2">
-        <v>43898</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="2">
-        <v>43911</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" s="1">
-        <v>-37.824981299999997</v>
-      </c>
-      <c r="H39" s="1">
-        <v>144.98361299999999</v>
-      </c>
-      <c r="I39" s="2">
-        <v>43897</v>
-      </c>
-      <c r="J39" s="2">
-        <v>43897</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="2">
+        <v>43897</v>
+      </c>
+      <c r="E40" s="2">
+        <v>43897</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="2">
+      <c r="G40" s="2">
         <v>43911</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G40" s="1">
-        <v>-37.841103699999998</v>
-      </c>
-      <c r="H40" s="1">
-        <v>144.955806</v>
-      </c>
-      <c r="I40" s="2">
-        <v>43897</v>
-      </c>
-      <c r="J40" s="2">
-        <v>43897</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" s="1">
+        <v>-37.824981299999997</v>
+      </c>
+      <c r="J40" s="1">
+        <v>144.98361299999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="2">
+        <v>43897</v>
+      </c>
+      <c r="E41" s="2">
+        <v>43897</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="2">
+        <v>43911</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-37.841103699999998</v>
+      </c>
+      <c r="J41" s="1">
+        <v>144.955806</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="2">
-        <v>43911</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G41" s="1">
-        <v>-37.832173099999999</v>
-      </c>
-      <c r="H41" s="1">
-        <v>144.9564881</v>
-      </c>
-      <c r="I41" s="2">
-        <v>43897</v>
-      </c>
-      <c r="J41" s="2">
-        <v>43897</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2">
+        <v>43897</v>
+      </c>
+      <c r="E42" s="2">
+        <v>43897</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="2">
+        <v>43911</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-37.832173099999999</v>
+      </c>
+      <c r="J42" s="1">
+        <v>144.9564881</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="2">
+        <v>43896</v>
+      </c>
+      <c r="E43" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="2">
+      <c r="G43" s="2">
         <v>43910</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G42" s="1">
+      <c r="I43" s="1">
         <v>-37.832173099999999</v>
       </c>
-      <c r="H42" s="1">
+      <c r="J43" s="1">
         <v>144.9564881</v>
       </c>
-      <c r="I42" s="2">
-        <v>43896</v>
-      </c>
-      <c r="J42" s="2">
-        <v>43896</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="2">
-        <v>43911</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G43" s="1">
-        <v>-38.199002999999998</v>
-      </c>
-      <c r="H43" s="1">
-        <v>144.31841800000001</v>
-      </c>
-      <c r="I43" s="2">
-        <v>43897</v>
-      </c>
-      <c r="J43" s="2">
-        <v>43897</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2">
+        <v>43897</v>
+      </c>
+      <c r="E44" s="2">
+        <v>43897</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="2">
+        <v>43911</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" s="1">
+        <v>-38.199002999999998</v>
+      </c>
+      <c r="J44" s="1">
+        <v>144.31841800000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="2">
+        <v>43896</v>
+      </c>
+      <c r="E45" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="2">
+      <c r="G45" s="2">
         <v>43910</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G44" s="1">
+      <c r="I45" s="1">
         <v>-38.199002999999998</v>
       </c>
-      <c r="H44" s="1">
+      <c r="J45" s="1">
         <v>144.31841800000001</v>
       </c>
-      <c r="I44" s="2">
-        <v>43896</v>
-      </c>
-      <c r="J44" s="2">
-        <v>43896</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="2">
+        <v>43897</v>
+      </c>
+      <c r="E46" s="2">
+        <v>43897</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="2">
+      <c r="G46" s="2">
         <v>43911</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G45" s="1">
+      <c r="I46" s="1">
         <v>-37.863344400000003</v>
       </c>
-      <c r="H45" s="1">
+      <c r="J46" s="1">
         <v>145.08682759999999</v>
       </c>
-      <c r="I45" s="2">
-        <v>43897</v>
-      </c>
-      <c r="J45" s="2">
-        <v>43897</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="2">
-        <v>43910</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46" s="1">
-        <v>-37.809265000000003</v>
-      </c>
-      <c r="H46" s="1">
-        <v>144.99495099999999</v>
-      </c>
-      <c r="I46" s="2">
-        <v>43896</v>
-      </c>
-      <c r="J46" s="2">
-        <v>43896</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="2">
+        <v>43896</v>
+      </c>
+      <c r="E47" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="2">
+        <v>43910</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I47" s="1">
+        <v>-37.809265000000003</v>
+      </c>
+      <c r="J47" s="1">
+        <v>144.99495099999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="2">
+        <v>43896</v>
+      </c>
+      <c r="E48" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="2">
+      <c r="G48" s="2">
         <v>43910</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G47" s="1">
+      <c r="I48" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="H47" s="1">
+      <c r="J48" s="1">
         <v>144.83348079999999</v>
       </c>
-      <c r="I47" s="2">
-        <v>43896</v>
-      </c>
-      <c r="J47" s="2">
-        <v>43896</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" s="2">
-        <v>43909</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G48" s="1">
-        <v>-37.797809200000003</v>
-      </c>
-      <c r="H48" s="1">
-        <v>144.96801239999999</v>
-      </c>
-      <c r="I48" s="2">
-        <v>43895</v>
-      </c>
-      <c r="J48" s="2">
-        <v>43895</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="2">
+        <v>43895</v>
+      </c>
+      <c r="E49" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="2">
+      <c r="G49" s="2">
         <v>43909</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G49" s="1">
-        <v>-37.816394899999999</v>
-      </c>
-      <c r="H49" s="1">
-        <v>144.9526066</v>
-      </c>
-      <c r="I49" s="2">
-        <v>43895</v>
-      </c>
-      <c r="J49" s="2">
-        <v>43895</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I49" s="1">
+        <v>-37.797809200000003</v>
+      </c>
+      <c r="J49" s="1">
+        <v>144.96801239999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
@@ -2882,93 +2890,93 @@
       <c r="C50" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2">
+        <v>43895</v>
+      </c>
+      <c r="E50" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="2">
+      <c r="G50" s="2">
         <v>43909</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="H50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I50" s="1">
+        <v>-37.816394899999999</v>
+      </c>
+      <c r="J50" s="1">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="2">
+        <v>43895</v>
+      </c>
+      <c r="E51" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="2">
+        <v>43909</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G50" s="1">
+      <c r="I51" s="1">
         <v>-38.145009600000002</v>
       </c>
-      <c r="H50" s="1">
+      <c r="J51" s="1">
         <v>144.35683760000001</v>
       </c>
-      <c r="I50" s="2">
-        <v>43895</v>
-      </c>
-      <c r="J50" s="2">
-        <v>43895</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="2">
+        <v>43893</v>
+      </c>
+      <c r="E52" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E51" s="2">
+      <c r="G52" s="2">
         <v>43907</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G51" s="1">
+      <c r="I52" s="1">
         <v>-37.028215000000003</v>
       </c>
-      <c r="H51" s="1">
+      <c r="J52" s="1">
         <v>145.14336</v>
       </c>
-      <c r="I51" s="2">
-        <v>43893</v>
-      </c>
-      <c r="J51" s="2">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="2">
-        <v>43909</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G52" s="1">
-        <v>-37.720556999999999</v>
-      </c>
-      <c r="H52" s="1">
-        <v>145.04823200000001</v>
-      </c>
-      <c r="I52" s="2">
-        <v>43893</v>
-      </c>
-      <c r="J52" s="2">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -2978,29 +2986,29 @@
       <c r="C53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2">
+        <v>43893</v>
+      </c>
+      <c r="E53" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="2">
+      <c r="G53" s="2">
         <v>43909</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G53" s="1">
+      <c r="I53" s="1">
         <v>-37.720556999999999</v>
       </c>
-      <c r="H53" s="1">
+      <c r="J53" s="1">
         <v>145.04823200000001</v>
       </c>
-      <c r="I53" s="2">
-        <v>43894</v>
-      </c>
-      <c r="J53" s="2">
-        <v>43893</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -3010,93 +3018,93 @@
       <c r="C54" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2">
+        <v>43894</v>
+      </c>
+      <c r="E54" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="2">
+      <c r="G54" s="2">
         <v>43909</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G54" s="1">
+      <c r="I54" s="1">
         <v>-37.720556999999999</v>
       </c>
-      <c r="H54" s="1">
+      <c r="J54" s="1">
         <v>145.04823200000001</v>
       </c>
-      <c r="I54" s="2">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="2">
         <v>43895</v>
       </c>
-      <c r="J54" s="2">
+      <c r="E55" s="2">
         <v>43893</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E55" s="2">
-        <v>43906</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G55" s="1">
-        <v>-37.667110999999998</v>
-      </c>
-      <c r="H55" s="1">
-        <v>144.83348079999999</v>
-      </c>
-      <c r="I55" s="2">
-        <v>43892</v>
-      </c>
-      <c r="J55" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+      <c r="G55" s="2">
+        <v>43909</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I55" s="1">
+        <v>-37.720556999999999</v>
+      </c>
+      <c r="J55" s="1">
+        <v>145.04823200000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="2">
+        <v>43892</v>
+      </c>
+      <c r="E56" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E56" s="2">
+      <c r="G56" s="2">
         <v>43906</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G56" s="1">
-        <v>-38.145009600000002</v>
-      </c>
-      <c r="H56" s="1">
-        <v>144.35683760000001</v>
-      </c>
-      <c r="I56" s="2">
-        <v>43892</v>
-      </c>
-      <c r="J56" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I56" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="J56" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>71</v>
       </c>
@@ -3106,61 +3114,61 @@
       <c r="C57" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2">
+        <v>43892</v>
+      </c>
+      <c r="E57" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="2">
+      <c r="G57" s="2">
         <v>43906</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G57" s="1">
-        <v>-37.816394899999999</v>
-      </c>
-      <c r="H57" s="1">
-        <v>144.9526066</v>
-      </c>
-      <c r="I57" s="2">
-        <v>43892</v>
-      </c>
-      <c r="J57" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I57" s="1">
+        <v>-38.145009600000002</v>
+      </c>
+      <c r="J57" s="1">
+        <v>144.35683760000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="2">
+        <v>43892</v>
+      </c>
+      <c r="E58" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E58" s="2">
+      <c r="G58" s="2">
         <v>43906</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G58" s="1">
+      <c r="I58" s="1">
         <v>-37.816394899999999</v>
       </c>
-      <c r="H58" s="1">
+      <c r="J58" s="1">
         <v>144.9526066</v>
       </c>
-      <c r="I58" s="2">
-        <v>43892</v>
-      </c>
-      <c r="J58" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -3170,61 +3178,61 @@
       <c r="C59" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2">
+        <v>43892</v>
+      </c>
+      <c r="E59" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E59" s="2">
+      <c r="G59" s="2">
         <v>43906</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="H59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I59" s="1">
+        <v>-37.816394899999999</v>
+      </c>
+      <c r="J59" s="1">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="2">
+        <v>43892</v>
+      </c>
+      <c r="E60" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G60" s="2">
+        <v>43906</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G59" s="1">
+      <c r="I60" s="1">
         <v>-37.826660799999999</v>
       </c>
-      <c r="H59" s="1">
+      <c r="J60" s="1">
         <v>145.0587903</v>
       </c>
-      <c r="I59" s="2">
-        <v>43892</v>
-      </c>
-      <c r="J59" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E60" s="2">
-        <v>43910</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G60" s="1">
-        <v>-37.848232000000003</v>
-      </c>
-      <c r="H60" s="1">
-        <v>145.00550799999999</v>
-      </c>
-      <c r="I60" s="2">
-        <v>43892</v>
-      </c>
-      <c r="J60" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>78</v>
       </c>
@@ -3234,29 +3242,29 @@
       <c r="C61" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2">
+        <v>43892</v>
+      </c>
+      <c r="E61" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E61" s="2">
+      <c r="G61" s="2">
         <v>43910</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G61" s="1">
+      <c r="I61" s="1">
         <v>-37.848232000000003</v>
       </c>
-      <c r="H61" s="1">
+      <c r="J61" s="1">
         <v>145.00550799999999</v>
       </c>
-      <c r="I61" s="2">
-        <v>43893</v>
-      </c>
-      <c r="J61" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>78</v>
       </c>
@@ -3266,29 +3274,29 @@
       <c r="C62" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2">
+        <v>43893</v>
+      </c>
+      <c r="E62" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E62" s="2">
+      <c r="G62" s="2">
         <v>43910</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G62" s="1">
+      <c r="I62" s="1">
         <v>-37.848232000000003</v>
       </c>
-      <c r="H62" s="1">
+      <c r="J62" s="1">
         <v>145.00550799999999</v>
       </c>
-      <c r="I62" s="2">
-        <v>43894</v>
-      </c>
-      <c r="J62" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>78</v>
       </c>
@@ -3298,29 +3306,29 @@
       <c r="C63" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2">
+        <v>43894</v>
+      </c>
+      <c r="E63" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E63" s="2">
+      <c r="G63" s="2">
         <v>43910</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G63" s="1">
+      <c r="I63" s="1">
         <v>-37.848232000000003</v>
       </c>
-      <c r="H63" s="1">
+      <c r="J63" s="1">
         <v>145.00550799999999</v>
       </c>
-      <c r="I63" s="2">
-        <v>43895</v>
-      </c>
-      <c r="J63" s="2">
-        <v>43892</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>78</v>
       </c>
@@ -3330,122 +3338,154 @@
       <c r="C64" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2">
+        <v>43895</v>
+      </c>
+      <c r="E64" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E64" s="2">
+      <c r="G64" s="2">
         <v>43910</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G64" s="1">
+      <c r="I64" s="1">
         <v>-37.848232000000003</v>
       </c>
-      <c r="H64" s="1">
+      <c r="J64" s="1">
         <v>145.00550799999999</v>
       </c>
-      <c r="I64" s="2">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D65" s="2">
         <v>43896</v>
       </c>
-      <c r="J64" s="2">
+      <c r="E65" s="2">
         <v>43892</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65" s="2">
-        <v>43904</v>
-      </c>
       <c r="F65" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G65" s="1">
-        <v>-37.667110999999998</v>
-      </c>
-      <c r="H65" s="1">
-        <v>144.83348079999999</v>
-      </c>
-      <c r="I65" s="2">
-        <v>43890</v>
-      </c>
-      <c r="J65" s="2">
-        <v>43890</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+      <c r="G65" s="2">
+        <v>43910</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I65" s="1">
+        <v>-37.848232000000003</v>
+      </c>
+      <c r="J65" s="1">
+        <v>145.00550799999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E66" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G66" s="2">
+        <v>43904</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I66" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="J66" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D67" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E67" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E66" s="2">
+      <c r="G67" s="2">
         <v>43904</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G66" s="1">
+      <c r="I67" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="H66" s="1">
+      <c r="J67" s="1">
         <v>144.83348079999999</v>
       </c>
-      <c r="I66" s="2">
-        <v>43890</v>
-      </c>
-      <c r="J66" s="2">
-        <v>43890</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D68" s="2">
+        <v>43889</v>
+      </c>
+      <c r="E68" s="2">
+        <v>43889</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="2">
+      <c r="G68" s="2">
         <v>43903</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G67" s="1">
+      <c r="I68" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="H67" s="1">
+      <c r="J68" s="1">
         <v>144.83348079999999</v>
-      </c>
-      <c r="I67" s="2">
-        <v>43889</v>
-      </c>
-      <c r="J67" s="2">
-        <v>43889</v>
       </c>
     </row>
   </sheetData>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE9B913-FCE8-4587-9C58-5D1DB0A331CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B602E9-7BA4-4BE8-AC78-AAAA6047CBC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="28770" windowHeight="15000" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="8" yWindow="0" windowWidth="20505" windowHeight="13080" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC public exposure sites" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="167">
   <si>
     <t>Date</t>
   </si>
@@ -525,6 +525,18 @@
   </si>
   <si>
     <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+  </si>
+  <si>
+    <t>Lynden Aged Care facility, Camberwell</t>
+  </si>
+  <si>
+    <t>49 Lynden St, Camberwell VIC 3124</t>
+  </si>
+  <si>
+    <t>Hammond Care facility, Caulfield</t>
+  </si>
+  <si>
+    <t>294 Kooyong Rd, Caulfield VIC 3162</t>
   </si>
 </sst>
 </file>
@@ -607,7 +619,34 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -661,7 +700,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -850,33 +889,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -927,19 +939,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:J68" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J68" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:J70" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J70" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{00BBE98B-CFE5-4E6E-BEE1-82771B152607}" name="Location" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{DE78F3D9-079C-462E-820F-C45FF7810726}" name="Exposure Date" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{78D0D3E4-FEAB-438E-93D1-655FC72C65B7}" name="Exposure Start Date" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{2CC131BD-98E1-4A40-87C0-41E319F81D64}" name="Onset of symptoms up to" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{23761236-70D9-4987-859C-768C8269BF16}" name="Onset End Date" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{8622C8B5-3655-444D-B8EB-E8B75B0C5F18}" name="Location for Geocoding" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{BCBA3A15-1C23-4B92-A8CC-E716035D4373}" name="Latitude" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{6B289C17-6F7F-48A4-B992-C86D180F888E}" name="Longitude" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{DE78F3D9-079C-462E-820F-C45FF7810726}" name="Exposure Date" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{78D0D3E4-FEAB-438E-93D1-655FC72C65B7}" name="Exposure Start Date" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{2CC131BD-98E1-4A40-87C0-41E319F81D64}" name="Onset of symptoms up to" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{23761236-70D9-4987-859C-768C8269BF16}" name="Onset End Date" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{8622C8B5-3655-444D-B8EB-E8B75B0C5F18}" name="Location for Geocoding" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{BCBA3A15-1C23-4B92-A8CC-E716035D4373}" name="Latitude" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{6B289C17-6F7F-48A4-B992-C86D180F888E}" name="Longitude" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1242,9 +1254,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1294,70 +1308,70 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I2" s="1">
-        <v>-37.692610000000002</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="J2" s="1">
-        <v>145.06382099999999</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="D3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I3" s="1">
-        <v>-37.689222999999998</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>144.60470799999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1366,7 +1380,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="D4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1385,13 +1399,13 @@
         <v>43983</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="I4" s="1">
-        <v>-37.843631999999999</v>
+        <v>-37.692610000000002</v>
       </c>
       <c r="J4" s="1">
-        <v>144.78155899999999</v>
+        <v>145.06382099999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1400,7 +1414,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1419,13 +1433,13 @@
         <v>43983</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I5" s="1">
-        <v>-37.730747999999998</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>145.086489</v>
+        <v>144.60470799999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1434,7 +1448,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1453,13 +1467,13 @@
         <v>43983</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I6" s="1">
-        <v>-37.702513000000003</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>144.80232599999999</v>
+        <v>144.78155899999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1468,7 +1482,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1487,13 +1501,13 @@
         <v>43983</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I7" s="1">
-        <v>-37.673996000000002</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>144.955354</v>
+        <v>145.086489</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1502,7 +1516,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1521,13 +1535,13 @@
         <v>43983</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I8" s="1">
-        <v>-37.576594</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="J8" s="1">
-        <v>144.72866500000001</v>
+        <v>144.80232599999999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1536,7 +1550,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1555,13 +1569,13 @@
         <v>43983</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I9" s="1">
-        <v>-37.879995000000001</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="J9" s="1">
-        <v>144.70157699999999</v>
+        <v>144.955354</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1570,7 +1584,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1589,13 +1603,13 @@
         <v>43983</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I10" s="1">
-        <v>-37.834014000000003</v>
+        <v>-37.576594</v>
       </c>
       <c r="J10" s="1">
-        <v>144.65285299999999</v>
+        <v>144.72866500000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1604,7 +1618,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1623,13 +1637,13 @@
         <v>43983</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I11" s="1">
-        <v>-37.942098999999999</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>145.16768400000001</v>
+        <v>144.70157699999999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1638,7 +1652,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1657,13 +1671,13 @@
         <v>43983</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I12" s="1">
-        <v>-37.664667000000001</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="J12" s="1">
-        <v>144.74749</v>
+        <v>144.65285299999999</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1672,7 +1686,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1691,13 +1705,13 @@
         <v>43983</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I13" s="1">
-        <v>-37.665416999999998</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>144.75335899999999</v>
+        <v>145.16768400000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1706,7 +1720,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1725,158 +1739,158 @@
         <v>43983</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I14" s="1">
-        <v>-37.738990000000001</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>144.67997600000001</v>
+        <v>144.74749</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B15" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="E15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="G15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>125</v>
+        <v>43983</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="I15" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.665416999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>144.921401</v>
+        <v>144.75335899999999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B16" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="D16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="E16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="G16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>126</v>
+        <v>43983</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="I16" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.738990000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>144.888195</v>
+        <v>144.67997600000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B17" s="5"/>
       <c r="C17" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="E17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="G17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I17" s="1">
-        <v>-37.783104999999999</v>
+        <v>-37.596122999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>144.78539799999999</v>
+        <v>144.921401</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B18" s="5"/>
       <c r="C18" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="E18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="G18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I18" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.772379999999998</v>
       </c>
       <c r="J18" s="1">
-        <v>145.02005199999999</v>
+        <v>144.888195</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43959</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1895,349 +1909,353 @@
         <v>43973</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I19" s="1">
-        <v>-37.689366</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>144.958878</v>
+        <v>144.78539799999999</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="E20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="G20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I20" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="J20" s="1">
-        <v>144.43268900000001</v>
+        <v>145.02005199999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B21" s="5"/>
       <c r="C21" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="E21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="G21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I21" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.689366</v>
       </c>
       <c r="J21" s="1">
-        <v>144.836118</v>
+        <v>144.958878</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="E22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="F22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="G22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="I22" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>144.83348079999999</v>
+        <v>144.43268900000001</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="E23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="F23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43967</v>
       </c>
       <c r="G23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
+        <v>43967</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I23" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="J23" s="1">
-        <v>144.889926</v>
+        <v>144.836118</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>43947</v>
+        <v>43951</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43951</v>
       </c>
       <c r="E24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
+        <v>43951</v>
       </c>
       <c r="F24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="G24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="I24" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>144.894632</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>43944</v>
+        <v>43950</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43944</v>
+        <v>43950</v>
       </c>
       <c r="E25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
+        <v>43950</v>
       </c>
       <c r="F25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
+        <v>43964</v>
       </c>
       <c r="G25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
+        <v>43964</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I25" s="1">
-        <v>-37.759222999999999</v>
+        <v>-37.811678000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>144.816754</v>
+        <v>144.889926</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>43907</v>
+      <c r="A26" s="4">
+        <v>43947</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
+        <v>43947</v>
       </c>
       <c r="E26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
+        <v>43947</v>
       </c>
       <c r="F26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43961</v>
       </c>
       <c r="G26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
+        <v>43961</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I26" s="1">
-        <v>-37.844318000000001</v>
+        <v>-37.797176999999998</v>
       </c>
       <c r="J26" s="1">
-        <v>145.009818</v>
+        <v>144.894632</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>43905</v>
+      <c r="A27" s="4">
+        <v>43944</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43905</v>
+        <v>43944</v>
       </c>
       <c r="E27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43905</v>
+        <v>43944</v>
       </c>
       <c r="F27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43919</v>
+        <v>43958</v>
       </c>
       <c r="G27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43958</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-37.759222999999999</v>
+      </c>
+      <c r="J27" s="1">
+        <v>144.816754</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="E28" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="F28" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43921</v>
+      </c>
+      <c r="G28" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-37.844318000000001</v>
+      </c>
+      <c r="J28" s="1">
+        <v>145.009818</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="E29" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="F29" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43919</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="G29" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43919</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I29" s="1">
         <v>-37.813239000000003</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J29" s="1">
         <v>145.048047</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="2">
-        <v>43900</v>
-      </c>
-      <c r="E28" s="2">
-        <v>43900</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="2">
-        <v>43914</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I28" s="1">
-        <v>-37.776940699999997</v>
-      </c>
-      <c r="J28" s="1">
-        <v>144.98702499999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="2">
-        <v>43900</v>
-      </c>
-      <c r="E29" s="2">
-        <v>43900</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="2">
-        <v>43914</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I29" s="1">
-        <v>-37.772095999999998</v>
-      </c>
-      <c r="J29" s="1">
-        <v>144.91609500000001</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2245,10 +2263,10 @@
         <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D30" s="2">
         <v>43900</v>
@@ -2263,68 +2281,68 @@
         <v>43914</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I30" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="J30" s="1">
-        <v>144.83348079999999</v>
+        <v>144.98702499999999</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="E31" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G31" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="J31" s="1">
-        <v>144.83348079999999</v>
+        <v>144.91609500000001</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="E32" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G32" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>97</v>
@@ -2338,25 +2356,25 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D33" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="E33" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G33" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>97</v>
@@ -2370,25 +2388,25 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="E34" s="2">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G34" s="2">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>97</v>
@@ -2402,25 +2420,25 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D35" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="E35" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G35" s="2">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>97</v>
@@ -2434,25 +2452,25 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D36" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="E36" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G36" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>97</v>
@@ -2466,66 +2484,66 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="E37" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G37" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I37" s="1">
-        <v>-37.821452700000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="J37" s="1">
-        <v>144.98347200000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="E38" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G38" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I38" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="J38" s="1">
-        <v>145.0729384</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2533,10 +2551,10 @@
         <v>23</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D39" s="2">
         <v>43898</v>
@@ -2551,77 +2569,77 @@
         <v>43912</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I39" s="1">
-        <v>-37.790782999999998</v>
+        <v>-37.821452700000002</v>
       </c>
       <c r="J39" s="1">
-        <v>144.99816200000001</v>
+        <v>144.98347200000001</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D40" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="E40" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G40" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I40" s="1">
-        <v>-37.824981299999997</v>
+        <v>-37.800963000000003</v>
       </c>
       <c r="J40" s="1">
-        <v>144.98361299999999</v>
+        <v>145.0729384</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="E41" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G41" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I41" s="1">
-        <v>-37.841103699999998</v>
+        <v>-37.790782999999998</v>
       </c>
       <c r="J41" s="1">
-        <v>144.955806</v>
+        <v>144.99816200000001</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2629,10 +2647,10 @@
         <v>27</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2">
         <v>43897</v>
@@ -2647,45 +2665,45 @@
         <v>43911</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I42" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.824981299999997</v>
       </c>
       <c r="J42" s="1">
-        <v>144.9564881</v>
+        <v>144.98361299999999</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="E43" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G43" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I43" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.841103699999998</v>
       </c>
       <c r="J43" s="1">
-        <v>144.9564881</v>
+        <v>144.955806</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2693,10 +2711,10 @@
         <v>27</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D44" s="2">
         <v>43897</v>
@@ -2711,13 +2729,13 @@
         <v>43911</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I44" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="J44" s="1">
-        <v>144.31841800000001</v>
+        <v>144.9564881</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2725,10 +2743,10 @@
         <v>29</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D45" s="2">
         <v>43896</v>
@@ -2743,13 +2761,13 @@
         <v>43910</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I45" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="J45" s="1">
-        <v>144.31841800000001</v>
+        <v>144.9564881</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2757,10 +2775,10 @@
         <v>27</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D46" s="2">
         <v>43897</v>
@@ -2775,13 +2793,13 @@
         <v>43911</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I46" s="1">
-        <v>-37.863344400000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="J46" s="1">
-        <v>145.08682759999999</v>
+        <v>144.31841800000001</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2789,10 +2807,10 @@
         <v>29</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D47" s="2">
         <v>43896</v>
@@ -2807,109 +2825,109 @@
         <v>43910</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I47" s="1">
-        <v>-37.809265000000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="J47" s="1">
-        <v>144.99495099999999</v>
+        <v>144.31841800000001</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D48" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="E48" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G48" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="I48" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.863344400000003</v>
       </c>
       <c r="J48" s="1">
-        <v>144.83348079999999</v>
+        <v>145.08682759999999</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D49" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="E49" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G49" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I49" s="1">
-        <v>-37.797809200000003</v>
+        <v>-37.809265000000003</v>
       </c>
       <c r="J49" s="1">
-        <v>144.96801239999999</v>
+        <v>144.99495099999999</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D50" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="E50" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G50" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I50" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="J50" s="1">
-        <v>144.9526066</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2917,10 +2935,10 @@
         <v>57</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D51" s="2">
         <v>43895</v>
@@ -2935,109 +2953,109 @@
         <v>43909</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I51" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.797809200000003</v>
       </c>
       <c r="J51" s="1">
-        <v>144.35683760000001</v>
+        <v>144.96801239999999</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D52" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="E52" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G52" s="2">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I52" s="1">
-        <v>-37.028215000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="J52" s="1">
-        <v>145.14336</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D53" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="E53" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G53" s="2">
         <v>43909</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I53" s="1">
-        <v>-37.720556999999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="J53" s="1">
-        <v>145.04823200000001</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D54" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="E54" s="2">
         <v>43893</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G54" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I54" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.028215000000003</v>
       </c>
       <c r="J54" s="1">
-        <v>145.04823200000001</v>
+        <v>145.14336</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3051,7 +3069,7 @@
         <v>69</v>
       </c>
       <c r="D55" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="E55" s="2">
         <v>43893</v>
@@ -3074,66 +3092,66 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D56" s="2">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="E56" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G56" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="I56" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="J56" s="1">
-        <v>144.83348079999999</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D57" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="E57" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G57" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I57" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="J57" s="1">
-        <v>144.35683760000001</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3141,10 +3159,10 @@
         <v>71</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D58" s="2">
         <v>43892</v>
@@ -3159,13 +3177,13 @@
         <v>43906</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I58" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="J58" s="1">
-        <v>144.9526066</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3173,10 +3191,10 @@
         <v>71</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D59" s="2">
         <v>43892</v>
@@ -3191,13 +3209,13 @@
         <v>43906</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I59" s="1">
-        <v>-37.816394899999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="J59" s="1">
-        <v>144.9526066</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3205,10 +3223,10 @@
         <v>71</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D60" s="2">
         <v>43892</v>
@@ -3223,24 +3241,24 @@
         <v>43906</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I60" s="1">
-        <v>-37.826660799999999</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="J60" s="1">
-        <v>145.0587903</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D61" s="2">
         <v>43892</v>
@@ -3249,51 +3267,51 @@
         <v>43892</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G61" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I61" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="J61" s="1">
-        <v>145.00550799999999</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D62" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="E62" s="2">
         <v>43892</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G62" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I62" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.826660799999999</v>
       </c>
       <c r="J62" s="1">
-        <v>145.00550799999999</v>
+        <v>145.0587903</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3307,7 +3325,7 @@
         <v>80</v>
       </c>
       <c r="D63" s="2">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="E63" s="2">
         <v>43892</v>
@@ -3339,7 +3357,7 @@
         <v>80</v>
       </c>
       <c r="D64" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="E64" s="2">
         <v>43892</v>
@@ -3371,7 +3389,7 @@
         <v>80</v>
       </c>
       <c r="D65" s="2">
-        <v>43896</v>
+        <v>43894</v>
       </c>
       <c r="E65" s="2">
         <v>43892</v>
@@ -3394,89 +3412,89 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D66" s="2">
-        <v>43890</v>
+        <v>43895</v>
       </c>
       <c r="E66" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G66" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="I66" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="J66" s="1">
-        <v>144.83348079999999</v>
+        <v>145.00550799999999</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D67" s="2">
-        <v>43890</v>
+        <v>43896</v>
       </c>
       <c r="E67" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G67" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="I67" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="J67" s="1">
-        <v>144.83348079999999</v>
+        <v>145.00550799999999</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D68" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="E68" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G68" s="2">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>97</v>
@@ -3485,6 +3503,70 @@
         <v>-37.667110999999998</v>
       </c>
       <c r="J68" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E69" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G69" s="2">
+        <v>43904</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I69" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="J69" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="2">
+        <v>43889</v>
+      </c>
+      <c r="E70" s="2">
+        <v>43889</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G70" s="2">
+        <v>43903</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I70" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="J70" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B602E9-7BA4-4BE8-AC78-AAAA6047CBC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA0E946-86D8-487C-9CB8-4FE06AA94D7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8" yWindow="0" windowWidth="20505" windowHeight="13080" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC public exposure sites" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="171">
   <si>
     <t>Date</t>
   </si>
@@ -537,6 +537,18 @@
   </si>
   <si>
     <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+  </si>
+  <si>
+    <t>Kyabram District Health Service, Kyabram</t>
+  </si>
+  <si>
+    <t>88 Fenaughty St, Kyabram VIC 3620</t>
+  </si>
+  <si>
+    <t>St Leonard's College, Brighton</t>
+  </si>
+  <si>
+    <t>163 South Rd, Brighton East VIC 3187</t>
   </si>
 </sst>
 </file>
@@ -939,8 +951,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:J70" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J70" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:J72" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J72" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="8"/>
@@ -1254,27 +1266,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="96.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.3984375" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" customWidth="1"/>
+    <col min="3" max="3" width="49.73046875" customWidth="1"/>
+    <col min="4" max="4" width="15.86328125" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" customWidth="1"/>
+    <col min="6" max="6" width="25.265625" customWidth="1"/>
+    <col min="7" max="7" width="16.73046875" customWidth="1"/>
+    <col min="8" max="8" width="96.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1306,149 +1318,149 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="G2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I2" s="1">
-        <v>-37.841634999999997</v>
+        <v>-36.314870999999997</v>
       </c>
       <c r="J2" s="1">
-        <v>145.08623499999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145.04196999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="G3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I3" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.928489999999996</v>
       </c>
       <c r="J3" s="1">
-        <v>145.01711499999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145.007454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I4" s="1">
-        <v>-37.692610000000002</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="J4" s="1">
-        <v>145.06382099999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145.08623499999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="D5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I5" s="1">
-        <v>-37.689222999999998</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>144.60470799999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145.01711499999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>43969</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="D6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1467,22 +1479,22 @@
         <v>43983</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="I6" s="1">
-        <v>-37.843631999999999</v>
+        <v>-37.692610000000002</v>
       </c>
       <c r="J6" s="1">
-        <v>144.78155899999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145.06382099999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>43969</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1501,22 +1513,22 @@
         <v>43983</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I7" s="1">
-        <v>-37.730747999999998</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>145.086489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.60470799999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>43969</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1535,22 +1547,22 @@
         <v>43983</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I8" s="1">
-        <v>-37.702513000000003</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>144.80232599999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.78155899999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>43969</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1569,22 +1581,22 @@
         <v>43983</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I9" s="1">
-        <v>-37.673996000000002</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>144.955354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145.086489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>43969</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1603,22 +1615,22 @@
         <v>43983</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I10" s="1">
-        <v>-37.576594</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="J10" s="1">
-        <v>144.72866500000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.80232599999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>43969</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1637,22 +1649,22 @@
         <v>43983</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I11" s="1">
-        <v>-37.879995000000001</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="J11" s="1">
-        <v>144.70157699999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.955354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>43969</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1671,22 +1683,22 @@
         <v>43983</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I12" s="1">
-        <v>-37.834014000000003</v>
+        <v>-37.576594</v>
       </c>
       <c r="J12" s="1">
-        <v>144.65285299999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.72866500000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>43969</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1705,22 +1717,22 @@
         <v>43983</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I13" s="1">
-        <v>-37.942098999999999</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>145.16768400000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.70157699999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>43969</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1739,22 +1751,22 @@
         <v>43983</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I14" s="1">
-        <v>-37.664667000000001</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="J14" s="1">
-        <v>144.74749</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.65285299999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>43969</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1773,22 +1785,22 @@
         <v>43983</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I15" s="1">
-        <v>-37.665416999999998</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>144.75335899999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145.16768400000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>43969</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1807,158 +1819,158 @@
         <v>43983</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I16" s="1">
-        <v>-37.738990000000001</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>144.67997600000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.74749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B17" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="E17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="G17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>125</v>
+        <v>43983</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="I17" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.665416999999998</v>
       </c>
       <c r="J17" s="1">
-        <v>144.921401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.75335899999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B18" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="D18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="E18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="G18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>126</v>
+        <v>43983</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="I18" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.738990000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>144.888195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.67997600000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="E19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="G19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I19" s="1">
-        <v>-37.783104999999999</v>
+        <v>-37.596122999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>144.78539799999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.921401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B20" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B20" s="5"/>
       <c r="C20" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="E20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="G20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I20" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.772379999999998</v>
       </c>
       <c r="J20" s="1">
-        <v>145.02005199999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.888195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>43959</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1977,360 +1989,364 @@
         <v>43973</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I21" s="1">
-        <v>-37.689366</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>144.958878</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.78539799999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="E22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="G22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I22" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="J22" s="1">
-        <v>144.43268900000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145.02005199999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B23" s="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="E23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="G23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I23" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.689366</v>
       </c>
       <c r="J23" s="1">
-        <v>144.836118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.958878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="E24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="F24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="G24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="I24" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.43268900000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="E25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="F25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43967</v>
       </c>
       <c r="G25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
+        <v>43967</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I25" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>144.889926</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.836118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
-        <v>43947</v>
+        <v>43951</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43951</v>
       </c>
       <c r="E26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
+        <v>43951</v>
       </c>
       <c r="F26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="G26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="I26" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="J26" s="1">
-        <v>144.894632</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
-        <v>43944</v>
+        <v>43950</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43944</v>
+        <v>43950</v>
       </c>
       <c r="E27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
+        <v>43950</v>
       </c>
       <c r="F27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
+        <v>43964</v>
       </c>
       <c r="G27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
+        <v>43964</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I27" s="1">
-        <v>-37.759222999999999</v>
+        <v>-37.811678000000001</v>
       </c>
       <c r="J27" s="1">
-        <v>144.816754</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>43907</v>
+        <v>144.889926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28" s="4">
+        <v>43947</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
+        <v>43947</v>
       </c>
       <c r="E28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
+        <v>43947</v>
       </c>
       <c r="F28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43961</v>
       </c>
       <c r="G28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
+        <v>43961</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I28" s="1">
-        <v>-37.844318000000001</v>
+        <v>-37.797176999999998</v>
       </c>
       <c r="J28" s="1">
-        <v>145.009818</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>43905</v>
+        <v>144.894632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" s="4">
+        <v>43944</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43905</v>
+        <v>43944</v>
       </c>
       <c r="E29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43905</v>
+        <v>43944</v>
       </c>
       <c r="F29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43919</v>
+        <v>43958</v>
       </c>
       <c r="G29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43958</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-37.759222999999999</v>
+      </c>
+      <c r="J29" s="1">
+        <v>144.816754</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="E30" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="F30" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43921</v>
+      </c>
+      <c r="G30" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-37.844318000000001</v>
+      </c>
+      <c r="J30" s="1">
+        <v>145.009818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="E31" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="F31" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43919</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="G31" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43919</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I31" s="1">
         <v>-37.813239000000003</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J31" s="1">
         <v>145.048047</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="2">
-        <v>43900</v>
-      </c>
-      <c r="E30" s="2">
-        <v>43900</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="2">
-        <v>43914</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I30" s="1">
-        <v>-37.776940699999997</v>
-      </c>
-      <c r="J30" s="1">
-        <v>144.98702499999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="2">
-        <v>43900</v>
-      </c>
-      <c r="E31" s="2">
-        <v>43900</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="2">
-        <v>43914</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" s="1">
-        <v>-37.772095999999998</v>
-      </c>
-      <c r="J31" s="1">
-        <v>144.91609500000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D32" s="2">
         <v>43900</v>
@@ -2345,68 +2361,68 @@
         <v>43914</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I32" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="J32" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.98702499999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="E33" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G33" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I33" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="J33" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.91609500000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="E34" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G34" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>97</v>
@@ -2418,27 +2434,27 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D35" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="E35" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G35" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>97</v>
@@ -2450,27 +2466,27 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D36" s="2">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="E36" s="2">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G36" s="2">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>97</v>
@@ -2482,27 +2498,27 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="E37" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G37" s="2">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>97</v>
@@ -2514,27 +2530,27 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="E38" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G38" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>97</v>
@@ -2546,79 +2562,79 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="E39" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G39" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I39" s="1">
-        <v>-37.821452700000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="J39" s="1">
-        <v>144.98347200000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="E40" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G40" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I40" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="J40" s="1">
-        <v>145.0729384</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D41" s="2">
         <v>43898</v>
@@ -2633,88 +2649,88 @@
         <v>43912</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-37.821452700000002</v>
+      </c>
+      <c r="J41" s="1">
+        <v>144.98347200000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="2">
+        <v>43898</v>
+      </c>
+      <c r="E42" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="2">
+        <v>43912</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-37.800963000000003</v>
+      </c>
+      <c r="J42" s="1">
+        <v>145.0729384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2">
+        <v>43898</v>
+      </c>
+      <c r="E43" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="2">
+        <v>43912</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I43" s="1">
         <v>-37.790782999999998</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J43" s="1">
         <v>144.99816200000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="2">
-        <v>43897</v>
-      </c>
-      <c r="E42" s="2">
-        <v>43897</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="2">
-        <v>43911</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I42" s="1">
-        <v>-37.824981299999997</v>
-      </c>
-      <c r="J42" s="1">
-        <v>144.98361299999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="2">
-        <v>43897</v>
-      </c>
-      <c r="E43" s="2">
-        <v>43897</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="2">
-        <v>43911</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I43" s="1">
-        <v>-37.841103699999998</v>
-      </c>
-      <c r="J43" s="1">
-        <v>144.955806</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2">
         <v>43897</v>
@@ -2729,56 +2745,56 @@
         <v>43911</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I44" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.824981299999997</v>
       </c>
       <c r="J44" s="1">
-        <v>144.9564881</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.98361299999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="E45" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G45" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I45" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.841103699999998</v>
       </c>
       <c r="J45" s="1">
-        <v>144.9564881</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.955806</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D46" s="2">
         <v>43897</v>
@@ -2793,24 +2809,24 @@
         <v>43911</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I46" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="J46" s="1">
-        <v>144.31841800000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.9564881</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D47" s="2">
         <v>43896</v>
@@ -2825,24 +2841,24 @@
         <v>43910</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I47" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="J47" s="1">
-        <v>144.31841800000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.9564881</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D48" s="2">
         <v>43897</v>
@@ -2857,24 +2873,24 @@
         <v>43911</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I48" s="1">
-        <v>-37.863344400000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="J48" s="1">
-        <v>145.08682759999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.31841800000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D49" s="2">
         <v>43896</v>
@@ -2889,120 +2905,120 @@
         <v>43910</v>
       </c>
       <c r="H49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I49" s="1">
+        <v>-38.199002999999998</v>
+      </c>
+      <c r="J49" s="1">
+        <v>144.31841800000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="2">
+        <v>43897</v>
+      </c>
+      <c r="E50" s="2">
+        <v>43897</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="2">
+        <v>43911</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I50" s="1">
+        <v>-37.863344400000003</v>
+      </c>
+      <c r="J50" s="1">
+        <v>145.08682759999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="2">
+        <v>43896</v>
+      </c>
+      <c r="E51" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="2">
+        <v>43910</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I51" s="1">
         <v>-37.809265000000003</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J51" s="1">
         <v>144.99495099999999</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D52" s="2">
         <v>43896</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E52" s="2">
         <v>43896</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G52" s="2">
         <v>43910</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I52" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J52" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="2">
-        <v>43895</v>
-      </c>
-      <c r="E51" s="2">
-        <v>43895</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" s="2">
-        <v>43909</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I51" s="1">
-        <v>-37.797809200000003</v>
-      </c>
-      <c r="J51" s="1">
-        <v>144.96801239999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="2">
-        <v>43895</v>
-      </c>
-      <c r="E52" s="2">
-        <v>43895</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" s="2">
-        <v>43909</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I52" s="1">
-        <v>-37.816394899999999</v>
-      </c>
-      <c r="J52" s="1">
-        <v>144.9526066</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D53" s="2">
         <v>43895</v>
@@ -3017,112 +3033,112 @@
         <v>43909</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I53" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.797809200000003</v>
       </c>
       <c r="J53" s="1">
-        <v>144.35683760000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.96801239999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D54" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="E54" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G54" s="2">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I54" s="1">
-        <v>-37.028215000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="J54" s="1">
-        <v>145.14336</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D55" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="E55" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G55" s="2">
         <v>43909</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I55" s="1">
-        <v>-37.720556999999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="J55" s="1">
-        <v>145.04823200000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.35683760000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D56" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="E56" s="2">
         <v>43893</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G56" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I56" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.028215000000003</v>
       </c>
       <c r="J56" s="1">
-        <v>145.04823200000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145.14336</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -3133,7 +3149,7 @@
         <v>69</v>
       </c>
       <c r="D57" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="E57" s="2">
         <v>43893</v>
@@ -3154,79 +3170,79 @@
         <v>145.04823200000001</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D58" s="2">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="E58" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G58" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="I58" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="J58" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145.04823200000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D59" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="E59" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G59" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I59" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="J59" s="1">
-        <v>144.35683760000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145.04823200000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D60" s="2">
         <v>43892</v>
@@ -3241,24 +3257,24 @@
         <v>43906</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I60" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="J60" s="1">
-        <v>144.9526066</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D61" s="2">
         <v>43892</v>
@@ -3273,24 +3289,24 @@
         <v>43906</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I61" s="1">
-        <v>-37.816394899999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="J61" s="1">
-        <v>144.9526066</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.35683760000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D62" s="2">
         <v>43892</v>
@@ -3305,24 +3321,24 @@
         <v>43906</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I62" s="1">
-        <v>-37.826660799999999</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="J62" s="1">
-        <v>145.0587903</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D63" s="2">
         <v>43892</v>
@@ -3331,54 +3347,54 @@
         <v>43892</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G63" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I63" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="J63" s="1">
-        <v>145.00550799999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D64" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="E64" s="2">
         <v>43892</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G64" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I64" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.826660799999999</v>
       </c>
       <c r="J64" s="1">
-        <v>145.00550799999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145.0587903</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>78</v>
       </c>
@@ -3389,7 +3405,7 @@
         <v>80</v>
       </c>
       <c r="D65" s="2">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="E65" s="2">
         <v>43892</v>
@@ -3410,7 +3426,7 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -3421,7 +3437,7 @@
         <v>80</v>
       </c>
       <c r="D66" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="E66" s="2">
         <v>43892</v>
@@ -3442,7 +3458,7 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>78</v>
       </c>
@@ -3453,7 +3469,7 @@
         <v>80</v>
       </c>
       <c r="D67" s="2">
-        <v>43896</v>
+        <v>43894</v>
       </c>
       <c r="E67" s="2">
         <v>43892</v>
@@ -3474,91 +3490,91 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="2">
+        <v>43895</v>
+      </c>
+      <c r="E68" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G68" s="2">
+        <v>43910</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I68" s="1">
+        <v>-37.848232000000003</v>
+      </c>
+      <c r="J68" s="1">
+        <v>145.00550799999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="2">
+        <v>43896</v>
+      </c>
+      <c r="E69" s="2">
+        <v>43892</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" s="2">
+        <v>43910</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I69" s="1">
+        <v>-37.848232000000003</v>
+      </c>
+      <c r="J69" s="1">
+        <v>145.00550799999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D70" s="2">
         <v>43890</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E70" s="2">
         <v>43890</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G70" s="2">
         <v>43904</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I68" s="1">
-        <v>-37.667110999999998</v>
-      </c>
-      <c r="J68" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" s="2">
-        <v>43890</v>
-      </c>
-      <c r="E69" s="2">
-        <v>43890</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G69" s="2">
-        <v>43904</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I69" s="1">
-        <v>-37.667110999999998</v>
-      </c>
-      <c r="J69" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" s="2">
-        <v>43889</v>
-      </c>
-      <c r="E70" s="2">
-        <v>43889</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G70" s="2">
-        <v>43903</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>97</v>
@@ -3567,6 +3583,70 @@
         <v>-37.667110999999998</v>
       </c>
       <c r="J70" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E71" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G71" s="2">
+        <v>43904</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I71" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="J71" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" s="2">
+        <v>43889</v>
+      </c>
+      <c r="E72" s="2">
+        <v>43889</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="2">
+        <v>43903</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I72" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="J72" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA0E946-86D8-487C-9CB8-4FE06AA94D7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE08EA44-97F9-4E05-9532-AF1C500D172D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC public exposure sites" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="172">
   <si>
     <t>Date</t>
   </si>
@@ -549,6 +549,9 @@
   </si>
   <si>
     <t>163 South Rd, Brighton East VIC 3187</t>
+  </si>
+  <si>
+    <t>19 May, 26 May</t>
   </si>
 </sst>
 </file>
@@ -1269,24 +1272,24 @@
   <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.3984375" customWidth="1"/>
-    <col min="2" max="2" width="25.59765625" customWidth="1"/>
-    <col min="3" max="3" width="49.73046875" customWidth="1"/>
-    <col min="4" max="4" width="15.86328125" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" customWidth="1"/>
-    <col min="6" max="6" width="25.265625" customWidth="1"/>
-    <col min="7" max="7" width="16.73046875" customWidth="1"/>
-    <col min="8" max="8" width="96.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.3984375" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="96.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43971</v>
       </c>
@@ -1352,7 +1355,7 @@
         <v>145.04196999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43971</v>
       </c>
@@ -1386,7 +1389,7 @@
         <v>145.007454</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43970</v>
       </c>
@@ -1420,16 +1423,15 @@
         <v>145.08623499999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="4">
-        <v>43970</v>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D5" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43970</v>
       </c>
       <c r="E5" s="2">
@@ -1437,12 +1439,12 @@
         <v>43970</v>
       </c>
       <c r="F5" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <f>DATE(2020,5,26)+14</f>
+        <v>43991</v>
       </c>
       <c r="G5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43991</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>166</v>
@@ -1454,7 +1456,7 @@
         <v>145.01711499999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43969</v>
       </c>
@@ -1488,7 +1490,7 @@
         <v>145.06382099999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43969</v>
       </c>
@@ -1522,7 +1524,7 @@
         <v>144.60470799999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43969</v>
       </c>
@@ -1556,7 +1558,7 @@
         <v>144.78155899999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43969</v>
       </c>
@@ -1590,7 +1592,7 @@
         <v>145.086489</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43969</v>
       </c>
@@ -1624,7 +1626,7 @@
         <v>144.80232599999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43969</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>144.955354</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43969</v>
       </c>
@@ -1692,7 +1694,7 @@
         <v>144.72866500000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43969</v>
       </c>
@@ -1726,7 +1728,7 @@
         <v>144.70157699999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43969</v>
       </c>
@@ -1760,7 +1762,7 @@
         <v>144.65285299999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43969</v>
       </c>
@@ -1794,7 +1796,7 @@
         <v>145.16768400000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43969</v>
       </c>
@@ -1828,7 +1830,7 @@
         <v>144.74749</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>43969</v>
       </c>
@@ -1862,7 +1864,7 @@
         <v>144.75335899999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43969</v>
       </c>
@@ -1896,7 +1898,7 @@
         <v>144.67997600000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43966</v>
       </c>
@@ -1930,7 +1932,7 @@
         <v>144.921401</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43966</v>
       </c>
@@ -1964,7 +1966,7 @@
         <v>144.888195</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43959</v>
       </c>
@@ -1998,7 +2000,7 @@
         <v>144.78539799999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43959</v>
       </c>
@@ -2032,7 +2034,7 @@
         <v>145.02005199999999</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43959</v>
       </c>
@@ -2066,7 +2068,7 @@
         <v>144.958878</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43953</v>
       </c>
@@ -2100,7 +2102,7 @@
         <v>144.43268900000001</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43953</v>
       </c>
@@ -2134,7 +2136,7 @@
         <v>144.836118</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43951</v>
       </c>
@@ -2168,7 +2170,7 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43950</v>
       </c>
@@ -2202,7 +2204,7 @@
         <v>144.889926</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>43947</v>
       </c>
@@ -2236,7 +2238,7 @@
         <v>144.894632</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43944</v>
       </c>
@@ -2270,7 +2272,7 @@
         <v>144.816754</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43907</v>
       </c>
@@ -2304,7 +2306,7 @@
         <v>145.009818</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43905</v>
       </c>
@@ -2338,7 +2340,7 @@
         <v>145.048047</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -2370,7 +2372,7 @@
         <v>144.98702499999999</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -2402,7 +2404,7 @@
         <v>144.91609500000001</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -2434,7 +2436,7 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
@@ -2466,7 +2468,7 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>17</v>
       </c>
@@ -2498,7 +2500,7 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -2530,7 +2532,7 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
@@ -2562,7 +2564,7 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
@@ -2594,7 +2596,7 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,7 +2628,7 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
@@ -2658,7 +2660,7 @@
         <v>144.98347200000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>23</v>
       </c>
@@ -2690,7 +2692,7 @@
         <v>145.0729384</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>23</v>
       </c>
@@ -2722,7 +2724,7 @@
         <v>144.99816200000001</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
@@ -2754,7 +2756,7 @@
         <v>144.98361299999999</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
@@ -2786,7 +2788,7 @@
         <v>144.955806</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
@@ -2818,7 +2820,7 @@
         <v>144.9564881</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
@@ -2850,7 +2852,7 @@
         <v>144.9564881</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -2882,7 +2884,7 @@
         <v>144.31841800000001</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
@@ -2914,7 +2916,7 @@
         <v>144.31841800000001</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>27</v>
       </c>
@@ -2946,7 +2948,7 @@
         <v>145.08682759999999</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>29</v>
       </c>
@@ -2978,7 +2980,7 @@
         <v>144.99495099999999</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -3010,7 +3012,7 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>57</v>
       </c>
@@ -3042,7 +3044,7 @@
         <v>144.96801239999999</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
@@ -3074,7 +3076,7 @@
         <v>144.9526066</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -3106,7 +3108,7 @@
         <v>144.35683760000001</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -3138,7 +3140,7 @@
         <v>145.14336</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -3170,7 +3172,7 @@
         <v>145.04823200000001</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -3202,7 +3204,7 @@
         <v>145.04823200000001</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -3234,7 +3236,7 @@
         <v>145.04823200000001</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
@@ -3266,7 +3268,7 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -3298,7 +3300,7 @@
         <v>144.35683760000001</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>71</v>
       </c>
@@ -3330,7 +3332,7 @@
         <v>144.9526066</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
@@ -3362,7 +3364,7 @@
         <v>144.9526066</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>71</v>
       </c>
@@ -3394,7 +3396,7 @@
         <v>145.0587903</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>78</v>
       </c>
@@ -3426,7 +3428,7 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -3458,7 +3460,7 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>78</v>
       </c>
@@ -3490,7 +3492,7 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
@@ -3522,7 +3524,7 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
@@ -3554,7 +3556,7 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
@@ -3586,7 +3588,7 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>82</v>
       </c>
@@ -3618,7 +3620,7 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>88</v>
       </c>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE08EA44-97F9-4E05-9532-AF1C500D172D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D456E99D-6725-4605-83D0-A557EFECA8DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC public exposure sites" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="171">
   <si>
     <t>Date</t>
   </si>
@@ -549,9 +549,6 @@
   </si>
   <si>
     <t>163 South Rd, Brighton East VIC 3187</t>
-  </si>
-  <si>
-    <t>19 May, 26 May</t>
   </si>
 </sst>
 </file>
@@ -954,8 +951,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:J72" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J72" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:J73" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J73" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="8"/>
@@ -1269,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D6" sqref="D6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,36 +1320,35 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D2" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="F2" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <f>DATE(2020,5,26)+14</f>
+        <v>43991</v>
       </c>
       <c r="G2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I2" s="1">
-        <v>-36.314870999999997</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>145.04196999999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1361,7 +1357,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1380,58 +1376,59 @@
         <v>43985</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I3" s="1">
-        <v>-37.928489999999996</v>
+        <v>-36.314870999999997</v>
       </c>
       <c r="J3" s="1">
-        <v>145.007454</v>
+        <v>145.04196999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="G4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I4" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.928489999999996</v>
       </c>
       <c r="J4" s="1">
-        <v>145.08623499999999</v>
+        <v>145.007454</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>171</v>
+      <c r="A5" s="4">
+        <v>43970</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D5" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43970</v>
       </c>
       <c r="E5" s="2">
@@ -1439,55 +1436,55 @@
         <v>43970</v>
       </c>
       <c r="F5" s="2">
-        <f>DATE(2020,5,26)+14</f>
-        <v>43991</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43984</v>
       </c>
       <c r="G5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43984</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I5" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="J5" s="1">
-        <v>145.01711499999999</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I6" s="1">
-        <v>-37.692610000000002</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>145.06382099999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1496,7 +1493,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1515,13 +1512,13 @@
         <v>43983</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="I7" s="1">
-        <v>-37.689222999999998</v>
+        <v>-37.692610000000002</v>
       </c>
       <c r="J7" s="1">
-        <v>144.60470799999999</v>
+        <v>145.06382099999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1530,7 +1527,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1549,13 +1546,13 @@
         <v>43983</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" s="1">
-        <v>-37.843631999999999</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="J8" s="1">
-        <v>144.78155899999999</v>
+        <v>144.60470799999999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1564,7 +1561,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1583,13 +1580,13 @@
         <v>43983</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I9" s="1">
-        <v>-37.730747999999998</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>145.086489</v>
+        <v>144.78155899999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1598,7 +1595,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1617,13 +1614,13 @@
         <v>43983</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I10" s="1">
-        <v>-37.702513000000003</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>144.80232599999999</v>
+        <v>145.086489</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1632,7 +1629,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1651,13 +1648,13 @@
         <v>43983</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I11" s="1">
-        <v>-37.673996000000002</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="J11" s="1">
-        <v>144.955354</v>
+        <v>144.80232599999999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1666,7 +1663,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1685,13 +1682,13 @@
         <v>43983</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I12" s="1">
-        <v>-37.576594</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="J12" s="1">
-        <v>144.72866500000001</v>
+        <v>144.955354</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1700,7 +1697,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1719,13 +1716,13 @@
         <v>43983</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I13" s="1">
-        <v>-37.879995000000001</v>
+        <v>-37.576594</v>
       </c>
       <c r="J13" s="1">
-        <v>144.70157699999999</v>
+        <v>144.72866500000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1734,7 +1731,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1753,13 +1750,13 @@
         <v>43983</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I14" s="1">
-        <v>-37.834014000000003</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>144.65285299999999</v>
+        <v>144.70157699999999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1768,7 +1765,7 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1787,13 +1784,13 @@
         <v>43983</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I15" s="1">
-        <v>-37.942098999999999</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="J15" s="1">
-        <v>145.16768400000001</v>
+        <v>144.65285299999999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1802,7 +1799,7 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1821,13 +1818,13 @@
         <v>43983</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I16" s="1">
-        <v>-37.664667000000001</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>144.74749</v>
+        <v>145.16768400000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1836,7 +1833,7 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1855,13 +1852,13 @@
         <v>43983</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I17" s="1">
-        <v>-37.665416999999998</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>144.75335899999999</v>
+        <v>144.74749</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1870,7 +1867,7 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1889,47 +1886,47 @@
         <v>43983</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I18" s="1">
-        <v>-37.738990000000001</v>
+        <v>-37.665416999999998</v>
       </c>
       <c r="J18" s="1">
-        <v>144.67997600000001</v>
+        <v>144.75335899999999</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B19" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="E19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="G19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>125</v>
+        <v>43983</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="I19" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.738990000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>144.921401</v>
+        <v>144.67997600000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1938,7 +1935,7 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1957,47 +1954,47 @@
         <v>43980</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I20" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.596122999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>144.888195</v>
+        <v>144.921401</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B21" s="5"/>
       <c r="C21" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="E21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="G21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I21" s="1">
-        <v>-37.783104999999999</v>
+        <v>-37.772379999999998</v>
       </c>
       <c r="J21" s="1">
-        <v>144.78539799999999</v>
+        <v>144.888195</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2006,7 +2003,7 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2025,22 +2022,22 @@
         <v>43973</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I22" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>145.02005199999999</v>
+        <v>144.78539799999999</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43959</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2059,47 +2056,47 @@
         <v>43973</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I23" s="1">
-        <v>-37.689366</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="J23" s="1">
-        <v>144.958878</v>
+        <v>145.02005199999999</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B24" s="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="E24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="G24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I24" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.689366</v>
       </c>
       <c r="J24" s="1">
-        <v>144.43268900000001</v>
+        <v>144.958878</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2108,7 +2105,7 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2127,249 +2124,251 @@
         <v>43967</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I25" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>144.836118</v>
+        <v>144.43268900000001</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="E26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="F26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="G26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="I26" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="J26" s="1">
-        <v>144.83348079999999</v>
+        <v>144.836118</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="E27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="F27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="G27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="I27" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="J27" s="1">
-        <v>144.889926</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="E28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="F28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43964</v>
       </c>
       <c r="G28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
+        <v>43964</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I28" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.811678000000001</v>
       </c>
       <c r="J28" s="1">
-        <v>144.894632</v>
+        <v>144.889926</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="E29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="F29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="G29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I29" s="1">
-        <v>-37.759222999999999</v>
+        <v>-37.797176999999998</v>
       </c>
       <c r="J29" s="1">
-        <v>144.816754</v>
+        <v>144.894632</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>43907</v>
+      <c r="A30" s="4">
+        <v>43944</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
+        <v>43944</v>
       </c>
       <c r="E30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
+        <v>43944</v>
       </c>
       <c r="F30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43958</v>
       </c>
       <c r="G30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
+        <v>43958</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I30" s="1">
-        <v>-37.844318000000001</v>
+        <v>-37.759222999999999</v>
       </c>
       <c r="J30" s="1">
-        <v>145.009818</v>
+        <v>144.816754</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="E31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="F31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="G31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-37.844318000000001</v>
+      </c>
+      <c r="J31" s="1">
+        <v>145.009818</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="E32" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="F32" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43919</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="G32" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43919</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I32" s="1">
         <v>-37.813239000000003</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J32" s="1">
         <v>145.048047</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="2">
-        <v>43900</v>
-      </c>
-      <c r="E32" s="2">
-        <v>43900</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="2">
-        <v>43914</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I32" s="1">
-        <v>-37.776940699999997</v>
-      </c>
-      <c r="J32" s="1">
-        <v>144.98702499999999</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2377,10 +2376,10 @@
         <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D33" s="2">
         <v>43900</v>
@@ -2395,13 +2394,13 @@
         <v>43914</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I33" s="1">
-        <v>-37.772095999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="J33" s="1">
-        <v>144.91609500000001</v>
+        <v>144.98702499999999</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2409,10 +2408,10 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2">
         <v>43900</v>
@@ -2427,36 +2426,36 @@
         <v>43914</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I34" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="J34" s="1">
-        <v>144.83348079999999</v>
+        <v>144.91609500000001</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="E35" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G35" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>97</v>
@@ -2473,10 +2472,10 @@
         <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D36" s="2">
         <v>43899</v>
@@ -2502,25 +2501,25 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D37" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="E37" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G37" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>97</v>
@@ -2534,7 +2533,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>24</v>
@@ -2543,16 +2542,16 @@
         <v>25</v>
       </c>
       <c r="D38" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="E38" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G38" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>97</v>
@@ -2566,25 +2565,25 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D39" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="E39" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G39" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>97</v>
@@ -2601,10 +2600,10 @@
         <v>29</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2">
         <v>43896</v>
@@ -2630,34 +2629,34 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="E41" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G41" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I41" s="1">
-        <v>-37.821452700000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="J41" s="1">
-        <v>144.98347200000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2665,10 +2664,10 @@
         <v>23</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2">
         <v>43898</v>
@@ -2683,13 +2682,13 @@
         <v>43912</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I42" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.821452700000002</v>
       </c>
       <c r="J42" s="1">
-        <v>145.0729384</v>
+        <v>144.98347200000001</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2697,10 +2696,10 @@
         <v>23</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D43" s="2">
         <v>43898</v>
@@ -2715,45 +2714,45 @@
         <v>43912</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I43" s="1">
-        <v>-37.790782999999998</v>
+        <v>-37.800963000000003</v>
       </c>
       <c r="J43" s="1">
-        <v>144.99816200000001</v>
+        <v>145.0729384</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="E44" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G44" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I44" s="1">
-        <v>-37.824981299999997</v>
+        <v>-37.790782999999998</v>
       </c>
       <c r="J44" s="1">
-        <v>144.98361299999999</v>
+        <v>144.99816200000001</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2761,10 +2760,10 @@
         <v>27</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D45" s="2">
         <v>43897</v>
@@ -2779,13 +2778,13 @@
         <v>43911</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I45" s="1">
-        <v>-37.841103699999998</v>
+        <v>-37.824981299999997</v>
       </c>
       <c r="J45" s="1">
-        <v>144.955806</v>
+        <v>144.98361299999999</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2793,10 +2792,10 @@
         <v>27</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2">
         <v>43897</v>
@@ -2811,36 +2810,36 @@
         <v>43911</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I46" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.841103699999998</v>
       </c>
       <c r="J46" s="1">
-        <v>144.9564881</v>
+        <v>144.955806</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D47" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="E47" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G47" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>103</v>
@@ -2854,57 +2853,57 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D48" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="E48" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G48" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I48" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="J48" s="1">
-        <v>144.31841800000001</v>
+        <v>144.9564881</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="E49" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G49" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>104</v>
@@ -2918,66 +2917,66 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D50" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="E50" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G50" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I50" s="1">
-        <v>-37.863344400000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="J50" s="1">
-        <v>145.08682759999999</v>
+        <v>144.31841800000001</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D51" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="E51" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G51" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I51" s="1">
-        <v>-37.809265000000003</v>
+        <v>-37.863344400000003</v>
       </c>
       <c r="J51" s="1">
-        <v>144.99495099999999</v>
+        <v>145.08682759999999</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2985,10 +2984,10 @@
         <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D52" s="2">
         <v>43896</v>
@@ -3003,45 +3002,45 @@
         <v>43910</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="I52" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.809265000000003</v>
       </c>
       <c r="J52" s="1">
-        <v>144.83348079999999</v>
+        <v>144.99495099999999</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D53" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="E53" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G53" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="I53" s="1">
-        <v>-37.797809200000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="J53" s="1">
-        <v>144.96801239999999</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3049,10 +3048,10 @@
         <v>57</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D54" s="2">
         <v>43895</v>
@@ -3067,13 +3066,13 @@
         <v>43909</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I54" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.797809200000003</v>
       </c>
       <c r="J54" s="1">
-        <v>144.9526066</v>
+        <v>144.96801239999999</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3099,56 +3098,56 @@
         <v>43909</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I55" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="J55" s="1">
-        <v>144.35683760000001</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D56" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="E56" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G56" s="2">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I56" s="1">
-        <v>-37.028215000000003</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="J56" s="1">
-        <v>145.14336</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D57" s="2">
         <v>43893</v>
@@ -3157,19 +3156,19 @@
         <v>43893</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G57" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I57" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.028215000000003</v>
       </c>
       <c r="J57" s="1">
-        <v>145.04823200000001</v>
+        <v>145.14336</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3183,7 +3182,7 @@
         <v>69</v>
       </c>
       <c r="D58" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="E58" s="2">
         <v>43893</v>
@@ -3215,7 +3214,7 @@
         <v>69</v>
       </c>
       <c r="D59" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="E59" s="2">
         <v>43893</v>
@@ -3238,34 +3237,34 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D60" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="E60" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G60" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="I60" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="J60" s="1">
-        <v>144.83348079999999</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3273,10 +3272,10 @@
         <v>71</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D61" s="2">
         <v>43892</v>
@@ -3291,13 +3290,13 @@
         <v>43906</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I61" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="J61" s="1">
-        <v>144.35683760000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3323,13 +3322,13 @@
         <v>43906</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I62" s="1">
-        <v>-37.816394899999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="J62" s="1">
-        <v>144.9526066</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3337,10 +3336,10 @@
         <v>71</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D63" s="2">
         <v>43892</v>
@@ -3387,24 +3386,24 @@
         <v>43906</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I64" s="1">
-        <v>-37.826660799999999</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="J64" s="1">
-        <v>145.0587903</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D65" s="2">
         <v>43892</v>
@@ -3413,19 +3412,19 @@
         <v>43892</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G65" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I65" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.826660799999999</v>
       </c>
       <c r="J65" s="1">
-        <v>145.00550799999999</v>
+        <v>145.0587903</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3439,7 +3438,7 @@
         <v>80</v>
       </c>
       <c r="D66" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="E66" s="2">
         <v>43892</v>
@@ -3471,7 +3470,7 @@
         <v>80</v>
       </c>
       <c r="D67" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="E67" s="2">
         <v>43892</v>
@@ -3503,7 +3502,7 @@
         <v>80</v>
       </c>
       <c r="D68" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="E68" s="2">
         <v>43892</v>
@@ -3535,7 +3534,7 @@
         <v>80</v>
       </c>
       <c r="D69" s="2">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="E69" s="2">
         <v>43892</v>
@@ -3558,34 +3557,34 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D70" s="2">
-        <v>43890</v>
+        <v>43896</v>
       </c>
       <c r="E70" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G70" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="I70" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="J70" s="1">
-        <v>144.83348079999999</v>
+        <v>145.00550799999999</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3593,10 +3592,10 @@
         <v>82</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D71" s="2">
         <v>43890</v>
@@ -3622,25 +3621,25 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D72" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="E72" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G72" s="2">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>97</v>
@@ -3649,6 +3648,38 @@
         <v>-37.667110999999998</v>
       </c>
       <c r="J72" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="2">
+        <v>43889</v>
+      </c>
+      <c r="E73" s="2">
+        <v>43889</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="2">
+        <v>43903</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="J73" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D456E99D-6725-4605-83D0-A557EFECA8DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F360C758-235D-44FF-B08B-5A7D2861FB82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
@@ -1269,7 +1269,7 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,11 +1327,12 @@
         <v>165</v>
       </c>
       <c r="D2" s="2">
-        <v>43970</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43977</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="F2" s="2">
         <f>DATE(2020,5,26)+14</f>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F360C758-235D-44FF-B08B-5A7D2861FB82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC6B275-C675-4A3B-8902-A136D42F7259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
@@ -1269,7 +1269,7 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC6B275-C675-4A3B-8902-A136D42F7259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F1EF71-B9B0-4DEB-9F61-54D8C15C779B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="173">
   <si>
     <t>Date</t>
   </si>
@@ -549,6 +549,12 @@
   </si>
   <si>
     <t>163 South Rd, Brighton East VIC 3187</t>
+  </si>
+  <si>
+    <t>Rydges on Swanston, Melbourne</t>
+  </si>
+  <si>
+    <t>701 Swanston St, Carlton VIC 3053</t>
   </si>
 </sst>
 </file>
@@ -951,8 +957,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:J73" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J73" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:J75" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J75" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="8"/>
@@ -1266,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,240 +1326,240 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="F2" s="2">
-        <f>DATE(2020,5,26)+14</f>
-        <v>43991</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43992</v>
       </c>
       <c r="G2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I2" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="J2" s="1">
-        <v>145.01711499999999</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>43971</v>
+        <v>43978</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43978</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43978</v>
       </c>
       <c r="F3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43992</v>
       </c>
       <c r="G3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43992</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I3" s="1">
-        <v>-36.314870999999997</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="J3" s="1">
-        <v>145.04196999999999</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="G4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I4" s="1">
-        <v>-37.928489999999996</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>145.007454</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="G5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I5" s="1">
-        <v>-37.841634999999997</v>
+        <v>-36.314870999999997</v>
       </c>
       <c r="J5" s="1">
-        <v>145.08623499999999</v>
+        <v>145.04196999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="G6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I6" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.928489999999996</v>
       </c>
       <c r="J6" s="1">
-        <v>145.01711499999999</v>
+        <v>145.007454</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="E7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I7" s="1">
-        <v>-37.692610000000002</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="J7" s="1">
-        <v>145.06382099999999</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="D8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="E8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="I8" s="1">
-        <v>-37.689222999999998</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>144.60470799999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1562,7 +1568,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="D9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1581,13 +1587,13 @@
         <v>43983</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="I9" s="1">
-        <v>-37.843631999999999</v>
+        <v>-37.692610000000002</v>
       </c>
       <c r="J9" s="1">
-        <v>144.78155899999999</v>
+        <v>145.06382099999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1596,7 +1602,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1615,13 +1621,13 @@
         <v>43983</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I10" s="1">
-        <v>-37.730747999999998</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>145.086489</v>
+        <v>144.60470799999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1630,7 +1636,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1649,13 +1655,13 @@
         <v>43983</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I11" s="1">
-        <v>-37.702513000000003</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>144.80232599999999</v>
+        <v>144.78155899999999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1664,7 +1670,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1683,13 +1689,13 @@
         <v>43983</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I12" s="1">
-        <v>-37.673996000000002</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="J12" s="1">
-        <v>144.955354</v>
+        <v>145.086489</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1698,7 +1704,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1717,13 +1723,13 @@
         <v>43983</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I13" s="1">
-        <v>-37.576594</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="J13" s="1">
-        <v>144.72866500000001</v>
+        <v>144.80232599999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1732,7 +1738,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1751,13 +1757,13 @@
         <v>43983</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I14" s="1">
-        <v>-37.879995000000001</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="J14" s="1">
-        <v>144.70157699999999</v>
+        <v>144.955354</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1766,7 +1772,7 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1785,13 +1791,13 @@
         <v>43983</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I15" s="1">
-        <v>-37.834014000000003</v>
+        <v>-37.576594</v>
       </c>
       <c r="J15" s="1">
-        <v>144.65285299999999</v>
+        <v>144.72866500000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1800,7 +1806,7 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1819,13 +1825,13 @@
         <v>43983</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I16" s="1">
-        <v>-37.942098999999999</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>145.16768400000001</v>
+        <v>144.70157699999999</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1834,7 +1840,7 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1853,13 +1859,13 @@
         <v>43983</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I17" s="1">
-        <v>-37.664667000000001</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="J17" s="1">
-        <v>144.74749</v>
+        <v>144.65285299999999</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1868,7 +1874,7 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1887,13 +1893,13 @@
         <v>43983</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I18" s="1">
-        <v>-37.665416999999998</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>144.75335899999999</v>
+        <v>145.16768400000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1902,7 +1908,7 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1921,158 +1927,158 @@
         <v>43983</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I19" s="1">
-        <v>-37.738990000000001</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>144.67997600000001</v>
+        <v>144.74749</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B20" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="E20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="G20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>125</v>
+        <v>43983</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="I20" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.665416999999998</v>
       </c>
       <c r="J20" s="1">
-        <v>144.921401</v>
+        <v>144.75335899999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B21" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="D21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="E21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="G21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>126</v>
+        <v>43983</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="I21" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.738990000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>144.888195</v>
+        <v>144.67997600000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B22" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="E22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="G22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I22" s="1">
-        <v>-37.783104999999999</v>
+        <v>-37.596122999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>144.78539799999999</v>
+        <v>144.921401</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B23" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B23" s="5"/>
       <c r="C23" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="E23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="G23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I23" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.772379999999998</v>
       </c>
       <c r="J23" s="1">
-        <v>145.02005199999999</v>
+        <v>144.888195</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43959</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2091,349 +2097,353 @@
         <v>43973</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I24" s="1">
-        <v>-37.689366</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>144.958878</v>
+        <v>144.78539799999999</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="E25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="G25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I25" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="J25" s="1">
-        <v>144.43268900000001</v>
+        <v>145.02005199999999</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B26" s="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B26" s="5"/>
       <c r="C26" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="E26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="G26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I26" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.689366</v>
       </c>
       <c r="J26" s="1">
-        <v>144.836118</v>
+        <v>144.958878</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="E27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="F27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="G27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="I27" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="J27" s="1">
-        <v>144.83348079999999</v>
+        <v>144.43268900000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="E28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="F28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43967</v>
       </c>
       <c r="G28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
+        <v>43967</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I28" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="J28" s="1">
-        <v>144.889926</v>
+        <v>144.836118</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>43947</v>
+        <v>43951</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43951</v>
       </c>
       <c r="E29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
+        <v>43951</v>
       </c>
       <c r="F29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="G29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="I29" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="J29" s="1">
-        <v>144.894632</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>43944</v>
+        <v>43950</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43944</v>
+        <v>43950</v>
       </c>
       <c r="E30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
+        <v>43950</v>
       </c>
       <c r="F30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
+        <v>43964</v>
       </c>
       <c r="G30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
+        <v>43964</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I30" s="1">
-        <v>-37.759222999999999</v>
+        <v>-37.811678000000001</v>
       </c>
       <c r="J30" s="1">
-        <v>144.816754</v>
+        <v>144.889926</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>43907</v>
+      <c r="A31" s="4">
+        <v>43947</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
+        <v>43947</v>
       </c>
       <c r="E31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
+        <v>43947</v>
       </c>
       <c r="F31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43961</v>
       </c>
       <c r="G31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
+        <v>43961</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I31" s="1">
-        <v>-37.844318000000001</v>
+        <v>-37.797176999999998</v>
       </c>
       <c r="J31" s="1">
-        <v>145.009818</v>
+        <v>144.894632</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>43905</v>
+      <c r="A32" s="4">
+        <v>43944</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43905</v>
+        <v>43944</v>
       </c>
       <c r="E32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43905</v>
+        <v>43944</v>
       </c>
       <c r="F32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43919</v>
+        <v>43958</v>
       </c>
       <c r="G32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43958</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-37.759222999999999</v>
+      </c>
+      <c r="J32" s="1">
+        <v>144.816754</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="E33" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="F33" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43921</v>
+      </c>
+      <c r="G33" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-37.844318000000001</v>
+      </c>
+      <c r="J33" s="1">
+        <v>145.009818</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="E34" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="F34" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43919</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="G34" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43919</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I34" s="1">
         <v>-37.813239000000003</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J34" s="1">
         <v>145.048047</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="2">
-        <v>43900</v>
-      </c>
-      <c r="E33" s="2">
-        <v>43900</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="2">
-        <v>43914</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I33" s="1">
-        <v>-37.776940699999997</v>
-      </c>
-      <c r="J33" s="1">
-        <v>144.98702499999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="2">
-        <v>43900</v>
-      </c>
-      <c r="E34" s="2">
-        <v>43900</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="2">
-        <v>43914</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I34" s="1">
-        <v>-37.772095999999998</v>
-      </c>
-      <c r="J34" s="1">
-        <v>144.91609500000001</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2441,10 +2451,10 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D35" s="2">
         <v>43900</v>
@@ -2459,68 +2469,68 @@
         <v>43914</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I35" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="J35" s="1">
-        <v>144.83348079999999</v>
+        <v>144.98702499999999</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="E36" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G36" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I36" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="J36" s="1">
-        <v>144.83348079999999</v>
+        <v>144.91609500000001</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D37" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="E37" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G37" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>97</v>
@@ -2534,25 +2544,25 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D38" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="E38" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G38" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>97</v>
@@ -2566,25 +2576,25 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D39" s="2">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="E39" s="2">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G39" s="2">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>97</v>
@@ -2598,25 +2608,25 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="E40" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G40" s="2">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>97</v>
@@ -2630,25 +2640,25 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="E41" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G41" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>97</v>
@@ -2662,66 +2672,66 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="E42" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G42" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I42" s="1">
-        <v>-37.821452700000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="J42" s="1">
-        <v>144.98347200000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="E43" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G43" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I43" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="J43" s="1">
-        <v>145.0729384</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2729,10 +2739,10 @@
         <v>23</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D44" s="2">
         <v>43898</v>
@@ -2747,77 +2757,77 @@
         <v>43912</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I44" s="1">
-        <v>-37.790782999999998</v>
+        <v>-37.821452700000002</v>
       </c>
       <c r="J44" s="1">
-        <v>144.99816200000001</v>
+        <v>144.98347200000001</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D45" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="E45" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G45" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I45" s="1">
-        <v>-37.824981299999997</v>
+        <v>-37.800963000000003</v>
       </c>
       <c r="J45" s="1">
-        <v>144.98361299999999</v>
+        <v>145.0729384</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="E46" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G46" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I46" s="1">
-        <v>-37.841103699999998</v>
+        <v>-37.790782999999998</v>
       </c>
       <c r="J46" s="1">
-        <v>144.955806</v>
+        <v>144.99816200000001</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2825,10 +2835,10 @@
         <v>27</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D47" s="2">
         <v>43897</v>
@@ -2843,45 +2853,45 @@
         <v>43911</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I47" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.824981299999997</v>
       </c>
       <c r="J47" s="1">
-        <v>144.9564881</v>
+        <v>144.98361299999999</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="E48" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G48" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I48" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.841103699999998</v>
       </c>
       <c r="J48" s="1">
-        <v>144.9564881</v>
+        <v>144.955806</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2889,10 +2899,10 @@
         <v>27</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D49" s="2">
         <v>43897</v>
@@ -2907,13 +2917,13 @@
         <v>43911</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I49" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="J49" s="1">
-        <v>144.31841800000001</v>
+        <v>144.9564881</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2921,10 +2931,10 @@
         <v>29</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D50" s="2">
         <v>43896</v>
@@ -2939,13 +2949,13 @@
         <v>43910</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I50" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="J50" s="1">
-        <v>144.31841800000001</v>
+        <v>144.9564881</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2953,10 +2963,10 @@
         <v>27</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D51" s="2">
         <v>43897</v>
@@ -2971,13 +2981,13 @@
         <v>43911</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I51" s="1">
-        <v>-37.863344400000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="J51" s="1">
-        <v>145.08682759999999</v>
+        <v>144.31841800000001</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2985,10 +2995,10 @@
         <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D52" s="2">
         <v>43896</v>
@@ -3003,109 +3013,109 @@
         <v>43910</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I52" s="1">
-        <v>-37.809265000000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="J52" s="1">
-        <v>144.99495099999999</v>
+        <v>144.31841800000001</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D53" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="E53" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G53" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="I53" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.863344400000003</v>
       </c>
       <c r="J53" s="1">
-        <v>144.83348079999999</v>
+        <v>145.08682759999999</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D54" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="E54" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G54" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I54" s="1">
-        <v>-37.797809200000003</v>
+        <v>-37.809265000000003</v>
       </c>
       <c r="J54" s="1">
-        <v>144.96801239999999</v>
+        <v>144.99495099999999</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D55" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="E55" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="G55" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I55" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="J55" s="1">
-        <v>144.9526066</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3113,10 +3123,10 @@
         <v>57</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D56" s="2">
         <v>43895</v>
@@ -3131,109 +3141,109 @@
         <v>43909</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I56" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.797809200000003</v>
       </c>
       <c r="J56" s="1">
-        <v>144.35683760000001</v>
+        <v>144.96801239999999</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D57" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="E57" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G57" s="2">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I57" s="1">
-        <v>-37.028215000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="J57" s="1">
-        <v>145.14336</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D58" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="E58" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G58" s="2">
         <v>43909</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I58" s="1">
-        <v>-37.720556999999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="J58" s="1">
-        <v>145.04823200000001</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D59" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="E59" s="2">
         <v>43893</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G59" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I59" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.028215000000003</v>
       </c>
       <c r="J59" s="1">
-        <v>145.04823200000001</v>
+        <v>145.14336</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3247,7 +3257,7 @@
         <v>69</v>
       </c>
       <c r="D60" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="E60" s="2">
         <v>43893</v>
@@ -3270,66 +3280,66 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D61" s="2">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="E61" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G61" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="I61" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="J61" s="1">
-        <v>144.83348079999999</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D62" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="E62" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G62" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I62" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="J62" s="1">
-        <v>144.35683760000001</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3337,10 +3347,10 @@
         <v>71</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D63" s="2">
         <v>43892</v>
@@ -3355,13 +3365,13 @@
         <v>43906</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I63" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="J63" s="1">
-        <v>144.9526066</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3369,10 +3379,10 @@
         <v>71</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D64" s="2">
         <v>43892</v>
@@ -3387,13 +3397,13 @@
         <v>43906</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I64" s="1">
-        <v>-37.816394899999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="J64" s="1">
-        <v>144.9526066</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3401,10 +3411,10 @@
         <v>71</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D65" s="2">
         <v>43892</v>
@@ -3419,24 +3429,24 @@
         <v>43906</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I65" s="1">
-        <v>-37.826660799999999</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="J65" s="1">
-        <v>145.0587903</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D66" s="2">
         <v>43892</v>
@@ -3445,51 +3455,51 @@
         <v>43892</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G66" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I66" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="J66" s="1">
-        <v>145.00550799999999</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D67" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="E67" s="2">
         <v>43892</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G67" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I67" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.826660799999999</v>
       </c>
       <c r="J67" s="1">
-        <v>145.00550799999999</v>
+        <v>145.0587903</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3503,7 +3513,7 @@
         <v>80</v>
       </c>
       <c r="D68" s="2">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="E68" s="2">
         <v>43892</v>
@@ -3535,7 +3545,7 @@
         <v>80</v>
       </c>
       <c r="D69" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="E69" s="2">
         <v>43892</v>
@@ -3567,7 +3577,7 @@
         <v>80</v>
       </c>
       <c r="D70" s="2">
-        <v>43896</v>
+        <v>43894</v>
       </c>
       <c r="E70" s="2">
         <v>43892</v>
@@ -3590,89 +3600,89 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D71" s="2">
-        <v>43890</v>
+        <v>43895</v>
       </c>
       <c r="E71" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G71" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="I71" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="J71" s="1">
-        <v>144.83348079999999</v>
+        <v>145.00550799999999</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D72" s="2">
-        <v>43890</v>
+        <v>43896</v>
       </c>
       <c r="E72" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G72" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="I72" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="J72" s="1">
-        <v>144.83348079999999</v>
+        <v>145.00550799999999</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D73" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="E73" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G73" s="2">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>97</v>
@@ -3681,6 +3691,70 @@
         <v>-37.667110999999998</v>
       </c>
       <c r="J73" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E74" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G74" s="2">
+        <v>43904</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I74" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="J74" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="2">
+        <v>43889</v>
+      </c>
+      <c r="E75" s="2">
+        <v>43889</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="2">
+        <v>43903</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I75" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="J75" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F1EF71-B9B0-4DEB-9F61-54D8C15C779B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649F15A4-FC51-42F8-85DD-280B9C1B1258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="177">
   <si>
     <t>Date</t>
   </si>
@@ -555,13 +555,25 @@
   </si>
   <si>
     <t>701 Swanston St, Carlton VIC 3053</t>
+  </si>
+  <si>
+    <t>News Link</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-28-may-2020</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-27-may-2020</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-26-may-2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +599,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -605,21 +625,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -957,19 +1007,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:J75" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J75" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00BBE98B-CFE5-4E6E-BEE1-82771B152607}" name="Location" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{DE78F3D9-079C-462E-820F-C45FF7810726}" name="Exposure Date" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{78D0D3E4-FEAB-438E-93D1-655FC72C65B7}" name="Exposure Start Date" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{2CC131BD-98E1-4A40-87C0-41E319F81D64}" name="Onset of symptoms up to" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{23761236-70D9-4987-859C-768C8269BF16}" name="Onset End Date" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{8622C8B5-3655-444D-B8EB-E8B75B0C5F18}" name="Location for Geocoding" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{BCBA3A15-1C23-4B92-A8CC-E716035D4373}" name="Latitude" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{6B289C17-6F7F-48A4-B992-C86D180F888E}" name="Longitude" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K76" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K76" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00BBE98B-CFE5-4E6E-BEE1-82771B152607}" name="Location" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{03AFA42C-5079-45CB-9771-A740D59BF480}" name="News Link" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{DE78F3D9-079C-462E-820F-C45FF7810726}" name="Exposure Date" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{78D0D3E4-FEAB-438E-93D1-655FC72C65B7}" name="Exposure Start Date" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{2CC131BD-98E1-4A40-87C0-41E319F81D64}" name="Onset of symptoms up to" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{23761236-70D9-4987-859C-768C8269BF16}" name="Onset End Date" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{8622C8B5-3655-444D-B8EB-E8B75B0C5F18}" name="Location for Geocoding" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{BCBA3A15-1C23-4B92-A8CC-E716035D4373}" name="Latitude" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{6B289C17-6F7F-48A4-B992-C86D180F888E}" name="Longitude" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1272,10 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,16 +1334,17 @@
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="49.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="96.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="96.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1303,1344 +1355,1396 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43979</v>
+      </c>
+      <c r="F2" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43979</v>
+      </c>
+      <c r="G2" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43993</v>
+      </c>
+      <c r="H2" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43993</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-37.801332000000002</v>
+      </c>
+      <c r="K2" s="1">
+        <v>144.96363500000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>43978</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43978</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43978</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43992</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43992</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J3" s="1">
         <v>-37.801332000000002</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K3" s="1">
         <v>144.96363500000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>43978</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43978</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43978</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43992</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43992</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J4" s="1">
         <v>-37.841634999999997</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K4" s="1">
         <v>145.08623499999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>43977</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43977</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43977</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43991</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43991</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J5" s="1">
         <v>-37.884267000000001</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K5" s="1">
         <v>145.01711499999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>43971</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="1"/>
+      <c r="E6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43971</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43971</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43985</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43985</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J6" s="1">
         <v>-36.314870999999997</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K6" s="1">
         <v>145.04196999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>43971</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="1"/>
+      <c r="E7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43971</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43971</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43985</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43985</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J7" s="1">
         <v>-37.928489999999996</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K7" s="1">
         <v>145.007454</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>43970</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="1"/>
+      <c r="E8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43970</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43970</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43984</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43984</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J8" s="1">
         <v>-37.841634999999997</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K8" s="1">
         <v>145.08623499999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>43970</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43970</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43970</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43984</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43984</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J9" s="1">
         <v>-37.884267000000001</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K9" s="1">
         <v>145.01711499999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>43969</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="1"/>
+      <c r="E10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43969</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J10" s="1">
         <v>-37.692610000000002</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K10" s="1">
         <v>145.06382099999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>43969</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="1"/>
+      <c r="E11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43969</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J11" s="1">
         <v>-37.689222999999998</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K11" s="1">
         <v>144.60470799999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>43969</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="1"/>
+      <c r="E12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43969</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J12" s="1">
         <v>-37.843631999999999</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K12" s="1">
         <v>144.78155899999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>43969</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="1"/>
+      <c r="E13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43969</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J13" s="1">
         <v>-37.730747999999998</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K13" s="1">
         <v>145.086489</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>43969</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="1"/>
+      <c r="E14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43969</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J14" s="1">
         <v>-37.702513000000003</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K14" s="1">
         <v>144.80232599999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>43969</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="1"/>
+      <c r="E15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43969</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J15" s="1">
         <v>-37.673996000000002</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K15" s="1">
         <v>144.955354</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>43969</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="1"/>
+      <c r="E16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43969</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J16" s="1">
         <v>-37.576594</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K16" s="1">
         <v>144.72866500000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>43969</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="1"/>
+      <c r="E17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43969</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J17" s="1">
         <v>-37.879995000000001</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K17" s="1">
         <v>144.70157699999999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>43969</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="1"/>
+      <c r="E18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43969</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J18" s="1">
         <v>-37.834014000000003</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K18" s="1">
         <v>144.65285299999999</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>43969</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="1"/>
+      <c r="E19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43969</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J19" s="1">
         <v>-37.942098999999999</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K19" s="1">
         <v>145.16768400000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>43969</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="1"/>
+      <c r="E20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43969</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J20" s="1">
         <v>-37.664667000000001</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K20" s="1">
         <v>144.74749</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>43969</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="1"/>
+      <c r="E21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43969</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J21" s="1">
         <v>-37.665416999999998</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K21" s="1">
         <v>144.75335899999999</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>43969</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="1"/>
+      <c r="E22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43969</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43983</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43983</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J22" s="1">
         <v>-37.738990000000001</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K22" s="1">
         <v>144.67997600000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>43966</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="1" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="1"/>
+      <c r="E23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43966</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43966</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43980</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43980</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J23" s="1">
         <v>-37.596122999999999</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K23" s="1">
         <v>144.921401</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>43966</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="1" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="1"/>
+      <c r="E24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43966</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43966</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43980</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43980</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J24" s="1">
         <v>-37.772379999999998</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K24" s="1">
         <v>144.888195</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>43959</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="1"/>
+      <c r="E25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43959</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43959</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43973</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43973</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J25" s="1">
         <v>-37.783104999999999</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K25" s="1">
         <v>144.78539799999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>43959</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D26" s="1"/>
+      <c r="E26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43959</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43959</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43973</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43973</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J26" s="1">
         <v>-37.766146999999997</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K26" s="1">
         <v>145.02005199999999</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>43959</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="1" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D27" s="1"/>
+      <c r="E27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43959</v>
       </c>
-      <c r="E26" s="2">
+      <c r="F27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43959</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43973</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43973</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J27" s="1">
         <v>-37.689366</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K27" s="1">
         <v>144.958878</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>43953</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="1"/>
+      <c r="E28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43953</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43953</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43967</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43967</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J28" s="1">
         <v>-37.678277999999999</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K28" s="1">
         <v>144.43268900000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>43953</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D29" s="1"/>
+      <c r="E29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43953</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43953</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43967</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43967</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J29" s="1">
         <v>-37.810712000000002</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K29" s="1">
         <v>144.836118</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>43951</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D30" s="1"/>
+      <c r="E30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43951</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43951</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43965</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43965</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J30" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K30" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>43950</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D31" s="1"/>
+      <c r="E31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43950</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43950</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43964</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43964</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J31" s="1">
         <v>-37.811678000000001</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K31" s="1">
         <v>144.889926</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>43947</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D32" s="1"/>
+      <c r="E32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43947</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43947</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43961</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43961</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J32" s="1">
         <v>-37.797176999999998</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K32" s="1">
         <v>144.894632</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>43944</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="1"/>
+      <c r="E33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43944</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43944</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43958</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43958</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J33" s="1">
         <v>-37.759222999999999</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K33" s="1">
         <v>144.816754</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>43907</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D34" s="1"/>
+      <c r="E34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43907</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43907</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43921</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43921</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J34" s="1">
         <v>-37.844318000000001</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K34" s="1">
         <v>145.009818</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>43905</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="1"/>
+      <c r="E35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43905</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43905</v>
       </c>
-      <c r="F34" s="2">
+      <c r="G35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43919</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43919</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J35" s="1">
         <v>-37.813239000000003</v>
       </c>
-      <c r="J34" s="1">
+      <c r="K35" s="1">
         <v>145.048047</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="2">
-        <v>43900</v>
-      </c>
-      <c r="E35" s="2">
-        <v>43900</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="2">
-        <v>43914</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I35" s="1">
-        <v>-37.776940699999997</v>
-      </c>
-      <c r="J35" s="1">
-        <v>144.98702499999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="2">
-        <v>43900</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="2">
         <v>43900</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2">
+        <v>43900</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <v>43914</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I36" s="1">
-        <v>-37.772095999999998</v>
+      <c r="I36" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="J36" s="1">
-        <v>144.91609500000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-37.776940699999997</v>
+      </c>
+      <c r="K36" s="1">
+        <v>144.98702499999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="2">
-        <v>43900</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="2">
         <v>43900</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2">
+        <v>43900</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <v>43914</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J37" s="1">
+        <v>-37.772095999999998</v>
+      </c>
+      <c r="K37" s="1">
+        <v>144.91609500000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2">
+        <v>43900</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43900</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43914</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J38" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K38" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="2">
-        <v>43899</v>
-      </c>
-      <c r="E38" s="2">
-        <v>43899</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="2">
-        <v>43913</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I38" s="1">
-        <v>-37.667110999999998</v>
-      </c>
-      <c r="J38" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="2">
-        <v>43899</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="2">
         <v>43899</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2">
+        <v>43899</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <v>43913</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I39" s="1">
+      <c r="J39" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="J39" s="1">
+      <c r="K39" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2">
+        <v>43899</v>
+      </c>
+      <c r="F40" s="2">
+        <v>43899</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="2">
+        <v>43913</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K40" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="2">
-        <v>43898</v>
-      </c>
-      <c r="E40" s="2">
-        <v>43898</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="2">
-        <v>43912</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I40" s="1">
-        <v>-37.667110999999998</v>
-      </c>
-      <c r="J40" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>24</v>
@@ -2648,541 +2752,558 @@
       <c r="C41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1"/>
+      <c r="E41" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F41" s="2">
+        <v>43898</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="2">
+        <v>43912</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J41" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K41" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="2">
         <v>43897</v>
       </c>
-      <c r="E41" s="2">
+      <c r="F42" s="2">
         <v>43897</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="2">
+      <c r="H42" s="2">
         <v>43911</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I41" s="1">
+      <c r="J42" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K42" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="2">
-        <v>43896</v>
-      </c>
-      <c r="E42" s="2">
-        <v>43896</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="2">
-        <v>43910</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I42" s="1">
-        <v>-37.667110999999998</v>
-      </c>
-      <c r="J42" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="2">
-        <v>43896</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D43" s="1"/>
       <c r="E43" s="2">
         <v>43896</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="2">
+        <v>43896</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
         <v>43910</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I43" s="1">
+      <c r="J43" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="J43" s="1">
+      <c r="K43" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="2">
-        <v>43898</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="2">
-        <v>43898</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="2">
-        <v>43912</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I44" s="1">
-        <v>-37.821452700000002</v>
+        <v>43896</v>
+      </c>
+      <c r="F44" s="2">
+        <v>43896</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="2">
+        <v>43910</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="J44" s="1">
-        <v>144.98347200000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K44" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="2">
-        <v>43898</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D45" s="1"/>
       <c r="E45" s="2">
         <v>43898</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="2">
+        <v>43898</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="2">
+      <c r="H45" s="2">
         <v>43912</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I45" s="1">
-        <v>-37.800963000000003</v>
+      <c r="I45" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="J45" s="1">
-        <v>145.0729384</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-37.821452700000002</v>
+      </c>
+      <c r="K45" s="1">
+        <v>144.98347200000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="2">
-        <v>43898</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="2">
         <v>43898</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2">
+        <v>43898</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="2">
+      <c r="H46" s="2">
         <v>43912</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J46" s="1">
+        <v>-37.800963000000003</v>
+      </c>
+      <c r="K46" s="1">
+        <v>145.0729384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="2">
+        <v>43898</v>
+      </c>
+      <c r="F47" s="2">
+        <v>43898</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="2">
+        <v>43912</v>
+      </c>
+      <c r="I47" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I46" s="1">
+      <c r="J47" s="1">
         <v>-37.790782999999998</v>
       </c>
-      <c r="J46" s="1">
+      <c r="K47" s="1">
         <v>144.99816200000001</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="2">
-        <v>43897</v>
-      </c>
-      <c r="E47" s="2">
-        <v>43897</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" s="2">
-        <v>43911</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I47" s="1">
-        <v>-37.824981299999997</v>
-      </c>
-      <c r="J47" s="1">
-        <v>144.98361299999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="2">
-        <v>43897</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D48" s="1"/>
       <c r="E48" s="2">
         <v>43897</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2">
+        <v>43897</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="2">
+      <c r="H48" s="2">
         <v>43911</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I48" s="1">
-        <v>-37.841103699999998</v>
+      <c r="I48" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="J48" s="1">
-        <v>144.955806</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-37.824981299999997</v>
+      </c>
+      <c r="K48" s="1">
+        <v>144.98361299999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="2">
-        <v>43897</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D49" s="1"/>
       <c r="E49" s="2">
         <v>43897</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="2">
+        <v>43897</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G49" s="2">
+      <c r="H49" s="2">
         <v>43911</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I49" s="1">
-        <v>-37.832173099999999</v>
+      <c r="I49" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="J49" s="1">
-        <v>144.9564881</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-37.841103699999998</v>
+      </c>
+      <c r="K49" s="1">
+        <v>144.955806</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1"/>
+      <c r="E50" s="2">
+        <v>43897</v>
+      </c>
+      <c r="F50" s="2">
+        <v>43897</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="2">
+        <v>43911</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J50" s="1">
+        <v>-37.832173099999999</v>
+      </c>
+      <c r="K50" s="1">
+        <v>144.9564881</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="2">
         <v>43896</v>
       </c>
-      <c r="E50" s="2">
+      <c r="F51" s="2">
         <v>43896</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G50" s="2">
+      <c r="H51" s="2">
         <v>43910</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I50" s="1">
+      <c r="J51" s="1">
         <v>-37.832173099999999</v>
       </c>
-      <c r="J50" s="1">
+      <c r="K51" s="1">
         <v>144.9564881</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="2">
-        <v>43897</v>
-      </c>
-      <c r="E51" s="2">
-        <v>43897</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" s="2">
-        <v>43911</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I51" s="1">
-        <v>-38.199002999999998</v>
-      </c>
-      <c r="J51" s="1">
-        <v>144.31841800000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1"/>
+      <c r="E52" s="2">
+        <v>43897</v>
+      </c>
+      <c r="F52" s="2">
+        <v>43897</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="2">
+        <v>43911</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J52" s="1">
+        <v>-38.199002999999998</v>
+      </c>
+      <c r="K52" s="1">
+        <v>144.31841800000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2">
         <v>43896</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F53" s="2">
         <v>43896</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G52" s="2">
+      <c r="H53" s="2">
         <v>43910</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I52" s="1">
+      <c r="J53" s="1">
         <v>-38.199002999999998</v>
       </c>
-      <c r="J52" s="1">
+      <c r="K53" s="1">
         <v>144.31841800000001</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D54" s="1"/>
+      <c r="E54" s="2">
         <v>43897</v>
       </c>
-      <c r="E53" s="2">
+      <c r="F54" s="2">
         <v>43897</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G53" s="2">
+      <c r="H54" s="2">
         <v>43911</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I53" s="1">
+      <c r="J54" s="1">
         <v>-37.863344400000003</v>
       </c>
-      <c r="J53" s="1">
+      <c r="K54" s="1">
         <v>145.08682759999999</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="2">
-        <v>43896</v>
-      </c>
-      <c r="E54" s="2">
-        <v>43896</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" s="2">
-        <v>43910</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I54" s="1">
-        <v>-37.809265000000003</v>
-      </c>
-      <c r="J54" s="1">
-        <v>144.99495099999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="2">
-        <v>43896</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D55" s="1"/>
       <c r="E55" s="2">
         <v>43896</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="2">
+        <v>43896</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G55" s="2">
+      <c r="H55" s="2">
         <v>43910</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="I55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J55" s="1">
+        <v>-37.809265000000003</v>
+      </c>
+      <c r="K55" s="1">
+        <v>144.99495099999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F56" s="2">
+        <v>43896</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="2">
+        <v>43910</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I55" s="1">
+      <c r="J56" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="J55" s="1">
+      <c r="K56" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="2">
-        <v>43895</v>
-      </c>
-      <c r="E56" s="2">
-        <v>43895</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G56" s="2">
-        <v>43909</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I56" s="1">
-        <v>-37.797809200000003</v>
-      </c>
-      <c r="J56" s="1">
-        <v>144.96801239999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="2">
-        <v>43895</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D57" s="1"/>
       <c r="E57" s="2">
         <v>43895</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="2">
+        <v>43895</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G57" s="2">
+      <c r="H57" s="2">
         <v>43909</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I57" s="1">
-        <v>-37.816394899999999</v>
+      <c r="I57" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="J57" s="1">
-        <v>144.9526066</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-37.797809200000003</v>
+      </c>
+      <c r="K57" s="1">
+        <v>144.96801239999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -3192,93 +3313,96 @@
       <c r="C58" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="2">
-        <v>43895</v>
-      </c>
+      <c r="D58" s="1"/>
       <c r="E58" s="2">
         <v>43895</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="2">
+        <v>43895</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G58" s="2">
+      <c r="H58" s="2">
         <v>43909</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J58" s="1">
+        <v>-37.816394899999999</v>
+      </c>
+      <c r="K58" s="1">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F59" s="2">
+        <v>43895</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H59" s="2">
+        <v>43909</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I58" s="1">
+      <c r="J59" s="1">
         <v>-38.145009600000002</v>
       </c>
-      <c r="J58" s="1">
+      <c r="K59" s="1">
         <v>144.35683760000001</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="2">
-        <v>43893</v>
-      </c>
-      <c r="E59" s="2">
-        <v>43893</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G59" s="2">
-        <v>43907</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I59" s="1">
-        <v>-37.028215000000003</v>
-      </c>
-      <c r="J59" s="1">
-        <v>145.14336</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" s="2">
-        <v>43893</v>
-      </c>
+      <c r="D60" s="1"/>
       <c r="E60" s="2">
         <v>43893</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G60" s="2">
-        <v>43909</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I60" s="1">
-        <v>-37.720556999999999</v>
+      <c r="F60" s="2">
+        <v>43893</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" s="2">
+        <v>43907</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="J60" s="1">
-        <v>145.04823200000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-37.028215000000003</v>
+      </c>
+      <c r="K60" s="1">
+        <v>145.14336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>67</v>
       </c>
@@ -3288,29 +3412,30 @@
       <c r="C61" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="2">
-        <v>43894</v>
-      </c>
+      <c r="D61" s="1"/>
       <c r="E61" s="2">
         <v>43893</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="2">
+        <v>43893</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G61" s="2">
+      <c r="H61" s="2">
         <v>43909</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I61" s="1">
+      <c r="J61" s="1">
         <v>-37.720556999999999</v>
       </c>
-      <c r="J61" s="1">
+      <c r="K61" s="1">
         <v>145.04823200000001</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
@@ -3320,93 +3445,96 @@
       <c r="C62" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1"/>
+      <c r="E62" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F62" s="2">
+        <v>43893</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H62" s="2">
+        <v>43909</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J62" s="1">
+        <v>-37.720556999999999</v>
+      </c>
+      <c r="K62" s="1">
+        <v>145.04823200000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="2">
         <v>43895</v>
       </c>
-      <c r="E62" s="2">
+      <c r="F63" s="2">
         <v>43893</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G62" s="2">
+      <c r="H63" s="2">
         <v>43909</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I62" s="1">
+      <c r="J63" s="1">
         <v>-37.720556999999999</v>
       </c>
-      <c r="J62" s="1">
+      <c r="K63" s="1">
         <v>145.04823200000001</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" s="2">
-        <v>43892</v>
-      </c>
-      <c r="E63" s="2">
-        <v>43892</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" s="2">
-        <v>43906</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I63" s="1">
-        <v>-37.667110999999998</v>
-      </c>
-      <c r="J63" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="2">
-        <v>43892</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D64" s="1"/>
       <c r="E64" s="2">
         <v>43892</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="2">
+        <v>43892</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G64" s="2">
+      <c r="H64" s="2">
         <v>43906</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I64" s="1">
-        <v>-38.145009600000002</v>
+      <c r="I64" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="J64" s="1">
-        <v>144.35683760000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K64" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>71</v>
       </c>
@@ -3416,61 +3544,63 @@
       <c r="C65" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D65" s="2">
-        <v>43892</v>
-      </c>
+      <c r="D65" s="1"/>
       <c r="E65" s="2">
         <v>43892</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="2">
+        <v>43892</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G65" s="2">
+      <c r="H65" s="2">
         <v>43906</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I65" s="1">
-        <v>-37.816394899999999</v>
+      <c r="I65" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="J65" s="1">
-        <v>144.9526066</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-38.145009600000002</v>
+      </c>
+      <c r="K65" s="1">
+        <v>144.35683760000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66" s="2">
-        <v>43892</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D66" s="1"/>
       <c r="E66" s="2">
         <v>43892</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="2">
+        <v>43892</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G66" s="2">
+      <c r="H66" s="2">
         <v>43906</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="I66" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I66" s="1">
+      <c r="J66" s="1">
         <v>-37.816394899999999</v>
       </c>
-      <c r="J66" s="1">
+      <c r="K66" s="1">
         <v>144.9526066</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
@@ -3480,61 +3610,63 @@
       <c r="C67" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D67" s="2">
-        <v>43892</v>
-      </c>
+      <c r="D67" s="1"/>
       <c r="E67" s="2">
         <v>43892</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="2">
+        <v>43892</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="2">
+      <c r="H67" s="2">
         <v>43906</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I67" s="1">
-        <v>-37.826660799999999</v>
+      <c r="I67" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="J67" s="1">
-        <v>145.0587903</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-37.816394899999999</v>
+      </c>
+      <c r="K67" s="1">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D68" s="2">
-        <v>43892</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D68" s="1"/>
       <c r="E68" s="2">
         <v>43892</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" s="2">
-        <v>43910</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I68" s="1">
-        <v>-37.848232000000003</v>
+      <c r="F68" s="2">
+        <v>43892</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H68" s="2">
+        <v>43906</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="J68" s="1">
-        <v>145.00550799999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-37.826660799999999</v>
+      </c>
+      <c r="K68" s="1">
+        <v>145.0587903</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
@@ -3544,29 +3676,30 @@
       <c r="C69" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D69" s="2">
-        <v>43893</v>
-      </c>
+      <c r="D69" s="1"/>
       <c r="E69" s="2">
         <v>43892</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="2">
+        <v>43892</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G69" s="2">
+      <c r="H69" s="2">
         <v>43910</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="I69" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I69" s="1">
+      <c r="J69" s="1">
         <v>-37.848232000000003</v>
       </c>
-      <c r="J69" s="1">
+      <c r="K69" s="1">
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>78</v>
       </c>
@@ -3576,29 +3709,30 @@
       <c r="C70" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D70" s="2">
-        <v>43894</v>
-      </c>
+      <c r="D70" s="1"/>
       <c r="E70" s="2">
+        <v>43893</v>
+      </c>
+      <c r="F70" s="2">
         <v>43892</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G70" s="2">
+      <c r="H70" s="2">
         <v>43910</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="I70" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I70" s="1">
+      <c r="J70" s="1">
         <v>-37.848232000000003</v>
       </c>
-      <c r="J70" s="1">
+      <c r="K70" s="1">
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>78</v>
       </c>
@@ -3608,29 +3742,30 @@
       <c r="C71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="2">
-        <v>43895</v>
-      </c>
+      <c r="D71" s="1"/>
       <c r="E71" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F71" s="2">
         <v>43892</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G71" s="2">
+      <c r="H71" s="2">
         <v>43910</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I71" s="1">
+      <c r="J71" s="1">
         <v>-37.848232000000003</v>
       </c>
-      <c r="J71" s="1">
+      <c r="K71" s="1">
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>78</v>
       </c>
@@ -3640,130 +3775,173 @@
       <c r="C72" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1"/>
+      <c r="E72" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F72" s="2">
+        <v>43892</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H72" s="2">
+        <v>43910</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J72" s="1">
+        <v>-37.848232000000003</v>
+      </c>
+      <c r="K72" s="1">
+        <v>145.00550799999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="2">
         <v>43896</v>
       </c>
-      <c r="E72" s="2">
+      <c r="F73" s="2">
         <v>43892</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G72" s="2">
+      <c r="H73" s="2">
         <v>43910</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I72" s="1">
+      <c r="J73" s="1">
         <v>-37.848232000000003</v>
       </c>
-      <c r="J72" s="1">
+      <c r="K73" s="1">
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D73" s="2">
-        <v>43890</v>
-      </c>
-      <c r="E73" s="2">
-        <v>43890</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G73" s="2">
-        <v>43904</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I73" s="1">
-        <v>-37.667110999999998</v>
-      </c>
-      <c r="J73" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74" s="2">
-        <v>43890</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D74" s="1"/>
       <c r="E74" s="2">
         <v>43890</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="2">
+        <v>43890</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G74" s="2">
+      <c r="H74" s="2">
         <v>43904</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I74" s="1">
+      <c r="J74" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="J74" s="1">
+      <c r="K74" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F75" s="2">
+        <v>43890</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H75" s="2">
+        <v>43904</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J75" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K75" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D76" s="1"/>
+      <c r="E76" s="2">
         <v>43889</v>
       </c>
-      <c r="E75" s="2">
+      <c r="F76" s="2">
         <v>43889</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G75" s="2">
+      <c r="H76" s="2">
         <v>43903</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I75" s="1">
+      <c r="J76" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="J75" s="1">
+      <c r="K76" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649F15A4-FC51-42F8-85DD-280B9C1B1258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98512AB6-D389-4DF7-B6FF-E51B6F04210B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC public exposure sites" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="180">
   <si>
     <t>Date</t>
   </si>
@@ -567,6 +567,15 @@
   </si>
   <si>
     <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-26-may-2020</t>
+  </si>
+  <si>
+    <t>Keilor Downs College</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-29-may-2020</t>
+  </si>
+  <si>
+    <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
   </si>
 </sst>
 </file>
@@ -643,33 +652,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -957,6 +939,33 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1007,20 +1016,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K76" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K76" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K77" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K77" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{00BBE98B-CFE5-4E6E-BEE1-82771B152607}" name="Location" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{03AFA42C-5079-45CB-9771-A740D59BF480}" name="News Link" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{DE78F3D9-079C-462E-820F-C45FF7810726}" name="Exposure Date" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{78D0D3E4-FEAB-438E-93D1-655FC72C65B7}" name="Exposure Start Date" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{2CC131BD-98E1-4A40-87C0-41E319F81D64}" name="Onset of symptoms up to" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{23761236-70D9-4987-859C-768C8269BF16}" name="Onset End Date" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{8622C8B5-3655-444D-B8EB-E8B75B0C5F18}" name="Location for Geocoding" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{BCBA3A15-1C23-4B92-A8CC-E716035D4373}" name="Latitude" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{6B289C17-6F7F-48A4-B992-C86D180F888E}" name="Longitude" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{03AFA42C-5079-45CB-9771-A740D59BF480}" name="News Link" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{DE78F3D9-079C-462E-820F-C45FF7810726}" name="Exposure Date" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{78D0D3E4-FEAB-438E-93D1-655FC72C65B7}" name="Exposure Start Date" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{2CC131BD-98E1-4A40-87C0-41E319F81D64}" name="Onset of symptoms up to" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{23761236-70D9-4987-859C-768C8269BF16}" name="Onset End Date" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{8622C8B5-3655-444D-B8EB-E8B75B0C5F18}" name="Location for Geocoding" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{BCBA3A15-1C23-4B92-A8CC-E716035D4373}" name="Latitude" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{6B289C17-6F7F-48A4-B992-C86D180F888E}" name="Longitude" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1323,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,10 +1505,10 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1518,48 +1527,50 @@
         <v>43991</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="J5" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.715384</v>
       </c>
       <c r="K5" s="1">
-        <v>145.01711499999999</v>
+        <v>144.811994</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="E6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="G6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J6" s="1">
-        <v>-36.314870999999997</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K6" s="1">
-        <v>145.04196999999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1568,7 +1579,7 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="2">
@@ -1588,48 +1599,48 @@
         <v>43985</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J7" s="1">
-        <v>-37.928489999999996</v>
+        <v>-36.314870999999997</v>
       </c>
       <c r="K7" s="1">
-        <v>145.007454</v>
+        <v>145.04196999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="G8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J8" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.928489999999996</v>
       </c>
       <c r="K8" s="1">
-        <v>145.08623499999999</v>
+        <v>145.007454</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1638,7 +1649,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="2">
@@ -1658,48 +1669,48 @@
         <v>43984</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J9" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K9" s="1">
-        <v>145.01711499999999</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J10" s="1">
-        <v>-37.692610000000002</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K10" s="1">
-        <v>145.06382099999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1708,7 +1719,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2">
@@ -1728,13 +1739,13 @@
         <v>43983</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J11" s="1">
-        <v>-37.689222999999998</v>
+        <v>-37.692610000000002</v>
       </c>
       <c r="K11" s="1">
-        <v>144.60470799999999</v>
+        <v>145.06382099999999</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1743,7 +1754,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2">
@@ -1763,13 +1774,13 @@
         <v>43983</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J12" s="1">
-        <v>-37.843631999999999</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="K12" s="1">
-        <v>144.78155899999999</v>
+        <v>144.60470799999999</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1778,7 +1789,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2">
@@ -1798,13 +1809,13 @@
         <v>43983</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J13" s="1">
-        <v>-37.730747999999998</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="K13" s="1">
-        <v>145.086489</v>
+        <v>144.78155899999999</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1813,7 +1824,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2">
@@ -1833,13 +1844,13 @@
         <v>43983</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J14" s="1">
-        <v>-37.702513000000003</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="K14" s="1">
-        <v>144.80232599999999</v>
+        <v>145.086489</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1848,7 +1859,7 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2">
@@ -1868,13 +1879,13 @@
         <v>43983</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J15" s="1">
-        <v>-37.673996000000002</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="K15" s="1">
-        <v>144.955354</v>
+        <v>144.80232599999999</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1883,7 +1894,7 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2">
@@ -1903,13 +1914,13 @@
         <v>43983</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J16" s="1">
-        <v>-37.576594</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="K16" s="1">
-        <v>144.72866500000001</v>
+        <v>144.955354</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1918,7 +1929,7 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2">
@@ -1938,13 +1949,13 @@
         <v>43983</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J17" s="1">
-        <v>-37.879995000000001</v>
+        <v>-37.576594</v>
       </c>
       <c r="K17" s="1">
-        <v>144.70157699999999</v>
+        <v>144.72866500000001</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1953,7 +1964,7 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2">
@@ -1973,13 +1984,13 @@
         <v>43983</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J18" s="1">
-        <v>-37.834014000000003</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="K18" s="1">
-        <v>144.65285299999999</v>
+        <v>144.70157699999999</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1988,7 +1999,7 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2">
@@ -2008,13 +2019,13 @@
         <v>43983</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J19" s="1">
-        <v>-37.942098999999999</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="K19" s="1">
-        <v>145.16768400000001</v>
+        <v>144.65285299999999</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2023,7 +2034,7 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2">
@@ -2043,13 +2054,13 @@
         <v>43983</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J20" s="1">
-        <v>-37.664667000000001</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="K20" s="1">
-        <v>144.74749</v>
+        <v>145.16768400000001</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2058,7 +2069,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2">
@@ -2078,13 +2089,13 @@
         <v>43983</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J21" s="1">
-        <v>-37.665416999999998</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="K21" s="1">
-        <v>144.75335899999999</v>
+        <v>144.74749</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2093,7 +2104,7 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2">
@@ -2113,48 +2124,48 @@
         <v>43983</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J22" s="1">
-        <v>-37.738990000000001</v>
+        <v>-37.665416999999998</v>
       </c>
       <c r="K22" s="1">
-        <v>144.67997600000001</v>
+        <v>144.75335899999999</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B23" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>125</v>
+        <v>43983</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="J23" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.738990000000001</v>
       </c>
       <c r="K23" s="1">
-        <v>144.921401</v>
+        <v>144.67997600000001</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2163,7 +2174,7 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="2">
@@ -2183,48 +2194,48 @@
         <v>43980</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J24" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.596122999999999</v>
       </c>
       <c r="K24" s="1">
-        <v>144.888195</v>
+        <v>144.921401</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B25" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="G25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J25" s="1">
-        <v>-37.783104999999999</v>
+        <v>-37.772379999999998</v>
       </c>
       <c r="K25" s="1">
-        <v>144.78539799999999</v>
+        <v>144.888195</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2233,7 +2244,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="2">
@@ -2253,22 +2264,22 @@
         <v>43973</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J26" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="K26" s="1">
-        <v>145.02005199999999</v>
+        <v>144.78539799999999</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43959</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="2">
@@ -2288,48 +2299,48 @@
         <v>43973</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J27" s="1">
-        <v>-37.689366</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="K27" s="1">
-        <v>144.958878</v>
+        <v>145.02005199999999</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B28" s="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="G28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J28" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.689366</v>
       </c>
       <c r="K28" s="1">
-        <v>144.43268900000001</v>
+        <v>144.958878</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2338,7 +2349,7 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="2">
@@ -2358,256 +2369,258 @@
         <v>43967</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J29" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="K29" s="1">
-        <v>144.836118</v>
+        <v>144.43268900000001</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="F30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="G30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="H30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="J30" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="K30" s="1">
-        <v>144.83348079999999</v>
+        <v>144.836118</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="F31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="G31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="H31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="J31" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K31" s="1">
-        <v>144.889926</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="F32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="G32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43964</v>
       </c>
       <c r="H32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
+        <v>43964</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J32" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.811678000000001</v>
       </c>
       <c r="K32" s="1">
-        <v>144.894632</v>
+        <v>144.889926</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="F33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="G33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="H33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J33" s="1">
-        <v>-37.759222999999999</v>
+        <v>-37.797176999999998</v>
       </c>
       <c r="K33" s="1">
-        <v>144.816754</v>
+        <v>144.894632</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>43907</v>
+      <c r="A34" s="4">
+        <v>43944</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
+        <v>43944</v>
       </c>
       <c r="F34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
+        <v>43944</v>
       </c>
       <c r="G34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43958</v>
       </c>
       <c r="H34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
+        <v>43958</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J34" s="1">
-        <v>-37.844318000000001</v>
+        <v>-37.759222999999999</v>
       </c>
       <c r="K34" s="1">
-        <v>145.009818</v>
+        <v>144.816754</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="F35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="G35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="H35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J35" s="1">
-        <v>-37.813239000000003</v>
+        <v>-37.844318000000001</v>
       </c>
       <c r="K35" s="1">
-        <v>145.048047</v>
+        <v>145.009818</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A36" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43905</v>
       </c>
       <c r="F36" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>12</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="G36" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43919</v>
       </c>
       <c r="H36" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43919</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="J36" s="1">
-        <v>-37.776940699999997</v>
+        <v>-37.813239000000003</v>
       </c>
       <c r="K36" s="1">
-        <v>144.98702499999999</v>
+        <v>145.048047</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2615,10 +2628,10 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="2">
@@ -2634,13 +2647,13 @@
         <v>43914</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J37" s="1">
-        <v>-37.772095999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="K37" s="1">
-        <v>144.91609500000001</v>
+        <v>144.98702499999999</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2648,10 +2661,10 @@
         <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="2">
@@ -2667,37 +2680,37 @@
         <v>43914</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J38" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="K38" s="1">
-        <v>144.83348079999999</v>
+        <v>144.91609500000001</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F39" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H39" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>97</v>
@@ -2714,10 +2727,10 @@
         <v>17</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="2">
@@ -2744,26 +2757,26 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="F41" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H41" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>97</v>
@@ -2777,7 +2790,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>24</v>
@@ -2787,16 +2800,16 @@
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F42" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H42" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>97</v>
@@ -2810,26 +2823,26 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F43" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H43" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>97</v>
@@ -2846,10 +2859,10 @@
         <v>29</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="2">
@@ -2876,35 +2889,35 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F45" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H45" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J45" s="1">
-        <v>-37.821452700000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K45" s="1">
-        <v>144.98347200000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2912,10 +2925,10 @@
         <v>23</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2">
@@ -2931,13 +2944,13 @@
         <v>43912</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J46" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.821452700000002</v>
       </c>
       <c r="K46" s="1">
-        <v>145.0729384</v>
+        <v>144.98347200000001</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2945,10 +2958,10 @@
         <v>23</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2">
@@ -2964,46 +2977,46 @@
         <v>43912</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J47" s="1">
-        <v>-37.790782999999998</v>
+        <v>-37.800963000000003</v>
       </c>
       <c r="K47" s="1">
-        <v>144.99816200000001</v>
+        <v>145.0729384</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F48" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H48" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J48" s="1">
-        <v>-37.824981299999997</v>
+        <v>-37.790782999999998</v>
       </c>
       <c r="K48" s="1">
-        <v>144.98361299999999</v>
+        <v>144.99816200000001</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3011,10 +3024,10 @@
         <v>27</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2">
@@ -3030,13 +3043,13 @@
         <v>43911</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J49" s="1">
-        <v>-37.841103699999998</v>
+        <v>-37.824981299999997</v>
       </c>
       <c r="K49" s="1">
-        <v>144.955806</v>
+        <v>144.98361299999999</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3044,10 +3057,10 @@
         <v>27</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2">
@@ -3063,37 +3076,37 @@
         <v>43911</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J50" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.841103699999998</v>
       </c>
       <c r="K50" s="1">
-        <v>144.9564881</v>
+        <v>144.955806</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F51" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H51" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>103</v>
@@ -3107,59 +3120,59 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F52" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H52" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J52" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K52" s="1">
-        <v>144.31841800000001</v>
+        <v>144.9564881</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F53" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H53" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>104</v>
@@ -3173,68 +3186,68 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F54" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H54" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J54" s="1">
-        <v>-37.863344400000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K54" s="1">
-        <v>145.08682759999999</v>
+        <v>144.31841800000001</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F55" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H55" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J55" s="1">
-        <v>-37.809265000000003</v>
+        <v>-37.863344400000003</v>
       </c>
       <c r="K55" s="1">
-        <v>144.99495099999999</v>
+        <v>145.08682759999999</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3242,10 +3255,10 @@
         <v>29</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2">
@@ -3261,46 +3274,46 @@
         <v>43910</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J56" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.809265000000003</v>
       </c>
       <c r="K56" s="1">
-        <v>144.83348079999999</v>
+        <v>144.99495099999999</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F57" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H57" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J57" s="1">
-        <v>-37.797809200000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K57" s="1">
-        <v>144.96801239999999</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3308,10 +3321,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2">
@@ -3327,13 +3340,13 @@
         <v>43909</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J58" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.797809200000003</v>
       </c>
       <c r="K58" s="1">
-        <v>144.9526066</v>
+        <v>144.96801239999999</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3360,57 +3373,57 @@
         <v>43909</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J59" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K59" s="1">
-        <v>144.35683760000001</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F60" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H60" s="2">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J60" s="1">
-        <v>-37.028215000000003</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K60" s="1">
-        <v>145.14336</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2">
@@ -3420,19 +3433,19 @@
         <v>43893</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H61" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J61" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.028215000000003</v>
       </c>
       <c r="K61" s="1">
-        <v>145.04823200000001</v>
+        <v>145.14336</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3447,7 +3460,7 @@
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="F62" s="2">
         <v>43893</v>
@@ -3480,7 +3493,7 @@
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="F63" s="2">
         <v>43893</v>
@@ -3503,35 +3516,35 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="F64" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H64" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="J64" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K64" s="1">
-        <v>144.83348079999999</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3539,10 +3552,10 @@
         <v>71</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="2">
@@ -3558,13 +3571,13 @@
         <v>43906</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J65" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K65" s="1">
-        <v>144.35683760000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3591,13 +3604,13 @@
         <v>43906</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J66" s="1">
-        <v>-37.816394899999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K66" s="1">
-        <v>144.9526066</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3605,10 +3618,10 @@
         <v>71</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2">
@@ -3657,24 +3670,24 @@
         <v>43906</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J68" s="1">
-        <v>-37.826660799999999</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K68" s="1">
-        <v>145.0587903</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="2">
@@ -3684,19 +3697,19 @@
         <v>43892</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H69" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J69" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.826660799999999</v>
       </c>
       <c r="K69" s="1">
-        <v>145.00550799999999</v>
+        <v>145.0587903</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3711,7 +3724,7 @@
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="F70" s="2">
         <v>43892</v>
@@ -3744,7 +3757,7 @@
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="F71" s="2">
         <v>43892</v>
@@ -3777,7 +3790,7 @@
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="F72" s="2">
         <v>43892</v>
@@ -3810,7 +3823,7 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="F73" s="2">
         <v>43892</v>
@@ -3833,35 +3846,35 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="2">
-        <v>43890</v>
+        <v>43896</v>
       </c>
       <c r="F74" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H74" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J74" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K74" s="1">
-        <v>144.83348079999999</v>
+        <v>145.00550799999999</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3869,10 +3882,10 @@
         <v>82</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="2">
@@ -3899,26 +3912,26 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="F76" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H76" s="2">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>97</v>
@@ -3927,6 +3940,39 @@
         <v>-37.667110999999998</v>
       </c>
       <c r="K76" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="2">
+        <v>43889</v>
+      </c>
+      <c r="F77" s="2">
+        <v>43889</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="2">
+        <v>43903</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J77" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K77" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
@@ -3936,12 +3982,13 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98512AB6-D389-4DF7-B6FF-E51B6F04210B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B60283-AF93-4B2F-A825-EBD9DCAFB853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="188">
   <si>
     <t>Date</t>
   </si>
@@ -576,6 +576,30 @@
   </si>
   <si>
     <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+  </si>
+  <si>
+    <t>https://www2.health.vic.gov.au/about/media-centre/MediaReleases/more-covid19-cases-confirmed-victoria-15-march</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-20-may-2020</t>
+  </si>
+  <si>
+    <t>https://www.abc.net.au/news/2020-05-20/coronavirus-victoria-cedar-meats-outbreak-kyabram-health-workers/12266102</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-19-may-2020</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-16-may</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-17-may-2020</t>
+  </si>
+  <si>
+    <t>https://www.abc.net.au/news/2020-05-15/victoria-coronavirus-cases-rise-by-20-mcdonalds-cedar-meats/12251762</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1605,9 @@
       <c r="C7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="E7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43971</v>
@@ -1616,7 +1642,9 @@
       <c r="C8" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="E8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43971</v>
@@ -1651,7 +1679,9 @@
       <c r="C9" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="6" t="s">
+        <v>183</v>
+      </c>
       <c r="E9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43970</v>
@@ -1686,7 +1716,9 @@
       <c r="C10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="6" t="s">
+        <v>183</v>
+      </c>
       <c r="E10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43970</v>
@@ -1721,7 +1753,9 @@
       <c r="C11" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="E11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
@@ -1756,7 +1790,9 @@
       <c r="C12" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="E12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
@@ -1791,7 +1827,9 @@
       <c r="C13" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="E13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
@@ -1826,7 +1864,9 @@
       <c r="C14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="E14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
@@ -1861,7 +1901,9 @@
       <c r="C15" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="E15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
@@ -1896,7 +1938,9 @@
       <c r="C16" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="E16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
@@ -1931,7 +1975,9 @@
       <c r="C17" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="E17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
@@ -1966,7 +2012,9 @@
       <c r="C18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="E18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
@@ -2001,7 +2049,9 @@
       <c r="C19" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="E19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
@@ -2036,7 +2086,9 @@
       <c r="C20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="E20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
@@ -2071,7 +2123,9 @@
       <c r="C21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="E21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
@@ -2106,7 +2160,9 @@
       <c r="C22" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="E22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
@@ -2141,7 +2197,9 @@
       <c r="C23" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="E23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43969</v>
@@ -2176,7 +2234,9 @@
       <c r="C24" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="E24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43966</v>
@@ -2211,7 +2271,9 @@
       <c r="C25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="E25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43966</v>
@@ -2246,7 +2308,9 @@
       <c r="C26" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="E26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43959</v>
@@ -2596,7 +2660,9 @@
       <c r="C36" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="E36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43905</v>
@@ -3984,11 +4050,21 @@
     <hyperlink ref="D4" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
     <hyperlink ref="D6" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
     <hyperlink ref="D5" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
+    <hyperlink ref="D36" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
+    <hyperlink ref="D9" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
+    <hyperlink ref="D10" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
+    <hyperlink ref="D11" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
+    <hyperlink ref="D12:D23" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
+    <hyperlink ref="D24" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
+    <hyperlink ref="D26" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
+    <hyperlink ref="D25" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B60283-AF93-4B2F-A825-EBD9DCAFB853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5FCAD7-4FBB-41C6-B2C4-2CD60EAFCA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC public exposure sites" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="191">
   <si>
     <t>Date</t>
   </si>
@@ -600,6 +600,15 @@
   </si>
   <si>
     <t>https://www.abc.net.au/news/2020-05-15/victoria-coronavirus-cases-rise-by-20-mcdonalds-cedar-meats/12251762</t>
+  </si>
+  <si>
+    <t>Holy Eucharist Primary School in St Albans South</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-30-may-2020</t>
+  </si>
+  <si>
+    <t>1A Oleander Dr, St Albans VIC 3021</t>
   </si>
 </sst>
 </file>
@@ -1040,8 +1049,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K77" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K77" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K79" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K79" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="9"/>
@@ -1356,28 +1365,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="96.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.3984375" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" customWidth="1"/>
+    <col min="3" max="3" width="49.73046875" customWidth="1"/>
+    <col min="4" max="4" width="30.73046875" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" customWidth="1"/>
+    <col min="7" max="7" width="25.265625" customWidth="1"/>
+    <col min="8" max="8" width="16.73046875" customWidth="1"/>
+    <col min="9" max="9" width="96.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.3984375" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1412,32 +1421,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="F2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="G2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="H2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>172</v>
@@ -1449,32 +1458,32 @@
         <v>144.96363500000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="F3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="G3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="H3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>172</v>
@@ -1486,13 +1495,13 @@
         <v>144.96363500000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>43978</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>175</v>
@@ -1514,62 +1523,62 @@
         <v>43992</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J4" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K4" s="1">
-        <v>145.08623499999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.96363500000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="F5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="G5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="H5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="J5" s="1">
-        <v>-37.715384</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K5" s="1">
-        <v>144.811994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.08623499999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>43977</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1588,244 +1597,244 @@
         <v>43991</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="J6" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.756286000000003</v>
       </c>
       <c r="K6" s="1">
-        <v>145.01711499999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.811104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="G7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="J7" s="1">
-        <v>-36.314870999999997</v>
+        <v>-37.715384</v>
       </c>
       <c r="K7" s="1">
-        <v>145.04196999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.811994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="G8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J8" s="1">
-        <v>-37.928489999999996</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K8" s="1">
-        <v>145.007454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.01711499999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="G9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J9" s="1">
-        <v>-37.841634999999997</v>
+        <v>-36.314870999999997</v>
       </c>
       <c r="K9" s="1">
-        <v>145.08623499999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.04196999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="G10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J10" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.928489999999996</v>
       </c>
       <c r="K10" s="1">
-        <v>145.01711499999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.007454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J11" s="1">
-        <v>-37.692610000000002</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K11" s="1">
-        <v>145.06382099999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.08623499999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="J12" s="1">
-        <v>-37.689222999999998</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K12" s="1">
-        <v>144.60470799999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.01711499999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>43969</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>184</v>
@@ -1847,22 +1856,22 @@
         <v>43983</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="J13" s="1">
-        <v>-37.843631999999999</v>
+        <v>-37.692610000000002</v>
       </c>
       <c r="K13" s="1">
-        <v>144.78155899999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.06382099999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>43969</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>184</v>
@@ -1884,22 +1893,22 @@
         <v>43983</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J14" s="1">
-        <v>-37.730747999999998</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="K14" s="1">
-        <v>145.086489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.60470799999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>43969</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>184</v>
@@ -1921,22 +1930,22 @@
         <v>43983</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J15" s="1">
-        <v>-37.702513000000003</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="K15" s="1">
-        <v>144.80232599999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.78155899999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>43969</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>184</v>
@@ -1958,22 +1967,22 @@
         <v>43983</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J16" s="1">
-        <v>-37.673996000000002</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="K16" s="1">
-        <v>144.955354</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.086489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>43969</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>184</v>
@@ -1995,22 +2004,22 @@
         <v>43983</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J17" s="1">
-        <v>-37.576594</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="K17" s="1">
-        <v>144.72866500000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.80232599999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>43969</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>184</v>
@@ -2032,22 +2041,22 @@
         <v>43983</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J18" s="1">
-        <v>-37.879995000000001</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="K18" s="1">
-        <v>144.70157699999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.955354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>43969</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>184</v>
@@ -2069,22 +2078,22 @@
         <v>43983</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J19" s="1">
-        <v>-37.834014000000003</v>
+        <v>-37.576594</v>
       </c>
       <c r="K19" s="1">
-        <v>144.65285299999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.72866500000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>43969</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>184</v>
@@ -2106,22 +2115,22 @@
         <v>43983</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J20" s="1">
-        <v>-37.942098999999999</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="K20" s="1">
-        <v>145.16768400000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.70157699999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>43969</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>184</v>
@@ -2143,22 +2152,22 @@
         <v>43983</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J21" s="1">
-        <v>-37.664667000000001</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="K21" s="1">
-        <v>144.74749</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.65285299999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>43969</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>184</v>
@@ -2180,22 +2189,22 @@
         <v>43983</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J22" s="1">
-        <v>-37.665416999999998</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="K22" s="1">
-        <v>144.75335899999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.16768400000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>43969</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>184</v>
@@ -2217,170 +2226,174 @@
         <v>43983</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J23" s="1">
-        <v>-37.738990000000001</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="K23" s="1">
-        <v>144.67997600000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.74749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B24" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>125</v>
+        <v>43983</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="J24" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.665416999999998</v>
       </c>
       <c r="K24" s="1">
-        <v>144.921401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.75335899999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B25" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>126</v>
+        <v>43983</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="J25" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.738990000000001</v>
       </c>
       <c r="K25" s="1">
-        <v>144.888195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.67997600000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B26" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B26" s="5"/>
       <c r="C26" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="G26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J26" s="1">
-        <v>-37.783104999999999</v>
+        <v>-37.596122999999999</v>
       </c>
       <c r="K26" s="1">
-        <v>144.78539799999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.921401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B27" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B27" s="5"/>
       <c r="C27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="E27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="G27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J27" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.772379999999998</v>
       </c>
       <c r="K27" s="1">
-        <v>145.02005199999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.888195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>43959</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="E28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43959</v>
@@ -2398,372 +2411,376 @@
         <v>43973</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J28" s="1">
-        <v>-37.689366</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="K28" s="1">
-        <v>144.958878</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.78539799999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="G29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J29" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="K29" s="1">
-        <v>144.43268900000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.02005199999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B30" s="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="G30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J30" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.689366</v>
       </c>
       <c r="K30" s="1">
-        <v>144.836118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.958878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="F31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="G31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="H31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="J31" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="K31" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.43268900000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="F32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="G32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43967</v>
       </c>
       <c r="H32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
+        <v>43967</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J32" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="K32" s="1">
-        <v>144.889926</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.836118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
-        <v>43947</v>
+        <v>43951</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43951</v>
       </c>
       <c r="F33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
+        <v>43951</v>
       </c>
       <c r="G33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="H33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="J33" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K33" s="1">
-        <v>144.894632</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
-        <v>43944</v>
+        <v>43950</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43944</v>
+        <v>43950</v>
       </c>
       <c r="F34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
+        <v>43950</v>
       </c>
       <c r="G34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
+        <v>43964</v>
       </c>
       <c r="H34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
+        <v>43964</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J34" s="1">
-        <v>-37.759222999999999</v>
+        <v>-37.811678000000001</v>
       </c>
       <c r="K34" s="1">
-        <v>144.816754</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>43907</v>
+        <v>144.889926</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35" s="4">
+        <v>43947</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
+        <v>43947</v>
       </c>
       <c r="F35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
+        <v>43947</v>
       </c>
       <c r="G35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43961</v>
       </c>
       <c r="H35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
+        <v>43961</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J35" s="1">
-        <v>-37.844318000000001</v>
+        <v>-37.797176999999998</v>
       </c>
       <c r="K35" s="1">
-        <v>145.009818</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>43905</v>
+        <v>144.894632</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36" s="4">
+        <v>43944</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>180</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43905</v>
+        <v>43944</v>
       </c>
       <c r="F36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43905</v>
+        <v>43944</v>
       </c>
       <c r="G36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43919</v>
+        <v>43958</v>
       </c>
       <c r="H36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43919</v>
+        <v>43958</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J36" s="1">
-        <v>-37.813239000000003</v>
+        <v>-37.759222999999999</v>
       </c>
       <c r="K36" s="1">
-        <v>145.048047</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>144.816754</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43907</v>
       </c>
       <c r="F37" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>12</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="G37" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43921</v>
       </c>
       <c r="H37" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="J37" s="1">
-        <v>-37.776940699999997</v>
+        <v>-37.844318000000001</v>
       </c>
       <c r="K37" s="1">
-        <v>144.98702499999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>145.009818</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="E38" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43905</v>
       </c>
       <c r="F38" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>12</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="G38" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43919</v>
       </c>
       <c r="H38" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43919</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="J38" s="1">
-        <v>-37.772095999999998</v>
+        <v>-37.813239000000003</v>
       </c>
       <c r="K38" s="1">
-        <v>144.91609500000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.048047</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="2">
@@ -2779,70 +2796,70 @@
         <v>43914</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J39" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="K39" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.98702499999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F40" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H40" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J40" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="K40" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.91609500000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F41" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H41" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>97</v>
@@ -2854,28 +2871,28 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="F42" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H42" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>97</v>
@@ -2887,28 +2904,28 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="F43" s="2">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H43" s="2">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>97</v>
@@ -2920,28 +2937,28 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="F44" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H44" s="2">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>97</v>
@@ -2953,28 +2970,28 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F45" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H45" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>97</v>
@@ -2986,81 +3003,81 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F46" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H46" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J46" s="1">
-        <v>-37.821452700000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K46" s="1">
-        <v>144.98347200000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F47" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H47" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J47" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K47" s="1">
-        <v>145.0729384</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2">
@@ -3076,90 +3093,90 @@
         <v>43912</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J48" s="1">
-        <v>-37.790782999999998</v>
+        <v>-37.821452700000002</v>
       </c>
       <c r="K48" s="1">
-        <v>144.99816200000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.98347200000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F49" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H49" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J49" s="1">
-        <v>-37.824981299999997</v>
+        <v>-37.800963000000003</v>
       </c>
       <c r="K49" s="1">
-        <v>144.98361299999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.0729384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F50" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H50" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J50" s="1">
-        <v>-37.841103699999998</v>
+        <v>-37.790782999999998</v>
       </c>
       <c r="K50" s="1">
-        <v>144.955806</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.99816200000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2">
@@ -3175,57 +3192,57 @@
         <v>43911</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J51" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.824981299999997</v>
       </c>
       <c r="K51" s="1">
-        <v>144.9564881</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.98361299999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F52" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H52" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J52" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.841103699999998</v>
       </c>
       <c r="K52" s="1">
-        <v>144.9564881</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.955806</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2">
@@ -3241,24 +3258,24 @@
         <v>43911</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J53" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K53" s="1">
-        <v>144.31841800000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.9564881</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2">
@@ -3274,24 +3291,24 @@
         <v>43910</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J54" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K54" s="1">
-        <v>144.31841800000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.9564881</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2">
@@ -3307,24 +3324,24 @@
         <v>43911</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J55" s="1">
-        <v>-37.863344400000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K55" s="1">
-        <v>145.08682759999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.31841800000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2">
@@ -3340,123 +3357,123 @@
         <v>43910</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J56" s="1">
-        <v>-37.809265000000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K56" s="1">
-        <v>144.99495099999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.31841800000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F57" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H57" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J57" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.863344400000003</v>
       </c>
       <c r="K57" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.08682759999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F58" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H58" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J58" s="1">
-        <v>-37.797809200000003</v>
+        <v>-37.809265000000003</v>
       </c>
       <c r="K58" s="1">
-        <v>144.96801239999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.99495099999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F59" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H59" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J59" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K59" s="1">
-        <v>144.9526066</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="2">
@@ -3472,115 +3489,115 @@
         <v>43909</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J60" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.797809200000003</v>
       </c>
       <c r="K60" s="1">
-        <v>144.35683760000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.96801239999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F61" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H61" s="2">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J61" s="1">
-        <v>-37.028215000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K61" s="1">
-        <v>145.14336</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F62" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H62" s="2">
         <v>43909</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J62" s="1">
-        <v>-37.720556999999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K62" s="1">
-        <v>145.04823200000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.35683760000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="F63" s="2">
         <v>43893</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H63" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J63" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.028215000000003</v>
       </c>
       <c r="K63" s="1">
-        <v>145.04823200000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.14336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
@@ -3592,7 +3609,7 @@
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="F64" s="2">
         <v>43893</v>
@@ -3613,81 +3630,81 @@
         <v>145.04823200000001</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="2">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="F65" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H65" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="J65" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K65" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.04823200000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="F66" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H66" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J66" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K66" s="1">
-        <v>144.35683760000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.04823200000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2">
@@ -3703,24 +3720,24 @@
         <v>43906</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J67" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K67" s="1">
-        <v>144.9526066</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="2">
@@ -3736,24 +3753,24 @@
         <v>43906</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J68" s="1">
-        <v>-37.816394899999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K68" s="1">
-        <v>144.9526066</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.35683760000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="2">
@@ -3769,24 +3786,24 @@
         <v>43906</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J69" s="1">
-        <v>-37.826660799999999</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K69" s="1">
-        <v>145.0587903</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2">
@@ -3796,55 +3813,55 @@
         <v>43892</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H70" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J70" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K70" s="1">
-        <v>145.00550799999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="F71" s="2">
         <v>43892</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H71" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J71" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.826660799999999</v>
       </c>
       <c r="K71" s="1">
-        <v>145.00550799999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.0587903</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>78</v>
       </c>
@@ -3856,7 +3873,7 @@
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="F72" s="2">
         <v>43892</v>
@@ -3877,7 +3894,7 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>78</v>
       </c>
@@ -3889,7 +3906,7 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="F73" s="2">
         <v>43892</v>
@@ -3910,7 +3927,7 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>78</v>
       </c>
@@ -3922,7 +3939,7 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="2">
-        <v>43896</v>
+        <v>43894</v>
       </c>
       <c r="F74" s="2">
         <v>43892</v>
@@ -3943,94 +3960,94 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="2">
-        <v>43890</v>
+        <v>43895</v>
       </c>
       <c r="F75" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H75" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J75" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K75" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.00550799999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="2">
-        <v>43890</v>
+        <v>43896</v>
       </c>
       <c r="F76" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H76" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J76" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K76" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.00550799999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="F77" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H77" s="2">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>97</v>
@@ -4039,32 +4056,100 @@
         <v>-37.667110999999998</v>
       </c>
       <c r="K77" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F78" s="2">
+        <v>43890</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H78" s="2">
+        <v>43904</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J78" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K78" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="2">
+        <v>43889</v>
+      </c>
+      <c r="F79" s="2">
+        <v>43889</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H79" s="2">
+        <v>43903</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J79" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K79" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
-    <hyperlink ref="D36" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
-    <hyperlink ref="D8" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
-    <hyperlink ref="D9" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
-    <hyperlink ref="D10" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
-    <hyperlink ref="D11" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
-    <hyperlink ref="D12:D23" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
-    <hyperlink ref="D24" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
-    <hyperlink ref="D26" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
-    <hyperlink ref="D25" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
+    <hyperlink ref="D38" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
+    <hyperlink ref="D14:D25" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
+    <hyperlink ref="D26" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
+    <hyperlink ref="D28" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
+    <hyperlink ref="D27" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
+    <hyperlink ref="D6" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
+    <hyperlink ref="D2" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5FCAD7-4FBB-41C6-B2C4-2CD60EAFCA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D13291E-C497-499D-9236-42C02CD65807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC public exposure sites" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="198">
   <si>
     <t>Date</t>
   </si>
@@ -609,6 +609,27 @@
   </si>
   <si>
     <t>1A Oleander Dr, St Albans VIC 3021</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-1-june-2020</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-31-may-2020</t>
+  </si>
+  <si>
+    <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+  </si>
+  <si>
+    <t>Embracia Aged Care, Reservoir</t>
+  </si>
+  <si>
+    <t>Macleod Preschool, Macleod</t>
+  </si>
+  <si>
+    <t>Birdwood Ave, Macleod VIC 3085</t>
   </si>
 </sst>
 </file>
@@ -1049,8 +1070,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K79" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K79" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K84" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K84" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="9"/>
@@ -1365,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1423,104 +1444,104 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
-        <v>43981</v>
+        <v>43984</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43981</v>
+        <v>43984</v>
       </c>
       <c r="F2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43981</v>
+        <v>43984</v>
       </c>
       <c r="G2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43995</v>
+        <v>43998</v>
       </c>
       <c r="H2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43995</v>
+        <v>43998</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="J2" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.704174999999999</v>
       </c>
       <c r="K2" s="1">
-        <v>144.96363500000001</v>
+        <v>144.998741</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
-        <v>43979</v>
+        <v>43984</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43979</v>
+        <v>43984</v>
       </c>
       <c r="F3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43979</v>
+        <v>43984</v>
       </c>
       <c r="G3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43993</v>
+        <v>43998</v>
       </c>
       <c r="H3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43993</v>
+        <v>43998</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="J3" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.726306000000001</v>
       </c>
       <c r="K3" s="1">
-        <v>144.96363500000001</v>
+        <v>145.06991400000001</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
-        <v>43978</v>
+        <v>43984</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43984</v>
       </c>
       <c r="F4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43984</v>
       </c>
       <c r="G4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43998</v>
       </c>
       <c r="H4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43998</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>172</v>
@@ -1534,483 +1555,483 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
-        <v>43978</v>
+        <v>43983</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43983</v>
       </c>
       <c r="F5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43983</v>
       </c>
       <c r="G5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43997</v>
       </c>
       <c r="H5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43997</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J5" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K5" s="1">
-        <v>145.08623499999999</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
-        <v>43977</v>
+        <v>43982</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43982</v>
       </c>
       <c r="F6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43982</v>
       </c>
       <c r="G6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43996</v>
       </c>
       <c r="H6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43996</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="J6" s="1">
-        <v>-37.756286000000003</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K6" s="1">
-        <v>144.811104</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
-        <v>43977</v>
+        <v>43981</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43981</v>
       </c>
       <c r="F7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43981</v>
       </c>
       <c r="G7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43995</v>
       </c>
       <c r="H7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43995</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J7" s="1">
-        <v>-37.715384</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K7" s="1">
-        <v>144.811994</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="F8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="G8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="H8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="J8" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K8" s="1">
-        <v>145.01711499999999</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
-        <v>43971</v>
+        <v>43978</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43978</v>
       </c>
       <c r="F9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43978</v>
       </c>
       <c r="G9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43992</v>
       </c>
       <c r="H9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43992</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J9" s="1">
-        <v>-36.314870999999997</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K9" s="1">
-        <v>145.04196999999999</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
-        <v>43971</v>
+        <v>43978</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43978</v>
       </c>
       <c r="F10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43978</v>
       </c>
       <c r="G10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43992</v>
       </c>
       <c r="H10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43992</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J10" s="1">
-        <v>-37.928489999999996</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K10" s="1">
-        <v>145.007454</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="F11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="G11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43991</v>
       </c>
       <c r="H11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43991</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="J11" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.756286000000003</v>
       </c>
       <c r="K11" s="1">
-        <v>145.08623499999999</v>
+        <v>144.811104</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="F12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="G12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43991</v>
       </c>
       <c r="H12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43991</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="J12" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.715384</v>
       </c>
       <c r="K12" s="1">
-        <v>145.01711499999999</v>
+        <v>144.811994</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
-        <v>43969</v>
+        <v>43977</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43977</v>
       </c>
       <c r="F13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43977</v>
       </c>
       <c r="G13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43991</v>
       </c>
       <c r="H13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43991</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J13" s="1">
-        <v>-37.692610000000002</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K13" s="1">
-        <v>145.06382099999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="F14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="G14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="H14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="J14" s="1">
-        <v>-37.689222999999998</v>
+        <v>-36.314870999999997</v>
       </c>
       <c r="K14" s="1">
-        <v>144.60470799999999</v>
+        <v>145.04196999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="F15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="G15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="H15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="J15" s="1">
-        <v>-37.843631999999999</v>
+        <v>-37.928489999999996</v>
       </c>
       <c r="K15" s="1">
-        <v>144.78155899999999</v>
+        <v>145.007454</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J16" s="1">
-        <v>-37.730747999999998</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K16" s="1">
-        <v>145.086489</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J17" s="1">
-        <v>-37.702513000000003</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K17" s="1">
-        <v>144.80232599999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
@@ -2019,7 +2040,7 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>184</v>
@@ -2041,13 +2062,13 @@
         <v>43983</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="J18" s="1">
-        <v>-37.673996000000002</v>
+        <v>-37.692610000000002</v>
       </c>
       <c r="K18" s="1">
-        <v>144.955354</v>
+        <v>145.06382099999999</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
@@ -2056,7 +2077,7 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>184</v>
@@ -2078,13 +2099,13 @@
         <v>43983</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J19" s="1">
-        <v>-37.576594</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="K19" s="1">
-        <v>144.72866500000001</v>
+        <v>144.60470799999999</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
@@ -2093,7 +2114,7 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>184</v>
@@ -2115,13 +2136,13 @@
         <v>43983</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="J20" s="1">
-        <v>-37.879995000000001</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="K20" s="1">
-        <v>144.70157699999999</v>
+        <v>144.78155899999999</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
@@ -2130,7 +2151,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>184</v>
@@ -2152,13 +2173,13 @@
         <v>43983</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J21" s="1">
-        <v>-37.834014000000003</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="K21" s="1">
-        <v>144.65285299999999</v>
+        <v>145.086489</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
@@ -2167,7 +2188,7 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>184</v>
@@ -2189,13 +2210,13 @@
         <v>43983</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J22" s="1">
-        <v>-37.942098999999999</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="K22" s="1">
-        <v>145.16768400000001</v>
+        <v>144.80232599999999</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
@@ -2204,7 +2225,7 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>184</v>
@@ -2226,13 +2247,13 @@
         <v>43983</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J23" s="1">
-        <v>-37.664667000000001</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="K23" s="1">
-        <v>144.74749</v>
+        <v>144.955354</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
@@ -2241,7 +2262,7 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>184</v>
@@ -2263,13 +2284,13 @@
         <v>43983</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J24" s="1">
-        <v>-37.665416999999998</v>
+        <v>-37.576594</v>
       </c>
       <c r="K24" s="1">
-        <v>144.75335899999999</v>
+        <v>144.72866500000001</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
@@ -2278,7 +2299,7 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>184</v>
@@ -2300,731 +2321,751 @@
         <v>43983</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J25" s="1">
-        <v>-37.738990000000001</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="K25" s="1">
-        <v>144.67997600000001</v>
+        <v>144.70157699999999</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B26" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>125</v>
+        <v>43983</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="J26" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="K26" s="1">
-        <v>144.921401</v>
+        <v>144.65285299999999</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B27" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>126</v>
+        <v>43983</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="J27" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="K27" s="1">
-        <v>144.888195</v>
+        <v>145.16768400000001</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="F28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="G28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43983</v>
       </c>
       <c r="H28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>124</v>
+        <v>43983</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="J28" s="1">
-        <v>-37.783104999999999</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="K28" s="1">
-        <v>144.78539799999999</v>
+        <v>144.74749</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="E29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="F29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="G29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43983</v>
       </c>
       <c r="H29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>123</v>
+        <v>43983</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="J29" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.665416999999998</v>
       </c>
       <c r="K29" s="1">
-        <v>145.02005199999999</v>
+        <v>144.75335899999999</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B30" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="E30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="F30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="G30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43983</v>
       </c>
       <c r="H30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>127</v>
+        <v>43983</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="J30" s="1">
-        <v>-37.689366</v>
+        <v>-37.738990000000001</v>
       </c>
       <c r="K30" s="1">
-        <v>144.958878</v>
+        <v>144.67997600000001</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B31" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B31" s="5"/>
       <c r="C31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="E31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43966</v>
       </c>
       <c r="F31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43966</v>
       </c>
       <c r="G31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43980</v>
       </c>
       <c r="H31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43980</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J31" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.596122999999999</v>
       </c>
       <c r="K31" s="1">
-        <v>144.43268900000001</v>
+        <v>144.921401</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B32" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B32" s="5"/>
       <c r="C32" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="E32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43966</v>
       </c>
       <c r="F32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43966</v>
       </c>
       <c r="G32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43980</v>
       </c>
       <c r="H32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43980</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J32" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.772379999999998</v>
       </c>
       <c r="K32" s="1">
-        <v>144.836118</v>
+        <v>144.888195</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
-        <v>43951</v>
+        <v>43959</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="E33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43959</v>
       </c>
       <c r="F33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
+        <v>43959</v>
       </c>
       <c r="G33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43973</v>
       </c>
       <c r="H33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
+        <v>43973</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="J33" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="K33" s="1">
-        <v>144.83348079999999</v>
+        <v>144.78539799999999</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
-        <v>43950</v>
+        <v>43959</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43959</v>
       </c>
       <c r="F34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
+        <v>43959</v>
       </c>
       <c r="G34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43973</v>
       </c>
       <c r="H34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
+        <v>43973</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="J34" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="K34" s="1">
-        <v>144.889926</v>
+        <v>145.02005199999999</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
-        <v>43947</v>
-      </c>
-      <c r="B35" s="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B35" s="5"/>
       <c r="C35" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43959</v>
       </c>
       <c r="F35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
+        <v>43959</v>
       </c>
       <c r="G35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43973</v>
       </c>
       <c r="H35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
+        <v>43973</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J35" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.689366</v>
       </c>
       <c r="K35" s="1">
-        <v>144.894632</v>
+        <v>144.958878</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
-        <v>43944</v>
+        <v>43953</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43944</v>
+        <v>43953</v>
       </c>
       <c r="F36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
+        <v>43953</v>
       </c>
       <c r="G36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
+        <v>43967</v>
       </c>
       <c r="H36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
+        <v>43967</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J36" s="1">
-        <v>-37.759222999999999</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="K36" s="1">
-        <v>144.816754</v>
+        <v>144.43268900000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="2">
-        <v>43907</v>
+      <c r="A37" s="4">
+        <v>43953</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
+        <v>43953</v>
       </c>
       <c r="F37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
+        <v>43953</v>
       </c>
       <c r="G37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43967</v>
       </c>
       <c r="H37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
+        <v>43967</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J37" s="1">
-        <v>-37.844318000000001</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="K37" s="1">
-        <v>145.009818</v>
+        <v>144.836118</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="2">
-        <v>43905</v>
+      <c r="A38" s="4">
+        <v>43951</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>180</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43905</v>
+        <v>43951</v>
       </c>
       <c r="F38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43905</v>
+        <v>43951</v>
       </c>
       <c r="G38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43919</v>
+        <v>43965</v>
       </c>
       <c r="H38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43919</v>
+        <v>43965</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="J38" s="1">
-        <v>-37.813239000000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K38" s="1">
-        <v>145.048047</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A39" s="4">
+        <v>43950</v>
+      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43950</v>
       </c>
       <c r="F39" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>12</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43950</v>
+      </c>
+      <c r="G39" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43964</v>
       </c>
       <c r="H39" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43964</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="J39" s="1">
-        <v>-37.776940699999997</v>
+        <v>-37.811678000000001</v>
       </c>
       <c r="K39" s="1">
-        <v>144.98702499999999</v>
+        <v>144.889926</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A40" s="4">
+        <v>43947</v>
+      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43947</v>
       </c>
       <c r="F40" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>12</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43947</v>
+      </c>
+      <c r="G40" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43961</v>
       </c>
       <c r="H40" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43961</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="J40" s="1">
-        <v>-37.772095999999998</v>
+        <v>-37.797176999999998</v>
       </c>
       <c r="K40" s="1">
-        <v>144.91609500000001</v>
+        <v>144.894632</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A41" s="4">
+        <v>43944</v>
+      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43944</v>
       </c>
       <c r="F41" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>12</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43944</v>
+      </c>
+      <c r="G41" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43958</v>
       </c>
       <c r="H41" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43958</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="J41" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.759222999999999</v>
       </c>
       <c r="K41" s="1">
-        <v>144.83348079999999</v>
+        <v>144.816754</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A42" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2">
-        <v>43899</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43907</v>
       </c>
       <c r="F42" s="2">
-        <v>43899</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>20</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="G42" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43921</v>
       </c>
       <c r="H42" s="2">
-        <v>43913</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="J42" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.844318000000001</v>
       </c>
       <c r="K42" s="1">
-        <v>144.83348079999999</v>
+        <v>145.009818</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A43" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="E43" s="2">
-        <v>43899</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43905</v>
       </c>
       <c r="F43" s="2">
-        <v>43899</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>20</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="G43" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43919</v>
       </c>
       <c r="H43" s="2">
-        <v>43913</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43919</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="J43" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.813239000000003</v>
       </c>
       <c r="K43" s="1">
-        <v>144.83348079999999</v>
+        <v>145.048047</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="2">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="F44" s="2">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H44" s="2">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J44" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="K44" s="1">
-        <v>144.83348079999999</v>
+        <v>144.98702499999999</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="F45" s="2">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H45" s="2">
-        <v>43911</v>
+        <v>43914</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J45" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="K45" s="1">
-        <v>144.83348079999999</v>
+        <v>144.91609500000001</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2">
-        <v>43896</v>
+        <v>43900</v>
       </c>
       <c r="F46" s="2">
-        <v>43896</v>
+        <v>43900</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H46" s="2">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>97</v>
@@ -3038,26 +3079,26 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2">
-        <v>43896</v>
+        <v>43899</v>
       </c>
       <c r="F47" s="2">
-        <v>43896</v>
+        <v>43899</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H47" s="2">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>97</v>
@@ -3071,35 +3112,35 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="F48" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H48" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J48" s="1">
-        <v>-37.821452700000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K48" s="1">
-        <v>144.98347200000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
@@ -3107,10 +3148,10 @@
         <v>23</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2">
@@ -3126,244 +3167,244 @@
         <v>43912</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J49" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K49" s="1">
-        <v>145.0729384</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="F50" s="2">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H50" s="2">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J50" s="1">
-        <v>-37.790782999999998</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K50" s="1">
-        <v>144.99816200000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F51" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H51" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J51" s="1">
-        <v>-37.824981299999997</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K51" s="1">
-        <v>144.98361299999999</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F52" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H52" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J52" s="1">
-        <v>-37.841103699999998</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K52" s="1">
-        <v>144.955806</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F53" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H53" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J53" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.821452700000002</v>
       </c>
       <c r="K53" s="1">
-        <v>144.9564881</v>
+        <v>144.98347200000001</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="F54" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H54" s="2">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J54" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.800963000000003</v>
       </c>
       <c r="K54" s="1">
-        <v>144.9564881</v>
+        <v>145.0729384</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F55" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H55" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J55" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.790782999999998</v>
       </c>
       <c r="K55" s="1">
-        <v>144.31841800000001</v>
+        <v>144.99816200000001</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F56" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H56" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J56" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.824981299999997</v>
       </c>
       <c r="K56" s="1">
-        <v>144.31841800000001</v>
+        <v>144.98361299999999</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
@@ -3371,10 +3412,10 @@
         <v>27</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2">
@@ -3390,46 +3431,46 @@
         <v>43911</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J57" s="1">
-        <v>-37.863344400000003</v>
+        <v>-37.841103699999998</v>
       </c>
       <c r="K57" s="1">
-        <v>145.08682759999999</v>
+        <v>144.955806</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F58" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H58" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J58" s="1">
-        <v>-37.809265000000003</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K58" s="1">
-        <v>144.99495099999999</v>
+        <v>144.9564881</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
@@ -3437,10 +3478,10 @@
         <v>29</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2">
@@ -3456,420 +3497,420 @@
         <v>43910</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J59" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K59" s="1">
-        <v>144.83348079999999</v>
+        <v>144.9564881</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="2">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="F60" s="2">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="H60" s="2">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J60" s="1">
-        <v>-37.797809200000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K60" s="1">
-        <v>144.96801239999999</v>
+        <v>144.31841800000001</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F61" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H61" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J61" s="1">
-        <v>-37.816394899999999</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K61" s="1">
-        <v>144.9526066</v>
+        <v>144.31841800000001</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="F62" s="2">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="H62" s="2">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J62" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.863344400000003</v>
       </c>
       <c r="K62" s="1">
-        <v>144.35683760000001</v>
+        <v>145.08682759999999</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2">
-        <v>43893</v>
+        <v>43896</v>
       </c>
       <c r="F63" s="2">
-        <v>43893</v>
+        <v>43896</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="H63" s="2">
-        <v>43907</v>
+        <v>43910</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J63" s="1">
-        <v>-37.028215000000003</v>
+        <v>-37.809265000000003</v>
       </c>
       <c r="K63" s="1">
-        <v>145.14336</v>
+        <v>144.99495099999999</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2">
-        <v>43893</v>
+        <v>43896</v>
       </c>
       <c r="F64" s="2">
-        <v>43893</v>
+        <v>43896</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="H64" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="J64" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K64" s="1">
-        <v>145.04823200000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="2">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="F65" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H65" s="2">
         <v>43909</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J65" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.797809200000003</v>
       </c>
       <c r="K65" s="1">
-        <v>145.04823200000001</v>
+        <v>144.96801239999999</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2">
         <v>43895</v>
       </c>
       <c r="F66" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H66" s="2">
         <v>43909</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J66" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K66" s="1">
-        <v>145.04823200000001</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="F67" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H67" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="J67" s="1">
-        <v>-37.667110999999998</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K67" s="1">
-        <v>144.83348079999999</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="F68" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H68" s="2">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J68" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.028215000000003</v>
       </c>
       <c r="K68" s="1">
-        <v>144.35683760000001</v>
+        <v>145.14336</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="F69" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H69" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J69" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K69" s="1">
-        <v>144.9526066</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="F70" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H70" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J70" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K70" s="1">
-        <v>144.9526066</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="F71" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H71" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J71" s="1">
-        <v>-37.826660799999999</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K71" s="1">
-        <v>145.0587903</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2">
@@ -3879,277 +3920,446 @@
         <v>43892</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H72" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="J72" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K72" s="1">
-        <v>145.00550799999999</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="F73" s="2">
         <v>43892</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H73" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J73" s="1">
-        <v>-37.848232000000003</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K73" s="1">
-        <v>145.00550799999999</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="2">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="F74" s="2">
         <v>43892</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H74" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J74" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K74" s="1">
-        <v>145.00550799999999</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="2">
-        <v>43895</v>
+        <v>43892</v>
       </c>
       <c r="F75" s="2">
         <v>43892</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H75" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J75" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K75" s="1">
-        <v>145.00550799999999</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="2">
-        <v>43896</v>
+        <v>43892</v>
       </c>
       <c r="F76" s="2">
         <v>43892</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H76" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J76" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.826660799999999</v>
       </c>
       <c r="K76" s="1">
-        <v>145.00550799999999</v>
+        <v>145.0587903</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="F77" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H77" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J77" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K77" s="1">
-        <v>144.83348079999999</v>
+        <v>145.00550799999999</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="2">
-        <v>43890</v>
+        <v>43893</v>
       </c>
       <c r="F78" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H78" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J78" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K78" s="1">
-        <v>144.83348079999999</v>
+        <v>145.00550799999999</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="2">
+        <v>43894</v>
+      </c>
+      <c r="F79" s="2">
+        <v>43892</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H79" s="2">
+        <v>43910</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J79" s="1">
+        <v>-37.848232000000003</v>
+      </c>
+      <c r="K79" s="1">
+        <v>145.00550799999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="2">
+        <v>43895</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43892</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43910</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J80" s="1">
+        <v>-37.848232000000003</v>
+      </c>
+      <c r="K80" s="1">
+        <v>145.00550799999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F81" s="2">
+        <v>43892</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H81" s="2">
+        <v>43910</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J81" s="1">
+        <v>-37.848232000000003</v>
+      </c>
+      <c r="K81" s="1">
+        <v>145.00550799999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F82" s="2">
+        <v>43890</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H82" s="2">
+        <v>43904</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J82" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K82" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F83" s="2">
+        <v>43890</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H83" s="2">
+        <v>43904</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J83" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K83" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="2">
         <v>43889</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F84" s="2">
         <v>43889</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H84" s="2">
         <v>43903</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I84" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J84" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="K79" s="1">
+      <c r="K84" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
-    <hyperlink ref="D38" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
-    <hyperlink ref="D14:D25" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
-    <hyperlink ref="D26" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
-    <hyperlink ref="D28" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
-    <hyperlink ref="D27" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
-    <hyperlink ref="D6" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
-    <hyperlink ref="D2" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
+    <hyperlink ref="D13" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
+    <hyperlink ref="D12" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
+    <hyperlink ref="D43" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
+    <hyperlink ref="D14" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
+    <hyperlink ref="D15" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
+    <hyperlink ref="D16" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
+    <hyperlink ref="D17" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
+    <hyperlink ref="D18" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
+    <hyperlink ref="D19:D30" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
+    <hyperlink ref="D31" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
+    <hyperlink ref="D33" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
+    <hyperlink ref="D32" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
+    <hyperlink ref="D11" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
+    <hyperlink ref="D7" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
+    <hyperlink ref="D6" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
+    <hyperlink ref="D4" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
+    <hyperlink ref="D5" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
+    <hyperlink ref="D2:D3" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D13291E-C497-499D-9236-42C02CD65807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C9EBF5-AA02-4674-B0EE-FC4132141C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="201">
   <si>
     <t>Date</t>
   </si>
@@ -630,6 +630,15 @@
   </si>
   <si>
     <t>Birdwood Ave, Macleod VIC 3085</t>
+  </si>
+  <si>
+    <t>Amcor Flexibles, Port Melbourne</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-03-june-2020</t>
+  </si>
+  <si>
+    <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
   </si>
 </sst>
 </file>
@@ -1070,8 +1079,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K84" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K84" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K85" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K85" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="9"/>
@@ -1386,28 +1395,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.3984375" customWidth="1"/>
-    <col min="2" max="2" width="25.59765625" customWidth="1"/>
-    <col min="3" max="3" width="49.73046875" customWidth="1"/>
-    <col min="4" max="4" width="30.73046875" customWidth="1"/>
-    <col min="5" max="5" width="15.86328125" customWidth="1"/>
-    <col min="6" max="6" width="20.3984375" customWidth="1"/>
-    <col min="7" max="7" width="25.265625" customWidth="1"/>
-    <col min="8" max="8" width="16.73046875" customWidth="1"/>
-    <col min="9" max="9" width="96.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.3984375" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="96.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43984</v>
       </c>
@@ -1479,7 +1486,7 @@
         <v>144.998741</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43984</v>
       </c>
@@ -1516,7 +1523,7 @@
         <v>145.06991400000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43984</v>
       </c>
@@ -1553,7 +1560,7 @@
         <v>144.96363500000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43983</v>
       </c>
@@ -1590,16 +1597,16 @@
         <v>144.96363500000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43982</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1618,41 +1625,41 @@
         <v>43996</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="J6" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.836081999999998</v>
       </c>
       <c r="K6" s="1">
-        <v>144.96363500000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.91538299999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="F7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="G7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="H7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>172</v>
@@ -1664,32 +1671,32 @@
         <v>144.96363500000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="E8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="F8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="G8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="H8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>172</v>
@@ -1701,32 +1708,32 @@
         <v>144.96363500000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="F9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="G9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="H9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>172</v>
@@ -1738,13 +1745,13 @@
         <v>144.96363500000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>43978</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>175</v>
@@ -1766,62 +1773,62 @@
         <v>43992</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J10" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K10" s="1">
-        <v>145.08623499999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.96363500000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="F11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="G11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="H11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="J11" s="1">
-        <v>-37.756286000000003</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K11" s="1">
-        <v>144.811104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.08623499999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43977</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1840,25 +1847,25 @@
         <v>43991</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="J12" s="1">
-        <v>-37.715384</v>
+        <v>-37.756286000000003</v>
       </c>
       <c r="K12" s="1">
-        <v>144.811994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.811104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43977</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1877,62 +1884,62 @@
         <v>43991</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="J13" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.715384</v>
       </c>
       <c r="K13" s="1">
-        <v>145.01711499999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.811994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="G14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J14" s="1">
-        <v>-36.314870999999997</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K14" s="1">
-        <v>145.04196999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.01711499999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43971</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1951,59 +1958,59 @@
         <v>43985</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J15" s="1">
-        <v>-37.928489999999996</v>
+        <v>-36.314870999999997</v>
       </c>
       <c r="K15" s="1">
-        <v>145.007454</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.04196999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="G16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J16" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.928489999999996</v>
       </c>
       <c r="K16" s="1">
-        <v>145.08623499999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.007454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>43970</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>183</v>
@@ -2025,59 +2032,59 @@
         <v>43984</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J17" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K17" s="1">
-        <v>145.01711499999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.08623499999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J18" s="1">
-        <v>-37.692610000000002</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K18" s="1">
-        <v>145.06382099999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.01711499999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43969</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>184</v>
@@ -2099,22 +2106,22 @@
         <v>43983</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J19" s="1">
-        <v>-37.689222999999998</v>
+        <v>-37.692610000000002</v>
       </c>
       <c r="K19" s="1">
-        <v>144.60470799999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.06382099999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43969</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>184</v>
@@ -2136,22 +2143,22 @@
         <v>43983</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J20" s="1">
-        <v>-37.843631999999999</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="K20" s="1">
-        <v>144.78155899999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.60470799999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43969</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>184</v>
@@ -2173,22 +2180,22 @@
         <v>43983</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J21" s="1">
-        <v>-37.730747999999998</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="K21" s="1">
-        <v>145.086489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.78155899999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43969</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>184</v>
@@ -2210,22 +2217,22 @@
         <v>43983</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J22" s="1">
-        <v>-37.702513000000003</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="K22" s="1">
-        <v>144.80232599999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.086489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>43969</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>184</v>
@@ -2247,22 +2254,22 @@
         <v>43983</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J23" s="1">
-        <v>-37.673996000000002</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="K23" s="1">
-        <v>144.955354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.80232599999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43969</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>184</v>
@@ -2284,22 +2291,22 @@
         <v>43983</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J24" s="1">
-        <v>-37.576594</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="K24" s="1">
-        <v>144.72866500000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.955354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43969</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>184</v>
@@ -2321,22 +2328,22 @@
         <v>43983</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J25" s="1">
-        <v>-37.879995000000001</v>
+        <v>-37.576594</v>
       </c>
       <c r="K25" s="1">
-        <v>144.70157699999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.72866500000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43969</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>184</v>
@@ -2358,22 +2365,22 @@
         <v>43983</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J26" s="1">
-        <v>-37.834014000000003</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="K26" s="1">
-        <v>144.65285299999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.70157699999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43969</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>184</v>
@@ -2395,22 +2402,22 @@
         <v>43983</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J27" s="1">
-        <v>-37.942098999999999</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="K27" s="1">
-        <v>145.16768400000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.65285299999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>43969</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>184</v>
@@ -2432,22 +2439,22 @@
         <v>43983</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J28" s="1">
-        <v>-37.664667000000001</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="K28" s="1">
-        <v>144.74749</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.16768400000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43969</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>184</v>
@@ -2469,22 +2476,22 @@
         <v>43983</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J29" s="1">
-        <v>-37.665416999999998</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="K29" s="1">
-        <v>144.75335899999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.74749</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43969</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>184</v>
@@ -2506,62 +2513,62 @@
         <v>43983</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J30" s="1">
-        <v>-37.738990000000001</v>
+        <v>-37.665416999999998</v>
       </c>
       <c r="K30" s="1">
-        <v>144.67997600000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.75335899999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B31" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>125</v>
+        <v>43983</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="J31" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.738990000000001</v>
       </c>
       <c r="K31" s="1">
-        <v>144.921401</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.67997600000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43966</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2580,61 +2587,63 @@
         <v>43980</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J32" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.596122999999999</v>
       </c>
       <c r="K32" s="1">
-        <v>144.888195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.921401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B33" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B33" s="5"/>
       <c r="C33" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="G33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J33" s="1">
-        <v>-37.783104999999999</v>
+        <v>-37.772379999999998</v>
       </c>
       <c r="K33" s="1">
-        <v>144.78539799999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.888195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43959</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="E34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43959</v>
@@ -2652,22 +2661,22 @@
         <v>43973</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J34" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="K34" s="1">
-        <v>145.02005199999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.78539799999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43959</v>
       </c>
-      <c r="B35" s="5"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="2">
@@ -2687,57 +2696,57 @@
         <v>43973</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J35" s="1">
-        <v>-37.689366</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="K35" s="1">
-        <v>144.958878</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.02005199999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B36" s="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="G36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J36" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.689366</v>
       </c>
       <c r="K36" s="1">
-        <v>144.43268900000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.958878</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43953</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="2">
@@ -2757,269 +2766,271 @@
         <v>43967</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J37" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="K37" s="1">
-        <v>144.836118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.43268900000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="F38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="G38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="H38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="J38" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="K38" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.836118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="F39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="G39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="H39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="J39" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K39" s="1">
-        <v>144.889926</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="F40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="G40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43964</v>
       </c>
       <c r="H40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
+        <v>43964</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J40" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.811678000000001</v>
       </c>
       <c r="K40" s="1">
-        <v>144.894632</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.889926</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="F41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="G41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="H41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J41" s="1">
-        <v>-37.759222999999999</v>
+        <v>-37.797176999999998</v>
       </c>
       <c r="K41" s="1">
-        <v>144.816754</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42" s="2">
-        <v>43907</v>
+        <v>144.894632</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>43944</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
+        <v>43944</v>
       </c>
       <c r="F42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
+        <v>43944</v>
       </c>
       <c r="G42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43958</v>
       </c>
       <c r="H42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
+        <v>43958</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J42" s="1">
-        <v>-37.844318000000001</v>
+        <v>-37.759222999999999</v>
       </c>
       <c r="K42" s="1">
-        <v>145.009818</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.816754</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>180</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D43" s="1"/>
       <c r="E43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="F43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="G43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="H43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J43" s="1">
+        <v>-37.844318000000001</v>
+      </c>
+      <c r="K43" s="1">
+        <v>145.009818</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="F44" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="G44" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43919</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="H44" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43919</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J44" s="1">
         <v>-37.813239000000003</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K44" s="1">
         <v>145.048047</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="2">
-        <v>43900</v>
-      </c>
-      <c r="F44" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="2">
-        <v>43914</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J44" s="1">
-        <v>-37.776940699999997</v>
-      </c>
-      <c r="K44" s="1">
-        <v>144.98702499999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2">
@@ -3035,24 +3046,24 @@
         <v>43914</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J45" s="1">
-        <v>-37.772095999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="K45" s="1">
-        <v>144.91609500000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.98702499999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2">
@@ -3068,37 +3079,37 @@
         <v>43914</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J46" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="K46" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.91609500000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F47" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H47" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>97</v>
@@ -3110,15 +3121,15 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2">
@@ -3143,28 +3154,28 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="F49" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H49" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>97</v>
@@ -3176,9 +3187,9 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>24</v>
@@ -3188,16 +3199,16 @@
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F50" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H50" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>97</v>
@@ -3209,28 +3220,28 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F51" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H51" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>97</v>
@@ -3242,15 +3253,15 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2">
@@ -3275,48 +3286,48 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F53" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H53" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J53" s="1">
-        <v>-37.821452700000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K53" s="1">
-        <v>144.98347200000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2">
@@ -3332,24 +3343,24 @@
         <v>43912</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J54" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.821452700000002</v>
       </c>
       <c r="K54" s="1">
-        <v>145.0729384</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.98347200000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2">
@@ -3365,57 +3376,57 @@
         <v>43912</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J55" s="1">
-        <v>-37.790782999999998</v>
+        <v>-37.800963000000003</v>
       </c>
       <c r="K55" s="1">
-        <v>144.99816200000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.0729384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F56" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H56" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J56" s="1">
-        <v>-37.824981299999997</v>
+        <v>-37.790782999999998</v>
       </c>
       <c r="K56" s="1">
-        <v>144.98361299999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.99816200000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2">
@@ -3431,24 +3442,24 @@
         <v>43911</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J57" s="1">
-        <v>-37.841103699999998</v>
+        <v>-37.824981299999997</v>
       </c>
       <c r="K57" s="1">
-        <v>144.955806</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.98361299999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2">
@@ -3464,37 +3475,37 @@
         <v>43911</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J58" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.841103699999998</v>
       </c>
       <c r="K58" s="1">
-        <v>144.9564881</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.955806</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F59" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H59" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>103</v>
@@ -3506,61 +3517,61 @@
         <v>144.9564881</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F60" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H60" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J60" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K60" s="1">
-        <v>144.31841800000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.9564881</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F61" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H61" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>104</v>
@@ -3572,81 +3583,81 @@
         <v>144.31841800000001</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F62" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H62" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J62" s="1">
-        <v>-37.863344400000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K62" s="1">
-        <v>145.08682759999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.31841800000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F63" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H63" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J63" s="1">
-        <v>-37.809265000000003</v>
+        <v>-37.863344400000003</v>
       </c>
       <c r="K63" s="1">
-        <v>144.99495099999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.08682759999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2">
@@ -3662,57 +3673,57 @@
         <v>43910</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J64" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.809265000000003</v>
       </c>
       <c r="K64" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.99495099999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F65" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H65" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J65" s="1">
-        <v>-37.797809200000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K65" s="1">
-        <v>144.96801239999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2">
@@ -3728,16 +3739,16 @@
         <v>43909</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J66" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.797809200000003</v>
       </c>
       <c r="K66" s="1">
-        <v>144.9526066</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.96801239999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>57</v>
       </c>
@@ -3761,57 +3772,57 @@
         <v>43909</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J67" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K67" s="1">
-        <v>144.35683760000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F68" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H68" s="2">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J68" s="1">
-        <v>-37.028215000000003</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K68" s="1">
-        <v>145.14336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.35683760000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="2">
@@ -3821,22 +3832,22 @@
         <v>43893</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H69" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J69" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.028215000000003</v>
       </c>
       <c r="K69" s="1">
-        <v>145.04823200000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.14336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
@@ -3848,7 +3859,7 @@
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="F70" s="2">
         <v>43893</v>
@@ -3869,7 +3880,7 @@
         <v>145.04823200000001</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>67</v>
       </c>
@@ -3881,7 +3892,7 @@
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="F71" s="2">
         <v>43893</v>
@@ -3902,48 +3913,48 @@
         <v>145.04823200000001</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="F72" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H72" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="J72" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K72" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.04823200000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2">
@@ -3959,16 +3970,16 @@
         <v>43906</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J73" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K73" s="1">
-        <v>144.35683760000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
@@ -3992,24 +4003,24 @@
         <v>43906</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J74" s="1">
-        <v>-37.816394899999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K74" s="1">
-        <v>144.9526066</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.35683760000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="2">
@@ -4034,7 +4045,7 @@
         <v>144.9526066</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>71</v>
       </c>
@@ -4058,24 +4069,24 @@
         <v>43906</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J76" s="1">
-        <v>-37.826660799999999</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K76" s="1">
-        <v>145.0587903</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="2">
@@ -4085,22 +4096,22 @@
         <v>43892</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H77" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J77" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.826660799999999</v>
       </c>
       <c r="K77" s="1">
-        <v>145.00550799999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.0587903</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
@@ -4112,7 +4123,7 @@
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="F78" s="2">
         <v>43892</v>
@@ -4133,7 +4144,7 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -4145,7 +4156,7 @@
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="F79" s="2">
         <v>43892</v>
@@ -4166,7 +4177,7 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -4178,7 +4189,7 @@
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="F80" s="2">
         <v>43892</v>
@@ -4199,7 +4210,7 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
@@ -4211,7 +4222,7 @@
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="2">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="F81" s="2">
         <v>43892</v>
@@ -4232,48 +4243,48 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="2">
-        <v>43890</v>
+        <v>43896</v>
       </c>
       <c r="F82" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H82" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J82" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K82" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.00550799999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="2">
@@ -4298,28 +4309,28 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="F84" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H84" s="2">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>97</v>
@@ -4328,38 +4339,72 @@
         <v>-37.667110999999998</v>
       </c>
       <c r="K84" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="2">
+        <v>43889</v>
+      </c>
+      <c r="F85" s="2">
+        <v>43889</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H85" s="2">
+        <v>43903</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J85" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K85" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
-    <hyperlink ref="D13" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
-    <hyperlink ref="D12" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
-    <hyperlink ref="D43" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
-    <hyperlink ref="D14" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
-    <hyperlink ref="D15" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
-    <hyperlink ref="D16" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
-    <hyperlink ref="D17" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
-    <hyperlink ref="D18" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
-    <hyperlink ref="D19:D30" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
-    <hyperlink ref="D31" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
-    <hyperlink ref="D33" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
-    <hyperlink ref="D32" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
-    <hyperlink ref="D11" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
-    <hyperlink ref="D7" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
-    <hyperlink ref="D6" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
+    <hyperlink ref="D14" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
+    <hyperlink ref="D13" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
+    <hyperlink ref="D44" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
+    <hyperlink ref="D15" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
+    <hyperlink ref="D16" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
+    <hyperlink ref="D17" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
+    <hyperlink ref="D18" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
+    <hyperlink ref="D19" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
+    <hyperlink ref="D20:D31" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
+    <hyperlink ref="D32" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
+    <hyperlink ref="D34" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
+    <hyperlink ref="D33" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
+    <hyperlink ref="D12" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
+    <hyperlink ref="D8" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
+    <hyperlink ref="D7" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
     <hyperlink ref="D4" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
     <hyperlink ref="D5" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
     <hyperlink ref="D2:D3" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
+    <hyperlink ref="D6" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
   <tableParts count="1">
-    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C9EBF5-AA02-4674-B0EE-FC4132141C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7D9264-75B5-46E3-8B6A-26CE861764EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="345" yWindow="375" windowWidth="20520" windowHeight="11790" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC public exposure sites" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="204">
   <si>
     <t>Date</t>
   </si>
@@ -639,6 +639,15 @@
   </si>
   <si>
     <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+  </si>
+  <si>
+    <t>Global Resource Recovery, Laverton</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-04-june-2020</t>
+  </si>
+  <si>
+    <t>9-11 Maria St, Laverton North VIC 3026</t>
   </si>
 </sst>
 </file>
@@ -701,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -709,6 +718,7 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1079,8 +1089,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K85" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K85" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K86" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K86" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="9"/>
@@ -1395,7 +1405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1710,67 +1720,67 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>174</v>
+        <v>201</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="E9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="F9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="G9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="H9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="J9" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.837907999999999</v>
       </c>
       <c r="K9" s="1">
-        <v>144.96363500000001</v>
+        <v>144.78621799999999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="F10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="G10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="H10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>172</v>
@@ -1788,7 +1798,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>175</v>
@@ -1810,50 +1820,50 @@
         <v>43992</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J11" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K11" s="1">
-        <v>145.08623499999999</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="F12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="G12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="H12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="J12" s="1">
-        <v>-37.756286000000003</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K12" s="1">
-        <v>144.811104</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1862,10 +1872,10 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1884,13 +1894,13 @@
         <v>43991</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="J13" s="1">
-        <v>-37.715384</v>
+        <v>-37.756286000000003</v>
       </c>
       <c r="K13" s="1">
-        <v>144.811994</v>
+        <v>144.811104</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1899,10 +1909,10 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1921,50 +1931,50 @@
         <v>43991</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="J14" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.715384</v>
       </c>
       <c r="K14" s="1">
-        <v>145.01711499999999</v>
+        <v>144.811994</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="G15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J15" s="1">
-        <v>-36.314870999999997</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K15" s="1">
-        <v>145.04196999999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1973,10 +1983,10 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1995,50 +2005,50 @@
         <v>43985</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J16" s="1">
-        <v>-37.928489999999996</v>
+        <v>-36.314870999999997</v>
       </c>
       <c r="K16" s="1">
-        <v>145.007454</v>
+        <v>145.04196999999999</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="G17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J17" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.928489999999996</v>
       </c>
       <c r="K17" s="1">
-        <v>145.08623499999999</v>
+        <v>145.007454</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2047,7 +2057,7 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>183</v>
@@ -2069,50 +2079,50 @@
         <v>43984</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J18" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K18" s="1">
-        <v>145.01711499999999</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J19" s="1">
-        <v>-37.692610000000002</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K19" s="1">
-        <v>145.06382099999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2121,7 +2131,7 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>184</v>
@@ -2143,13 +2153,13 @@
         <v>43983</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J20" s="1">
-        <v>-37.689222999999998</v>
+        <v>-37.692610000000002</v>
       </c>
       <c r="K20" s="1">
-        <v>144.60470799999999</v>
+        <v>145.06382099999999</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2158,7 +2168,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>184</v>
@@ -2180,13 +2190,13 @@
         <v>43983</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J21" s="1">
-        <v>-37.843631999999999</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="K21" s="1">
-        <v>144.78155899999999</v>
+        <v>144.60470799999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2195,7 +2205,7 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>184</v>
@@ -2217,13 +2227,13 @@
         <v>43983</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J22" s="1">
-        <v>-37.730747999999998</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="K22" s="1">
-        <v>145.086489</v>
+        <v>144.78155899999999</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2232,7 +2242,7 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>184</v>
@@ -2254,13 +2264,13 @@
         <v>43983</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J23" s="1">
-        <v>-37.702513000000003</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="K23" s="1">
-        <v>144.80232599999999</v>
+        <v>145.086489</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2269,7 +2279,7 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>184</v>
@@ -2291,13 +2301,13 @@
         <v>43983</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J24" s="1">
-        <v>-37.673996000000002</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="K24" s="1">
-        <v>144.955354</v>
+        <v>144.80232599999999</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2306,7 +2316,7 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>184</v>
@@ -2328,13 +2338,13 @@
         <v>43983</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J25" s="1">
-        <v>-37.576594</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="K25" s="1">
-        <v>144.72866500000001</v>
+        <v>144.955354</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2343,7 +2353,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>184</v>
@@ -2365,13 +2375,13 @@
         <v>43983</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J26" s="1">
-        <v>-37.879995000000001</v>
+        <v>-37.576594</v>
       </c>
       <c r="K26" s="1">
-        <v>144.70157699999999</v>
+        <v>144.72866500000001</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2380,7 +2390,7 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>184</v>
@@ -2402,13 +2412,13 @@
         <v>43983</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J27" s="1">
-        <v>-37.834014000000003</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="K27" s="1">
-        <v>144.65285299999999</v>
+        <v>144.70157699999999</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2417,7 +2427,7 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>184</v>
@@ -2439,13 +2449,13 @@
         <v>43983</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J28" s="1">
-        <v>-37.942098999999999</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="K28" s="1">
-        <v>145.16768400000001</v>
+        <v>144.65285299999999</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2454,7 +2464,7 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>184</v>
@@ -2476,13 +2486,13 @@
         <v>43983</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J29" s="1">
-        <v>-37.664667000000001</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="K29" s="1">
-        <v>144.74749</v>
+        <v>145.16768400000001</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2491,7 +2501,7 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>184</v>
@@ -2513,13 +2523,13 @@
         <v>43983</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J30" s="1">
-        <v>-37.665416999999998</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="K30" s="1">
-        <v>144.75335899999999</v>
+        <v>144.74749</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2528,7 +2538,7 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>184</v>
@@ -2550,50 +2560,50 @@
         <v>43983</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J31" s="1">
-        <v>-37.738990000000001</v>
+        <v>-37.665416999999998</v>
       </c>
       <c r="K31" s="1">
-        <v>144.67997600000001</v>
+        <v>144.75335899999999</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B32" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>125</v>
+        <v>43983</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="J32" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.738990000000001</v>
       </c>
       <c r="K32" s="1">
-        <v>144.921401</v>
+        <v>144.67997600000001</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2602,10 +2612,10 @@
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2624,50 +2634,50 @@
         <v>43980</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J33" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.596122999999999</v>
       </c>
       <c r="K33" s="1">
-        <v>144.888195</v>
+        <v>144.921401</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B34" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B34" s="5"/>
       <c r="C34" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="G34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J34" s="1">
-        <v>-37.783104999999999</v>
+        <v>-37.772379999999998</v>
       </c>
       <c r="K34" s="1">
-        <v>144.78539799999999</v>
+        <v>144.888195</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2676,9 +2686,11 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="E35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43959</v>
@@ -2696,22 +2708,22 @@
         <v>43973</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J35" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="K35" s="1">
-        <v>145.02005199999999</v>
+        <v>144.78539799999999</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43959</v>
       </c>
-      <c r="B36" s="5"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="2">
@@ -2731,48 +2743,48 @@
         <v>43973</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J36" s="1">
-        <v>-37.689366</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="K36" s="1">
-        <v>144.958878</v>
+        <v>145.02005199999999</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B37" s="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="G37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J37" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.689366</v>
       </c>
       <c r="K37" s="1">
-        <v>144.43268900000001</v>
+        <v>144.958878</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2781,7 +2793,7 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="2">
@@ -2801,258 +2813,260 @@
         <v>43967</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J38" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="K38" s="1">
-        <v>144.836118</v>
+        <v>144.43268900000001</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="F39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="G39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="H39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="J39" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="K39" s="1">
-        <v>144.83348079999999</v>
+        <v>144.836118</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="F40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="G40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="H40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="J40" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K40" s="1">
-        <v>144.889926</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="F41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="G41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43964</v>
       </c>
       <c r="H41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
+        <v>43964</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J41" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.811678000000001</v>
       </c>
       <c r="K41" s="1">
-        <v>144.894632</v>
+        <v>144.889926</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="F42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="G42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="H42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J42" s="1">
-        <v>-37.759222999999999</v>
+        <v>-37.797176999999998</v>
       </c>
       <c r="K42" s="1">
-        <v>144.816754</v>
+        <v>144.894632</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>43907</v>
+      <c r="A43" s="4">
+        <v>43944</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
+        <v>43944</v>
       </c>
       <c r="F43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
+        <v>43944</v>
       </c>
       <c r="G43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43958</v>
       </c>
       <c r="H43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
+        <v>43958</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J43" s="1">
-        <v>-37.844318000000001</v>
+        <v>-37.759222999999999</v>
       </c>
       <c r="K43" s="1">
-        <v>145.009818</v>
+        <v>144.816754</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>180</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="F44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="G44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="H44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J44" s="1">
+        <v>-37.844318000000001</v>
+      </c>
+      <c r="K44" s="1">
+        <v>145.009818</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="F45" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="G45" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43919</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="H45" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43919</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J45" s="1">
         <v>-37.813239000000003</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K45" s="1">
         <v>145.048047</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2">
-        <v>43900</v>
-      </c>
-      <c r="F45" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="2">
-        <v>43914</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J45" s="1">
-        <v>-37.776940699999997</v>
-      </c>
-      <c r="K45" s="1">
-        <v>144.98702499999999</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3060,10 +3074,10 @@
         <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2">
@@ -3079,13 +3093,13 @@
         <v>43914</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J46" s="1">
-        <v>-37.772095999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="K46" s="1">
-        <v>144.91609500000001</v>
+        <v>144.98702499999999</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3093,10 +3107,10 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2">
@@ -3112,37 +3126,37 @@
         <v>43914</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J47" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="K47" s="1">
-        <v>144.83348079999999</v>
+        <v>144.91609500000001</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F48" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H48" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>97</v>
@@ -3159,10 +3173,10 @@
         <v>17</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2">
@@ -3189,26 +3203,26 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="F50" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H50" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>97</v>
@@ -3222,7 +3236,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>24</v>
@@ -3232,16 +3246,16 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F51" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H51" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>97</v>
@@ -3255,26 +3269,26 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F52" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H52" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>97</v>
@@ -3291,10 +3305,10 @@
         <v>29</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2">
@@ -3321,35 +3335,35 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F54" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H54" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J54" s="1">
-        <v>-37.821452700000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K54" s="1">
-        <v>144.98347200000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3357,10 +3371,10 @@
         <v>23</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2">
@@ -3376,13 +3390,13 @@
         <v>43912</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J55" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.821452700000002</v>
       </c>
       <c r="K55" s="1">
-        <v>145.0729384</v>
+        <v>144.98347200000001</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3390,10 +3404,10 @@
         <v>23</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2">
@@ -3409,46 +3423,46 @@
         <v>43912</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J56" s="1">
-        <v>-37.790782999999998</v>
+        <v>-37.800963000000003</v>
       </c>
       <c r="K56" s="1">
-        <v>144.99816200000001</v>
+        <v>145.0729384</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F57" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H57" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J57" s="1">
-        <v>-37.824981299999997</v>
+        <v>-37.790782999999998</v>
       </c>
       <c r="K57" s="1">
-        <v>144.98361299999999</v>
+        <v>144.99816200000001</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3456,10 +3470,10 @@
         <v>27</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2">
@@ -3475,13 +3489,13 @@
         <v>43911</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J58" s="1">
-        <v>-37.841103699999998</v>
+        <v>-37.824981299999997</v>
       </c>
       <c r="K58" s="1">
-        <v>144.955806</v>
+        <v>144.98361299999999</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3489,10 +3503,10 @@
         <v>27</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2">
@@ -3508,37 +3522,37 @@
         <v>43911</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J59" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.841103699999998</v>
       </c>
       <c r="K59" s="1">
-        <v>144.9564881</v>
+        <v>144.955806</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F60" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H60" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>103</v>
@@ -3552,59 +3566,59 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F61" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H61" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J61" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K61" s="1">
-        <v>144.31841800000001</v>
+        <v>144.9564881</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F62" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H62" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>104</v>
@@ -3618,68 +3632,68 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F63" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H63" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J63" s="1">
-        <v>-37.863344400000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K63" s="1">
-        <v>145.08682759999999</v>
+        <v>144.31841800000001</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F64" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H64" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J64" s="1">
-        <v>-37.809265000000003</v>
+        <v>-37.863344400000003</v>
       </c>
       <c r="K64" s="1">
-        <v>144.99495099999999</v>
+        <v>145.08682759999999</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3687,10 +3701,10 @@
         <v>29</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="2">
@@ -3706,46 +3720,46 @@
         <v>43910</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J65" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.809265000000003</v>
       </c>
       <c r="K65" s="1">
-        <v>144.83348079999999</v>
+        <v>144.99495099999999</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F66" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H66" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J66" s="1">
-        <v>-37.797809200000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K66" s="1">
-        <v>144.96801239999999</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3753,10 +3767,10 @@
         <v>57</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2">
@@ -3772,13 +3786,13 @@
         <v>43909</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J67" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.797809200000003</v>
       </c>
       <c r="K67" s="1">
-        <v>144.9526066</v>
+        <v>144.96801239999999</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3805,57 +3819,57 @@
         <v>43909</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J68" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K68" s="1">
-        <v>144.35683760000001</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F69" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H69" s="2">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J69" s="1">
-        <v>-37.028215000000003</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K69" s="1">
-        <v>145.14336</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2">
@@ -3865,19 +3879,19 @@
         <v>43893</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H70" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J70" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.028215000000003</v>
       </c>
       <c r="K70" s="1">
-        <v>145.04823200000001</v>
+        <v>145.14336</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3892,7 +3906,7 @@
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="F71" s="2">
         <v>43893</v>
@@ -3925,7 +3939,7 @@
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="F72" s="2">
         <v>43893</v>
@@ -3948,35 +3962,35 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="F73" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H73" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="J73" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K73" s="1">
-        <v>144.83348079999999</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3984,10 +3998,10 @@
         <v>71</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="2">
@@ -4003,13 +4017,13 @@
         <v>43906</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J74" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K74" s="1">
-        <v>144.35683760000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4036,13 +4050,13 @@
         <v>43906</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J75" s="1">
-        <v>-37.816394899999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K75" s="1">
-        <v>144.9526066</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4050,10 +4064,10 @@
         <v>71</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="2">
@@ -4102,24 +4116,24 @@
         <v>43906</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J77" s="1">
-        <v>-37.826660799999999</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K77" s="1">
-        <v>145.0587903</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="2">
@@ -4129,19 +4143,19 @@
         <v>43892</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H78" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J78" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.826660799999999</v>
       </c>
       <c r="K78" s="1">
-        <v>145.00550799999999</v>
+        <v>145.0587903</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4156,7 +4170,7 @@
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="F79" s="2">
         <v>43892</v>
@@ -4189,7 +4203,7 @@
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="F80" s="2">
         <v>43892</v>
@@ -4222,7 +4236,7 @@
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="F81" s="2">
         <v>43892</v>
@@ -4255,7 +4269,7 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="2">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="F82" s="2">
         <v>43892</v>
@@ -4278,35 +4292,35 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="2">
-        <v>43890</v>
+        <v>43896</v>
       </c>
       <c r="F83" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H83" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J83" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K83" s="1">
-        <v>144.83348079999999</v>
+        <v>145.00550799999999</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4314,10 +4328,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="2">
@@ -4344,26 +4358,26 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="F85" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H85" s="2">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>97</v>
@@ -4372,39 +4386,73 @@
         <v>-37.667110999999998</v>
       </c>
       <c r="K85" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="2">
+        <v>43889</v>
+      </c>
+      <c r="F86" s="2">
+        <v>43889</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" s="2">
+        <v>43903</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J86" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K86" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
-    <hyperlink ref="D10" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
-    <hyperlink ref="D14" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
-    <hyperlink ref="D13" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
-    <hyperlink ref="D44" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
-    <hyperlink ref="D15" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
-    <hyperlink ref="D16" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
-    <hyperlink ref="D17" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
-    <hyperlink ref="D18" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
-    <hyperlink ref="D19" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
-    <hyperlink ref="D20:D31" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
-    <hyperlink ref="D32" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
-    <hyperlink ref="D34" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
-    <hyperlink ref="D33" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
-    <hyperlink ref="D12" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
+    <hyperlink ref="D12" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
+    <hyperlink ref="D15" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
+    <hyperlink ref="D14" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
+    <hyperlink ref="D45" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
+    <hyperlink ref="D16" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
+    <hyperlink ref="D17" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
+    <hyperlink ref="D18" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
+    <hyperlink ref="D19" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
+    <hyperlink ref="D20" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
+    <hyperlink ref="D21:D32" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
+    <hyperlink ref="D33" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
+    <hyperlink ref="D35" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
+    <hyperlink ref="D34" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
+    <hyperlink ref="D13" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
     <hyperlink ref="D8" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
     <hyperlink ref="D7" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
     <hyperlink ref="D4" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
     <hyperlink ref="D5" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
     <hyperlink ref="D2:D3" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
     <hyperlink ref="D6" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
+    <hyperlink ref="D9" r:id="rId23" xr:uid="{ADFF70FF-B572-4083-B069-A34FABCEEE29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7D9264-75B5-46E3-8B6A-26CE861764EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C0DD2C-9610-4D38-8767-7A270F7D662E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="375" windowWidth="20520" windowHeight="11790" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC public exposure sites" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="207">
   <si>
     <t>Date</t>
   </si>
@@ -648,6 +648,15 @@
   </si>
   <si>
     <t>9-11 Maria St, Laverton North VIC 3026</t>
+  </si>
+  <si>
+    <t>Newbury Primary School, Craigieburn</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-05-june-2020</t>
+  </si>
+  <si>
+    <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
   </si>
 </sst>
 </file>
@@ -1089,8 +1098,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K86" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K86" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K87" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K87" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="9"/>
@@ -1405,9 +1414,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1461,39 +1472,39 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="F2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="G2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="H2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="J2" s="1">
-        <v>-37.704174999999999</v>
+        <v>-37.571235999999999</v>
       </c>
       <c r="K2" s="1">
-        <v>144.998741</v>
+        <v>144.90978000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1502,7 +1513,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>191</v>
@@ -1524,13 +1535,13 @@
         <v>43998</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J3" s="1">
-        <v>-37.726306000000001</v>
+        <v>-37.704174999999999</v>
       </c>
       <c r="K3" s="1">
-        <v>145.06991400000001</v>
+        <v>144.998741</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1539,7 +1550,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>191</v>
@@ -1561,41 +1572,41 @@
         <v>43998</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="J4" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.726306000000001</v>
       </c>
       <c r="K4" s="1">
-        <v>144.96363500000001</v>
+        <v>145.06991400000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="F5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="H5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>172</v>
@@ -1609,39 +1620,39 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="F6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="G6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="H6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="J6" s="1">
-        <v>-37.836081999999998</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K6" s="1">
-        <v>144.91538299999999</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1650,10 +1661,10 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1672,41 +1683,41 @@
         <v>43996</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="J7" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.836081999999998</v>
       </c>
       <c r="K7" s="1">
-        <v>144.96363500000001</v>
+        <v>144.91538299999999</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="F8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="G8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="H8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>172</v>
@@ -1720,104 +1731,104 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>202</v>
+        <v>171</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="E9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="F9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="G9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="H9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="J9" s="1">
-        <v>-37.837907999999999</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K9" s="1">
-        <v>144.78621799999999</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>174</v>
+        <v>201</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="E10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="F10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="G10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="H10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="J10" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.837907999999999</v>
       </c>
       <c r="K10" s="1">
-        <v>144.96363500000001</v>
+        <v>144.78621799999999</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="F11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="G11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="H11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>172</v>
@@ -1835,7 +1846,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>175</v>
@@ -1857,50 +1868,50 @@
         <v>43992</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J12" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K12" s="1">
-        <v>145.08623499999999</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="F13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="G13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="H13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="J13" s="1">
-        <v>-37.756286000000003</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K13" s="1">
-        <v>144.811104</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1909,10 +1920,10 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1931,13 +1942,13 @@
         <v>43991</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="J14" s="1">
-        <v>-37.715384</v>
+        <v>-37.756286000000003</v>
       </c>
       <c r="K14" s="1">
-        <v>144.811994</v>
+        <v>144.811104</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1946,10 +1957,10 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1968,50 +1979,50 @@
         <v>43991</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="J15" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.715384</v>
       </c>
       <c r="K15" s="1">
-        <v>145.01711499999999</v>
+        <v>144.811994</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="G16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J16" s="1">
-        <v>-36.314870999999997</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K16" s="1">
-        <v>145.04196999999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2020,10 +2031,10 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2042,50 +2053,50 @@
         <v>43985</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J17" s="1">
-        <v>-37.928489999999996</v>
+        <v>-36.314870999999997</v>
       </c>
       <c r="K17" s="1">
-        <v>145.007454</v>
+        <v>145.04196999999999</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="G18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J18" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.928489999999996</v>
       </c>
       <c r="K18" s="1">
-        <v>145.08623499999999</v>
+        <v>145.007454</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2094,7 +2105,7 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>183</v>
@@ -2116,50 +2127,50 @@
         <v>43984</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J19" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K19" s="1">
-        <v>145.01711499999999</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J20" s="1">
-        <v>-37.692610000000002</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K20" s="1">
-        <v>145.06382099999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2168,7 +2179,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>184</v>
@@ -2190,13 +2201,13 @@
         <v>43983</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J21" s="1">
-        <v>-37.689222999999998</v>
+        <v>-37.692610000000002</v>
       </c>
       <c r="K21" s="1">
-        <v>144.60470799999999</v>
+        <v>145.06382099999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2205,7 +2216,7 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>184</v>
@@ -2227,13 +2238,13 @@
         <v>43983</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J22" s="1">
-        <v>-37.843631999999999</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="K22" s="1">
-        <v>144.78155899999999</v>
+        <v>144.60470799999999</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2242,7 +2253,7 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>184</v>
@@ -2264,13 +2275,13 @@
         <v>43983</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J23" s="1">
-        <v>-37.730747999999998</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="K23" s="1">
-        <v>145.086489</v>
+        <v>144.78155899999999</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2279,7 +2290,7 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>184</v>
@@ -2301,13 +2312,13 @@
         <v>43983</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J24" s="1">
-        <v>-37.702513000000003</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="K24" s="1">
-        <v>144.80232599999999</v>
+        <v>145.086489</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2316,7 +2327,7 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>184</v>
@@ -2338,13 +2349,13 @@
         <v>43983</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J25" s="1">
-        <v>-37.673996000000002</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="K25" s="1">
-        <v>144.955354</v>
+        <v>144.80232599999999</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2353,7 +2364,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>184</v>
@@ -2375,13 +2386,13 @@
         <v>43983</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J26" s="1">
-        <v>-37.576594</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="K26" s="1">
-        <v>144.72866500000001</v>
+        <v>144.955354</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2390,7 +2401,7 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>184</v>
@@ -2412,13 +2423,13 @@
         <v>43983</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J27" s="1">
-        <v>-37.879995000000001</v>
+        <v>-37.576594</v>
       </c>
       <c r="K27" s="1">
-        <v>144.70157699999999</v>
+        <v>144.72866500000001</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2427,7 +2438,7 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>184</v>
@@ -2449,13 +2460,13 @@
         <v>43983</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J28" s="1">
-        <v>-37.834014000000003</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="K28" s="1">
-        <v>144.65285299999999</v>
+        <v>144.70157699999999</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2464,7 +2475,7 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>184</v>
@@ -2486,13 +2497,13 @@
         <v>43983</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J29" s="1">
-        <v>-37.942098999999999</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="K29" s="1">
-        <v>145.16768400000001</v>
+        <v>144.65285299999999</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2501,7 +2512,7 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>184</v>
@@ -2523,13 +2534,13 @@
         <v>43983</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J30" s="1">
-        <v>-37.664667000000001</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="K30" s="1">
-        <v>144.74749</v>
+        <v>145.16768400000001</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2538,7 +2549,7 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>184</v>
@@ -2560,13 +2571,13 @@
         <v>43983</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J31" s="1">
-        <v>-37.665416999999998</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="K31" s="1">
-        <v>144.75335899999999</v>
+        <v>144.74749</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2575,7 +2586,7 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>184</v>
@@ -2597,50 +2608,50 @@
         <v>43983</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J32" s="1">
-        <v>-37.738990000000001</v>
+        <v>-37.665416999999998</v>
       </c>
       <c r="K32" s="1">
-        <v>144.67997600000001</v>
+        <v>144.75335899999999</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B33" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>125</v>
+        <v>43983</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="J33" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.738990000000001</v>
       </c>
       <c r="K33" s="1">
-        <v>144.921401</v>
+        <v>144.67997600000001</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2649,10 +2660,10 @@
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2671,50 +2682,50 @@
         <v>43980</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J34" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.596122999999999</v>
       </c>
       <c r="K34" s="1">
-        <v>144.888195</v>
+        <v>144.921401</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B35" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B35" s="5"/>
       <c r="C35" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="G35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J35" s="1">
-        <v>-37.783104999999999</v>
+        <v>-37.772379999999998</v>
       </c>
       <c r="K35" s="1">
-        <v>144.78539799999999</v>
+        <v>144.888195</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2723,9 +2734,11 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="E36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43959</v>
@@ -2743,22 +2756,22 @@
         <v>43973</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J36" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="K36" s="1">
-        <v>145.02005199999999</v>
+        <v>144.78539799999999</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43959</v>
       </c>
-      <c r="B37" s="5"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="2">
@@ -2778,48 +2791,48 @@
         <v>43973</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J37" s="1">
-        <v>-37.689366</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="K37" s="1">
-        <v>144.958878</v>
+        <v>145.02005199999999</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B38" s="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B38" s="5"/>
       <c r="C38" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="G38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J38" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.689366</v>
       </c>
       <c r="K38" s="1">
-        <v>144.43268900000001</v>
+        <v>144.958878</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2828,7 +2841,7 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="2">
@@ -2848,258 +2861,260 @@
         <v>43967</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J39" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="K39" s="1">
-        <v>144.836118</v>
+        <v>144.43268900000001</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="F40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="G40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="H40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="J40" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="K40" s="1">
-        <v>144.83348079999999</v>
+        <v>144.836118</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="F41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="G41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="H41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="J41" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K41" s="1">
-        <v>144.889926</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="F42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="G42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43964</v>
       </c>
       <c r="H42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
+        <v>43964</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J42" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.811678000000001</v>
       </c>
       <c r="K42" s="1">
-        <v>144.894632</v>
+        <v>144.889926</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="F43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="G43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="H43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J43" s="1">
-        <v>-37.759222999999999</v>
+        <v>-37.797176999999998</v>
       </c>
       <c r="K43" s="1">
-        <v>144.816754</v>
+        <v>144.894632</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>43907</v>
+      <c r="A44" s="4">
+        <v>43944</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
+        <v>43944</v>
       </c>
       <c r="F44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
+        <v>43944</v>
       </c>
       <c r="G44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43958</v>
       </c>
       <c r="H44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
+        <v>43958</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J44" s="1">
-        <v>-37.844318000000001</v>
+        <v>-37.759222999999999</v>
       </c>
       <c r="K44" s="1">
-        <v>145.009818</v>
+        <v>144.816754</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>180</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D45" s="1"/>
       <c r="E45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="F45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="G45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="H45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J45" s="1">
+        <v>-37.844318000000001</v>
+      </c>
+      <c r="K45" s="1">
+        <v>145.009818</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="F46" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="G46" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43919</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="H46" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43919</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J46" s="1">
         <v>-37.813239000000003</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K46" s="1">
         <v>145.048047</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2">
-        <v>43900</v>
-      </c>
-      <c r="F46" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="2">
-        <v>43914</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J46" s="1">
-        <v>-37.776940699999997</v>
-      </c>
-      <c r="K46" s="1">
-        <v>144.98702499999999</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3107,10 +3122,10 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2">
@@ -3126,13 +3141,13 @@
         <v>43914</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J47" s="1">
-        <v>-37.772095999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="K47" s="1">
-        <v>144.91609500000001</v>
+        <v>144.98702499999999</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3140,10 +3155,10 @@
         <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2">
@@ -3159,37 +3174,37 @@
         <v>43914</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J48" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="K48" s="1">
-        <v>144.83348079999999</v>
+        <v>144.91609500000001</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F49" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H49" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>97</v>
@@ -3206,10 +3221,10 @@
         <v>17</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2">
@@ -3236,26 +3251,26 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="F51" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H51" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>97</v>
@@ -3269,7 +3284,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>24</v>
@@ -3279,16 +3294,16 @@
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F52" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H52" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>97</v>
@@ -3302,26 +3317,26 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F53" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H53" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>97</v>
@@ -3338,10 +3353,10 @@
         <v>29</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2">
@@ -3368,35 +3383,35 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F55" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H55" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J55" s="1">
-        <v>-37.821452700000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K55" s="1">
-        <v>144.98347200000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3404,10 +3419,10 @@
         <v>23</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2">
@@ -3423,13 +3438,13 @@
         <v>43912</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J56" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.821452700000002</v>
       </c>
       <c r="K56" s="1">
-        <v>145.0729384</v>
+        <v>144.98347200000001</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3437,10 +3452,10 @@
         <v>23</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2">
@@ -3456,46 +3471,46 @@
         <v>43912</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J57" s="1">
-        <v>-37.790782999999998</v>
+        <v>-37.800963000000003</v>
       </c>
       <c r="K57" s="1">
-        <v>144.99816200000001</v>
+        <v>145.0729384</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F58" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H58" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J58" s="1">
-        <v>-37.824981299999997</v>
+        <v>-37.790782999999998</v>
       </c>
       <c r="K58" s="1">
-        <v>144.98361299999999</v>
+        <v>144.99816200000001</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3503,10 +3518,10 @@
         <v>27</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2">
@@ -3522,13 +3537,13 @@
         <v>43911</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J59" s="1">
-        <v>-37.841103699999998</v>
+        <v>-37.824981299999997</v>
       </c>
       <c r="K59" s="1">
-        <v>144.955806</v>
+        <v>144.98361299999999</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3536,10 +3551,10 @@
         <v>27</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="2">
@@ -3555,37 +3570,37 @@
         <v>43911</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J60" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.841103699999998</v>
       </c>
       <c r="K60" s="1">
-        <v>144.9564881</v>
+        <v>144.955806</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F61" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H61" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>103</v>
@@ -3599,59 +3614,59 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F62" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H62" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J62" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K62" s="1">
-        <v>144.31841800000001</v>
+        <v>144.9564881</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F63" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H63" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>104</v>
@@ -3665,68 +3680,68 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F64" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H64" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J64" s="1">
-        <v>-37.863344400000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K64" s="1">
-        <v>145.08682759999999</v>
+        <v>144.31841800000001</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F65" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H65" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J65" s="1">
-        <v>-37.809265000000003</v>
+        <v>-37.863344400000003</v>
       </c>
       <c r="K65" s="1">
-        <v>144.99495099999999</v>
+        <v>145.08682759999999</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3734,10 +3749,10 @@
         <v>29</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2">
@@ -3753,46 +3768,46 @@
         <v>43910</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J66" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.809265000000003</v>
       </c>
       <c r="K66" s="1">
-        <v>144.83348079999999</v>
+        <v>144.99495099999999</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F67" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H67" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J67" s="1">
-        <v>-37.797809200000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K67" s="1">
-        <v>144.96801239999999</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3800,10 +3815,10 @@
         <v>57</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="2">
@@ -3819,13 +3834,13 @@
         <v>43909</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J68" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.797809200000003</v>
       </c>
       <c r="K68" s="1">
-        <v>144.9526066</v>
+        <v>144.96801239999999</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3852,57 +3867,57 @@
         <v>43909</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J69" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K69" s="1">
-        <v>144.35683760000001</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F70" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H70" s="2">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J70" s="1">
-        <v>-37.028215000000003</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K70" s="1">
-        <v>145.14336</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2">
@@ -3912,19 +3927,19 @@
         <v>43893</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H71" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J71" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.028215000000003</v>
       </c>
       <c r="K71" s="1">
-        <v>145.04823200000001</v>
+        <v>145.14336</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3939,7 +3954,7 @@
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="F72" s="2">
         <v>43893</v>
@@ -3972,7 +3987,7 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="F73" s="2">
         <v>43893</v>
@@ -3995,35 +4010,35 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="F74" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H74" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="J74" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K74" s="1">
-        <v>144.83348079999999</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4031,10 +4046,10 @@
         <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="2">
@@ -4050,13 +4065,13 @@
         <v>43906</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J75" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K75" s="1">
-        <v>144.35683760000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4083,13 +4098,13 @@
         <v>43906</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J76" s="1">
-        <v>-37.816394899999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K76" s="1">
-        <v>144.9526066</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4097,10 +4112,10 @@
         <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="2">
@@ -4149,24 +4164,24 @@
         <v>43906</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J78" s="1">
-        <v>-37.826660799999999</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K78" s="1">
-        <v>145.0587903</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="2">
@@ -4176,19 +4191,19 @@
         <v>43892</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H79" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J79" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.826660799999999</v>
       </c>
       <c r="K79" s="1">
-        <v>145.00550799999999</v>
+        <v>145.0587903</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4203,7 +4218,7 @@
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="F80" s="2">
         <v>43892</v>
@@ -4236,7 +4251,7 @@
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="F81" s="2">
         <v>43892</v>
@@ -4269,7 +4284,7 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="F82" s="2">
         <v>43892</v>
@@ -4302,7 +4317,7 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="2">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="F83" s="2">
         <v>43892</v>
@@ -4325,35 +4340,35 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="2">
-        <v>43890</v>
+        <v>43896</v>
       </c>
       <c r="F84" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H84" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J84" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K84" s="1">
-        <v>144.83348079999999</v>
+        <v>145.00550799999999</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4361,10 +4376,10 @@
         <v>82</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="2">
@@ -4391,26 +4406,26 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="F86" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H86" s="2">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>97</v>
@@ -4419,40 +4434,74 @@
         <v>-37.667110999999998</v>
       </c>
       <c r="K86" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="2">
+        <v>43889</v>
+      </c>
+      <c r="F87" s="2">
+        <v>43889</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H87" s="2">
+        <v>43903</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J87" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K87" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
-    <hyperlink ref="D12" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
-    <hyperlink ref="D15" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
-    <hyperlink ref="D14" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
-    <hyperlink ref="D45" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
-    <hyperlink ref="D16" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
-    <hyperlink ref="D17" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
-    <hyperlink ref="D18" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
-    <hyperlink ref="D19" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
-    <hyperlink ref="D20" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
-    <hyperlink ref="D21:D32" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
-    <hyperlink ref="D33" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
-    <hyperlink ref="D35" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
-    <hyperlink ref="D34" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
-    <hyperlink ref="D13" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
-    <hyperlink ref="D8" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
-    <hyperlink ref="D7" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
-    <hyperlink ref="D4" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
-    <hyperlink ref="D5" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
-    <hyperlink ref="D2:D3" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
-    <hyperlink ref="D6" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
-    <hyperlink ref="D9" r:id="rId23" xr:uid="{ADFF70FF-B572-4083-B069-A34FABCEEE29}"/>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
+    <hyperlink ref="D13" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
+    <hyperlink ref="D16" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
+    <hyperlink ref="D15" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
+    <hyperlink ref="D46" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
+    <hyperlink ref="D17" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
+    <hyperlink ref="D18" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
+    <hyperlink ref="D19" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
+    <hyperlink ref="D20" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
+    <hyperlink ref="D21" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
+    <hyperlink ref="D22:D33" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
+    <hyperlink ref="D34" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
+    <hyperlink ref="D36" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
+    <hyperlink ref="D35" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
+    <hyperlink ref="D14" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
+    <hyperlink ref="D9" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
+    <hyperlink ref="D8" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
+    <hyperlink ref="D5" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
+    <hyperlink ref="D6" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
+    <hyperlink ref="D3:D4" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
+    <hyperlink ref="D7" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
+    <hyperlink ref="D10" r:id="rId23" xr:uid="{ADFF70FF-B572-4083-B069-A34FABCEEE29}"/>
+    <hyperlink ref="D2" r:id="rId24" xr:uid="{39762B51-FBC9-4C83-B725-24D65F821264}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
   <tableParts count="1">
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId26"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C0DD2C-9610-4D38-8767-7A270F7D662E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5179A75F-03BF-4279-A3FA-C4552B7FD9D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="212">
   <si>
     <t>Date</t>
   </si>
@@ -657,6 +657,21 @@
   </si>
   <si>
     <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+  </si>
+  <si>
+    <t>Virgin flight VA313 from Melbourne to Brisbane</t>
+  </si>
+  <si>
+    <t>8am departure</t>
+  </si>
+  <si>
+    <t>Southern Cross Station, Melbourne</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-06-june-2020</t>
+  </si>
+  <si>
+    <t>Melbourne Airport, VIC</t>
   </si>
 </sst>
 </file>
@@ -1098,8 +1113,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K87" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K87" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K89" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K89" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="9"/>
@@ -1414,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,10 +1639,10 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1645,79 +1660,81 @@
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43997</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>172</v>
+      <c r="I6" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="J6" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K6" s="1">
-        <v>144.96363500000001</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43982</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>43983</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="F7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="G7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="H7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43996</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>200</v>
+        <v>43997</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J7" s="1">
-        <v>-37.836081999999998</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K7" s="1">
-        <v>144.91538299999999</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="F8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="G8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="H8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>172</v>
@@ -1731,104 +1748,104 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="E9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="F9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="G9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="H9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="J9" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.836081999999998</v>
       </c>
       <c r="K9" s="1">
-        <v>144.96363500000001</v>
+        <v>144.91538299999999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>202</v>
+        <v>171</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="E10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="F10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="G10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43994</v>
+        <v>43996</v>
       </c>
       <c r="H10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43994</v>
+        <v>43996</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="J10" s="1">
-        <v>-37.837907999999999</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K10" s="1">
-        <v>144.78621799999999</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="E11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="F11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43979</v>
+        <v>43981</v>
       </c>
       <c r="G11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="H11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43993</v>
+        <v>43995</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>172</v>
@@ -1842,150 +1859,150 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>175</v>
+        <v>201</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="E12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="F12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="G12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="H12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="J12" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.837907999999999</v>
       </c>
       <c r="K12" s="1">
-        <v>144.96363500000001</v>
+        <v>144.78621799999999</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="F13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="G13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="H13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J13" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K13" s="1">
-        <v>145.08623499999999</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="F14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="G14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="H14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="J14" s="1">
-        <v>-37.756286000000003</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K14" s="1">
-        <v>144.811104</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="F15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="G15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="H15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="J15" s="1">
-        <v>-37.715384</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K15" s="1">
-        <v>144.811994</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1994,10 +2011,10 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2016,235 +2033,235 @@
         <v>43991</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="J16" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.756286000000003</v>
       </c>
       <c r="K16" s="1">
-        <v>145.01711499999999</v>
+        <v>144.811104</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="G17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="J17" s="1">
-        <v>-36.314870999999997</v>
+        <v>-37.715384</v>
       </c>
       <c r="K17" s="1">
-        <v>145.04196999999999</v>
+        <v>144.811994</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="G18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J18" s="1">
-        <v>-37.928489999999996</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K18" s="1">
-        <v>145.007454</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="G19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J19" s="1">
-        <v>-37.841634999999997</v>
+        <v>-36.314870999999997</v>
       </c>
       <c r="K19" s="1">
-        <v>145.08623499999999</v>
+        <v>145.04196999999999</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="G20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J20" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.928489999999996</v>
       </c>
       <c r="K20" s="1">
-        <v>145.01711499999999</v>
+        <v>145.007454</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J21" s="1">
-        <v>-37.692610000000002</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K21" s="1">
-        <v>145.06382099999999</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="J22" s="1">
-        <v>-37.689222999999998</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K22" s="1">
-        <v>144.60470799999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2253,7 +2270,7 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>184</v>
@@ -2275,13 +2292,13 @@
         <v>43983</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="J23" s="1">
-        <v>-37.843631999999999</v>
+        <v>-37.692610000000002</v>
       </c>
       <c r="K23" s="1">
-        <v>144.78155899999999</v>
+        <v>145.06382099999999</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2290,7 +2307,7 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>184</v>
@@ -2312,13 +2329,13 @@
         <v>43983</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J24" s="1">
-        <v>-37.730747999999998</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="K24" s="1">
-        <v>145.086489</v>
+        <v>144.60470799999999</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2327,7 +2344,7 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>184</v>
@@ -2349,13 +2366,13 @@
         <v>43983</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J25" s="1">
-        <v>-37.702513000000003</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="K25" s="1">
-        <v>144.80232599999999</v>
+        <v>144.78155899999999</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2364,7 +2381,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>184</v>
@@ -2386,13 +2403,13 @@
         <v>43983</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J26" s="1">
-        <v>-37.673996000000002</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="K26" s="1">
-        <v>144.955354</v>
+        <v>145.086489</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2401,7 +2418,7 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>184</v>
@@ -2423,13 +2440,13 @@
         <v>43983</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J27" s="1">
-        <v>-37.576594</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="K27" s="1">
-        <v>144.72866500000001</v>
+        <v>144.80232599999999</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2438,7 +2455,7 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>184</v>
@@ -2460,13 +2477,13 @@
         <v>43983</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J28" s="1">
-        <v>-37.879995000000001</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="K28" s="1">
-        <v>144.70157699999999</v>
+        <v>144.955354</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2475,7 +2492,7 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>184</v>
@@ -2497,13 +2514,13 @@
         <v>43983</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J29" s="1">
-        <v>-37.834014000000003</v>
+        <v>-37.576594</v>
       </c>
       <c r="K29" s="1">
-        <v>144.65285299999999</v>
+        <v>144.72866500000001</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2512,7 +2529,7 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>184</v>
@@ -2534,13 +2551,13 @@
         <v>43983</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J30" s="1">
-        <v>-37.942098999999999</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="K30" s="1">
-        <v>145.16768400000001</v>
+        <v>144.70157699999999</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2549,7 +2566,7 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>184</v>
@@ -2571,13 +2588,13 @@
         <v>43983</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J31" s="1">
-        <v>-37.664667000000001</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="K31" s="1">
-        <v>144.74749</v>
+        <v>144.65285299999999</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2586,7 +2603,7 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>184</v>
@@ -2608,13 +2625,13 @@
         <v>43983</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J32" s="1">
-        <v>-37.665416999999998</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="K32" s="1">
-        <v>144.75335899999999</v>
+        <v>145.16768400000001</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2623,7 +2640,7 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>184</v>
@@ -2645,170 +2662,174 @@
         <v>43983</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J33" s="1">
-        <v>-37.738990000000001</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="K33" s="1">
-        <v>144.67997600000001</v>
+        <v>144.74749</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B34" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>125</v>
+        <v>43983</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="J34" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.665416999999998</v>
       </c>
       <c r="K34" s="1">
-        <v>144.921401</v>
+        <v>144.75335899999999</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B35" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>126</v>
+        <v>43983</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="J35" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.738990000000001</v>
       </c>
       <c r="K35" s="1">
-        <v>144.888195</v>
+        <v>144.67997600000001</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B36" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B36" s="5"/>
       <c r="C36" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="G36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J36" s="1">
-        <v>-37.783104999999999</v>
+        <v>-37.596122999999999</v>
       </c>
       <c r="K36" s="1">
-        <v>144.78539799999999</v>
+        <v>144.921401</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B37" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="E37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="G37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J37" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.772379999999998</v>
       </c>
       <c r="K37" s="1">
-        <v>145.02005199999999</v>
+        <v>144.888195</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43959</v>
       </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="E38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43959</v>
@@ -2826,361 +2847,365 @@
         <v>43973</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J38" s="1">
-        <v>-37.689366</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="K38" s="1">
-        <v>144.958878</v>
+        <v>144.78539799999999</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="G39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J39" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="K39" s="1">
-        <v>144.43268900000001</v>
+        <v>145.02005199999999</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B40" s="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B40" s="5"/>
       <c r="C40" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="G40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J40" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.689366</v>
       </c>
       <c r="K40" s="1">
-        <v>144.836118</v>
+        <v>144.958878</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="F41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="G41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="H41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="J41" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="K41" s="1">
-        <v>144.83348079999999</v>
+        <v>144.43268900000001</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="F42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="G42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43967</v>
       </c>
       <c r="H42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
+        <v>43967</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J42" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="K42" s="1">
-        <v>144.889926</v>
+        <v>144.836118</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>43947</v>
+        <v>43951</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43951</v>
       </c>
       <c r="F43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
+        <v>43951</v>
       </c>
       <c r="G43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="H43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
+        <v>43965</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="J43" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K43" s="1">
-        <v>144.894632</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43944</v>
+        <v>43950</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43944</v>
+        <v>43950</v>
       </c>
       <c r="F44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
+        <v>43950</v>
       </c>
       <c r="G44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
+        <v>43964</v>
       </c>
       <c r="H44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
+        <v>43964</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J44" s="1">
-        <v>-37.759222999999999</v>
+        <v>-37.811678000000001</v>
       </c>
       <c r="K44" s="1">
-        <v>144.816754</v>
+        <v>144.889926</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>43907</v>
+      <c r="A45" s="4">
+        <v>43947</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
+        <v>43947</v>
       </c>
       <c r="F45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
+        <v>43947</v>
       </c>
       <c r="G45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43961</v>
       </c>
       <c r="H45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
+        <v>43961</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J45" s="1">
-        <v>-37.844318000000001</v>
+        <v>-37.797176999999998</v>
       </c>
       <c r="K45" s="1">
-        <v>145.009818</v>
+        <v>144.894632</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>43905</v>
+      <c r="A46" s="4">
+        <v>43944</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>180</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43905</v>
+        <v>43944</v>
       </c>
       <c r="F46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43905</v>
+        <v>43944</v>
       </c>
       <c r="G46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43919</v>
+        <v>43958</v>
       </c>
       <c r="H46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43919</v>
+        <v>43958</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J46" s="1">
-        <v>-37.813239000000003</v>
+        <v>-37.759222999999999</v>
       </c>
       <c r="K46" s="1">
-        <v>145.048047</v>
+        <v>144.816754</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A47" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43907</v>
       </c>
       <c r="F47" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>12</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="G47" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43921</v>
       </c>
       <c r="H47" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="J47" s="1">
-        <v>-37.776940699999997</v>
+        <v>-37.844318000000001</v>
       </c>
       <c r="K47" s="1">
-        <v>144.98702499999999</v>
+        <v>145.009818</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A48" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="E48" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43905</v>
       </c>
       <c r="F48" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>12</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="G48" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43919</v>
       </c>
       <c r="H48" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43919</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="J48" s="1">
-        <v>-37.772095999999998</v>
+        <v>-37.813239000000003</v>
       </c>
       <c r="K48" s="1">
-        <v>144.91609500000001</v>
+        <v>145.048047</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3188,10 +3213,10 @@
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2">
@@ -3207,70 +3232,70 @@
         <v>43914</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J49" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="K49" s="1">
-        <v>144.83348079999999</v>
+        <v>144.98702499999999</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F50" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H50" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J50" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="K50" s="1">
-        <v>144.83348079999999</v>
+        <v>144.91609500000001</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F51" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H51" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>97</v>
@@ -3284,26 +3309,26 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="F52" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H52" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>97</v>
@@ -3317,26 +3342,26 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="F53" s="2">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H53" s="2">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>97</v>
@@ -3350,26 +3375,26 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="F54" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H54" s="2">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>97</v>
@@ -3383,26 +3408,26 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F55" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H55" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>97</v>
@@ -3416,68 +3441,68 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F56" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H56" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J56" s="1">
-        <v>-37.821452700000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K56" s="1">
-        <v>144.98347200000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F57" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H57" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J57" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K57" s="1">
-        <v>145.0729384</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3485,10 +3510,10 @@
         <v>23</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2">
@@ -3504,79 +3529,79 @@
         <v>43912</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J58" s="1">
-        <v>-37.790782999999998</v>
+        <v>-37.821452700000002</v>
       </c>
       <c r="K58" s="1">
-        <v>144.99816200000001</v>
+        <v>144.98347200000001</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F59" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H59" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J59" s="1">
-        <v>-37.824981299999997</v>
+        <v>-37.800963000000003</v>
       </c>
       <c r="K59" s="1">
-        <v>144.98361299999999</v>
+        <v>145.0729384</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F60" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H60" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J60" s="1">
-        <v>-37.841103699999998</v>
+        <v>-37.790782999999998</v>
       </c>
       <c r="K60" s="1">
-        <v>144.955806</v>
+        <v>144.99816200000001</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3584,10 +3609,10 @@
         <v>27</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2">
@@ -3603,46 +3628,46 @@
         <v>43911</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J61" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.824981299999997</v>
       </c>
       <c r="K61" s="1">
-        <v>144.9564881</v>
+        <v>144.98361299999999</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F62" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H62" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J62" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.841103699999998</v>
       </c>
       <c r="K62" s="1">
-        <v>144.9564881</v>
+        <v>144.955806</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3650,10 +3675,10 @@
         <v>27</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2">
@@ -3669,13 +3694,13 @@
         <v>43911</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J63" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K63" s="1">
-        <v>144.31841800000001</v>
+        <v>144.9564881</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3683,10 +3708,10 @@
         <v>29</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2">
@@ -3702,13 +3727,13 @@
         <v>43910</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J64" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K64" s="1">
-        <v>144.31841800000001</v>
+        <v>144.9564881</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3716,10 +3741,10 @@
         <v>27</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="2">
@@ -3735,13 +3760,13 @@
         <v>43911</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J65" s="1">
-        <v>-37.863344400000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K65" s="1">
-        <v>145.08682759999999</v>
+        <v>144.31841800000001</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3749,10 +3774,10 @@
         <v>29</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2">
@@ -3768,112 +3793,112 @@
         <v>43910</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J66" s="1">
-        <v>-37.809265000000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K66" s="1">
-        <v>144.99495099999999</v>
+        <v>144.31841800000001</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F67" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H67" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J67" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.863344400000003</v>
       </c>
       <c r="K67" s="1">
-        <v>144.83348079999999</v>
+        <v>145.08682759999999</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F68" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H68" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J68" s="1">
-        <v>-37.797809200000003</v>
+        <v>-37.809265000000003</v>
       </c>
       <c r="K68" s="1">
-        <v>144.96801239999999</v>
+        <v>144.99495099999999</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F69" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H69" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J69" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K69" s="1">
-        <v>144.9526066</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3881,10 +3906,10 @@
         <v>57</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2">
@@ -3900,112 +3925,112 @@
         <v>43909</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J70" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.797809200000003</v>
       </c>
       <c r="K70" s="1">
-        <v>144.35683760000001</v>
+        <v>144.96801239999999</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F71" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H71" s="2">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J71" s="1">
-        <v>-37.028215000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K71" s="1">
-        <v>145.14336</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F72" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H72" s="2">
         <v>43909</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J72" s="1">
-        <v>-37.720556999999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K72" s="1">
-        <v>145.04823200000001</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="F73" s="2">
         <v>43893</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H73" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J73" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.028215000000003</v>
       </c>
       <c r="K73" s="1">
-        <v>145.04823200000001</v>
+        <v>145.14336</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4020,7 +4045,7 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="F74" s="2">
         <v>43893</v>
@@ -4043,68 +4068,68 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="2">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="F75" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H75" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="J75" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K75" s="1">
-        <v>144.83348079999999</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="F76" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H76" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J76" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K76" s="1">
-        <v>144.35683760000001</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4112,10 +4137,10 @@
         <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="2">
@@ -4131,13 +4156,13 @@
         <v>43906</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J77" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K77" s="1">
-        <v>144.9526066</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4145,10 +4170,10 @@
         <v>71</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="2">
@@ -4164,13 +4189,13 @@
         <v>43906</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J78" s="1">
-        <v>-37.816394899999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K78" s="1">
-        <v>144.9526066</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4178,10 +4203,10 @@
         <v>71</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="2">
@@ -4197,24 +4222,24 @@
         <v>43906</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J79" s="1">
-        <v>-37.826660799999999</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K79" s="1">
-        <v>145.0587903</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="2">
@@ -4224,52 +4249,52 @@
         <v>43892</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H80" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J80" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K80" s="1">
-        <v>145.00550799999999</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="F81" s="2">
         <v>43892</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H81" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J81" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.826660799999999</v>
       </c>
       <c r="K81" s="1">
-        <v>145.00550799999999</v>
+        <v>145.0587903</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4284,7 +4309,7 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="2">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="F82" s="2">
         <v>43892</v>
@@ -4317,7 +4342,7 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="F83" s="2">
         <v>43892</v>
@@ -4350,7 +4375,7 @@
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="2">
-        <v>43896</v>
+        <v>43894</v>
       </c>
       <c r="F84" s="2">
         <v>43892</v>
@@ -4373,92 +4398,92 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="2">
-        <v>43890</v>
+        <v>43895</v>
       </c>
       <c r="F85" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H85" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J85" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K85" s="1">
-        <v>144.83348079999999</v>
+        <v>145.00550799999999</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="2">
-        <v>43890</v>
+        <v>43896</v>
       </c>
       <c r="F86" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H86" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J86" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K86" s="1">
-        <v>144.83348079999999</v>
+        <v>145.00550799999999</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="F87" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H87" s="2">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>97</v>
@@ -4467,41 +4492,109 @@
         <v>-37.667110999999998</v>
       </c>
       <c r="K87" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F88" s="2">
+        <v>43890</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H88" s="2">
+        <v>43904</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J88" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K88" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="2">
+        <v>43889</v>
+      </c>
+      <c r="F89" s="2">
+        <v>43889</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H89" s="2">
+        <v>43903</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J89" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K89" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
-    <hyperlink ref="D12" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
-    <hyperlink ref="D13" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
-    <hyperlink ref="D16" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
-    <hyperlink ref="D15" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
-    <hyperlink ref="D46" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
-    <hyperlink ref="D17" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
-    <hyperlink ref="D18" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
-    <hyperlink ref="D19" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
-    <hyperlink ref="D20" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
-    <hyperlink ref="D21" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
-    <hyperlink ref="D22:D33" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
-    <hyperlink ref="D34" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
-    <hyperlink ref="D36" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
-    <hyperlink ref="D35" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
-    <hyperlink ref="D14" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
-    <hyperlink ref="D9" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
-    <hyperlink ref="D8" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
+    <hyperlink ref="D15" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
+    <hyperlink ref="D18" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
+    <hyperlink ref="D17" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
+    <hyperlink ref="D48" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
+    <hyperlink ref="D19" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
+    <hyperlink ref="D20" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
+    <hyperlink ref="D21" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
+    <hyperlink ref="D22" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
+    <hyperlink ref="D23" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
+    <hyperlink ref="D24:D35" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
+    <hyperlink ref="D36" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
+    <hyperlink ref="D38" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
+    <hyperlink ref="D37" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
+    <hyperlink ref="D16" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
+    <hyperlink ref="D11" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
+    <hyperlink ref="D10" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
     <hyperlink ref="D5" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
-    <hyperlink ref="D6" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
+    <hyperlink ref="D8" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
     <hyperlink ref="D3:D4" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
-    <hyperlink ref="D7" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
-    <hyperlink ref="D10" r:id="rId23" xr:uid="{ADFF70FF-B572-4083-B069-A34FABCEEE29}"/>
+    <hyperlink ref="D9" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
+    <hyperlink ref="D12" r:id="rId23" xr:uid="{ADFF70FF-B572-4083-B069-A34FABCEEE29}"/>
     <hyperlink ref="D2" r:id="rId24" xr:uid="{39762B51-FBC9-4C83-B725-24D65F821264}"/>
+    <hyperlink ref="D6" r:id="rId25" xr:uid="{25CD2705-535F-408C-AC8C-9413E356E312}"/>
+    <hyperlink ref="D7" r:id="rId26" xr:uid="{08B72755-1C40-4191-B51C-AA4D4C7889E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
   <tableParts count="1">
-    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5179A75F-03BF-4279-A3FA-C4552B7FD9D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C5F9B2-A34C-4B23-A75F-2D5B74DF0A56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC public exposure sites" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="215">
   <si>
     <t>Date</t>
   </si>
@@ -672,6 +672,15 @@
   </si>
   <si>
     <t>Melbourne Airport, VIC</t>
+  </si>
+  <si>
+    <t>Hawthorn Village, Bright</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-8-june-2020</t>
+  </si>
+  <si>
+    <t>Hawthorn Ln, Bright VIC 3741</t>
   </si>
 </sst>
 </file>
@@ -1113,8 +1122,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K89" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K89" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K90" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K90" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="9"/>
@@ -1429,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,76 +1496,76 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43986</v>
+        <v>43989</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43986</v>
+        <v>43989</v>
       </c>
       <c r="F2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43986</v>
+        <v>43989</v>
       </c>
       <c r="G2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44000</v>
+        <v>44003</v>
       </c>
       <c r="H2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44000</v>
+        <v>44003</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="J2" s="1">
-        <v>-37.571235999999999</v>
+        <v>-36.732517999999999</v>
       </c>
       <c r="K2" s="1">
-        <v>144.90978000000001</v>
+        <v>146.96735699999999</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="F3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="G3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="H3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="J3" s="1">
-        <v>-37.704174999999999</v>
+        <v>-37.571235999999999</v>
       </c>
       <c r="K3" s="1">
-        <v>144.998741</v>
+        <v>144.90978000000001</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1565,7 +1574,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>191</v>
@@ -1587,13 +1596,13 @@
         <v>43998</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J4" s="1">
-        <v>-37.726306000000001</v>
+        <v>-37.704174999999999</v>
       </c>
       <c r="K4" s="1">
-        <v>145.06991400000001</v>
+        <v>144.998741</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1602,7 +1611,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>191</v>
@@ -1624,61 +1633,59 @@
         <v>43998</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="J5" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.726306000000001</v>
       </c>
       <c r="K5" s="1">
-        <v>144.96363500000001</v>
+        <v>145.06991400000001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="F6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="H6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43997</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>108</v>
+        <v>43998</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="J6" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K6" s="1">
-        <v>144.9526066</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43983</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>208</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>210</v>
@@ -1700,25 +1707,27 @@
         <v>43997</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="J7" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K7" s="1">
-        <v>144.83348079999999</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43983</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1736,51 +1745,51 @@
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43997</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>172</v>
+      <c r="I8" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J8" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K8" s="1">
-        <v>144.96363500000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="F9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="G9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="H9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="J9" s="1">
-        <v>-37.836081999999998</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K9" s="1">
-        <v>144.91538299999999</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1789,10 +1798,10 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1811,41 +1820,41 @@
         <v>43996</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="J10" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.836081999999998</v>
       </c>
       <c r="K10" s="1">
-        <v>144.96363500000001</v>
+        <v>144.91538299999999</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="F11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="G11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="H11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>172</v>
@@ -1859,104 +1868,104 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>202</v>
+        <v>171</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="E12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="F12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="G12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="H12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="J12" s="1">
-        <v>-37.837907999999999</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K12" s="1">
-        <v>144.78621799999999</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>174</v>
+        <v>201</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="E13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="F13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="G13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="H13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="J13" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.837907999999999</v>
       </c>
       <c r="K13" s="1">
-        <v>144.96363500000001</v>
+        <v>144.78621799999999</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="F14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="G14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="H14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>172</v>
@@ -1974,7 +1983,7 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>175</v>
@@ -1996,50 +2005,50 @@
         <v>43992</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J15" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K15" s="1">
-        <v>145.08623499999999</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="F16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="G16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="H16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="J16" s="1">
-        <v>-37.756286000000003</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K16" s="1">
-        <v>144.811104</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2048,10 +2057,10 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2070,13 +2079,13 @@
         <v>43991</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="J17" s="1">
-        <v>-37.715384</v>
+        <v>-37.756286000000003</v>
       </c>
       <c r="K17" s="1">
-        <v>144.811994</v>
+        <v>144.811104</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2085,10 +2094,10 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2107,50 +2116,50 @@
         <v>43991</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="J18" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.715384</v>
       </c>
       <c r="K18" s="1">
-        <v>145.01711499999999</v>
+        <v>144.811994</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="G19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J19" s="1">
-        <v>-36.314870999999997</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K19" s="1">
-        <v>145.04196999999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2159,10 +2168,10 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2181,50 +2190,50 @@
         <v>43985</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J20" s="1">
-        <v>-37.928489999999996</v>
+        <v>-36.314870999999997</v>
       </c>
       <c r="K20" s="1">
-        <v>145.007454</v>
+        <v>145.04196999999999</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="G21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J21" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.928489999999996</v>
       </c>
       <c r="K21" s="1">
-        <v>145.08623499999999</v>
+        <v>145.007454</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2233,7 +2242,7 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>183</v>
@@ -2255,50 +2264,50 @@
         <v>43984</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J22" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K22" s="1">
-        <v>145.01711499999999</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J23" s="1">
-        <v>-37.692610000000002</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K23" s="1">
-        <v>145.06382099999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2307,7 +2316,7 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>184</v>
@@ -2329,13 +2338,13 @@
         <v>43983</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J24" s="1">
-        <v>-37.689222999999998</v>
+        <v>-37.692610000000002</v>
       </c>
       <c r="K24" s="1">
-        <v>144.60470799999999</v>
+        <v>145.06382099999999</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2344,7 +2353,7 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>184</v>
@@ -2366,13 +2375,13 @@
         <v>43983</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J25" s="1">
-        <v>-37.843631999999999</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="K25" s="1">
-        <v>144.78155899999999</v>
+        <v>144.60470799999999</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2381,7 +2390,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>184</v>
@@ -2403,13 +2412,13 @@
         <v>43983</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J26" s="1">
-        <v>-37.730747999999998</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="K26" s="1">
-        <v>145.086489</v>
+        <v>144.78155899999999</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2418,7 +2427,7 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>184</v>
@@ -2440,13 +2449,13 @@
         <v>43983</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J27" s="1">
-        <v>-37.702513000000003</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="K27" s="1">
-        <v>144.80232599999999</v>
+        <v>145.086489</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2455,7 +2464,7 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>184</v>
@@ -2477,13 +2486,13 @@
         <v>43983</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J28" s="1">
-        <v>-37.673996000000002</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="K28" s="1">
-        <v>144.955354</v>
+        <v>144.80232599999999</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2492,7 +2501,7 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>184</v>
@@ -2514,13 +2523,13 @@
         <v>43983</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J29" s="1">
-        <v>-37.576594</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="K29" s="1">
-        <v>144.72866500000001</v>
+        <v>144.955354</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2529,7 +2538,7 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>184</v>
@@ -2551,13 +2560,13 @@
         <v>43983</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J30" s="1">
-        <v>-37.879995000000001</v>
+        <v>-37.576594</v>
       </c>
       <c r="K30" s="1">
-        <v>144.70157699999999</v>
+        <v>144.72866500000001</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2566,7 +2575,7 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>184</v>
@@ -2588,13 +2597,13 @@
         <v>43983</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J31" s="1">
-        <v>-37.834014000000003</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="K31" s="1">
-        <v>144.65285299999999</v>
+        <v>144.70157699999999</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2603,7 +2612,7 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>184</v>
@@ -2625,13 +2634,13 @@
         <v>43983</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J32" s="1">
-        <v>-37.942098999999999</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="K32" s="1">
-        <v>145.16768400000001</v>
+        <v>144.65285299999999</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2640,7 +2649,7 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>184</v>
@@ -2662,13 +2671,13 @@
         <v>43983</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J33" s="1">
-        <v>-37.664667000000001</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="K33" s="1">
-        <v>144.74749</v>
+        <v>145.16768400000001</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2677,7 +2686,7 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>184</v>
@@ -2699,13 +2708,13 @@
         <v>43983</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J34" s="1">
-        <v>-37.665416999999998</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="K34" s="1">
-        <v>144.75335899999999</v>
+        <v>144.74749</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2714,7 +2723,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>184</v>
@@ -2736,50 +2745,50 @@
         <v>43983</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J35" s="1">
-        <v>-37.738990000000001</v>
+        <v>-37.665416999999998</v>
       </c>
       <c r="K35" s="1">
-        <v>144.67997600000001</v>
+        <v>144.75335899999999</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B36" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>125</v>
+        <v>43983</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="J36" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.738990000000001</v>
       </c>
       <c r="K36" s="1">
-        <v>144.921401</v>
+        <v>144.67997600000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2788,10 +2797,10 @@
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2810,50 +2819,50 @@
         <v>43980</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J37" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.596122999999999</v>
       </c>
       <c r="K37" s="1">
-        <v>144.888195</v>
+        <v>144.921401</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B38" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B38" s="5"/>
       <c r="C38" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="G38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J38" s="1">
-        <v>-37.783104999999999</v>
+        <v>-37.772379999999998</v>
       </c>
       <c r="K38" s="1">
-        <v>144.78539799999999</v>
+        <v>144.888195</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2862,9 +2871,11 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="E39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43959</v>
@@ -2882,22 +2893,22 @@
         <v>43973</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J39" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="K39" s="1">
-        <v>145.02005199999999</v>
+        <v>144.78539799999999</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43959</v>
       </c>
-      <c r="B40" s="5"/>
+      <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="2">
@@ -2917,48 +2928,48 @@
         <v>43973</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J40" s="1">
-        <v>-37.689366</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="K40" s="1">
-        <v>144.958878</v>
+        <v>145.02005199999999</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B41" s="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B41" s="5"/>
       <c r="C41" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="G41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J41" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.689366</v>
       </c>
       <c r="K41" s="1">
-        <v>144.43268900000001</v>
+        <v>144.958878</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2967,7 +2978,7 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2">
@@ -2987,258 +2998,260 @@
         <v>43967</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J42" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="K42" s="1">
-        <v>144.836118</v>
+        <v>144.43268900000001</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="F43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="G43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="H43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="J43" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="K43" s="1">
-        <v>144.83348079999999</v>
+        <v>144.836118</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="F44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="G44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="H44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="J44" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K44" s="1">
-        <v>144.889926</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="F45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="G45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43964</v>
       </c>
       <c r="H45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
+        <v>43964</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J45" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.811678000000001</v>
       </c>
       <c r="K45" s="1">
-        <v>144.894632</v>
+        <v>144.889926</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43947</v>
+      </c>
+      <c r="F46" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43947</v>
+      </c>
+      <c r="G46" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43961</v>
+      </c>
+      <c r="H46" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43961</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J46" s="1">
+        <v>-37.797176999999998</v>
+      </c>
+      <c r="K46" s="1">
+        <v>144.894632</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>43944</v>
-      </c>
-      <c r="F46" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
-      </c>
-      <c r="G46" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
-      </c>
-      <c r="H46" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J46" s="1">
-        <v>-37.759222999999999</v>
-      </c>
-      <c r="K46" s="1">
-        <v>144.816754</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>43907</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
+        <v>43944</v>
       </c>
       <c r="F47" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
+        <v>43944</v>
       </c>
       <c r="G47" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43958</v>
       </c>
       <c r="H47" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
+        <v>43958</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J47" s="1">
-        <v>-37.844318000000001</v>
+        <v>-37.759222999999999</v>
       </c>
       <c r="K47" s="1">
-        <v>145.009818</v>
+        <v>144.816754</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="F48" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="G48" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43921</v>
+      </c>
+      <c r="H48" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J48" s="1">
+        <v>-37.844318000000001</v>
+      </c>
+      <c r="K48" s="1">
+        <v>145.009818</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43905</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43905</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43919</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43919</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J49" s="1">
         <v>-37.813239000000003</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K49" s="1">
         <v>145.048047</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2">
-        <v>43900</v>
-      </c>
-      <c r="F49" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="2">
-        <v>43914</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J49" s="1">
-        <v>-37.776940699999997</v>
-      </c>
-      <c r="K49" s="1">
-        <v>144.98702499999999</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3246,10 +3259,10 @@
         <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2">
@@ -3265,13 +3278,13 @@
         <v>43914</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J50" s="1">
-        <v>-37.772095999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="K50" s="1">
-        <v>144.91609500000001</v>
+        <v>144.98702499999999</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3279,10 +3292,10 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2">
@@ -3298,37 +3311,37 @@
         <v>43914</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J51" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="K51" s="1">
-        <v>144.83348079999999</v>
+        <v>144.91609500000001</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F52" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H52" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>97</v>
@@ -3345,10 +3358,10 @@
         <v>17</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2">
@@ -3375,26 +3388,26 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="F54" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H54" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>97</v>
@@ -3408,7 +3421,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>24</v>
@@ -3418,16 +3431,16 @@
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F55" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H55" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>97</v>
@@ -3441,26 +3454,26 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F56" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H56" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>97</v>
@@ -3477,10 +3490,10 @@
         <v>29</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2">
@@ -3507,35 +3520,35 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F58" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H58" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J58" s="1">
-        <v>-37.821452700000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K58" s="1">
-        <v>144.98347200000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3543,10 +3556,10 @@
         <v>23</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2">
@@ -3562,13 +3575,13 @@
         <v>43912</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J59" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.821452700000002</v>
       </c>
       <c r="K59" s="1">
-        <v>145.0729384</v>
+        <v>144.98347200000001</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3576,10 +3589,10 @@
         <v>23</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="2">
@@ -3595,46 +3608,46 @@
         <v>43912</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J60" s="1">
-        <v>-37.790782999999998</v>
+        <v>-37.800963000000003</v>
       </c>
       <c r="K60" s="1">
-        <v>144.99816200000001</v>
+        <v>145.0729384</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F61" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H61" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J61" s="1">
-        <v>-37.824981299999997</v>
+        <v>-37.790782999999998</v>
       </c>
       <c r="K61" s="1">
-        <v>144.98361299999999</v>
+        <v>144.99816200000001</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3642,10 +3655,10 @@
         <v>27</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2">
@@ -3661,13 +3674,13 @@
         <v>43911</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J62" s="1">
-        <v>-37.841103699999998</v>
+        <v>-37.824981299999997</v>
       </c>
       <c r="K62" s="1">
-        <v>144.955806</v>
+        <v>144.98361299999999</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3675,10 +3688,10 @@
         <v>27</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2">
@@ -3694,37 +3707,37 @@
         <v>43911</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J63" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.841103699999998</v>
       </c>
       <c r="K63" s="1">
-        <v>144.9564881</v>
+        <v>144.955806</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F64" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H64" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>103</v>
@@ -3738,59 +3751,59 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F65" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H65" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J65" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K65" s="1">
-        <v>144.31841800000001</v>
+        <v>144.9564881</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F66" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H66" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>104</v>
@@ -3804,68 +3817,68 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F67" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H67" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J67" s="1">
-        <v>-37.863344400000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K67" s="1">
-        <v>145.08682759999999</v>
+        <v>144.31841800000001</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F68" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H68" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J68" s="1">
-        <v>-37.809265000000003</v>
+        <v>-37.863344400000003</v>
       </c>
       <c r="K68" s="1">
-        <v>144.99495099999999</v>
+        <v>145.08682759999999</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3873,10 +3886,10 @@
         <v>29</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="2">
@@ -3892,46 +3905,46 @@
         <v>43910</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J69" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.809265000000003</v>
       </c>
       <c r="K69" s="1">
-        <v>144.83348079999999</v>
+        <v>144.99495099999999</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F70" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H70" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J70" s="1">
-        <v>-37.797809200000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K70" s="1">
-        <v>144.96801239999999</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3939,10 +3952,10 @@
         <v>57</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2">
@@ -3958,13 +3971,13 @@
         <v>43909</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J71" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.797809200000003</v>
       </c>
       <c r="K71" s="1">
-        <v>144.9526066</v>
+        <v>144.96801239999999</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3991,57 +4004,57 @@
         <v>43909</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J72" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K72" s="1">
-        <v>144.35683760000001</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F73" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H73" s="2">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J73" s="1">
-        <v>-37.028215000000003</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K73" s="1">
-        <v>145.14336</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="2">
@@ -4051,19 +4064,19 @@
         <v>43893</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H74" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J74" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.028215000000003</v>
       </c>
       <c r="K74" s="1">
-        <v>145.04823200000001</v>
+        <v>145.14336</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4078,7 +4091,7 @@
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="F75" s="2">
         <v>43893</v>
@@ -4111,7 +4124,7 @@
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="F76" s="2">
         <v>43893</v>
@@ -4134,35 +4147,35 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="F77" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H77" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="J77" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K77" s="1">
-        <v>144.83348079999999</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4170,10 +4183,10 @@
         <v>71</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="2">
@@ -4189,13 +4202,13 @@
         <v>43906</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J78" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K78" s="1">
-        <v>144.35683760000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4222,13 +4235,13 @@
         <v>43906</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J79" s="1">
-        <v>-37.816394899999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K79" s="1">
-        <v>144.9526066</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4236,10 +4249,10 @@
         <v>71</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="2">
@@ -4288,24 +4301,24 @@
         <v>43906</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J81" s="1">
-        <v>-37.826660799999999</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K81" s="1">
-        <v>145.0587903</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="2">
@@ -4315,19 +4328,19 @@
         <v>43892</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H82" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J82" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.826660799999999</v>
       </c>
       <c r="K82" s="1">
-        <v>145.00550799999999</v>
+        <v>145.0587903</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4342,7 +4355,7 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="F83" s="2">
         <v>43892</v>
@@ -4375,7 +4388,7 @@
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="F84" s="2">
         <v>43892</v>
@@ -4408,7 +4421,7 @@
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="F85" s="2">
         <v>43892</v>
@@ -4441,7 +4454,7 @@
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="2">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="F86" s="2">
         <v>43892</v>
@@ -4464,35 +4477,35 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="2">
-        <v>43890</v>
+        <v>43896</v>
       </c>
       <c r="F87" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H87" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J87" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K87" s="1">
-        <v>144.83348079999999</v>
+        <v>145.00550799999999</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4500,10 +4513,10 @@
         <v>82</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="2">
@@ -4530,26 +4543,26 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="F89" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H89" s="2">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>97</v>
@@ -4558,43 +4571,77 @@
         <v>-37.667110999999998</v>
       </c>
       <c r="K89" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="2">
+        <v>43889</v>
+      </c>
+      <c r="F90" s="2">
+        <v>43889</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H90" s="2">
+        <v>43903</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J90" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K90" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D13" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
-    <hyperlink ref="D14" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
-    <hyperlink ref="D15" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
-    <hyperlink ref="D18" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
-    <hyperlink ref="D17" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
-    <hyperlink ref="D48" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
-    <hyperlink ref="D19" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
-    <hyperlink ref="D20" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
-    <hyperlink ref="D21" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
-    <hyperlink ref="D22" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
-    <hyperlink ref="D23" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
-    <hyperlink ref="D24:D35" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
-    <hyperlink ref="D36" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
-    <hyperlink ref="D38" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
-    <hyperlink ref="D37" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
-    <hyperlink ref="D16" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
-    <hyperlink ref="D11" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
-    <hyperlink ref="D10" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
-    <hyperlink ref="D5" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
-    <hyperlink ref="D8" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
-    <hyperlink ref="D3:D4" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
-    <hyperlink ref="D9" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
-    <hyperlink ref="D12" r:id="rId23" xr:uid="{ADFF70FF-B572-4083-B069-A34FABCEEE29}"/>
-    <hyperlink ref="D2" r:id="rId24" xr:uid="{39762B51-FBC9-4C83-B725-24D65F821264}"/>
-    <hyperlink ref="D6" r:id="rId25" xr:uid="{25CD2705-535F-408C-AC8C-9413E356E312}"/>
-    <hyperlink ref="D7" r:id="rId26" xr:uid="{08B72755-1C40-4191-B51C-AA4D4C7889E1}"/>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
+    <hyperlink ref="D15" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
+    <hyperlink ref="D16" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
+    <hyperlink ref="D19" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
+    <hyperlink ref="D18" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
+    <hyperlink ref="D49" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
+    <hyperlink ref="D20" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
+    <hyperlink ref="D21" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
+    <hyperlink ref="D22" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
+    <hyperlink ref="D23" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
+    <hyperlink ref="D24" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
+    <hyperlink ref="D25:D36" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
+    <hyperlink ref="D37" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
+    <hyperlink ref="D39" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
+    <hyperlink ref="D38" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
+    <hyperlink ref="D12" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
+    <hyperlink ref="D11" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
+    <hyperlink ref="D6" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
+    <hyperlink ref="D9" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
+    <hyperlink ref="D4:D5" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
+    <hyperlink ref="D10" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
+    <hyperlink ref="D13" r:id="rId23" xr:uid="{ADFF70FF-B572-4083-B069-A34FABCEEE29}"/>
+    <hyperlink ref="D3" r:id="rId24" xr:uid="{39762B51-FBC9-4C83-B725-24D65F821264}"/>
+    <hyperlink ref="D7" r:id="rId25" xr:uid="{25CD2705-535F-408C-AC8C-9413E356E312}"/>
+    <hyperlink ref="D8" r:id="rId26" xr:uid="{08B72755-1C40-4191-B51C-AA4D4C7889E1}"/>
+    <hyperlink ref="D2" r:id="rId27" xr:uid="{315023A9-6D45-4B3F-8B6F-2206B89FE865}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
   <tableParts count="1">
-    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C5F9B2-A34C-4B23-A75F-2D5B74DF0A56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446AEF09-92B9-42A1-A339-D5C02F1AA348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC public exposure sites" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="218">
   <si>
     <t>Date</t>
   </si>
@@ -681,6 +681,15 @@
   </si>
   <si>
     <t>Hawthorn Ln, Bright VIC 3741</t>
+  </si>
+  <si>
+    <t>Scope Disability Services, Chelsea</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/media-release-coronavirus-update-victoria-wednesday-10-june</t>
+  </si>
+  <si>
+    <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
   </si>
 </sst>
 </file>
@@ -1122,8 +1131,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K90" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K90" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K91" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K91" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="9"/>
@@ -1438,11 +1447,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1496,113 +1503,113 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="F2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="G2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="H2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J2" s="1">
-        <v>-36.732517999999999</v>
+        <v>-38.012110999999997</v>
       </c>
       <c r="K2" s="1">
-        <v>146.96735699999999</v>
+        <v>145.09015400000001</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>43986</v>
+        <v>43989</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43986</v>
+        <v>43989</v>
       </c>
       <c r="F3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43986</v>
+        <v>43989</v>
       </c>
       <c r="G3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44000</v>
+        <v>44003</v>
       </c>
       <c r="H3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44000</v>
+        <v>44003</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="J3" s="1">
-        <v>-37.571235999999999</v>
+        <v>-36.732517999999999</v>
       </c>
       <c r="K3" s="1">
-        <v>144.90978000000001</v>
+        <v>146.96735699999999</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="F4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="G4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="H4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="J4" s="1">
-        <v>-37.704174999999999</v>
+        <v>-37.571235999999999</v>
       </c>
       <c r="K4" s="1">
-        <v>144.998741</v>
+        <v>144.90978000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1611,7 +1618,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>191</v>
@@ -1633,13 +1640,13 @@
         <v>43998</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J5" s="1">
-        <v>-37.726306000000001</v>
+        <v>-37.704174999999999</v>
       </c>
       <c r="K5" s="1">
-        <v>145.06991400000001</v>
+        <v>144.998741</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1648,7 +1655,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>191</v>
@@ -1670,61 +1677,59 @@
         <v>43998</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="J6" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.726306000000001</v>
       </c>
       <c r="K6" s="1">
-        <v>144.96363500000001</v>
+        <v>145.06991400000001</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="F7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="H7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43997</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>108</v>
+        <v>43998</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="J7" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K7" s="1">
-        <v>144.9526066</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43983</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>208</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>210</v>
@@ -1746,25 +1751,27 @@
         <v>43997</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="J8" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K8" s="1">
-        <v>144.83348079999999</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43983</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1782,51 +1789,51 @@
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43997</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>172</v>
+      <c r="I9" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J9" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K9" s="1">
-        <v>144.96363500000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="F10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="G10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="H10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="J10" s="1">
-        <v>-37.836081999999998</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K10" s="1">
-        <v>144.91538299999999</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1835,10 +1842,10 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1857,41 +1864,41 @@
         <v>43996</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="J11" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.836081999999998</v>
       </c>
       <c r="K11" s="1">
-        <v>144.96363500000001</v>
+        <v>144.91538299999999</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="F12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="G12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="H12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>172</v>
@@ -1905,104 +1912,104 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>202</v>
+        <v>171</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="E13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="F13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="G13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="H13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="J13" s="1">
-        <v>-37.837907999999999</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K13" s="1">
-        <v>144.78621799999999</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>174</v>
+        <v>201</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="E14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="F14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="G14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="H14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="J14" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.837907999999999</v>
       </c>
       <c r="K14" s="1">
-        <v>144.96363500000001</v>
+        <v>144.78621799999999</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="F15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="G15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="H15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>172</v>
@@ -2020,7 +2027,7 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>175</v>
@@ -2042,50 +2049,50 @@
         <v>43992</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J16" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K16" s="1">
-        <v>145.08623499999999</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="F17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="G17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="H17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="J17" s="1">
-        <v>-37.756286000000003</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K17" s="1">
-        <v>144.811104</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2094,10 +2101,10 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2116,13 +2123,13 @@
         <v>43991</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="J18" s="1">
-        <v>-37.715384</v>
+        <v>-37.756286000000003</v>
       </c>
       <c r="K18" s="1">
-        <v>144.811994</v>
+        <v>144.811104</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2131,10 +2138,10 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2153,50 +2160,50 @@
         <v>43991</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="J19" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.715384</v>
       </c>
       <c r="K19" s="1">
-        <v>145.01711499999999</v>
+        <v>144.811994</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="G20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J20" s="1">
-        <v>-36.314870999999997</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K20" s="1">
-        <v>145.04196999999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2205,10 +2212,10 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2227,50 +2234,50 @@
         <v>43985</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J21" s="1">
-        <v>-37.928489999999996</v>
+        <v>-36.314870999999997</v>
       </c>
       <c r="K21" s="1">
-        <v>145.007454</v>
+        <v>145.04196999999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="G22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J22" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.928489999999996</v>
       </c>
       <c r="K22" s="1">
-        <v>145.08623499999999</v>
+        <v>145.007454</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2279,7 +2286,7 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>183</v>
@@ -2301,50 +2308,50 @@
         <v>43984</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J23" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K23" s="1">
-        <v>145.01711499999999</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J24" s="1">
-        <v>-37.692610000000002</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K24" s="1">
-        <v>145.06382099999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2353,7 +2360,7 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>184</v>
@@ -2375,13 +2382,13 @@
         <v>43983</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J25" s="1">
-        <v>-37.689222999999998</v>
+        <v>-37.692610000000002</v>
       </c>
       <c r="K25" s="1">
-        <v>144.60470799999999</v>
+        <v>145.06382099999999</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2390,7 +2397,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>184</v>
@@ -2412,13 +2419,13 @@
         <v>43983</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J26" s="1">
-        <v>-37.843631999999999</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="K26" s="1">
-        <v>144.78155899999999</v>
+        <v>144.60470799999999</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2427,7 +2434,7 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>184</v>
@@ -2449,13 +2456,13 @@
         <v>43983</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J27" s="1">
-        <v>-37.730747999999998</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="K27" s="1">
-        <v>145.086489</v>
+        <v>144.78155899999999</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2464,7 +2471,7 @@
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>184</v>
@@ -2486,13 +2493,13 @@
         <v>43983</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J28" s="1">
-        <v>-37.702513000000003</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="K28" s="1">
-        <v>144.80232599999999</v>
+        <v>145.086489</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2501,7 +2508,7 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>184</v>
@@ -2523,13 +2530,13 @@
         <v>43983</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J29" s="1">
-        <v>-37.673996000000002</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="K29" s="1">
-        <v>144.955354</v>
+        <v>144.80232599999999</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2538,7 +2545,7 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>184</v>
@@ -2560,13 +2567,13 @@
         <v>43983</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J30" s="1">
-        <v>-37.576594</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="K30" s="1">
-        <v>144.72866500000001</v>
+        <v>144.955354</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2575,7 +2582,7 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>184</v>
@@ -2597,13 +2604,13 @@
         <v>43983</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J31" s="1">
-        <v>-37.879995000000001</v>
+        <v>-37.576594</v>
       </c>
       <c r="K31" s="1">
-        <v>144.70157699999999</v>
+        <v>144.72866500000001</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2612,7 +2619,7 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>184</v>
@@ -2634,13 +2641,13 @@
         <v>43983</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J32" s="1">
-        <v>-37.834014000000003</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="K32" s="1">
-        <v>144.65285299999999</v>
+        <v>144.70157699999999</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2649,7 +2656,7 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>184</v>
@@ -2671,13 +2678,13 @@
         <v>43983</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J33" s="1">
-        <v>-37.942098999999999</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="K33" s="1">
-        <v>145.16768400000001</v>
+        <v>144.65285299999999</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2686,7 +2693,7 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>184</v>
@@ -2708,13 +2715,13 @@
         <v>43983</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J34" s="1">
-        <v>-37.664667000000001</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="K34" s="1">
-        <v>144.74749</v>
+        <v>145.16768400000001</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2723,7 +2730,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>184</v>
@@ -2745,13 +2752,13 @@
         <v>43983</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J35" s="1">
-        <v>-37.665416999999998</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="K35" s="1">
-        <v>144.75335899999999</v>
+        <v>144.74749</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2760,7 +2767,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>184</v>
@@ -2782,50 +2789,50 @@
         <v>43983</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J36" s="1">
-        <v>-37.738990000000001</v>
+        <v>-37.665416999999998</v>
       </c>
       <c r="K36" s="1">
-        <v>144.67997600000001</v>
+        <v>144.75335899999999</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B37" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>125</v>
+        <v>43983</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="J37" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.738990000000001</v>
       </c>
       <c r="K37" s="1">
-        <v>144.921401</v>
+        <v>144.67997600000001</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2834,10 +2841,10 @@
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2856,50 +2863,50 @@
         <v>43980</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J38" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.596122999999999</v>
       </c>
       <c r="K38" s="1">
-        <v>144.888195</v>
+        <v>144.921401</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B39" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B39" s="5"/>
       <c r="C39" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="G39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J39" s="1">
-        <v>-37.783104999999999</v>
+        <v>-37.772379999999998</v>
       </c>
       <c r="K39" s="1">
-        <v>144.78539799999999</v>
+        <v>144.888195</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2908,9 +2915,11 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="E40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43959</v>
@@ -2928,22 +2937,22 @@
         <v>43973</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J40" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="K40" s="1">
-        <v>145.02005199999999</v>
+        <v>144.78539799999999</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43959</v>
       </c>
-      <c r="B41" s="5"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="2">
@@ -2963,48 +2972,48 @@
         <v>43973</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J41" s="1">
-        <v>-37.689366</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="K41" s="1">
-        <v>144.958878</v>
+        <v>145.02005199999999</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B42" s="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B42" s="5"/>
       <c r="C42" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="G42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J42" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.689366</v>
       </c>
       <c r="K42" s="1">
-        <v>144.43268900000001</v>
+        <v>144.958878</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3013,7 +3022,7 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="2">
@@ -3033,258 +3042,260 @@
         <v>43967</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J43" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="K43" s="1">
-        <v>144.836118</v>
+        <v>144.43268900000001</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="F44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="G44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="H44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="J44" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="K44" s="1">
-        <v>144.83348079999999</v>
+        <v>144.836118</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="F45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="G45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="H45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="J45" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K45" s="1">
-        <v>144.889926</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="F46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="G46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43964</v>
       </c>
       <c r="H46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
+        <v>43964</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J46" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.811678000000001</v>
       </c>
       <c r="K46" s="1">
-        <v>144.894632</v>
+        <v>144.889926</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43947</v>
+      </c>
+      <c r="F47" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43947</v>
+      </c>
+      <c r="G47" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43961</v>
+      </c>
+      <c r="H47" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43961</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J47" s="1">
+        <v>-37.797176999999998</v>
+      </c>
+      <c r="K47" s="1">
+        <v>144.894632</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>43944</v>
-      </c>
-      <c r="F47" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
-      </c>
-      <c r="G47" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
-      </c>
-      <c r="H47" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J47" s="1">
-        <v>-37.759222999999999</v>
-      </c>
-      <c r="K47" s="1">
-        <v>144.816754</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>43907</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
+        <v>43944</v>
       </c>
       <c r="F48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
+        <v>43944</v>
       </c>
       <c r="G48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43958</v>
       </c>
       <c r="H48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
+        <v>43958</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J48" s="1">
-        <v>-37.844318000000001</v>
+        <v>-37.759222999999999</v>
       </c>
       <c r="K48" s="1">
-        <v>145.009818</v>
+        <v>144.816754</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="F49" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="G49" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43921</v>
+      </c>
+      <c r="H49" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J49" s="1">
+        <v>-37.844318000000001</v>
+      </c>
+      <c r="K49" s="1">
+        <v>145.009818</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43905</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43905</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43919</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43919</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J50" s="1">
         <v>-37.813239000000003</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K50" s="1">
         <v>145.048047</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2">
-        <v>43900</v>
-      </c>
-      <c r="F50" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="2">
-        <v>43914</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J50" s="1">
-        <v>-37.776940699999997</v>
-      </c>
-      <c r="K50" s="1">
-        <v>144.98702499999999</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3292,10 +3303,10 @@
         <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2">
@@ -3311,13 +3322,13 @@
         <v>43914</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J51" s="1">
-        <v>-37.772095999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="K51" s="1">
-        <v>144.91609500000001</v>
+        <v>144.98702499999999</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3325,10 +3336,10 @@
         <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2">
@@ -3344,37 +3355,37 @@
         <v>43914</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J52" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="K52" s="1">
-        <v>144.83348079999999</v>
+        <v>144.91609500000001</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F53" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H53" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>97</v>
@@ -3391,10 +3402,10 @@
         <v>17</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2">
@@ -3421,26 +3432,26 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="F55" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H55" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>97</v>
@@ -3454,7 +3465,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>24</v>
@@ -3464,16 +3475,16 @@
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F56" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H56" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>97</v>
@@ -3487,26 +3498,26 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F57" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H57" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>97</v>
@@ -3523,10 +3534,10 @@
         <v>29</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2">
@@ -3553,35 +3564,35 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F59" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H59" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J59" s="1">
-        <v>-37.821452700000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K59" s="1">
-        <v>144.98347200000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3589,10 +3600,10 @@
         <v>23</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="2">
@@ -3608,13 +3619,13 @@
         <v>43912</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J60" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.821452700000002</v>
       </c>
       <c r="K60" s="1">
-        <v>145.0729384</v>
+        <v>144.98347200000001</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3622,10 +3633,10 @@
         <v>23</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2">
@@ -3641,46 +3652,46 @@
         <v>43912</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J61" s="1">
-        <v>-37.790782999999998</v>
+        <v>-37.800963000000003</v>
       </c>
       <c r="K61" s="1">
-        <v>144.99816200000001</v>
+        <v>145.0729384</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F62" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H62" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J62" s="1">
-        <v>-37.824981299999997</v>
+        <v>-37.790782999999998</v>
       </c>
       <c r="K62" s="1">
-        <v>144.98361299999999</v>
+        <v>144.99816200000001</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3688,10 +3699,10 @@
         <v>27</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2">
@@ -3707,13 +3718,13 @@
         <v>43911</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J63" s="1">
-        <v>-37.841103699999998</v>
+        <v>-37.824981299999997</v>
       </c>
       <c r="K63" s="1">
-        <v>144.955806</v>
+        <v>144.98361299999999</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3721,10 +3732,10 @@
         <v>27</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2">
@@ -3740,37 +3751,37 @@
         <v>43911</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J64" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.841103699999998</v>
       </c>
       <c r="K64" s="1">
-        <v>144.9564881</v>
+        <v>144.955806</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F65" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H65" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>103</v>
@@ -3784,59 +3795,59 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F66" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H66" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J66" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K66" s="1">
-        <v>144.31841800000001</v>
+        <v>144.9564881</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F67" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H67" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>104</v>
@@ -3850,68 +3861,68 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F68" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H68" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J68" s="1">
-        <v>-37.863344400000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K68" s="1">
-        <v>145.08682759999999</v>
+        <v>144.31841800000001</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F69" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H69" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J69" s="1">
-        <v>-37.809265000000003</v>
+        <v>-37.863344400000003</v>
       </c>
       <c r="K69" s="1">
-        <v>144.99495099999999</v>
+        <v>145.08682759999999</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3919,10 +3930,10 @@
         <v>29</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2">
@@ -3938,46 +3949,46 @@
         <v>43910</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J70" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.809265000000003</v>
       </c>
       <c r="K70" s="1">
-        <v>144.83348079999999</v>
+        <v>144.99495099999999</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F71" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H71" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J71" s="1">
-        <v>-37.797809200000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K71" s="1">
-        <v>144.96801239999999</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -3985,10 +3996,10 @@
         <v>57</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2">
@@ -4004,13 +4015,13 @@
         <v>43909</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J72" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.797809200000003</v>
       </c>
       <c r="K72" s="1">
-        <v>144.9526066</v>
+        <v>144.96801239999999</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4037,57 +4048,57 @@
         <v>43909</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J73" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K73" s="1">
-        <v>144.35683760000001</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F74" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H74" s="2">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J74" s="1">
-        <v>-37.028215000000003</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K74" s="1">
-        <v>145.14336</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="2">
@@ -4097,19 +4108,19 @@
         <v>43893</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H75" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J75" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.028215000000003</v>
       </c>
       <c r="K75" s="1">
-        <v>145.04823200000001</v>
+        <v>145.14336</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4124,7 +4135,7 @@
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="F76" s="2">
         <v>43893</v>
@@ -4157,7 +4168,7 @@
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="F77" s="2">
         <v>43893</v>
@@ -4180,35 +4191,35 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="F78" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H78" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="J78" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K78" s="1">
-        <v>144.83348079999999</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4216,10 +4227,10 @@
         <v>71</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="2">
@@ -4235,13 +4246,13 @@
         <v>43906</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J79" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K79" s="1">
-        <v>144.35683760000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4268,13 +4279,13 @@
         <v>43906</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J80" s="1">
-        <v>-37.816394899999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K80" s="1">
-        <v>144.9526066</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4282,10 +4293,10 @@
         <v>71</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="2">
@@ -4334,24 +4345,24 @@
         <v>43906</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J82" s="1">
-        <v>-37.826660799999999</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K82" s="1">
-        <v>145.0587903</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="2">
@@ -4361,19 +4372,19 @@
         <v>43892</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H83" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J83" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.826660799999999</v>
       </c>
       <c r="K83" s="1">
-        <v>145.00550799999999</v>
+        <v>145.0587903</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4388,7 +4399,7 @@
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="F84" s="2">
         <v>43892</v>
@@ -4421,7 +4432,7 @@
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="F85" s="2">
         <v>43892</v>
@@ -4454,7 +4465,7 @@
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="F86" s="2">
         <v>43892</v>
@@ -4487,7 +4498,7 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="2">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="F87" s="2">
         <v>43892</v>
@@ -4510,35 +4521,35 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="2">
-        <v>43890</v>
+        <v>43896</v>
       </c>
       <c r="F88" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H88" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J88" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K88" s="1">
-        <v>144.83348079999999</v>
+        <v>145.00550799999999</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4546,10 +4557,10 @@
         <v>82</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="2">
@@ -4576,26 +4587,26 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="F90" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H90" s="2">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>97</v>
@@ -4604,44 +4615,78 @@
         <v>-37.667110999999998</v>
       </c>
       <c r="K90" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="2">
+        <v>43889</v>
+      </c>
+      <c r="F91" s="2">
+        <v>43889</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H91" s="2">
+        <v>43903</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J91" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K91" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
-    <hyperlink ref="D15" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
-    <hyperlink ref="D16" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
-    <hyperlink ref="D19" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
-    <hyperlink ref="D18" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
-    <hyperlink ref="D49" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
-    <hyperlink ref="D20" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
-    <hyperlink ref="D21" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
-    <hyperlink ref="D22" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
-    <hyperlink ref="D23" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
-    <hyperlink ref="D24" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
-    <hyperlink ref="D25:D36" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
-    <hyperlink ref="D37" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
-    <hyperlink ref="D39" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
-    <hyperlink ref="D38" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
-    <hyperlink ref="D12" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
-    <hyperlink ref="D11" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
-    <hyperlink ref="D6" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
-    <hyperlink ref="D9" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
-    <hyperlink ref="D4:D5" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
-    <hyperlink ref="D10" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
-    <hyperlink ref="D13" r:id="rId23" xr:uid="{ADFF70FF-B572-4083-B069-A34FABCEEE29}"/>
-    <hyperlink ref="D3" r:id="rId24" xr:uid="{39762B51-FBC9-4C83-B725-24D65F821264}"/>
-    <hyperlink ref="D7" r:id="rId25" xr:uid="{25CD2705-535F-408C-AC8C-9413E356E312}"/>
-    <hyperlink ref="D8" r:id="rId26" xr:uid="{08B72755-1C40-4191-B51C-AA4D4C7889E1}"/>
-    <hyperlink ref="D2" r:id="rId27" xr:uid="{315023A9-6D45-4B3F-8B6F-2206B89FE865}"/>
+    <hyperlink ref="D15" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
+    <hyperlink ref="D17" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
+    <hyperlink ref="D20" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
+    <hyperlink ref="D19" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
+    <hyperlink ref="D50" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
+    <hyperlink ref="D21" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
+    <hyperlink ref="D22" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
+    <hyperlink ref="D23" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
+    <hyperlink ref="D24" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
+    <hyperlink ref="D25" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
+    <hyperlink ref="D26:D37" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
+    <hyperlink ref="D38" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
+    <hyperlink ref="D40" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
+    <hyperlink ref="D39" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
+    <hyperlink ref="D13" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
+    <hyperlink ref="D12" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
+    <hyperlink ref="D7" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
+    <hyperlink ref="D10" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
+    <hyperlink ref="D5:D6" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
+    <hyperlink ref="D11" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
+    <hyperlink ref="D14" r:id="rId23" xr:uid="{ADFF70FF-B572-4083-B069-A34FABCEEE29}"/>
+    <hyperlink ref="D4" r:id="rId24" xr:uid="{39762B51-FBC9-4C83-B725-24D65F821264}"/>
+    <hyperlink ref="D8" r:id="rId25" xr:uid="{25CD2705-535F-408C-AC8C-9413E356E312}"/>
+    <hyperlink ref="D9" r:id="rId26" xr:uid="{08B72755-1C40-4191-B51C-AA4D4C7889E1}"/>
+    <hyperlink ref="D3" r:id="rId27" xr:uid="{315023A9-6D45-4B3F-8B6F-2206B89FE865}"/>
+    <hyperlink ref="D2" r:id="rId28" xr:uid="{D3F01B42-483E-4457-B15B-7B422F9B1CEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446AEF09-92B9-42A1-A339-D5C02F1AA348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA08493-C522-451D-8403-55EF263A9FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="225">
   <si>
     <t>Date</t>
   </si>
@@ -690,6 +690,27 @@
   </si>
   <si>
     <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+  </si>
+  <si>
+    <t>Black Lives Matter march, Melbourne</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-11-june-2020</t>
+  </si>
+  <si>
+    <t>Spring St, East Melbourne VIC 3002</t>
+  </si>
+  <si>
+    <t>BUPA Aged Care, Clayton</t>
+  </si>
+  <si>
+    <t>12 Burton Ave, Clayton VIC 3168</t>
+  </si>
+  <si>
+    <t>Professor Lyn Corcoran Early Learning Centre, Parkville</t>
+  </si>
+  <si>
+    <t>1G Royal Parade, Parkville VIC 3052</t>
   </si>
 </sst>
 </file>
@@ -1131,8 +1152,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K91" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K91" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K94" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K94" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="9"/>
@@ -1447,26 +1468,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="96.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="12.9296875" customWidth="1"/>
+    <col min="3" max="3" width="49.73046875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" customWidth="1"/>
+    <col min="7" max="7" width="25.265625" customWidth="1"/>
+    <col min="8" max="8" width="16.73046875" customWidth="1"/>
+    <col min="9" max="9" width="56.9296875" customWidth="1"/>
+    <col min="10" max="10" width="10.3984375" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1501,16 +1524,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>43991</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1529,302 +1552,300 @@
         <v>44005</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="J2" s="1">
-        <v>-38.012110999999997</v>
+        <v>-37.798171000000004</v>
       </c>
       <c r="K2" s="1">
-        <v>145.09015400000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.95666499999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43991</v>
+      </c>
+      <c r="F3" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43991</v>
+      </c>
+      <c r="G3" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>44005</v>
+      </c>
+      <c r="H3" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>44005</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-38.012110999999997</v>
+      </c>
+      <c r="K3" s="1">
+        <v>145.09015400000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="4">
         <v>43989</v>
-      </c>
-      <c r="F3" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43989</v>
-      </c>
-      <c r="G3" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44003</v>
-      </c>
-      <c r="H3" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44003</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J3" s="1">
-        <v>-36.732517999999999</v>
-      </c>
-      <c r="K3" s="1">
-        <v>146.96735699999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43986</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43986</v>
+        <v>43989</v>
       </c>
       <c r="F4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43986</v>
+        <v>43989</v>
       </c>
       <c r="G4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44000</v>
+        <v>44003</v>
       </c>
       <c r="H4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44000</v>
+        <v>44003</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="J4" s="1">
-        <v>-37.571235999999999</v>
+        <v>-36.732517999999999</v>
       </c>
       <c r="K4" s="1">
-        <v>144.90978000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>146.96735699999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
-        <v>43984</v>
+        <v>43988</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43984</v>
+        <v>43988</v>
       </c>
       <c r="F5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43984</v>
+        <v>43988</v>
       </c>
       <c r="G5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43998</v>
+        <v>44002</v>
       </c>
       <c r="H5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43998</v>
+        <v>44002</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="J5" s="1">
-        <v>-37.704174999999999</v>
+        <v>-37.811362000000003</v>
       </c>
       <c r="K5" s="1">
-        <v>144.998741</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.97320300000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="F6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="G6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="H6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="J6" s="1">
-        <v>-37.726306000000001</v>
+        <v>-37.927427000000002</v>
       </c>
       <c r="K6" s="1">
-        <v>145.06991400000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.11615699999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="E7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43986</v>
+      </c>
+      <c r="F7" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43986</v>
+      </c>
+      <c r="G7" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>44000</v>
+      </c>
+      <c r="H7" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>44000</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-37.571235999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <v>144.90978000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="4">
         <v>43984</v>
-      </c>
-      <c r="F7" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43984</v>
-      </c>
-      <c r="G7" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43998</v>
-      </c>
-      <c r="H7" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43998</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-37.801332000000002</v>
-      </c>
-      <c r="K7" s="1">
-        <v>144.96363500000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43983</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="F8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="H8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43997</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>108</v>
+        <v>43998</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="J8" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.704174999999999</v>
       </c>
       <c r="K8" s="1">
-        <v>144.9526066</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.998741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
-        <v>43983</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>43984</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="F9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="H9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43997</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>211</v>
+        <v>43998</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="J9" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.726306000000001</v>
       </c>
       <c r="K9" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.06991400000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="F10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="H10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>172</v>
@@ -1836,106 +1857,108 @@
         <v>144.96363500000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="F11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="G11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="H11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43996</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>200</v>
+        <v>43997</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="J11" s="1">
-        <v>-37.836081999999998</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K11" s="1">
-        <v>144.91538299999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
-        <v>43982</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>43983</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="F12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="G12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="H12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43996</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>172</v>
+        <v>43997</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J12" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K12" s="1">
-        <v>144.96363500000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="F13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="G13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="H13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>172</v>
@@ -1947,69 +1970,69 @@
         <v>144.96363500000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="E14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="F14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="G14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43994</v>
+        <v>43996</v>
       </c>
       <c r="H14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43994</v>
+        <v>43996</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J14" s="1">
-        <v>-37.837907999999999</v>
+        <v>-37.836081999999998</v>
       </c>
       <c r="K14" s="1">
-        <v>144.78621799999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.91538299999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
-        <v>43979</v>
+        <v>43982</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="E15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43979</v>
+        <v>43982</v>
       </c>
       <c r="F15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43979</v>
+        <v>43982</v>
       </c>
       <c r="G15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43993</v>
+        <v>43996</v>
       </c>
       <c r="H15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43993</v>
+        <v>43996</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>172</v>
@@ -2021,32 +2044,32 @@
         <v>144.96363500000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
-        <v>43978</v>
+        <v>43981</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="E16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43981</v>
       </c>
       <c r="F16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43981</v>
       </c>
       <c r="G16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43995</v>
       </c>
       <c r="H16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43995</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>172</v>
@@ -2058,420 +2081,420 @@
         <v>144.96363500000001</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>175</v>
+        <v>201</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="E17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="F17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="G17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="H17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="J17" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.837907999999999</v>
       </c>
       <c r="K17" s="1">
-        <v>145.08623499999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.78621799999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="F18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="G18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="H18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="J18" s="1">
-        <v>-37.756286000000003</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K18" s="1">
-        <v>144.811104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.96363500000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="F19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="G19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="H19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J19" s="1">
-        <v>-37.715384</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K19" s="1">
-        <v>144.811994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.96363500000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43978</v>
+      </c>
+      <c r="F20" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43978</v>
+      </c>
+      <c r="G20" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43992</v>
+      </c>
+      <c r="H20" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43992</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" s="1">
+        <v>-37.841634999999997</v>
+      </c>
+      <c r="K20" s="1">
+        <v>145.08623499999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="4">
         <v>43977</v>
-      </c>
-      <c r="F20" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
-      </c>
-      <c r="G20" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
-      </c>
-      <c r="H20" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J20" s="1">
-        <v>-37.884267000000001</v>
-      </c>
-      <c r="K20" s="1">
-        <v>145.01711499999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>43971</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="G21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="J21" s="1">
-        <v>-36.314870999999997</v>
+        <v>-37.756286000000003</v>
       </c>
       <c r="K21" s="1">
-        <v>145.04196999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.811104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="G22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="J22" s="1">
-        <v>-37.928489999999996</v>
+        <v>-37.715384</v>
       </c>
       <c r="K22" s="1">
-        <v>145.007454</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.811994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="F23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="G23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43991</v>
       </c>
       <c r="H23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43991</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J23" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K23" s="1">
-        <v>145.08623499999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.01711499999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="G24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J24" s="1">
-        <v>-37.884267000000001</v>
+        <v>-36.314870999999997</v>
       </c>
       <c r="K24" s="1">
-        <v>145.01711499999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.04196999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="F25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="G25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="H25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J25" s="1">
-        <v>-37.692610000000002</v>
+        <v>-37.928489999999996</v>
       </c>
       <c r="K25" s="1">
-        <v>145.06382099999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.007454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="J26" s="1">
-        <v>-37.689222999999998</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K26" s="1">
-        <v>144.60470799999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.08623499999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="J27" s="1">
-        <v>-37.843631999999999</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K27" s="1">
-        <v>144.78155899999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.01711499999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>43969</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>184</v>
@@ -2493,22 +2516,22 @@
         <v>43983</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="J28" s="1">
-        <v>-37.730747999999998</v>
+        <v>-37.692610000000002</v>
       </c>
       <c r="K28" s="1">
-        <v>145.086489</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.06382099999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>43969</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>184</v>
@@ -2530,22 +2553,22 @@
         <v>43983</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J29" s="1">
-        <v>-37.702513000000003</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="K29" s="1">
-        <v>144.80232599999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.60470799999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>43969</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>184</v>
@@ -2567,22 +2590,22 @@
         <v>43983</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J30" s="1">
-        <v>-37.673996000000002</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="K30" s="1">
-        <v>144.955354</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.78155899999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>43969</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>184</v>
@@ -2604,22 +2627,22 @@
         <v>43983</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J31" s="1">
-        <v>-37.576594</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="K31" s="1">
-        <v>144.72866500000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.086489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>43969</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>184</v>
@@ -2641,22 +2664,22 @@
         <v>43983</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J32" s="1">
-        <v>-37.879995000000001</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="K32" s="1">
-        <v>144.70157699999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.80232599999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>43969</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>184</v>
@@ -2678,22 +2701,22 @@
         <v>43983</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J33" s="1">
-        <v>-37.834014000000003</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="K33" s="1">
-        <v>144.65285299999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.955354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>43969</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>184</v>
@@ -2715,22 +2738,22 @@
         <v>43983</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J34" s="1">
-        <v>-37.942098999999999</v>
+        <v>-37.576594</v>
       </c>
       <c r="K34" s="1">
-        <v>145.16768400000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.72866500000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <v>43969</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>184</v>
@@ -2752,22 +2775,22 @@
         <v>43983</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J35" s="1">
-        <v>-37.664667000000001</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="K35" s="1">
-        <v>144.74749</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.70157699999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
         <v>43969</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>184</v>
@@ -2789,22 +2812,22 @@
         <v>43983</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J36" s="1">
-        <v>-37.665416999999998</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="K36" s="1">
-        <v>144.75335899999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.65285299999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
         <v>43969</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>184</v>
@@ -2826,665 +2849,677 @@
         <v>43983</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J37" s="1">
-        <v>-37.738990000000001</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="K37" s="1">
-        <v>144.67997600000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.16768400000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B38" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>125</v>
+        <v>43983</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="J38" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="K38" s="1">
-        <v>144.921401</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.74749</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B39" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>126</v>
+        <v>43983</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="J39" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.665416999999998</v>
       </c>
       <c r="K39" s="1">
-        <v>144.888195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.75335899999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="F40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="G40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43983</v>
       </c>
       <c r="H40" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>124</v>
+        <v>43983</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="J40" s="1">
-        <v>-37.783104999999999</v>
+        <v>-37.738990000000001</v>
       </c>
       <c r="K40" s="1">
-        <v>144.78539799999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.67997600000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B41" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B41" s="5"/>
       <c r="C41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="E41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="G41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J41" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.596122999999999</v>
       </c>
       <c r="K41" s="1">
-        <v>145.02005199999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.921401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="E42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43966</v>
+      </c>
+      <c r="F42" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43966</v>
+      </c>
+      <c r="G42" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43980</v>
+      </c>
+      <c r="H42" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43980</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J42" s="1">
+        <v>-37.772379999999998</v>
+      </c>
+      <c r="K42" s="1">
+        <v>144.888195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A43" s="4">
         <v>43959</v>
-      </c>
-      <c r="F42" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
-      </c>
-      <c r="G42" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
-      </c>
-      <c r="H42" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J42" s="1">
-        <v>-37.689366</v>
-      </c>
-      <c r="K42" s="1">
-        <v>144.958878</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>43953</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="E43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="G43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J43" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="K43" s="1">
-        <v>144.43268900000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.78539799999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="G44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J44" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="K44" s="1">
-        <v>144.836118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.02005199999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
-        <v>43951</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B45" s="5"/>
       <c r="C45" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43959</v>
       </c>
       <c r="F45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
+        <v>43959</v>
       </c>
       <c r="G45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43973</v>
       </c>
       <c r="H45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
+        <v>43973</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="J45" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.689366</v>
       </c>
       <c r="K45" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.958878</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="F46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="G46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43967</v>
       </c>
       <c r="H46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
+        <v>43967</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J46" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="K46" s="1">
-        <v>144.889926</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.43268900000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
-        <v>43947</v>
+        <v>43953</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43953</v>
       </c>
       <c r="F47" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
+        <v>43953</v>
       </c>
       <c r="G47" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43967</v>
       </c>
       <c r="H47" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
+        <v>43967</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J47" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="K47" s="1">
-        <v>144.894632</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.836118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="F48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="G48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
+        <v>43965</v>
       </c>
       <c r="H48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
+        <v>43965</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="J48" s="1">
-        <v>-37.759222999999999</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K48" s="1">
-        <v>144.816754</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>43907</v>
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49" s="4">
+        <v>43950</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
+        <v>43950</v>
       </c>
       <c r="F49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
+        <v>43950</v>
       </c>
       <c r="G49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43964</v>
       </c>
       <c r="H49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
+        <v>43964</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J49" s="1">
-        <v>-37.844318000000001</v>
+        <v>-37.811678000000001</v>
       </c>
       <c r="K49" s="1">
-        <v>145.009818</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>43905</v>
+        <v>144.889926</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A50" s="4">
+        <v>43947</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>180</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D50" s="1"/>
       <c r="E50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43905</v>
+        <v>43947</v>
       </c>
       <c r="F50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43905</v>
+        <v>43947</v>
       </c>
       <c r="G50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43919</v>
+        <v>43961</v>
       </c>
       <c r="H50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43919</v>
+        <v>43961</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J50" s="1">
-        <v>-37.813239000000003</v>
+        <v>-37.797176999999998</v>
       </c>
       <c r="K50" s="1">
-        <v>145.048047</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>144.894632</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51" s="4">
+        <v>43944</v>
+      </c>
+      <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43944</v>
       </c>
       <c r="F51" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>12</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43944</v>
+      </c>
+      <c r="G51" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43958</v>
       </c>
       <c r="H51" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43958</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="J51" s="1">
-        <v>-37.776940699999997</v>
+        <v>-37.759222999999999</v>
       </c>
       <c r="K51" s="1">
-        <v>144.98702499999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>144.816754</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43907</v>
       </c>
       <c r="F52" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>12</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="G52" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43921</v>
       </c>
       <c r="H52" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="J52" s="1">
-        <v>-37.772095999999998</v>
+        <v>-37.844318000000001</v>
       </c>
       <c r="K52" s="1">
-        <v>144.91609500000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+        <v>145.009818</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E53" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="F53" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="G53" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43919</v>
+      </c>
+      <c r="H53" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43919</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J53" s="1">
+        <v>-37.813239000000003</v>
+      </c>
+      <c r="K53" s="1">
+        <v>145.048047</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2">
-        <v>43900</v>
-      </c>
-      <c r="F53" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="2">
-        <v>43914</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J53" s="1">
-        <v>-37.667110999999998</v>
-      </c>
-      <c r="K53" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="B54" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F54" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H54" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J54" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="K54" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.98702499999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F55" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H55" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J55" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="K55" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.91609500000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="F56" s="2">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H56" s="2">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>97</v>
@@ -3496,28 +3531,28 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="F57" s="2">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H57" s="2">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>97</v>
@@ -3529,28 +3564,28 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2">
-        <v>43896</v>
+        <v>43899</v>
       </c>
       <c r="F58" s="2">
-        <v>43896</v>
+        <v>43899</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H58" s="2">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>97</v>
@@ -3562,28 +3597,28 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="F59" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H59" s="2">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>97</v>
@@ -3595,246 +3630,246 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="2">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="F60" s="2">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H60" s="2">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J60" s="1">
-        <v>-37.821452700000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K60" s="1">
-        <v>144.98347200000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F61" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H61" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J61" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K61" s="1">
-        <v>145.0729384</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F62" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H62" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J62" s="1">
-        <v>-37.790782999999998</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K62" s="1">
-        <v>144.99816200000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F63" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H63" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J63" s="1">
-        <v>-37.824981299999997</v>
+        <v>-37.821452700000002</v>
       </c>
       <c r="K63" s="1">
-        <v>144.98361299999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.98347200000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F64" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H64" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J64" s="1">
-        <v>-37.841103699999998</v>
+        <v>-37.800963000000003</v>
       </c>
       <c r="K64" s="1">
-        <v>144.955806</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.0729384</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F65" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H65" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J65" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.790782999999998</v>
       </c>
       <c r="K65" s="1">
-        <v>144.9564881</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.99816200000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F66" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H66" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J66" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.824981299999997</v>
       </c>
       <c r="K66" s="1">
-        <v>144.9564881</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.98361299999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2">
@@ -3850,123 +3885,123 @@
         <v>43911</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J67" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.841103699999998</v>
       </c>
       <c r="K67" s="1">
-        <v>144.31841800000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.955806</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F68" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H68" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J68" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K68" s="1">
-        <v>144.31841800000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.9564881</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F69" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H69" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J69" s="1">
-        <v>-37.863344400000003</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K69" s="1">
-        <v>145.08682759999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.9564881</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F70" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H70" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J70" s="1">
-        <v>-37.809265000000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K70" s="1">
-        <v>144.99495099999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.31841800000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2">
@@ -3982,354 +4017,354 @@
         <v>43910</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J71" s="1">
-        <v>-37.667110999999998</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K71" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.31841800000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="F72" s="2">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="H72" s="2">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J72" s="1">
-        <v>-37.797809200000003</v>
+        <v>-37.863344400000003</v>
       </c>
       <c r="K72" s="1">
-        <v>144.96801239999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.08682759999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F73" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H73" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J73" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.809265000000003</v>
       </c>
       <c r="K73" s="1">
-        <v>144.9526066</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.99495099999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F74" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H74" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J74" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K74" s="1">
-        <v>144.35683760000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F75" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H75" s="2">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J75" s="1">
-        <v>-37.028215000000003</v>
+        <v>-37.797809200000003</v>
       </c>
       <c r="K75" s="1">
-        <v>145.14336</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.96801239999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F76" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H76" s="2">
         <v>43909</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J76" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K76" s="1">
-        <v>145.04823200000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="2">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="F77" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H77" s="2">
         <v>43909</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J77" s="1">
-        <v>-37.720556999999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K77" s="1">
-        <v>145.04823200000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.35683760000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="F78" s="2">
         <v>43893</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H78" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J78" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.028215000000003</v>
       </c>
       <c r="K78" s="1">
-        <v>145.04823200000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.14336</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="F79" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H79" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="J79" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K79" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.04823200000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="2">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="F80" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H80" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J80" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K80" s="1">
-        <v>144.35683760000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.04823200000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="F81" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H81" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J81" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K81" s="1">
-        <v>144.9526066</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.04823200000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="2">
@@ -4345,24 +4380,24 @@
         <v>43906</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J82" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K82" s="1">
-        <v>144.9526066</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="2">
@@ -4378,24 +4413,24 @@
         <v>43906</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J83" s="1">
-        <v>-37.826660799999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K83" s="1">
-        <v>145.0587903</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.35683760000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="2">
@@ -4405,88 +4440,88 @@
         <v>43892</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H84" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J84" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K84" s="1">
-        <v>145.00550799999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="F85" s="2">
         <v>43892</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H85" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J85" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K85" s="1">
-        <v>145.00550799999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="2">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="F86" s="2">
         <v>43892</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H86" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J86" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.826660799999999</v>
       </c>
       <c r="K86" s="1">
-        <v>145.00550799999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.0587903</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>78</v>
       </c>
@@ -4498,7 +4533,7 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="2">
-        <v>43895</v>
+        <v>43892</v>
       </c>
       <c r="F87" s="2">
         <v>43892</v>
@@ -4519,7 +4554,7 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>78</v>
       </c>
@@ -4531,7 +4566,7 @@
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="2">
-        <v>43896</v>
+        <v>43893</v>
       </c>
       <c r="F88" s="2">
         <v>43892</v>
@@ -4552,141 +4587,243 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="2">
-        <v>43890</v>
+        <v>43894</v>
       </c>
       <c r="F89" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H89" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J89" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K89" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.00550799999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="2">
-        <v>43890</v>
+        <v>43895</v>
       </c>
       <c r="F90" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H90" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J90" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K90" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.00550799999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F91" s="2">
+        <v>43892</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H91" s="2">
+        <v>43910</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J91" s="1">
+        <v>-37.848232000000003</v>
+      </c>
+      <c r="K91" s="1">
+        <v>145.00550799999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A92" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F92" s="2">
+        <v>43890</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H92" s="2">
+        <v>43904</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J92" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K92" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A93" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F93" s="2">
+        <v>43890</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H93" s="2">
+        <v>43904</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J93" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K93" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A94" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="2">
         <v>43889</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F94" s="2">
         <v>43889</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H94" s="2">
         <v>43903</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="I94" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J91" s="1">
+      <c r="J94" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="K91" s="1">
+      <c r="K94" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
-    <hyperlink ref="D16" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
-    <hyperlink ref="D17" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
-    <hyperlink ref="D20" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
-    <hyperlink ref="D19" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
-    <hyperlink ref="D50" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
-    <hyperlink ref="D21" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
-    <hyperlink ref="D22" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
-    <hyperlink ref="D23" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
-    <hyperlink ref="D24" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
-    <hyperlink ref="D25" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
-    <hyperlink ref="D26:D37" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
-    <hyperlink ref="D38" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
-    <hyperlink ref="D40" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
-    <hyperlink ref="D39" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
-    <hyperlink ref="D18" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
-    <hyperlink ref="D13" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
-    <hyperlink ref="D12" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
-    <hyperlink ref="D7" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
-    <hyperlink ref="D10" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
-    <hyperlink ref="D5:D6" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
-    <hyperlink ref="D11" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
-    <hyperlink ref="D14" r:id="rId23" xr:uid="{ADFF70FF-B572-4083-B069-A34FABCEEE29}"/>
-    <hyperlink ref="D4" r:id="rId24" xr:uid="{39762B51-FBC9-4C83-B725-24D65F821264}"/>
-    <hyperlink ref="D8" r:id="rId25" xr:uid="{25CD2705-535F-408C-AC8C-9413E356E312}"/>
-    <hyperlink ref="D9" r:id="rId26" xr:uid="{08B72755-1C40-4191-B51C-AA4D4C7889E1}"/>
-    <hyperlink ref="D3" r:id="rId27" xr:uid="{315023A9-6D45-4B3F-8B6F-2206B89FE865}"/>
-    <hyperlink ref="D2" r:id="rId28" xr:uid="{D3F01B42-483E-4457-B15B-7B422F9B1CEF}"/>
+    <hyperlink ref="D18" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
+    <hyperlink ref="D19" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
+    <hyperlink ref="D20" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
+    <hyperlink ref="D23" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
+    <hyperlink ref="D22" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
+    <hyperlink ref="D53" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
+    <hyperlink ref="D24" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
+    <hyperlink ref="D25" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
+    <hyperlink ref="D26" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
+    <hyperlink ref="D27" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
+    <hyperlink ref="D28" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
+    <hyperlink ref="D29:D40" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
+    <hyperlink ref="D41" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
+    <hyperlink ref="D43" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
+    <hyperlink ref="D42" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
+    <hyperlink ref="D21" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
+    <hyperlink ref="D16" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
+    <hyperlink ref="D15" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
+    <hyperlink ref="D10" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
+    <hyperlink ref="D13" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
+    <hyperlink ref="D8:D9" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
+    <hyperlink ref="D14" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
+    <hyperlink ref="D17" r:id="rId23" xr:uid="{ADFF70FF-B572-4083-B069-A34FABCEEE29}"/>
+    <hyperlink ref="D7" r:id="rId24" xr:uid="{39762B51-FBC9-4C83-B725-24D65F821264}"/>
+    <hyperlink ref="D11" r:id="rId25" xr:uid="{25CD2705-535F-408C-AC8C-9413E356E312}"/>
+    <hyperlink ref="D12" r:id="rId26" xr:uid="{08B72755-1C40-4191-B51C-AA4D4C7889E1}"/>
+    <hyperlink ref="D4" r:id="rId27" xr:uid="{315023A9-6D45-4B3F-8B6F-2206B89FE865}"/>
+    <hyperlink ref="D3" r:id="rId28" xr:uid="{D3F01B42-483E-4457-B15B-7B422F9B1CEF}"/>
+    <hyperlink ref="D5" r:id="rId29" xr:uid="{C397C076-A3D4-4565-B129-28C10B762899}"/>
+    <hyperlink ref="D6" r:id="rId30" xr:uid="{CA8A9952-417C-40E2-A9FC-A0F00A994C30}"/>
+    <hyperlink ref="D2" r:id="rId31" xr:uid="{ECD5DECC-1914-4279-93C7-86443510C010}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
   <tableParts count="1">
-    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA08493-C522-451D-8403-55EF263A9FFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBB2AA3-825C-4178-9A0B-55994706E12C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC public exposure sites" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="228">
   <si>
     <t>Date</t>
   </si>
@@ -711,6 +711,15 @@
   </si>
   <si>
     <t>1G Royal Parade, Parkville VIC 3052</t>
+  </si>
+  <si>
+    <t>Kangaroo Ground Pre-school</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-12-june-2020</t>
+  </si>
+  <si>
+    <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
   </si>
 </sst>
 </file>
@@ -1152,8 +1161,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K94" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K94" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K95" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K95" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="9"/>
@@ -1468,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1526,39 +1535,39 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="F2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="G2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="H2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J2" s="1">
-        <v>-37.798171000000004</v>
+        <v>-37.691401999999997</v>
       </c>
       <c r="K2" s="1">
-        <v>144.95666499999999</v>
+        <v>145.21388899999999</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -1567,10 +1576,10 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1589,124 +1598,124 @@
         <v>44005</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="J3" s="1">
-        <v>-38.012110999999997</v>
+        <v>-37.798171000000004</v>
       </c>
       <c r="K3" s="1">
-        <v>145.09015400000001</v>
+        <v>144.95666499999999</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="F4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="G4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="H4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J4" s="1">
-        <v>-36.732517999999999</v>
+        <v>-38.012110999999997</v>
       </c>
       <c r="K4" s="1">
-        <v>146.96735699999999</v>
+        <v>145.09015400000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="F5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="G5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="H5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J5" s="1">
-        <v>-37.811362000000003</v>
+        <v>-36.732517999999999</v>
       </c>
       <c r="K5" s="1">
-        <v>144.97320300000001</v>
+        <v>146.96735699999999</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
-        <v>43986</v>
+        <v>43988</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43986</v>
+        <v>43988</v>
       </c>
       <c r="F6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43986</v>
+        <v>43988</v>
       </c>
       <c r="G6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44000</v>
+        <v>44002</v>
       </c>
       <c r="H6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44000</v>
+        <v>44002</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J6" s="1">
-        <v>-37.927427000000002</v>
+        <v>-37.811362000000003</v>
       </c>
       <c r="K6" s="1">
-        <v>145.11615699999999</v>
+        <v>144.97320300000001</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
@@ -1715,10 +1724,10 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="E7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1737,50 +1746,50 @@
         <v>44000</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="J7" s="1">
-        <v>-37.571235999999999</v>
+        <v>-37.927427000000002</v>
       </c>
       <c r="K7" s="1">
-        <v>144.90978000000001</v>
+        <v>145.11615699999999</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="E8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="F8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="G8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="H8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="J8" s="1">
-        <v>-37.704174999999999</v>
+        <v>-37.571235999999999</v>
       </c>
       <c r="K8" s="1">
-        <v>144.998741</v>
+        <v>144.90978000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
@@ -1789,7 +1798,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>191</v>
@@ -1811,13 +1820,13 @@
         <v>43998</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J9" s="1">
-        <v>-37.726306000000001</v>
+        <v>-37.704174999999999</v>
       </c>
       <c r="K9" s="1">
-        <v>145.06991400000001</v>
+        <v>144.998741</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
@@ -1826,7 +1835,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>191</v>
@@ -1848,61 +1857,59 @@
         <v>43998</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="J10" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.726306000000001</v>
       </c>
       <c r="K10" s="1">
-        <v>144.96363500000001</v>
+        <v>145.06991400000001</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="F11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="H11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43997</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>108</v>
+        <v>43998</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="J11" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K11" s="1">
-        <v>144.9526066</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>43983</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>208</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>210</v>
@@ -1924,25 +1931,27 @@
         <v>43997</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="J12" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K12" s="1">
-        <v>144.83348079999999</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>43983</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1960,51 +1969,51 @@
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43997</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>172</v>
+      <c r="I13" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J13" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K13" s="1">
-        <v>144.96363500000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="F14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="G14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="H14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="J14" s="1">
-        <v>-37.836081999999998</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K14" s="1">
-        <v>144.91538299999999</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
@@ -2013,10 +2022,10 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2035,41 +2044,41 @@
         <v>43996</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="J15" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.836081999999998</v>
       </c>
       <c r="K15" s="1">
-        <v>144.96363500000001</v>
+        <v>144.91538299999999</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="F16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="G16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="H16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>172</v>
@@ -2083,104 +2092,104 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>202</v>
+        <v>171</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="E17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="F17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="G17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="H17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="J17" s="1">
-        <v>-37.837907999999999</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K17" s="1">
-        <v>144.78621799999999</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>174</v>
+        <v>201</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="E18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="F18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="G18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="H18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="J18" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.837907999999999</v>
       </c>
       <c r="K18" s="1">
-        <v>144.96363500000001</v>
+        <v>144.78621799999999</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="F19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="G19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="H19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>172</v>
@@ -2198,7 +2207,7 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>175</v>
@@ -2220,50 +2229,50 @@
         <v>43992</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J20" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K20" s="1">
-        <v>145.08623499999999</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="F21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="G21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="H21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="J21" s="1">
-        <v>-37.756286000000003</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K21" s="1">
-        <v>144.811104</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
@@ -2272,10 +2281,10 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2294,13 +2303,13 @@
         <v>43991</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="J22" s="1">
-        <v>-37.715384</v>
+        <v>-37.756286000000003</v>
       </c>
       <c r="K22" s="1">
-        <v>144.811994</v>
+        <v>144.811104</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
@@ -2309,10 +2318,10 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2331,50 +2340,50 @@
         <v>43991</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="J23" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.715384</v>
       </c>
       <c r="K23" s="1">
-        <v>145.01711499999999</v>
+        <v>144.811994</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="G24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J24" s="1">
-        <v>-36.314870999999997</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K24" s="1">
-        <v>145.04196999999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
@@ -2383,10 +2392,10 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2405,50 +2414,50 @@
         <v>43985</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J25" s="1">
-        <v>-37.928489999999996</v>
+        <v>-36.314870999999997</v>
       </c>
       <c r="K25" s="1">
-        <v>145.007454</v>
+        <v>145.04196999999999</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="G26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J26" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.928489999999996</v>
       </c>
       <c r="K26" s="1">
-        <v>145.08623499999999</v>
+        <v>145.007454</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
@@ -2457,7 +2466,7 @@
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>183</v>
@@ -2479,50 +2488,50 @@
         <v>43984</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J27" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K27" s="1">
-        <v>145.01711499999999</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J28" s="1">
-        <v>-37.692610000000002</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K28" s="1">
-        <v>145.06382099999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
@@ -2531,7 +2540,7 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>184</v>
@@ -2553,13 +2562,13 @@
         <v>43983</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J29" s="1">
-        <v>-37.689222999999998</v>
+        <v>-37.692610000000002</v>
       </c>
       <c r="K29" s="1">
-        <v>144.60470799999999</v>
+        <v>145.06382099999999</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
@@ -2568,7 +2577,7 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>184</v>
@@ -2590,13 +2599,13 @@
         <v>43983</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J30" s="1">
-        <v>-37.843631999999999</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="K30" s="1">
-        <v>144.78155899999999</v>
+        <v>144.60470799999999</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
@@ -2605,7 +2614,7 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>184</v>
@@ -2627,13 +2636,13 @@
         <v>43983</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J31" s="1">
-        <v>-37.730747999999998</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="K31" s="1">
-        <v>145.086489</v>
+        <v>144.78155899999999</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
@@ -2642,7 +2651,7 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>184</v>
@@ -2664,13 +2673,13 @@
         <v>43983</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J32" s="1">
-        <v>-37.702513000000003</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="K32" s="1">
-        <v>144.80232599999999</v>
+        <v>145.086489</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
@@ -2679,7 +2688,7 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>184</v>
@@ -2701,13 +2710,13 @@
         <v>43983</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J33" s="1">
-        <v>-37.673996000000002</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="K33" s="1">
-        <v>144.955354</v>
+        <v>144.80232599999999</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
@@ -2716,7 +2725,7 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>184</v>
@@ -2738,13 +2747,13 @@
         <v>43983</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J34" s="1">
-        <v>-37.576594</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="K34" s="1">
-        <v>144.72866500000001</v>
+        <v>144.955354</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
@@ -2753,7 +2762,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>184</v>
@@ -2775,13 +2784,13 @@
         <v>43983</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J35" s="1">
-        <v>-37.879995000000001</v>
+        <v>-37.576594</v>
       </c>
       <c r="K35" s="1">
-        <v>144.70157699999999</v>
+        <v>144.72866500000001</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
@@ -2790,7 +2799,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>184</v>
@@ -2812,13 +2821,13 @@
         <v>43983</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J36" s="1">
-        <v>-37.834014000000003</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="K36" s="1">
-        <v>144.65285299999999</v>
+        <v>144.70157699999999</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
@@ -2827,7 +2836,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>184</v>
@@ -2849,13 +2858,13 @@
         <v>43983</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J37" s="1">
-        <v>-37.942098999999999</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="K37" s="1">
-        <v>145.16768400000001</v>
+        <v>144.65285299999999</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
@@ -2864,7 +2873,7 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>184</v>
@@ -2886,13 +2895,13 @@
         <v>43983</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J38" s="1">
-        <v>-37.664667000000001</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="K38" s="1">
-        <v>144.74749</v>
+        <v>145.16768400000001</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
@@ -2901,7 +2910,7 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>184</v>
@@ -2923,13 +2932,13 @@
         <v>43983</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J39" s="1">
-        <v>-37.665416999999998</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="K39" s="1">
-        <v>144.75335899999999</v>
+        <v>144.74749</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
@@ -2938,7 +2947,7 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>184</v>
@@ -2960,50 +2969,50 @@
         <v>43983</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J40" s="1">
-        <v>-37.738990000000001</v>
+        <v>-37.665416999999998</v>
       </c>
       <c r="K40" s="1">
-        <v>144.67997600000001</v>
+        <v>144.75335899999999</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B41" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H41" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>125</v>
+        <v>43983</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="J41" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.738990000000001</v>
       </c>
       <c r="K41" s="1">
-        <v>144.921401</v>
+        <v>144.67997600000001</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
@@ -3012,10 +3021,10 @@
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -3034,50 +3043,50 @@
         <v>43980</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J42" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.596122999999999</v>
       </c>
       <c r="K42" s="1">
-        <v>144.888195</v>
+        <v>144.921401</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B43" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B43" s="5"/>
       <c r="C43" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="G43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J43" s="1">
-        <v>-37.783104999999999</v>
+        <v>-37.772379999999998</v>
       </c>
       <c r="K43" s="1">
-        <v>144.78539799999999</v>
+        <v>144.888195</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
@@ -3086,9 +3095,11 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="E44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43959</v>
@@ -3106,22 +3117,22 @@
         <v>43973</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J44" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="K44" s="1">
-        <v>145.02005199999999</v>
+        <v>144.78539799999999</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
         <v>43959</v>
       </c>
-      <c r="B45" s="5"/>
+      <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="2">
@@ -3141,48 +3152,48 @@
         <v>43973</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J45" s="1">
-        <v>-37.689366</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="K45" s="1">
-        <v>144.958878</v>
+        <v>145.02005199999999</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B46" s="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="G46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J46" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.689366</v>
       </c>
       <c r="K46" s="1">
-        <v>144.43268900000001</v>
+        <v>144.958878</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
@@ -3191,7 +3202,7 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2">
@@ -3211,258 +3222,260 @@
         <v>43967</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J47" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="K47" s="1">
-        <v>144.836118</v>
+        <v>144.43268900000001</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="F48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="G48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="H48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
+        <v>43967</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="J48" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="K48" s="1">
-        <v>144.83348079999999</v>
+        <v>144.836118</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="F49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="G49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="H49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="J49" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K49" s="1">
-        <v>144.889926</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="4">
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="F50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
+        <v>43950</v>
       </c>
       <c r="G50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43964</v>
       </c>
       <c r="H50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
+        <v>43964</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J50" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.811678000000001</v>
       </c>
       <c r="K50" s="1">
-        <v>144.894632</v>
+        <v>144.889926</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
-        <v>43944</v>
+        <v>43947</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43947</v>
+      </c>
+      <c r="F51" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43947</v>
+      </c>
+      <c r="G51" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43961</v>
+      </c>
+      <c r="H51" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43961</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J51" s="1">
+        <v>-37.797176999999998</v>
+      </c>
+      <c r="K51" s="1">
+        <v>144.894632</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52" s="4">
         <v>43944</v>
-      </c>
-      <c r="F51" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
-      </c>
-      <c r="G51" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
-      </c>
-      <c r="H51" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J51" s="1">
-        <v>-37.759222999999999</v>
-      </c>
-      <c r="K51" s="1">
-        <v>144.816754</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A52" s="2">
-        <v>43907</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
+        <v>43944</v>
       </c>
       <c r="F52" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
+        <v>43944</v>
       </c>
       <c r="G52" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43958</v>
       </c>
       <c r="H52" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
+        <v>43958</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J52" s="1">
-        <v>-37.844318000000001</v>
+        <v>-37.759222999999999</v>
       </c>
       <c r="K52" s="1">
-        <v>145.009818</v>
+        <v>144.816754</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
-        <v>43905</v>
+        <v>43907</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="F53" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="G53" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43921</v>
+      </c>
+      <c r="H53" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J53" s="1">
+        <v>-37.844318000000001</v>
+      </c>
+      <c r="K53" s="1">
+        <v>145.009818</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E54" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43905</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F54" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43905</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G54" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43919</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H54" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43919</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J54" s="1">
         <v>-37.813239000000003</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K54" s="1">
         <v>145.048047</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2">
-        <v>43900</v>
-      </c>
-      <c r="F54" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="2">
-        <v>43914</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J54" s="1">
-        <v>-37.776940699999997</v>
-      </c>
-      <c r="K54" s="1">
-        <v>144.98702499999999</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
@@ -3470,10 +3483,10 @@
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2">
@@ -3489,13 +3502,13 @@
         <v>43914</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J55" s="1">
-        <v>-37.772095999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="K55" s="1">
-        <v>144.91609500000001</v>
+        <v>144.98702499999999</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
@@ -3503,10 +3516,10 @@
         <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2">
@@ -3522,37 +3535,37 @@
         <v>43914</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J56" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="K56" s="1">
-        <v>144.83348079999999</v>
+        <v>144.91609500000001</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F57" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H57" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>97</v>
@@ -3569,10 +3582,10 @@
         <v>17</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2">
@@ -3599,26 +3612,26 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="F59" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H59" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>97</v>
@@ -3632,7 +3645,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>24</v>
@@ -3642,16 +3655,16 @@
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F60" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H60" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>97</v>
@@ -3665,26 +3678,26 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F61" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H61" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>97</v>
@@ -3701,10 +3714,10 @@
         <v>29</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2">
@@ -3731,35 +3744,35 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F63" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H63" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J63" s="1">
-        <v>-37.821452700000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K63" s="1">
-        <v>144.98347200000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
@@ -3767,10 +3780,10 @@
         <v>23</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2">
@@ -3786,13 +3799,13 @@
         <v>43912</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J64" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.821452700000002</v>
       </c>
       <c r="K64" s="1">
-        <v>145.0729384</v>
+        <v>144.98347200000001</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
@@ -3800,10 +3813,10 @@
         <v>23</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="2">
@@ -3819,46 +3832,46 @@
         <v>43912</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J65" s="1">
-        <v>-37.790782999999998</v>
+        <v>-37.800963000000003</v>
       </c>
       <c r="K65" s="1">
-        <v>144.99816200000001</v>
+        <v>145.0729384</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F66" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H66" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J66" s="1">
-        <v>-37.824981299999997</v>
+        <v>-37.790782999999998</v>
       </c>
       <c r="K66" s="1">
-        <v>144.98361299999999</v>
+        <v>144.99816200000001</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
@@ -3866,10 +3879,10 @@
         <v>27</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2">
@@ -3885,13 +3898,13 @@
         <v>43911</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J67" s="1">
-        <v>-37.841103699999998</v>
+        <v>-37.824981299999997</v>
       </c>
       <c r="K67" s="1">
-        <v>144.955806</v>
+        <v>144.98361299999999</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
@@ -3899,10 +3912,10 @@
         <v>27</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="2">
@@ -3918,37 +3931,37 @@
         <v>43911</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J68" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.841103699999998</v>
       </c>
       <c r="K68" s="1">
-        <v>144.9564881</v>
+        <v>144.955806</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F69" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H69" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>103</v>
@@ -3962,59 +3975,59 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F70" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H70" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J70" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K70" s="1">
-        <v>144.31841800000001</v>
+        <v>144.9564881</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F71" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H71" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>104</v>
@@ -4028,68 +4041,68 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F72" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H72" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J72" s="1">
-        <v>-37.863344400000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K72" s="1">
-        <v>145.08682759999999</v>
+        <v>144.31841800000001</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F73" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H73" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J73" s="1">
-        <v>-37.809265000000003</v>
+        <v>-37.863344400000003</v>
       </c>
       <c r="K73" s="1">
-        <v>144.99495099999999</v>
+        <v>145.08682759999999</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
@@ -4097,10 +4110,10 @@
         <v>29</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="2">
@@ -4116,46 +4129,46 @@
         <v>43910</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J74" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.809265000000003</v>
       </c>
       <c r="K74" s="1">
-        <v>144.83348079999999</v>
+        <v>144.99495099999999</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F75" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H75" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J75" s="1">
-        <v>-37.797809200000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K75" s="1">
-        <v>144.96801239999999</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.45">
@@ -4163,10 +4176,10 @@
         <v>57</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="2">
@@ -4182,13 +4195,13 @@
         <v>43909</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J76" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.797809200000003</v>
       </c>
       <c r="K76" s="1">
-        <v>144.9526066</v>
+        <v>144.96801239999999</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.45">
@@ -4215,57 +4228,57 @@
         <v>43909</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J77" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K77" s="1">
-        <v>144.35683760000001</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F78" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H78" s="2">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J78" s="1">
-        <v>-37.028215000000003</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K78" s="1">
-        <v>145.14336</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="2">
@@ -4275,19 +4288,19 @@
         <v>43893</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H79" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J79" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.028215000000003</v>
       </c>
       <c r="K79" s="1">
-        <v>145.04823200000001</v>
+        <v>145.14336</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.45">
@@ -4302,7 +4315,7 @@
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="F80" s="2">
         <v>43893</v>
@@ -4335,7 +4348,7 @@
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="F81" s="2">
         <v>43893</v>
@@ -4358,35 +4371,35 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="F82" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H82" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="J82" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K82" s="1">
-        <v>144.83348079999999</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.45">
@@ -4394,10 +4407,10 @@
         <v>71</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="2">
@@ -4413,13 +4426,13 @@
         <v>43906</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J83" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K83" s="1">
-        <v>144.35683760000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.45">
@@ -4446,13 +4459,13 @@
         <v>43906</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J84" s="1">
-        <v>-37.816394899999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K84" s="1">
-        <v>144.9526066</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.45">
@@ -4460,10 +4473,10 @@
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="2">
@@ -4512,24 +4525,24 @@
         <v>43906</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J86" s="1">
-        <v>-37.826660799999999</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K86" s="1">
-        <v>145.0587903</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="2">
@@ -4539,19 +4552,19 @@
         <v>43892</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H87" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J87" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.826660799999999</v>
       </c>
       <c r="K87" s="1">
-        <v>145.00550799999999</v>
+        <v>145.0587903</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
@@ -4566,7 +4579,7 @@
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="F88" s="2">
         <v>43892</v>
@@ -4599,7 +4612,7 @@
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="F89" s="2">
         <v>43892</v>
@@ -4632,7 +4645,7 @@
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="F90" s="2">
         <v>43892</v>
@@ -4665,7 +4678,7 @@
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="2">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="F91" s="2">
         <v>43892</v>
@@ -4688,35 +4701,35 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="2">
-        <v>43890</v>
+        <v>43896</v>
       </c>
       <c r="F92" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H92" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J92" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K92" s="1">
-        <v>144.83348079999999</v>
+        <v>145.00550799999999</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
@@ -4724,10 +4737,10 @@
         <v>82</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="2">
@@ -4754,26 +4767,26 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="F94" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H94" s="2">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>97</v>
@@ -4782,48 +4795,82 @@
         <v>-37.667110999999998</v>
       </c>
       <c r="K94" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="2">
+        <v>43889</v>
+      </c>
+      <c r="F95" s="2">
+        <v>43889</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H95" s="2">
+        <v>43903</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J95" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K95" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D18" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
-    <hyperlink ref="D19" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
-    <hyperlink ref="D20" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
-    <hyperlink ref="D23" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
-    <hyperlink ref="D22" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
-    <hyperlink ref="D53" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
-    <hyperlink ref="D24" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
-    <hyperlink ref="D25" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
-    <hyperlink ref="D26" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
-    <hyperlink ref="D27" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
-    <hyperlink ref="D28" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
-    <hyperlink ref="D29:D40" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
-    <hyperlink ref="D41" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
-    <hyperlink ref="D43" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
-    <hyperlink ref="D42" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
-    <hyperlink ref="D21" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
-    <hyperlink ref="D16" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
-    <hyperlink ref="D15" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
-    <hyperlink ref="D10" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
-    <hyperlink ref="D13" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
-    <hyperlink ref="D8:D9" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
-    <hyperlink ref="D14" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
-    <hyperlink ref="D17" r:id="rId23" xr:uid="{ADFF70FF-B572-4083-B069-A34FABCEEE29}"/>
-    <hyperlink ref="D7" r:id="rId24" xr:uid="{39762B51-FBC9-4C83-B725-24D65F821264}"/>
-    <hyperlink ref="D11" r:id="rId25" xr:uid="{25CD2705-535F-408C-AC8C-9413E356E312}"/>
-    <hyperlink ref="D12" r:id="rId26" xr:uid="{08B72755-1C40-4191-B51C-AA4D4C7889E1}"/>
-    <hyperlink ref="D4" r:id="rId27" xr:uid="{315023A9-6D45-4B3F-8B6F-2206B89FE865}"/>
-    <hyperlink ref="D3" r:id="rId28" xr:uid="{D3F01B42-483E-4457-B15B-7B422F9B1CEF}"/>
-    <hyperlink ref="D5" r:id="rId29" xr:uid="{C397C076-A3D4-4565-B129-28C10B762899}"/>
-    <hyperlink ref="D6" r:id="rId30" xr:uid="{CA8A9952-417C-40E2-A9FC-A0F00A994C30}"/>
-    <hyperlink ref="D2" r:id="rId31" xr:uid="{ECD5DECC-1914-4279-93C7-86443510C010}"/>
+    <hyperlink ref="D19" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
+    <hyperlink ref="D20" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
+    <hyperlink ref="D21" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
+    <hyperlink ref="D24" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
+    <hyperlink ref="D23" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
+    <hyperlink ref="D54" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
+    <hyperlink ref="D25" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
+    <hyperlink ref="D26" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
+    <hyperlink ref="D27" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
+    <hyperlink ref="D28" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
+    <hyperlink ref="D29" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
+    <hyperlink ref="D30:D41" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
+    <hyperlink ref="D42" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
+    <hyperlink ref="D44" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
+    <hyperlink ref="D43" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
+    <hyperlink ref="D22" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
+    <hyperlink ref="D17" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
+    <hyperlink ref="D16" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
+    <hyperlink ref="D11" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
+    <hyperlink ref="D14" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
+    <hyperlink ref="D9:D10" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
+    <hyperlink ref="D15" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
+    <hyperlink ref="D18" r:id="rId23" xr:uid="{ADFF70FF-B572-4083-B069-A34FABCEEE29}"/>
+    <hyperlink ref="D8" r:id="rId24" xr:uid="{39762B51-FBC9-4C83-B725-24D65F821264}"/>
+    <hyperlink ref="D12" r:id="rId25" xr:uid="{25CD2705-535F-408C-AC8C-9413E356E312}"/>
+    <hyperlink ref="D13" r:id="rId26" xr:uid="{08B72755-1C40-4191-B51C-AA4D4C7889E1}"/>
+    <hyperlink ref="D5" r:id="rId27" xr:uid="{315023A9-6D45-4B3F-8B6F-2206B89FE865}"/>
+    <hyperlink ref="D4" r:id="rId28" xr:uid="{D3F01B42-483E-4457-B15B-7B422F9B1CEF}"/>
+    <hyperlink ref="D6" r:id="rId29" xr:uid="{C397C076-A3D4-4565-B129-28C10B762899}"/>
+    <hyperlink ref="D7" r:id="rId30" xr:uid="{CA8A9952-417C-40E2-A9FC-A0F00A994C30}"/>
+    <hyperlink ref="D3" r:id="rId31" xr:uid="{ECD5DECC-1914-4279-93C7-86443510C010}"/>
+    <hyperlink ref="D2" r:id="rId32" xr:uid="{C56D2F01-A35A-4F57-9367-8C60BC067338}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId34"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBB2AA3-825C-4178-9A0B-55994706E12C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50CB473-4DD1-4001-8FFB-1AB6B26B0B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC public exposure sites" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="235">
   <si>
     <t>Date</t>
   </si>
@@ -720,6 +720,27 @@
   </si>
   <si>
     <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+  </si>
+  <si>
+    <t>Cedars Medical Clinic, Coburg</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-13-june-2020</t>
+  </si>
+  <si>
+    <t>248 Bell St, Coburg VIC 3058</t>
+  </si>
+  <si>
+    <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+  </si>
+  <si>
+    <t>Lilydale Medical Clinic</t>
+  </si>
+  <si>
+    <t>Croydon Family Practice</t>
+  </si>
+  <si>
+    <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
   </si>
 </sst>
 </file>
@@ -1161,8 +1182,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K95" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K95" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K98" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K98" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="9"/>
@@ -1477,11 +1498,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1572,39 +1591,39 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="F3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="G3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="H3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="J3" s="1">
-        <v>-37.798171000000004</v>
+        <v>-37.760449000000001</v>
       </c>
       <c r="K3" s="1">
-        <v>144.95666499999999</v>
+        <v>145.348691</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -1613,10 +1632,10 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1635,376 +1654,374 @@
         <v>44005</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="J4" s="1">
-        <v>-38.012110999999997</v>
+        <v>-37.740107000000002</v>
       </c>
       <c r="K4" s="1">
-        <v>145.09015400000001</v>
+        <v>144.95604700000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="F5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="G5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="H5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="J5" s="1">
-        <v>-36.732517999999999</v>
+        <v>-37.772858999999997</v>
       </c>
       <c r="K5" s="1">
-        <v>146.96735699999999</v>
+        <v>145.294713</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
-        <v>43988</v>
+        <v>43991</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43988</v>
+        <v>43991</v>
       </c>
       <c r="F6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43988</v>
+        <v>43991</v>
       </c>
       <c r="G6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44002</v>
+        <v>44005</v>
       </c>
       <c r="H6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44002</v>
+        <v>44005</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J6" s="1">
-        <v>-37.811362000000003</v>
+        <v>-37.798171000000004</v>
       </c>
       <c r="K6" s="1">
-        <v>144.97320300000001</v>
+        <v>144.95666499999999</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
-        <v>43986</v>
+        <v>43991</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43986</v>
+        <v>43991</v>
       </c>
       <c r="F7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43986</v>
+        <v>43991</v>
       </c>
       <c r="G7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44000</v>
+        <v>44005</v>
       </c>
       <c r="H7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44000</v>
+        <v>44005</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J7" s="1">
-        <v>-37.927427000000002</v>
+        <v>-38.012110999999997</v>
       </c>
       <c r="K7" s="1">
-        <v>145.11615699999999</v>
+        <v>145.09015400000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
-        <v>43986</v>
+        <v>43989</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43986</v>
+        <v>43989</v>
       </c>
       <c r="F8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43986</v>
+        <v>43989</v>
       </c>
       <c r="G8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44000</v>
+        <v>44003</v>
       </c>
       <c r="H8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44000</v>
+        <v>44003</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="J8" s="1">
-        <v>-37.571235999999999</v>
+        <v>-36.732517999999999</v>
       </c>
       <c r="K8" s="1">
-        <v>144.90978000000001</v>
+        <v>146.96735699999999</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
-        <v>43984</v>
+        <v>43988</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="E9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43984</v>
+        <v>43988</v>
       </c>
       <c r="F9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43984</v>
+        <v>43988</v>
       </c>
       <c r="G9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43998</v>
+        <v>44002</v>
       </c>
       <c r="H9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43998</v>
+        <v>44002</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="J9" s="1">
-        <v>-37.704174999999999</v>
+        <v>-37.811362000000003</v>
       </c>
       <c r="K9" s="1">
-        <v>144.998741</v>
+        <v>144.97320300000001</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="E10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="F10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="G10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="H10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="J10" s="1">
-        <v>-37.726306000000001</v>
+        <v>-37.927427000000002</v>
       </c>
       <c r="K10" s="1">
-        <v>145.06991400000001</v>
+        <v>145.11615699999999</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="E11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="F11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="G11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="H11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="J11" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.571235999999999</v>
       </c>
       <c r="K11" s="1">
-        <v>144.96363500000001</v>
+        <v>144.90978000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="F12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="H12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43997</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>108</v>
+        <v>43998</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="J12" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.704174999999999</v>
       </c>
       <c r="K12" s="1">
-        <v>144.9526066</v>
+        <v>144.998741</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
-        <v>43983</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>43984</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="F13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="H13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43997</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>211</v>
+        <v>43998</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="J13" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.726306000000001</v>
       </c>
       <c r="K13" s="1">
-        <v>144.83348079999999</v>
+        <v>145.06991400000001</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="F14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="H14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>172</v>
@@ -2018,104 +2035,106 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="F15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="G15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="H15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43996</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>200</v>
+        <v>43997</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="J15" s="1">
-        <v>-37.836081999999998</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K15" s="1">
-        <v>144.91538299999999</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
-        <v>43982</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>43983</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="F16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="G16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="H16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43996</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>172</v>
+        <v>43997</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J16" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K16" s="1">
-        <v>144.96363500000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="F17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="G17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="H17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>172</v>
@@ -2129,67 +2148,67 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="E18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="F18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="G18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43994</v>
+        <v>43996</v>
       </c>
       <c r="H18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43994</v>
+        <v>43996</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J18" s="1">
-        <v>-37.837907999999999</v>
+        <v>-37.836081999999998</v>
       </c>
       <c r="K18" s="1">
-        <v>144.78621799999999</v>
+        <v>144.91538299999999</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
-        <v>43979</v>
+        <v>43982</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="E19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43979</v>
+        <v>43982</v>
       </c>
       <c r="F19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43979</v>
+        <v>43982</v>
       </c>
       <c r="G19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43993</v>
+        <v>43996</v>
       </c>
       <c r="H19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43993</v>
+        <v>43996</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>172</v>
@@ -2203,30 +2222,30 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
-        <v>43978</v>
+        <v>43981</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="E20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43981</v>
       </c>
       <c r="F20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43981</v>
       </c>
       <c r="G20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43995</v>
       </c>
       <c r="H20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43995</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>172</v>
@@ -2240,409 +2259,409 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>175</v>
+        <v>201</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="E21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="F21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="G21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="H21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="J21" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.837907999999999</v>
       </c>
       <c r="K21" s="1">
-        <v>145.08623499999999</v>
+        <v>144.78621799999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="F22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="G22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="H22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="J22" s="1">
-        <v>-37.756286000000003</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K22" s="1">
-        <v>144.811104</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="F23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="G23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="H23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J23" s="1">
-        <v>-37.715384</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K23" s="1">
-        <v>144.811994</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="F24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="G24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="H24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J24" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K24" s="1">
-        <v>145.01711499999999</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="G25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="J25" s="1">
-        <v>-36.314870999999997</v>
+        <v>-37.756286000000003</v>
       </c>
       <c r="K25" s="1">
-        <v>145.04196999999999</v>
+        <v>144.811104</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="G26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="J26" s="1">
-        <v>-37.928489999999996</v>
+        <v>-37.715384</v>
       </c>
       <c r="K26" s="1">
-        <v>145.007454</v>
+        <v>144.811994</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="F27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="G27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43991</v>
       </c>
       <c r="H27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43991</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J27" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K27" s="1">
-        <v>145.08623499999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="G28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J28" s="1">
-        <v>-37.884267000000001</v>
+        <v>-36.314870999999997</v>
       </c>
       <c r="K28" s="1">
-        <v>145.01711499999999</v>
+        <v>145.04196999999999</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="F29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="G29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="H29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J29" s="1">
-        <v>-37.692610000000002</v>
+        <v>-37.928489999999996</v>
       </c>
       <c r="K29" s="1">
-        <v>145.06382099999999</v>
+        <v>145.007454</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="J30" s="1">
-        <v>-37.689222999999998</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K30" s="1">
-        <v>144.60470799999999</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="J31" s="1">
-        <v>-37.843631999999999</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K31" s="1">
-        <v>144.78155899999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
@@ -2651,7 +2670,7 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>184</v>
@@ -2673,13 +2692,13 @@
         <v>43983</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="J32" s="1">
-        <v>-37.730747999999998</v>
+        <v>-37.692610000000002</v>
       </c>
       <c r="K32" s="1">
-        <v>145.086489</v>
+        <v>145.06382099999999</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
@@ -2688,7 +2707,7 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>184</v>
@@ -2710,13 +2729,13 @@
         <v>43983</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J33" s="1">
-        <v>-37.702513000000003</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="K33" s="1">
-        <v>144.80232599999999</v>
+        <v>144.60470799999999</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
@@ -2725,7 +2744,7 @@
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>184</v>
@@ -2747,13 +2766,13 @@
         <v>43983</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J34" s="1">
-        <v>-37.673996000000002</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="K34" s="1">
-        <v>144.955354</v>
+        <v>144.78155899999999</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
@@ -2762,7 +2781,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>184</v>
@@ -2784,13 +2803,13 @@
         <v>43983</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J35" s="1">
-        <v>-37.576594</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="K35" s="1">
-        <v>144.72866500000001</v>
+        <v>145.086489</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
@@ -2799,7 +2818,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>184</v>
@@ -2821,13 +2840,13 @@
         <v>43983</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J36" s="1">
-        <v>-37.879995000000001</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="K36" s="1">
-        <v>144.70157699999999</v>
+        <v>144.80232599999999</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
@@ -2836,7 +2855,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>184</v>
@@ -2858,13 +2877,13 @@
         <v>43983</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J37" s="1">
-        <v>-37.834014000000003</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="K37" s="1">
-        <v>144.65285299999999</v>
+        <v>144.955354</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
@@ -2873,7 +2892,7 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>184</v>
@@ -2895,13 +2914,13 @@
         <v>43983</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J38" s="1">
-        <v>-37.942098999999999</v>
+        <v>-37.576594</v>
       </c>
       <c r="K38" s="1">
-        <v>145.16768400000001</v>
+        <v>144.72866500000001</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
@@ -2910,7 +2929,7 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>184</v>
@@ -2932,13 +2951,13 @@
         <v>43983</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J39" s="1">
-        <v>-37.664667000000001</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="K39" s="1">
-        <v>144.74749</v>
+        <v>144.70157699999999</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
@@ -2947,7 +2966,7 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>184</v>
@@ -2969,13 +2988,13 @@
         <v>43983</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J40" s="1">
-        <v>-37.665416999999998</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="K40" s="1">
-        <v>144.75335899999999</v>
+        <v>144.65285299999999</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
@@ -2984,7 +3003,7 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>184</v>
@@ -3006,665 +3025,677 @@
         <v>43983</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J41" s="1">
-        <v>-37.738990000000001</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="K41" s="1">
-        <v>144.67997600000001</v>
+        <v>145.16768400000001</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B42" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H42" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>125</v>
+        <v>43983</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="J42" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="K42" s="1">
-        <v>144.921401</v>
+        <v>144.74749</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B43" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H43" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>126</v>
+        <v>43983</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="J43" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.665416999999998</v>
       </c>
       <c r="K43" s="1">
-        <v>144.888195</v>
+        <v>144.75335899999999</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="F44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="G44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43983</v>
       </c>
       <c r="H44" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>124</v>
+        <v>43983</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="J44" s="1">
-        <v>-37.783104999999999</v>
+        <v>-37.738990000000001</v>
       </c>
       <c r="K44" s="1">
-        <v>144.78539799999999</v>
+        <v>144.67997600000001</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B45" s="5"/>
       <c r="C45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="E45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="G45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J45" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.596122999999999</v>
       </c>
       <c r="K45" s="1">
-        <v>145.02005199999999</v>
+        <v>144.921401</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="E46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="G46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J46" s="1">
-        <v>-37.689366</v>
+        <v>-37.772379999999998</v>
       </c>
       <c r="K46" s="1">
-        <v>144.958878</v>
+        <v>144.888195</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="E47" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F47" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="G47" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H47" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J47" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="K47" s="1">
-        <v>144.43268900000001</v>
+        <v>144.78539799999999</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="G48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J48" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="K48" s="1">
-        <v>144.836118</v>
+        <v>145.02005199999999</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
-        <v>43951</v>
-      </c>
-      <c r="B49" s="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43959</v>
       </c>
       <c r="F49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
+        <v>43959</v>
       </c>
       <c r="G49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43973</v>
       </c>
       <c r="H49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
+        <v>43973</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="J49" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.689366</v>
       </c>
       <c r="K49" s="1">
-        <v>144.83348079999999</v>
+        <v>144.958878</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="4">
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="F50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="G50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43967</v>
       </c>
       <c r="H50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
+        <v>43967</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J50" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="K50" s="1">
-        <v>144.889926</v>
+        <v>144.43268900000001</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
-        <v>43947</v>
+        <v>43953</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43953</v>
       </c>
       <c r="F51" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
+        <v>43953</v>
       </c>
       <c r="G51" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43967</v>
       </c>
       <c r="H51" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
+        <v>43967</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J51" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="K51" s="1">
-        <v>144.894632</v>
+        <v>144.836118</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="4">
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="F52" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="G52" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
+        <v>43965</v>
       </c>
       <c r="H52" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
+        <v>43965</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="J52" s="1">
-        <v>-37.759222999999999</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K52" s="1">
-        <v>144.816754</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A53" s="2">
-        <v>43907</v>
+      <c r="A53" s="4">
+        <v>43950</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
+        <v>43950</v>
       </c>
       <c r="F53" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
+        <v>43950</v>
       </c>
       <c r="G53" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43964</v>
       </c>
       <c r="H53" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
+        <v>43964</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J53" s="1">
-        <v>-37.844318000000001</v>
+        <v>-37.811678000000001</v>
       </c>
       <c r="K53" s="1">
-        <v>145.009818</v>
+        <v>144.889926</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A54" s="2">
-        <v>43905</v>
+      <c r="A54" s="4">
+        <v>43947</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>180</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D54" s="1"/>
       <c r="E54" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43905</v>
+        <v>43947</v>
       </c>
       <c r="F54" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43905</v>
+        <v>43947</v>
       </c>
       <c r="G54" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43919</v>
+        <v>43961</v>
       </c>
       <c r="H54" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43919</v>
+        <v>43961</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J54" s="1">
-        <v>-37.813239000000003</v>
+        <v>-37.797176999999998</v>
       </c>
       <c r="K54" s="1">
-        <v>145.048047</v>
+        <v>144.894632</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A55" s="4">
+        <v>43944</v>
+      </c>
+      <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43944</v>
       </c>
       <c r="F55" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>12</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43944</v>
+      </c>
+      <c r="G55" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43958</v>
       </c>
       <c r="H55" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43958</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="J55" s="1">
-        <v>-37.776940699999997</v>
+        <v>-37.759222999999999</v>
       </c>
       <c r="K55" s="1">
-        <v>144.98702499999999</v>
+        <v>144.816754</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A56" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43907</v>
       </c>
       <c r="F56" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>12</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="G56" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43921</v>
       </c>
       <c r="H56" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="J56" s="1">
-        <v>-37.772095999999998</v>
+        <v>-37.844318000000001</v>
       </c>
       <c r="K56" s="1">
-        <v>144.91609500000001</v>
+        <v>145.009818</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A57" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="E57" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43905</v>
       </c>
       <c r="F57" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>12</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="G57" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43919</v>
       </c>
       <c r="H57" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43919</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="J57" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.813239000000003</v>
       </c>
       <c r="K57" s="1">
-        <v>144.83348079999999</v>
+        <v>145.048047</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F58" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H58" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J58" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="K58" s="1">
-        <v>144.83348079999999</v>
+        <v>144.98702499999999</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F59" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H59" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J59" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="K59" s="1">
-        <v>144.83348079999999</v>
+        <v>144.91609500000001</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="2">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="F60" s="2">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H60" s="2">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>97</v>
@@ -3678,26 +3709,26 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="F61" s="2">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H61" s="2">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>97</v>
@@ -3711,26 +3742,26 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2">
-        <v>43896</v>
+        <v>43899</v>
       </c>
       <c r="F62" s="2">
-        <v>43896</v>
+        <v>43899</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H62" s="2">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>97</v>
@@ -3744,26 +3775,26 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="F63" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H63" s="2">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>97</v>
@@ -3777,233 +3808,233 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="F64" s="2">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H64" s="2">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J64" s="1">
-        <v>-37.821452700000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K64" s="1">
-        <v>144.98347200000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F65" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H65" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J65" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K65" s="1">
-        <v>145.0729384</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F66" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H66" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J66" s="1">
-        <v>-37.790782999999998</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K66" s="1">
-        <v>144.99816200000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F67" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H67" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J67" s="1">
-        <v>-37.824981299999997</v>
+        <v>-37.821452700000002</v>
       </c>
       <c r="K67" s="1">
-        <v>144.98361299999999</v>
+        <v>144.98347200000001</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F68" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H68" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J68" s="1">
-        <v>-37.841103699999998</v>
+        <v>-37.800963000000003</v>
       </c>
       <c r="K68" s="1">
-        <v>144.955806</v>
+        <v>145.0729384</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F69" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H69" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J69" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.790782999999998</v>
       </c>
       <c r="K69" s="1">
-        <v>144.9564881</v>
+        <v>144.99816200000001</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F70" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H70" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J70" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.824981299999997</v>
       </c>
       <c r="K70" s="1">
-        <v>144.9564881</v>
+        <v>144.98361299999999</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
@@ -4011,10 +4042,10 @@
         <v>27</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2">
@@ -4030,112 +4061,112 @@
         <v>43911</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J71" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.841103699999998</v>
       </c>
       <c r="K71" s="1">
-        <v>144.31841800000001</v>
+        <v>144.955806</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F72" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H72" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J72" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K72" s="1">
-        <v>144.31841800000001</v>
+        <v>144.9564881</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F73" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H73" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J73" s="1">
-        <v>-37.863344400000003</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K73" s="1">
-        <v>145.08682759999999</v>
+        <v>144.9564881</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F74" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H74" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J74" s="1">
-        <v>-37.809265000000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K74" s="1">
-        <v>144.99495099999999</v>
+        <v>144.31841800000001</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
@@ -4143,10 +4174,10 @@
         <v>29</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="2">
@@ -4162,343 +4193,343 @@
         <v>43910</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J75" s="1">
-        <v>-37.667110999999998</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K75" s="1">
-        <v>144.83348079999999</v>
+        <v>144.31841800000001</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="2">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="F76" s="2">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="H76" s="2">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J76" s="1">
-        <v>-37.797809200000003</v>
+        <v>-37.863344400000003</v>
       </c>
       <c r="K76" s="1">
-        <v>144.96801239999999</v>
+        <v>145.08682759999999</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F77" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H77" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J77" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.809265000000003</v>
       </c>
       <c r="K77" s="1">
-        <v>144.9526066</v>
+        <v>144.99495099999999</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F78" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H78" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J78" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K78" s="1">
-        <v>144.35683760000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F79" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H79" s="2">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J79" s="1">
-        <v>-37.028215000000003</v>
+        <v>-37.797809200000003</v>
       </c>
       <c r="K79" s="1">
-        <v>145.14336</v>
+        <v>144.96801239999999</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F80" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H80" s="2">
         <v>43909</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J80" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K80" s="1">
-        <v>145.04823200000001</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="2">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="F81" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H81" s="2">
         <v>43909</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J81" s="1">
-        <v>-37.720556999999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K81" s="1">
-        <v>145.04823200000001</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="F82" s="2">
         <v>43893</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H82" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J82" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.028215000000003</v>
       </c>
       <c r="K82" s="1">
-        <v>145.04823200000001</v>
+        <v>145.14336</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="F83" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H83" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="J83" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K83" s="1">
-        <v>144.83348079999999</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="2">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="F84" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H84" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J84" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K84" s="1">
-        <v>144.35683760000001</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="F85" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H85" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J85" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K85" s="1">
-        <v>144.9526066</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.45">
@@ -4506,10 +4537,10 @@
         <v>71</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="2">
@@ -4525,13 +4556,13 @@
         <v>43906</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J86" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K86" s="1">
-        <v>144.9526066</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
@@ -4539,10 +4570,10 @@
         <v>71</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="2">
@@ -4558,24 +4589,24 @@
         <v>43906</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J87" s="1">
-        <v>-37.826660799999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K87" s="1">
-        <v>145.0587903</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="2">
@@ -4585,85 +4616,85 @@
         <v>43892</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H88" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J88" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K88" s="1">
-        <v>145.00550799999999</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="F89" s="2">
         <v>43892</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H89" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J89" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K89" s="1">
-        <v>145.00550799999999</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="2">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="F90" s="2">
         <v>43892</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H90" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J90" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.826660799999999</v>
       </c>
       <c r="K90" s="1">
-        <v>145.00550799999999</v>
+        <v>145.0587903</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
@@ -4678,7 +4709,7 @@
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="2">
-        <v>43895</v>
+        <v>43892</v>
       </c>
       <c r="F91" s="2">
         <v>43892</v>
@@ -4711,7 +4742,7 @@
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="2">
-        <v>43896</v>
+        <v>43893</v>
       </c>
       <c r="F92" s="2">
         <v>43892</v>
@@ -4734,143 +4765,244 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="2">
-        <v>43890</v>
+        <v>43894</v>
       </c>
       <c r="F93" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H93" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J93" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K93" s="1">
-        <v>144.83348079999999</v>
+        <v>145.00550799999999</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="2">
-        <v>43890</v>
+        <v>43895</v>
       </c>
       <c r="F94" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H94" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J94" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K94" s="1">
-        <v>144.83348079999999</v>
+        <v>145.00550799999999</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F95" s="2">
+        <v>43892</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H95" s="2">
+        <v>43910</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J95" s="1">
+        <v>-37.848232000000003</v>
+      </c>
+      <c r="K95" s="1">
+        <v>145.00550799999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A96" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F96" s="2">
+        <v>43890</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H96" s="2">
+        <v>43904</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J96" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K96" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F97" s="2">
+        <v>43890</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H97" s="2">
+        <v>43904</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J97" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K97" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A98" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="2">
         <v>43889</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F98" s="2">
         <v>43889</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H98" s="2">
         <v>43903</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="I98" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J95" s="1">
+      <c r="J98" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="K95" s="1">
+      <c r="K98" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
-    <hyperlink ref="D20" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
-    <hyperlink ref="D21" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
-    <hyperlink ref="D24" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
-    <hyperlink ref="D23" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
-    <hyperlink ref="D54" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
-    <hyperlink ref="D25" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
-    <hyperlink ref="D26" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
-    <hyperlink ref="D27" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
-    <hyperlink ref="D28" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
-    <hyperlink ref="D29" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
-    <hyperlink ref="D30:D41" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
-    <hyperlink ref="D42" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
-    <hyperlink ref="D44" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
-    <hyperlink ref="D43" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
-    <hyperlink ref="D22" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
-    <hyperlink ref="D17" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
-    <hyperlink ref="D16" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
-    <hyperlink ref="D11" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
-    <hyperlink ref="D14" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
-    <hyperlink ref="D9:D10" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
-    <hyperlink ref="D15" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
-    <hyperlink ref="D18" r:id="rId23" xr:uid="{ADFF70FF-B572-4083-B069-A34FABCEEE29}"/>
-    <hyperlink ref="D8" r:id="rId24" xr:uid="{39762B51-FBC9-4C83-B725-24D65F821264}"/>
-    <hyperlink ref="D12" r:id="rId25" xr:uid="{25CD2705-535F-408C-AC8C-9413E356E312}"/>
-    <hyperlink ref="D13" r:id="rId26" xr:uid="{08B72755-1C40-4191-B51C-AA4D4C7889E1}"/>
-    <hyperlink ref="D5" r:id="rId27" xr:uid="{315023A9-6D45-4B3F-8B6F-2206B89FE865}"/>
-    <hyperlink ref="D4" r:id="rId28" xr:uid="{D3F01B42-483E-4457-B15B-7B422F9B1CEF}"/>
-    <hyperlink ref="D6" r:id="rId29" xr:uid="{C397C076-A3D4-4565-B129-28C10B762899}"/>
-    <hyperlink ref="D7" r:id="rId30" xr:uid="{CA8A9952-417C-40E2-A9FC-A0F00A994C30}"/>
-    <hyperlink ref="D3" r:id="rId31" xr:uid="{ECD5DECC-1914-4279-93C7-86443510C010}"/>
+    <hyperlink ref="D22" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
+    <hyperlink ref="D23" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
+    <hyperlink ref="D24" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
+    <hyperlink ref="D27" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
+    <hyperlink ref="D26" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
+    <hyperlink ref="D57" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
+    <hyperlink ref="D28" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
+    <hyperlink ref="D29" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
+    <hyperlink ref="D30" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
+    <hyperlink ref="D31" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
+    <hyperlink ref="D32" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
+    <hyperlink ref="D33:D44" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
+    <hyperlink ref="D45" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
+    <hyperlink ref="D47" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
+    <hyperlink ref="D46" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
+    <hyperlink ref="D25" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
+    <hyperlink ref="D20" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
+    <hyperlink ref="D14" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
+    <hyperlink ref="D17" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
+    <hyperlink ref="D12:D13" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
+    <hyperlink ref="D18" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
+    <hyperlink ref="D21" r:id="rId23" xr:uid="{ADFF70FF-B572-4083-B069-A34FABCEEE29}"/>
+    <hyperlink ref="D11" r:id="rId24" xr:uid="{39762B51-FBC9-4C83-B725-24D65F821264}"/>
+    <hyperlink ref="D15" r:id="rId25" xr:uid="{25CD2705-535F-408C-AC8C-9413E356E312}"/>
+    <hyperlink ref="D16" r:id="rId26" xr:uid="{08B72755-1C40-4191-B51C-AA4D4C7889E1}"/>
+    <hyperlink ref="D8" r:id="rId27" xr:uid="{315023A9-6D45-4B3F-8B6F-2206B89FE865}"/>
+    <hyperlink ref="D7" r:id="rId28" xr:uid="{D3F01B42-483E-4457-B15B-7B422F9B1CEF}"/>
+    <hyperlink ref="D9" r:id="rId29" xr:uid="{C397C076-A3D4-4565-B129-28C10B762899}"/>
+    <hyperlink ref="D10" r:id="rId30" xr:uid="{CA8A9952-417C-40E2-A9FC-A0F00A994C30}"/>
+    <hyperlink ref="D6" r:id="rId31" xr:uid="{ECD5DECC-1914-4279-93C7-86443510C010}"/>
     <hyperlink ref="D2" r:id="rId32" xr:uid="{C56D2F01-A35A-4F57-9367-8C60BC067338}"/>
+    <hyperlink ref="D3" r:id="rId33" xr:uid="{6687F5A5-45C9-49E9-98A0-C2993AE58B7A}"/>
+    <hyperlink ref="D4:D5" r:id="rId34" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-13-june-2020" xr:uid="{12D2CBD5-7ECB-45DB-8C61-70A5B9459D7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
   <tableParts count="1">
-    <tablePart r:id="rId34"/>
+    <tablePart r:id="rId36"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50CB473-4DD1-4001-8FFB-1AB6B26B0B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A608F6-AEFE-4F60-85D5-3FEB81040266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC public exposure sites" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="244">
   <si>
     <t>Date</t>
   </si>
@@ -741,6 +741,33 @@
   </si>
   <si>
     <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+  </si>
+  <si>
+    <t>Monash Health</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-15-june-2020</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-15-june-2021</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-15-june-2022</t>
+  </si>
+  <si>
+    <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+  </si>
+  <si>
+    <t>St Dominic’s Primary School, Broadmeadows</t>
+  </si>
+  <si>
+    <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+  </si>
+  <si>
+    <t>Pakenham Springs Primary School</t>
+  </si>
+  <si>
+    <t>Livingstone Blvd, Pakenham VIC 3810</t>
   </si>
 </sst>
 </file>
@@ -1182,8 +1209,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K98" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K98" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K101" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K101" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="9"/>
@@ -1498,9 +1525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1554,39 +1583,39 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
-        <v>43993</v>
+        <v>43996</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43993</v>
+        <v>43996</v>
       </c>
       <c r="F2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43993</v>
+        <v>43996</v>
       </c>
       <c r="G2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44007</v>
+        <v>44010</v>
       </c>
       <c r="H2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44007</v>
+        <v>44010</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J2" s="1">
-        <v>-37.691401999999997</v>
+        <v>-37.975684999999999</v>
       </c>
       <c r="K2" s="1">
-        <v>145.21388899999999</v>
+        <v>145.21652900000001</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -1595,10 +1624,10 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1617,87 +1646,87 @@
         <v>44007</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J3" s="1">
-        <v>-37.760449000000001</v>
+        <v>-37.691401999999997</v>
       </c>
       <c r="K3" s="1">
-        <v>145.348691</v>
+        <v>145.21388899999999</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>229</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="F4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="G4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="H4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="J4" s="1">
-        <v>-37.740107000000002</v>
+        <v>-37.760449000000001</v>
       </c>
       <c r="K4" s="1">
-        <v>144.95604700000001</v>
+        <v>145.348691</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="F5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="G5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="H5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="J5" s="1">
-        <v>-37.772858999999997</v>
+        <v>-38.085076000000001</v>
       </c>
       <c r="K5" s="1">
-        <v>145.294713</v>
+        <v>145.46966</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
@@ -1706,10 +1735,10 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1728,13 +1757,13 @@
         <v>44005</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="J6" s="1">
-        <v>-37.798171000000004</v>
+        <v>-37.740107000000002</v>
       </c>
       <c r="K6" s="1">
-        <v>144.95666499999999</v>
+        <v>144.95604700000001</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
@@ -1743,10 +1772,10 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="E7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1765,235 +1794,235 @@
         <v>44005</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="J7" s="1">
-        <v>-38.012110999999997</v>
+        <v>-37.772858999999997</v>
       </c>
       <c r="K7" s="1">
-        <v>145.09015400000001</v>
+        <v>145.294713</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="F8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="G8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="H8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="J8" s="1">
-        <v>-36.732517999999999</v>
+        <v>-37.798171000000004</v>
       </c>
       <c r="K8" s="1">
-        <v>146.96735699999999</v>
+        <v>144.95666499999999</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
-        <v>43988</v>
+        <v>43991</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43988</v>
+        <v>43991</v>
       </c>
       <c r="F9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43988</v>
+        <v>43991</v>
       </c>
       <c r="G9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44002</v>
+        <v>44005</v>
       </c>
       <c r="H9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44002</v>
+        <v>44005</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J9" s="1">
-        <v>-37.811362000000003</v>
+        <v>-38.012110999999997</v>
       </c>
       <c r="K9" s="1">
-        <v>144.97320300000001</v>
+        <v>145.09015400000001</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
-        <v>43986</v>
+        <v>43989</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43986</v>
+        <v>43989</v>
       </c>
       <c r="F10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43986</v>
+        <v>43989</v>
       </c>
       <c r="G10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44000</v>
+        <v>44003</v>
       </c>
       <c r="H10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44000</v>
+        <v>44003</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="J10" s="1">
-        <v>-37.927427000000002</v>
+        <v>-36.732517999999999</v>
       </c>
       <c r="K10" s="1">
-        <v>145.11615699999999</v>
+        <v>146.96735699999999</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
-        <v>43986</v>
+        <v>43988</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="E11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43986</v>
+        <v>43988</v>
       </c>
       <c r="F11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43986</v>
+        <v>43988</v>
       </c>
       <c r="G11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44000</v>
+        <v>44002</v>
       </c>
       <c r="H11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44000</v>
+        <v>44002</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="J11" s="1">
-        <v>-37.571235999999999</v>
+        <v>-37.811362000000003</v>
       </c>
       <c r="K11" s="1">
-        <v>144.90978000000001</v>
+        <v>144.97320300000001</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="E12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="F12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="G12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="H12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="J12" s="1">
-        <v>-37.704174999999999</v>
+        <v>-37.927427000000002</v>
       </c>
       <c r="K12" s="1">
-        <v>144.998741</v>
+        <v>145.11615699999999</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="E13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="F13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="G13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="H13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="J13" s="1">
-        <v>-37.726306000000001</v>
+        <v>-37.571235999999999</v>
       </c>
       <c r="K13" s="1">
-        <v>145.06991400000001</v>
+        <v>144.90978000000001</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
@@ -2002,10 +2031,10 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="E14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2024,117 +2053,115 @@
         <v>43998</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c r="J14" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.685248999999999</v>
       </c>
       <c r="K14" s="1">
-        <v>144.96363500000001</v>
+        <v>144.92446000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="F15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="H15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43997</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>108</v>
+        <v>43998</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="J15" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.704174999999999</v>
       </c>
       <c r="K15" s="1">
-        <v>144.9526066</v>
+        <v>144.998741</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
-        <v>43983</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>43984</v>
+      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="F16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="H16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43997</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>211</v>
+        <v>43998</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="J16" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.726306000000001</v>
       </c>
       <c r="K16" s="1">
-        <v>144.83348079999999</v>
+        <v>145.06991400000001</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="F17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="H17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>172</v>
@@ -2148,104 +2175,106 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="F18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="G18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="H18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43996</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>200</v>
+        <v>43997</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="J18" s="1">
-        <v>-37.836081999999998</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K18" s="1">
-        <v>144.91538299999999</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
-        <v>43982</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>43983</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="F19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="G19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="H19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43996</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>172</v>
+        <v>43997</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J19" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K19" s="1">
-        <v>144.96363500000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="F20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="G20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="H20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>172</v>
@@ -2259,67 +2288,67 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="E21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="F21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43980</v>
+        <v>43982</v>
       </c>
       <c r="G21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43994</v>
+        <v>43996</v>
       </c>
       <c r="H21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43994</v>
+        <v>43996</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J21" s="1">
-        <v>-37.837907999999999</v>
+        <v>-37.836081999999998</v>
       </c>
       <c r="K21" s="1">
-        <v>144.78621799999999</v>
+        <v>144.91538299999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
-        <v>43979</v>
+        <v>43982</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="E22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43979</v>
+        <v>43982</v>
       </c>
       <c r="F22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43979</v>
+        <v>43982</v>
       </c>
       <c r="G22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43993</v>
+        <v>43996</v>
       </c>
       <c r="H22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43993</v>
+        <v>43996</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>172</v>
@@ -2333,30 +2362,30 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
-        <v>43978</v>
+        <v>43981</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="E23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43981</v>
       </c>
       <c r="F23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43981</v>
       </c>
       <c r="G23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43995</v>
       </c>
       <c r="H23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43995</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>172</v>
@@ -2370,409 +2399,409 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>175</v>
+        <v>201</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="E24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="F24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="G24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="H24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="J24" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.837907999999999</v>
       </c>
       <c r="K24" s="1">
-        <v>145.08623499999999</v>
+        <v>144.78621799999999</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="F25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="G25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="H25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="J25" s="1">
-        <v>-37.756286000000003</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K25" s="1">
-        <v>144.811104</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="F26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="G26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="H26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J26" s="1">
-        <v>-37.715384</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K26" s="1">
-        <v>144.811994</v>
+        <v>144.96363500000001</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="F27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="G27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="H27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J27" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K27" s="1">
-        <v>145.01711499999999</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="G28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="J28" s="1">
-        <v>-36.314870999999997</v>
+        <v>-37.756286000000003</v>
       </c>
       <c r="K28" s="1">
-        <v>145.04196999999999</v>
+        <v>144.811104</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="G29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="J29" s="1">
-        <v>-37.928489999999996</v>
+        <v>-37.715384</v>
       </c>
       <c r="K29" s="1">
-        <v>145.007454</v>
+        <v>144.811994</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="F30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="G30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43991</v>
       </c>
       <c r="H30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43991</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J30" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K30" s="1">
-        <v>145.08623499999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="G31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J31" s="1">
-        <v>-37.884267000000001</v>
+        <v>-36.314870999999997</v>
       </c>
       <c r="K31" s="1">
-        <v>145.01711499999999</v>
+        <v>145.04196999999999</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="F32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="G32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="H32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J32" s="1">
-        <v>-37.692610000000002</v>
+        <v>-37.928489999999996</v>
       </c>
       <c r="K32" s="1">
-        <v>145.06382099999999</v>
+        <v>145.007454</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="J33" s="1">
-        <v>-37.689222999999998</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K33" s="1">
-        <v>144.60470799999999</v>
+        <v>145.08623499999999</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="J34" s="1">
-        <v>-37.843631999999999</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K34" s="1">
-        <v>144.78155899999999</v>
+        <v>145.01711499999999</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
@@ -2781,7 +2810,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>184</v>
@@ -2803,13 +2832,13 @@
         <v>43983</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="J35" s="1">
-        <v>-37.730747999999998</v>
+        <v>-37.692610000000002</v>
       </c>
       <c r="K35" s="1">
-        <v>145.086489</v>
+        <v>145.06382099999999</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
@@ -2818,7 +2847,7 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>184</v>
@@ -2840,13 +2869,13 @@
         <v>43983</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J36" s="1">
-        <v>-37.702513000000003</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="K36" s="1">
-        <v>144.80232599999999</v>
+        <v>144.60470799999999</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
@@ -2855,7 +2884,7 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>184</v>
@@ -2877,13 +2906,13 @@
         <v>43983</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J37" s="1">
-        <v>-37.673996000000002</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="K37" s="1">
-        <v>144.955354</v>
+        <v>144.78155899999999</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
@@ -2892,7 +2921,7 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>184</v>
@@ -2914,13 +2943,13 @@
         <v>43983</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J38" s="1">
-        <v>-37.576594</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="K38" s="1">
-        <v>144.72866500000001</v>
+        <v>145.086489</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
@@ -2929,7 +2958,7 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>184</v>
@@ -2951,13 +2980,13 @@
         <v>43983</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J39" s="1">
-        <v>-37.879995000000001</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="K39" s="1">
-        <v>144.70157699999999</v>
+        <v>144.80232599999999</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
@@ -2966,7 +2995,7 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>184</v>
@@ -2988,13 +3017,13 @@
         <v>43983</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J40" s="1">
-        <v>-37.834014000000003</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="K40" s="1">
-        <v>144.65285299999999</v>
+        <v>144.955354</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
@@ -3003,7 +3032,7 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>184</v>
@@ -3025,13 +3054,13 @@
         <v>43983</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J41" s="1">
-        <v>-37.942098999999999</v>
+        <v>-37.576594</v>
       </c>
       <c r="K41" s="1">
-        <v>145.16768400000001</v>
+        <v>144.72866500000001</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
@@ -3040,7 +3069,7 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>184</v>
@@ -3062,13 +3091,13 @@
         <v>43983</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J42" s="1">
-        <v>-37.664667000000001</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="K42" s="1">
-        <v>144.74749</v>
+        <v>144.70157699999999</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
@@ -3077,7 +3106,7 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>184</v>
@@ -3099,13 +3128,13 @@
         <v>43983</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J43" s="1">
-        <v>-37.665416999999998</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="K43" s="1">
-        <v>144.75335899999999</v>
+        <v>144.65285299999999</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
@@ -3114,7 +3143,7 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>184</v>
@@ -3136,665 +3165,677 @@
         <v>43983</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J44" s="1">
-        <v>-37.738990000000001</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="K44" s="1">
-        <v>144.67997600000001</v>
+        <v>145.16768400000001</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B45" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H45" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>125</v>
+        <v>43983</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="J45" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="K45" s="1">
-        <v>144.921401</v>
+        <v>144.74749</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B46" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H46" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>126</v>
+        <v>43983</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="J46" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.665416999999998</v>
       </c>
       <c r="K46" s="1">
-        <v>144.888195</v>
+        <v>144.75335899999999</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E47" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="F47" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="G47" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43983</v>
       </c>
       <c r="H47" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>124</v>
+        <v>43983</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="J47" s="1">
-        <v>-37.783104999999999</v>
+        <v>-37.738990000000001</v>
       </c>
       <c r="K47" s="1">
-        <v>144.78539799999999</v>
+        <v>144.67997600000001</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B48" s="1"/>
+        <v>43966</v>
+      </c>
+      <c r="B48" s="5"/>
       <c r="C48" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="E48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="G48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H48" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J48" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.596122999999999</v>
       </c>
       <c r="K48" s="1">
-        <v>145.02005199999999</v>
+        <v>144.921401</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>187</v>
+      </c>
       <c r="E49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="F49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="G49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="H49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J49" s="1">
-        <v>-37.689366</v>
+        <v>-37.772379999999998</v>
       </c>
       <c r="K49" s="1">
-        <v>144.958878</v>
+        <v>144.888195</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="4">
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D50" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="E50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="G50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J50" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="K50" s="1">
-        <v>144.43268900000001</v>
+        <v>144.78539799999999</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F51" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="G51" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H51" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J51" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="K51" s="1">
-        <v>144.836118</v>
+        <v>145.02005199999999</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="4">
-        <v>43951</v>
-      </c>
-      <c r="B52" s="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B52" s="5"/>
       <c r="C52" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43959</v>
       </c>
       <c r="F52" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
+        <v>43959</v>
       </c>
       <c r="G52" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43973</v>
       </c>
       <c r="H52" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
+        <v>43973</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="J52" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.689366</v>
       </c>
       <c r="K52" s="1">
-        <v>144.83348079999999</v>
+        <v>144.958878</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="4">
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="F53" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
+        <v>43953</v>
       </c>
       <c r="G53" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43967</v>
       </c>
       <c r="H53" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
+        <v>43967</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J53" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="K53" s="1">
-        <v>144.889926</v>
+        <v>144.43268900000001</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="4">
-        <v>43947</v>
+        <v>43953</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43953</v>
       </c>
       <c r="F54" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
+        <v>43953</v>
       </c>
       <c r="G54" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43967</v>
       </c>
       <c r="H54" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
+        <v>43967</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J54" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="K54" s="1">
-        <v>144.894632</v>
+        <v>144.836118</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="4">
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="F55" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="G55" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
+        <v>43965</v>
       </c>
       <c r="H55" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
+        <v>43965</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="J55" s="1">
-        <v>-37.759222999999999</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K55" s="1">
-        <v>144.816754</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A56" s="2">
-        <v>43907</v>
+      <c r="A56" s="4">
+        <v>43950</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
+        <v>43950</v>
       </c>
       <c r="F56" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
+        <v>43950</v>
       </c>
       <c r="G56" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43964</v>
       </c>
       <c r="H56" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
+        <v>43964</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J56" s="1">
-        <v>-37.844318000000001</v>
+        <v>-37.811678000000001</v>
       </c>
       <c r="K56" s="1">
-        <v>145.009818</v>
+        <v>144.889926</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A57" s="2">
-        <v>43905</v>
+      <c r="A57" s="4">
+        <v>43947</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>180</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D57" s="1"/>
       <c r="E57" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43905</v>
+        <v>43947</v>
       </c>
       <c r="F57" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43905</v>
+        <v>43947</v>
       </c>
       <c r="G57" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43919</v>
+        <v>43961</v>
       </c>
       <c r="H57" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43919</v>
+        <v>43961</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J57" s="1">
-        <v>-37.813239000000003</v>
+        <v>-37.797176999999998</v>
       </c>
       <c r="K57" s="1">
-        <v>145.048047</v>
+        <v>144.894632</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A58" s="4">
+        <v>43944</v>
+      </c>
+      <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43944</v>
       </c>
       <c r="F58" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>12</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43944</v>
+      </c>
+      <c r="G58" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43958</v>
       </c>
       <c r="H58" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43958</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="J58" s="1">
-        <v>-37.776940699999997</v>
+        <v>-37.759222999999999</v>
       </c>
       <c r="K58" s="1">
-        <v>144.98702499999999</v>
+        <v>144.816754</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A59" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43907</v>
       </c>
       <c r="F59" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>12</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="G59" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43921</v>
       </c>
       <c r="H59" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="J59" s="1">
-        <v>-37.772095999999998</v>
+        <v>-37.844318000000001</v>
       </c>
       <c r="K59" s="1">
-        <v>144.91609500000001</v>
+        <v>145.009818</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A60" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="E60" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43905</v>
       </c>
       <c r="F60" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>12</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="G60" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43919</v>
       </c>
       <c r="H60" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43919</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="J60" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.813239000000003</v>
       </c>
       <c r="K60" s="1">
-        <v>144.83348079999999</v>
+        <v>145.048047</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F61" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H61" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J61" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="K61" s="1">
-        <v>144.83348079999999</v>
+        <v>144.98702499999999</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F62" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H62" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J62" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="K62" s="1">
-        <v>144.83348079999999</v>
+        <v>144.91609500000001</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="F63" s="2">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H63" s="2">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>97</v>
@@ -3808,26 +3849,26 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="F64" s="2">
-        <v>43897</v>
+        <v>43899</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H64" s="2">
-        <v>43911</v>
+        <v>43913</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>97</v>
@@ -3841,26 +3882,26 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="2">
-        <v>43896</v>
+        <v>43899</v>
       </c>
       <c r="F65" s="2">
-        <v>43896</v>
+        <v>43899</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H65" s="2">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>97</v>
@@ -3874,26 +3915,26 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="F66" s="2">
-        <v>43896</v>
+        <v>43898</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H66" s="2">
-        <v>43910</v>
+        <v>43912</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>97</v>
@@ -3907,233 +3948,233 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="F67" s="2">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H67" s="2">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J67" s="1">
-        <v>-37.821452700000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K67" s="1">
-        <v>144.98347200000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F68" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H68" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J68" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K68" s="1">
-        <v>145.0729384</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F69" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H69" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J69" s="1">
-        <v>-37.790782999999998</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K69" s="1">
-        <v>144.99816200000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F70" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H70" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J70" s="1">
-        <v>-37.824981299999997</v>
+        <v>-37.821452700000002</v>
       </c>
       <c r="K70" s="1">
-        <v>144.98361299999999</v>
+        <v>144.98347200000001</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F71" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H71" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J71" s="1">
-        <v>-37.841103699999998</v>
+        <v>-37.800963000000003</v>
       </c>
       <c r="K71" s="1">
-        <v>144.955806</v>
+        <v>145.0729384</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F72" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H72" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J72" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.790782999999998</v>
       </c>
       <c r="K72" s="1">
-        <v>144.9564881</v>
+        <v>144.99816200000001</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F73" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H73" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J73" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.824981299999997</v>
       </c>
       <c r="K73" s="1">
-        <v>144.9564881</v>
+        <v>144.98361299999999</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
@@ -4141,10 +4182,10 @@
         <v>27</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="2">
@@ -4160,112 +4201,112 @@
         <v>43911</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J74" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.841103699999998</v>
       </c>
       <c r="K74" s="1">
-        <v>144.31841800000001</v>
+        <v>144.955806</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F75" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H75" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J75" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K75" s="1">
-        <v>144.31841800000001</v>
+        <v>144.9564881</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F76" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H76" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J76" s="1">
-        <v>-37.863344400000003</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K76" s="1">
-        <v>145.08682759999999</v>
+        <v>144.9564881</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F77" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H77" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J77" s="1">
-        <v>-37.809265000000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K77" s="1">
-        <v>144.99495099999999</v>
+        <v>144.31841800000001</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.45">
@@ -4273,10 +4314,10 @@
         <v>29</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="2">
@@ -4292,343 +4333,343 @@
         <v>43910</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J78" s="1">
-        <v>-37.667110999999998</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K78" s="1">
-        <v>144.83348079999999</v>
+        <v>144.31841800000001</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="2">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="F79" s="2">
-        <v>43895</v>
+        <v>43897</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="H79" s="2">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J79" s="1">
-        <v>-37.797809200000003</v>
+        <v>-37.863344400000003</v>
       </c>
       <c r="K79" s="1">
-        <v>144.96801239999999</v>
+        <v>145.08682759999999</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F80" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H80" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J80" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.809265000000003</v>
       </c>
       <c r="K80" s="1">
-        <v>144.9526066</v>
+        <v>144.99495099999999</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F81" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H81" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J81" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K81" s="1">
-        <v>144.35683760000001</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F82" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H82" s="2">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J82" s="1">
-        <v>-37.028215000000003</v>
+        <v>-37.797809200000003</v>
       </c>
       <c r="K82" s="1">
-        <v>145.14336</v>
+        <v>144.96801239999999</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F83" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H83" s="2">
         <v>43909</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J83" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K83" s="1">
-        <v>145.04823200000001</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="2">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="F84" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H84" s="2">
         <v>43909</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J84" s="1">
-        <v>-37.720556999999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K84" s="1">
-        <v>145.04823200000001</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="2">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="F85" s="2">
         <v>43893</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H85" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J85" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.028215000000003</v>
       </c>
       <c r="K85" s="1">
-        <v>145.04823200000001</v>
+        <v>145.14336</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="F86" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H86" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="J86" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K86" s="1">
-        <v>144.83348079999999</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="2">
-        <v>43892</v>
+        <v>43894</v>
       </c>
       <c r="F87" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H87" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J87" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K87" s="1">
-        <v>144.35683760000001</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="F88" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H88" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J88" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K88" s="1">
-        <v>144.9526066</v>
+        <v>145.04823200000001</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
@@ -4636,10 +4677,10 @@
         <v>71</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="2">
@@ -4655,13 +4696,13 @@
         <v>43906</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J89" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K89" s="1">
-        <v>144.9526066</v>
+        <v>144.83348079999999</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.45">
@@ -4669,10 +4710,10 @@
         <v>71</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="2">
@@ -4688,24 +4729,24 @@
         <v>43906</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J90" s="1">
-        <v>-37.826660799999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K90" s="1">
-        <v>145.0587903</v>
+        <v>144.35683760000001</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="2">
@@ -4715,85 +4756,85 @@
         <v>43892</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H91" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J91" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K91" s="1">
-        <v>145.00550799999999</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="F92" s="2">
         <v>43892</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H92" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J92" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K92" s="1">
-        <v>145.00550799999999</v>
+        <v>144.9526066</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="2">
-        <v>43894</v>
+        <v>43892</v>
       </c>
       <c r="F93" s="2">
         <v>43892</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H93" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J93" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.826660799999999</v>
       </c>
       <c r="K93" s="1">
-        <v>145.00550799999999</v>
+        <v>145.0587903</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
@@ -4808,7 +4849,7 @@
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="2">
-        <v>43895</v>
+        <v>43892</v>
       </c>
       <c r="F94" s="2">
         <v>43892</v>
@@ -4841,7 +4882,7 @@
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="2">
-        <v>43896</v>
+        <v>43893</v>
       </c>
       <c r="F95" s="2">
         <v>43892</v>
@@ -4864,145 +4905,246 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="2">
-        <v>43890</v>
+        <v>43894</v>
       </c>
       <c r="F96" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H96" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J96" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K96" s="1">
-        <v>144.83348079999999</v>
+        <v>145.00550799999999</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="2">
-        <v>43890</v>
+        <v>43895</v>
       </c>
       <c r="F97" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H97" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J97" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K97" s="1">
-        <v>144.83348079999999</v>
+        <v>145.00550799999999</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="2">
+        <v>43896</v>
+      </c>
+      <c r="F98" s="2">
+        <v>43892</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H98" s="2">
+        <v>43910</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J98" s="1">
+        <v>-37.848232000000003</v>
+      </c>
+      <c r="K98" s="1">
+        <v>145.00550799999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F99" s="2">
+        <v>43890</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H99" s="2">
+        <v>43904</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J99" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K99" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F100" s="2">
+        <v>43890</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H100" s="2">
+        <v>43904</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J100" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K100" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A101" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="2">
         <v>43889</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F101" s="2">
         <v>43889</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H101" s="2">
         <v>43903</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I101" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J98" s="1">
+      <c r="J101" s="1">
         <v>-37.667110999999998</v>
       </c>
-      <c r="K98" s="1">
+      <c r="K101" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D22" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
-    <hyperlink ref="D23" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
-    <hyperlink ref="D24" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
-    <hyperlink ref="D27" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
-    <hyperlink ref="D26" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
-    <hyperlink ref="D57" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
-    <hyperlink ref="D28" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
-    <hyperlink ref="D29" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
-    <hyperlink ref="D30" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
-    <hyperlink ref="D31" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
-    <hyperlink ref="D32" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
-    <hyperlink ref="D33:D44" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
-    <hyperlink ref="D45" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
-    <hyperlink ref="D47" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
-    <hyperlink ref="D46" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
-    <hyperlink ref="D25" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
-    <hyperlink ref="D20" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
-    <hyperlink ref="D14" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
-    <hyperlink ref="D17" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
-    <hyperlink ref="D12:D13" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
-    <hyperlink ref="D18" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
-    <hyperlink ref="D21" r:id="rId23" xr:uid="{ADFF70FF-B572-4083-B069-A34FABCEEE29}"/>
-    <hyperlink ref="D11" r:id="rId24" xr:uid="{39762B51-FBC9-4C83-B725-24D65F821264}"/>
-    <hyperlink ref="D15" r:id="rId25" xr:uid="{25CD2705-535F-408C-AC8C-9413E356E312}"/>
-    <hyperlink ref="D16" r:id="rId26" xr:uid="{08B72755-1C40-4191-B51C-AA4D4C7889E1}"/>
-    <hyperlink ref="D8" r:id="rId27" xr:uid="{315023A9-6D45-4B3F-8B6F-2206B89FE865}"/>
-    <hyperlink ref="D7" r:id="rId28" xr:uid="{D3F01B42-483E-4457-B15B-7B422F9B1CEF}"/>
-    <hyperlink ref="D9" r:id="rId29" xr:uid="{C397C076-A3D4-4565-B129-28C10B762899}"/>
-    <hyperlink ref="D10" r:id="rId30" xr:uid="{CA8A9952-417C-40E2-A9FC-A0F00A994C30}"/>
-    <hyperlink ref="D6" r:id="rId31" xr:uid="{ECD5DECC-1914-4279-93C7-86443510C010}"/>
-    <hyperlink ref="D2" r:id="rId32" xr:uid="{C56D2F01-A35A-4F57-9367-8C60BC067338}"/>
-    <hyperlink ref="D3" r:id="rId33" xr:uid="{6687F5A5-45C9-49E9-98A0-C2993AE58B7A}"/>
-    <hyperlink ref="D4:D5" r:id="rId34" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-13-june-2020" xr:uid="{12D2CBD5-7ECB-45DB-8C61-70A5B9459D7D}"/>
+    <hyperlink ref="D25" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
+    <hyperlink ref="D26" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
+    <hyperlink ref="D27" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
+    <hyperlink ref="D30" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
+    <hyperlink ref="D29" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
+    <hyperlink ref="D60" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
+    <hyperlink ref="D31" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
+    <hyperlink ref="D32" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
+    <hyperlink ref="D33" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
+    <hyperlink ref="D34" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
+    <hyperlink ref="D35" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
+    <hyperlink ref="D36:D47" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
+    <hyperlink ref="D48" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
+    <hyperlink ref="D50" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
+    <hyperlink ref="D49" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
+    <hyperlink ref="D28" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
+    <hyperlink ref="D22" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
+    <hyperlink ref="D17" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
+    <hyperlink ref="D20" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
+    <hyperlink ref="D15:D16" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
+    <hyperlink ref="D21" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
+    <hyperlink ref="D24" r:id="rId23" xr:uid="{ADFF70FF-B572-4083-B069-A34FABCEEE29}"/>
+    <hyperlink ref="D13" r:id="rId24" xr:uid="{39762B51-FBC9-4C83-B725-24D65F821264}"/>
+    <hyperlink ref="D18" r:id="rId25" xr:uid="{25CD2705-535F-408C-AC8C-9413E356E312}"/>
+    <hyperlink ref="D19" r:id="rId26" xr:uid="{08B72755-1C40-4191-B51C-AA4D4C7889E1}"/>
+    <hyperlink ref="D10" r:id="rId27" xr:uid="{315023A9-6D45-4B3F-8B6F-2206B89FE865}"/>
+    <hyperlink ref="D9" r:id="rId28" xr:uid="{D3F01B42-483E-4457-B15B-7B422F9B1CEF}"/>
+    <hyperlink ref="D11" r:id="rId29" xr:uid="{C397C076-A3D4-4565-B129-28C10B762899}"/>
+    <hyperlink ref="D12" r:id="rId30" xr:uid="{CA8A9952-417C-40E2-A9FC-A0F00A994C30}"/>
+    <hyperlink ref="D8" r:id="rId31" xr:uid="{ECD5DECC-1914-4279-93C7-86443510C010}"/>
+    <hyperlink ref="D3" r:id="rId32" xr:uid="{C56D2F01-A35A-4F57-9367-8C60BC067338}"/>
+    <hyperlink ref="D4" r:id="rId33" xr:uid="{6687F5A5-45C9-49E9-98A0-C2993AE58B7A}"/>
+    <hyperlink ref="D6:D7" r:id="rId34" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-13-june-2020" xr:uid="{12D2CBD5-7ECB-45DB-8C61-70A5B9459D7D}"/>
+    <hyperlink ref="D2" r:id="rId35" xr:uid="{05179549-B110-48DB-ABEE-E84F1C91EFC0}"/>
+    <hyperlink ref="D3:D5" r:id="rId36" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-15-june-2020" xr:uid="{866036F4-AAD6-446F-A22F-4A330182CBB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
   <tableParts count="1">
-    <tablePart r:id="rId36"/>
+    <tablePart r:id="rId38"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A608F6-AEFE-4F60-85D5-3FEB81040266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4011BA1A-1ACC-4383-BEEE-73CD9E6B1464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC public exposure sites" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="247">
   <si>
     <t>Date</t>
   </si>
@@ -768,6 +768,15 @@
   </si>
   <si>
     <t>Livingstone Blvd, Pakenham VIC 3810</t>
+  </si>
+  <si>
+    <t>Strathmore Primary School</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-16-june-2020</t>
+  </si>
+  <si>
+    <t>14-34 Lloyd St, Strathmore VIC 3041</t>
   </si>
 </sst>
 </file>
@@ -1209,8 +1218,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K101" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K101" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K102" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K102" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="9"/>
@@ -1525,28 +1534,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.796875" customWidth="1"/>
-    <col min="2" max="2" width="12.9296875" customWidth="1"/>
-    <col min="3" max="3" width="49.73046875" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.86328125" customWidth="1"/>
-    <col min="6" max="6" width="20.3984375" customWidth="1"/>
-    <col min="7" max="7" width="25.265625" customWidth="1"/>
-    <col min="8" max="8" width="16.73046875" customWidth="1"/>
-    <col min="9" max="9" width="56.9296875" customWidth="1"/>
-    <col min="10" max="10" width="10.3984375" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="57" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1581,90 +1588,90 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43997</v>
+      </c>
+      <c r="F2" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43997</v>
+      </c>
+      <c r="G2" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>44011</v>
+      </c>
+      <c r="H2" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>44011</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-37.735247000000001</v>
+      </c>
+      <c r="K2" s="1">
+        <v>144.917023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>43996</v>
-      </c>
-      <c r="F2" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43996</v>
-      </c>
-      <c r="G2" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44010</v>
-      </c>
-      <c r="H2" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44010</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J2" s="1">
-        <v>-37.975684999999999</v>
-      </c>
-      <c r="K2" s="1">
-        <v>145.21652900000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="4">
-        <v>43993</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43993</v>
+        <v>43996</v>
       </c>
       <c r="F3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43993</v>
+        <v>43996</v>
       </c>
       <c r="G3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44007</v>
+        <v>44010</v>
       </c>
       <c r="H3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44007</v>
+        <v>44010</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="J3" s="1">
-        <v>-37.691401999999997</v>
+        <v>-37.975684999999999</v>
       </c>
       <c r="K3" s="1">
-        <v>145.21388899999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.21652900000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43993</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1683,96 +1690,96 @@
         <v>44007</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J4" s="1">
-        <v>-37.760449000000001</v>
+        <v>-37.691401999999997</v>
       </c>
       <c r="K4" s="1">
-        <v>145.348691</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.21388899999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43993</v>
+      </c>
+      <c r="F5" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43993</v>
+      </c>
+      <c r="G5" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>44007</v>
+      </c>
+      <c r="H5" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>44007</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-37.760449000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <v>145.348691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>43992</v>
-      </c>
-      <c r="F5" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43992</v>
-      </c>
-      <c r="G5" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44006</v>
-      </c>
-      <c r="H5" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44006</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="J5" s="1">
-        <v>-38.085076000000001</v>
-      </c>
-      <c r="K5" s="1">
-        <v>145.46966</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="4">
-        <v>43991</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="F6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="G6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="H6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="J6" s="1">
-        <v>-37.740107000000002</v>
+        <v>-38.085076000000001</v>
       </c>
       <c r="K6" s="1">
-        <v>144.95604700000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.46966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43991</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>229</v>
@@ -1794,25 +1801,25 @@
         <v>44005</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J7" s="1">
-        <v>-37.772858999999997</v>
+        <v>-37.740107000000002</v>
       </c>
       <c r="K7" s="1">
-        <v>145.294713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.95604700000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43991</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1831,25 +1838,25 @@
         <v>44005</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="J8" s="1">
-        <v>-37.798171000000004</v>
+        <v>-37.772858999999997</v>
       </c>
       <c r="K8" s="1">
-        <v>144.95666499999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.294713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>43991</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -1868,136 +1875,136 @@
         <v>44005</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="J9" s="1">
-        <v>-38.012110999999997</v>
+        <v>-37.798171000000004</v>
       </c>
       <c r="K9" s="1">
-        <v>145.09015400000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.95666499999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43991</v>
+      </c>
+      <c r="F10" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43991</v>
+      </c>
+      <c r="G10" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>44005</v>
+      </c>
+      <c r="H10" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>44005</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-38.012110999999997</v>
+      </c>
+      <c r="K10" s="1">
+        <v>145.09015400000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>43989</v>
-      </c>
-      <c r="F10" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43989</v>
-      </c>
-      <c r="G10" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44003</v>
-      </c>
-      <c r="H10" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44003</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-36.732517999999999</v>
-      </c>
-      <c r="K10" s="1">
-        <v>146.96735699999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="4">
-        <v>43988</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43989</v>
+      </c>
+      <c r="F11" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43989</v>
+      </c>
+      <c r="G11" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>44003</v>
+      </c>
+      <c r="H11" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>44003</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-36.732517999999999</v>
+      </c>
+      <c r="K11" s="1">
+        <v>146.96735699999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>43988</v>
-      </c>
-      <c r="F11" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43988</v>
-      </c>
-      <c r="G11" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44002</v>
-      </c>
-      <c r="H11" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44002</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J11" s="1">
-        <v>-37.811362000000003</v>
-      </c>
-      <c r="K11" s="1">
-        <v>144.97320300000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="4">
-        <v>43986</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43986</v>
+        <v>43988</v>
       </c>
       <c r="F12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43986</v>
+        <v>43988</v>
       </c>
       <c r="G12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44000</v>
+        <v>44002</v>
       </c>
       <c r="H12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44000</v>
+        <v>44002</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J12" s="1">
-        <v>-37.927427000000002</v>
+        <v>-37.811362000000003</v>
       </c>
       <c r="K12" s="1">
-        <v>145.11615699999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.97320300000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43986</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="E13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2016,62 +2023,62 @@
         <v>44000</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="J13" s="1">
-        <v>-37.571235999999999</v>
+        <v>-37.927427000000002</v>
       </c>
       <c r="K13" s="1">
-        <v>144.90978000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.11615699999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="E14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="F14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="G14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="H14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="J14" s="1">
-        <v>-37.685248999999999</v>
+        <v>-37.571235999999999</v>
       </c>
       <c r="K14" s="1">
-        <v>144.92446000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.90978000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43984</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="E15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2090,22 +2097,22 @@
         <v>43998</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="J15" s="1">
-        <v>-37.704174999999999</v>
+        <v>-37.685248999999999</v>
       </c>
       <c r="K15" s="1">
-        <v>144.998741</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.92446000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>43984</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>191</v>
@@ -2127,22 +2134,22 @@
         <v>43998</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J16" s="1">
-        <v>-37.726306000000001</v>
+        <v>-37.704174999999999</v>
       </c>
       <c r="K16" s="1">
-        <v>145.06991400000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.998741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>43984</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>191</v>
@@ -2164,61 +2171,59 @@
         <v>43998</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="J17" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.726306000000001</v>
       </c>
       <c r="K17" s="1">
-        <v>144.96363500000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.06991400000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="F18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="H18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43997</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>108</v>
+        <v>43998</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="J18" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K18" s="1">
-        <v>144.9526066</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.96363500000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43983</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>208</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>210</v>
@@ -2240,25 +2245,27 @@
         <v>43997</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="J19" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K19" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43983</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2276,63 +2283,63 @@
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43997</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>172</v>
+      <c r="I20" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J20" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K20" s="1">
-        <v>144.96363500000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="F21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="G21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="H21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="J21" s="1">
-        <v>-37.836081999999998</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K21" s="1">
-        <v>144.91538299999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.96363500000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43982</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2351,41 +2358,41 @@
         <v>43996</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="J22" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.836081999999998</v>
       </c>
       <c r="K22" s="1">
-        <v>144.96363500000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.91538299999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="F23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="G23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="H23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>172</v>
@@ -2397,106 +2404,106 @@
         <v>144.96363500000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>202</v>
+        <v>171</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="E24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43981</v>
+      </c>
+      <c r="F24" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43981</v>
+      </c>
+      <c r="G24" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43995</v>
+      </c>
+      <c r="H24" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43995</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-37.801332000000002</v>
+      </c>
+      <c r="K24" s="1">
+        <v>144.96363500000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>43980</v>
-      </c>
-      <c r="F24" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43980</v>
-      </c>
-      <c r="G24" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43994</v>
-      </c>
-      <c r="H24" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43994</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J24" s="1">
-        <v>-37.837907999999999</v>
-      </c>
-      <c r="K24" s="1">
-        <v>144.78621799999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="4">
-        <v>43979</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>174</v>
+        <v>201</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="E25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43980</v>
+      </c>
+      <c r="F25" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43980</v>
+      </c>
+      <c r="G25" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43994</v>
+      </c>
+      <c r="H25" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43994</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-37.837907999999999</v>
+      </c>
+      <c r="K25" s="1">
+        <v>144.78621799999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>43979</v>
-      </c>
-      <c r="F25" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43979</v>
-      </c>
-      <c r="G25" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43993</v>
-      </c>
-      <c r="H25" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43993</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J25" s="1">
-        <v>-37.801332000000002</v>
-      </c>
-      <c r="K25" s="1">
-        <v>144.96363500000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="4">
-        <v>43978</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="F26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="G26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="H26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>172</v>
@@ -2508,13 +2515,13 @@
         <v>144.96363500000001</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43978</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>175</v>
@@ -2536,62 +2543,62 @@
         <v>43992</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J27" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K27" s="1">
-        <v>145.08623499999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.96363500000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="F28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="G28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="H28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="J28" s="1">
-        <v>-37.756286000000003</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K28" s="1">
-        <v>144.811104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.08623499999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43977</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="E29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2610,25 +2617,25 @@
         <v>43991</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="J29" s="1">
-        <v>-37.715384</v>
+        <v>-37.756286000000003</v>
       </c>
       <c r="K29" s="1">
-        <v>144.811994</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.811104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43977</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2647,62 +2654,62 @@
         <v>43991</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="J30" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.715384</v>
       </c>
       <c r="K30" s="1">
-        <v>145.01711499999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.811994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="G31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J31" s="1">
-        <v>-36.314870999999997</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K31" s="1">
-        <v>145.04196999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.01711499999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43971</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
@@ -2721,59 +2728,59 @@
         <v>43985</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J32" s="1">
-        <v>-37.928489999999996</v>
+        <v>-36.314870999999997</v>
       </c>
       <c r="K32" s="1">
-        <v>145.007454</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.04196999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="F33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="G33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="H33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J33" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.928489999999996</v>
       </c>
       <c r="K33" s="1">
-        <v>145.08623499999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.007454</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43970</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>183</v>
@@ -2795,59 +2802,59 @@
         <v>43984</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J34" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K34" s="1">
-        <v>145.01711499999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.08623499999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J35" s="1">
-        <v>-37.692610000000002</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K35" s="1">
-        <v>145.06382099999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.01711499999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43969</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>184</v>
@@ -2869,22 +2876,22 @@
         <v>43983</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J36" s="1">
-        <v>-37.689222999999998</v>
+        <v>-37.692610000000002</v>
       </c>
       <c r="K36" s="1">
-        <v>144.60470799999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.06382099999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43969</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>184</v>
@@ -2906,22 +2913,22 @@
         <v>43983</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J37" s="1">
-        <v>-37.843631999999999</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="K37" s="1">
-        <v>144.78155899999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.60470799999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43969</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>184</v>
@@ -2943,22 +2950,22 @@
         <v>43983</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J38" s="1">
-        <v>-37.730747999999998</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="K38" s="1">
-        <v>145.086489</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.78155899999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43969</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>184</v>
@@ -2980,22 +2987,22 @@
         <v>43983</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J39" s="1">
-        <v>-37.702513000000003</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="K39" s="1">
-        <v>144.80232599999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.086489</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43969</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>184</v>
@@ -3017,22 +3024,22 @@
         <v>43983</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J40" s="1">
-        <v>-37.673996000000002</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="K40" s="1">
-        <v>144.955354</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.80232599999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>43969</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>184</v>
@@ -3054,22 +3061,22 @@
         <v>43983</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J41" s="1">
-        <v>-37.576594</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="K41" s="1">
-        <v>144.72866500000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.955354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>43969</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>184</v>
@@ -3091,22 +3098,22 @@
         <v>43983</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J42" s="1">
-        <v>-37.879995000000001</v>
+        <v>-37.576594</v>
       </c>
       <c r="K42" s="1">
-        <v>144.70157699999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.72866500000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43969</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>184</v>
@@ -3128,22 +3135,22 @@
         <v>43983</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J43" s="1">
-        <v>-37.834014000000003</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="K43" s="1">
-        <v>144.65285299999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.70157699999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43969</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>184</v>
@@ -3165,22 +3172,22 @@
         <v>43983</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J44" s="1">
-        <v>-37.942098999999999</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="K44" s="1">
-        <v>145.16768400000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.65285299999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43969</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>184</v>
@@ -3202,22 +3209,22 @@
         <v>43983</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J45" s="1">
-        <v>-37.664667000000001</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="K45" s="1">
-        <v>144.74749</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.16768400000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43969</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>184</v>
@@ -3239,22 +3246,22 @@
         <v>43983</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J46" s="1">
-        <v>-37.665416999999998</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="K46" s="1">
-        <v>144.75335899999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.74749</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>43969</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>184</v>
@@ -3276,135 +3283,137 @@
         <v>43983</v>
       </c>
       <c r="I47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J47" s="1">
+        <v>-37.665416999999998</v>
+      </c>
+      <c r="K47" s="1">
+        <v>144.75335899999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>43969</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="F48" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43969</v>
+      </c>
+      <c r="G48" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43983</v>
+      </c>
+      <c r="H48" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43983</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J48" s="1">
         <v>-37.738990000000001</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K48" s="1">
         <v>144.67997600000001</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A48" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E48" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
-      </c>
-      <c r="F48" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
-      </c>
-      <c r="G48" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
-      </c>
-      <c r="H48" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J48" s="1">
-        <v>-37.596122999999999</v>
-      </c>
-      <c r="K48" s="1">
-        <v>144.921401</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43966</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43966</v>
+      </c>
+      <c r="F49" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43966</v>
+      </c>
+      <c r="G49" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43980</v>
+      </c>
+      <c r="H49" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43980</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J49" s="1">
+        <v>-37.596122999999999</v>
+      </c>
+      <c r="K49" s="1">
+        <v>144.921401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>43966</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43966</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43966</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43980</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43980</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J50" s="1">
         <v>-37.772379999999998</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K50" s="1">
         <v>144.888195</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A50" s="4">
-        <v>43959</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E50" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
-      </c>
-      <c r="F50" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
-      </c>
-      <c r="G50" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
-      </c>
-      <c r="H50" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J50" s="1">
-        <v>-37.783104999999999</v>
-      </c>
-      <c r="K50" s="1">
-        <v>144.78539799999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>43959</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="E51" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43959</v>
@@ -3422,22 +3431,22 @@
         <v>43973</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J51" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="K51" s="1">
-        <v>145.02005199999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.78539799999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>43959</v>
       </c>
-      <c r="B52" s="5"/>
+      <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2">
@@ -3457,57 +3466,57 @@
         <v>43973</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J52" s="1">
-        <v>-37.689366</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="K52" s="1">
-        <v>144.958878</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.02005199999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B53" s="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B53" s="5"/>
       <c r="C53" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F53" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="G53" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H53" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J53" s="1">
-        <v>-37.678277999999999</v>
+        <v>-37.689366</v>
       </c>
       <c r="K53" s="1">
-        <v>144.43268900000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.958878</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>43953</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="2">
@@ -3527,269 +3536,271 @@
         <v>43967</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J54" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="K54" s="1">
-        <v>144.836118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.43268900000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>43951</v>
+        <v>43953</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43953</v>
+      </c>
+      <c r="F55" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43953</v>
+      </c>
+      <c r="G55" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43967</v>
+      </c>
+      <c r="H55" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43967</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J55" s="1">
+        <v>-37.810712000000002</v>
+      </c>
+      <c r="K55" s="1">
+        <v>144.836118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
         <v>43951</v>
-      </c>
-      <c r="F55" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
-      </c>
-      <c r="G55" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
-      </c>
-      <c r="H55" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J55" s="1">
-        <v>-37.667110999999998</v>
-      </c>
-      <c r="K55" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A56" s="4">
-        <v>43950</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43951</v>
+      </c>
+      <c r="F56" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43951</v>
+      </c>
+      <c r="G56" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43965</v>
+      </c>
+      <c r="H56" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43965</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J56" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K56" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>43950</v>
-      </c>
-      <c r="F56" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
-      </c>
-      <c r="G56" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
-      </c>
-      <c r="H56" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J56" s="1">
-        <v>-37.811678000000001</v>
-      </c>
-      <c r="K56" s="1">
-        <v>144.889926</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A57" s="4">
-        <v>43947</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43950</v>
+      </c>
+      <c r="F57" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43950</v>
+      </c>
+      <c r="G57" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43964</v>
+      </c>
+      <c r="H57" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43964</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J57" s="1">
+        <v>-37.811678000000001</v>
+      </c>
+      <c r="K57" s="1">
+        <v>144.889926</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>43947</v>
-      </c>
-      <c r="F57" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
-      </c>
-      <c r="G57" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
-      </c>
-      <c r="H57" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J57" s="1">
-        <v>-37.797176999999998</v>
-      </c>
-      <c r="K57" s="1">
-        <v>144.894632</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A58" s="4">
-        <v>43944</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43947</v>
+      </c>
+      <c r="F58" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43947</v>
+      </c>
+      <c r="G58" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43961</v>
+      </c>
+      <c r="H58" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43961</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J58" s="1">
+        <v>-37.797176999999998</v>
+      </c>
+      <c r="K58" s="1">
+        <v>144.894632</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>43944</v>
-      </c>
-      <c r="F58" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
-      </c>
-      <c r="G58" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
-      </c>
-      <c r="H58" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J58" s="1">
-        <v>-37.759222999999999</v>
-      </c>
-      <c r="K58" s="1">
-        <v>144.816754</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A59" s="2">
-        <v>43907</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43944</v>
+      </c>
+      <c r="F59" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43944</v>
+      </c>
+      <c r="G59" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43958</v>
+      </c>
+      <c r="H59" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43958</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J59" s="1">
+        <v>-37.759222999999999</v>
+      </c>
+      <c r="K59" s="1">
+        <v>144.816754</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <v>43907</v>
-      </c>
-      <c r="F59" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
-      </c>
-      <c r="G59" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
-      </c>
-      <c r="H59" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J59" s="1">
-        <v>-37.844318000000001</v>
-      </c>
-      <c r="K59" s="1">
-        <v>145.009818</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A60" s="2">
-        <v>43905</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="F60" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="G60" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43921</v>
+      </c>
+      <c r="H60" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J60" s="1">
+        <v>-37.844318000000001</v>
+      </c>
+      <c r="K60" s="1">
+        <v>145.009818</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E61" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
         <v>43905</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F61" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
         <v>43905</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G61" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
         <v>43919</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H61" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
         <v>43919</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J61" s="1">
         <v>-37.813239000000003</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K61" s="1">
         <v>145.048047</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2">
-        <v>43900</v>
-      </c>
-      <c r="F61" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="2">
-        <v>43914</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J61" s="1">
-        <v>-37.776940699999997</v>
-      </c>
-      <c r="K61" s="1">
-        <v>144.98702499999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2">
@@ -3805,24 +3816,24 @@
         <v>43914</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J62" s="1">
-        <v>-37.772095999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="K62" s="1">
-        <v>144.91609500000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.98702499999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2">
@@ -3838,37 +3849,37 @@
         <v>43914</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J63" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="K63" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.91609500000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F64" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H64" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>97</v>
@@ -3880,15 +3891,15 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="2">
@@ -3913,28 +3924,28 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="F66" s="2">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H66" s="2">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>97</v>
@@ -3946,9 +3957,9 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>24</v>
@@ -3958,16 +3969,16 @@
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F67" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H67" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>97</v>
@@ -3979,28 +3990,28 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F68" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H68" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>97</v>
@@ -4012,15 +4023,15 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="2">
@@ -4045,48 +4056,48 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F70" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H70" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J70" s="1">
-        <v>-37.821452700000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K70" s="1">
-        <v>144.98347200000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2">
@@ -4102,24 +4113,24 @@
         <v>43912</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J71" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.821452700000002</v>
       </c>
       <c r="K71" s="1">
-        <v>145.0729384</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.98347200000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2">
@@ -4135,57 +4146,57 @@
         <v>43912</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J72" s="1">
-        <v>-37.790782999999998</v>
+        <v>-37.800963000000003</v>
       </c>
       <c r="K72" s="1">
-        <v>144.99816200000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.0729384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F73" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H73" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J73" s="1">
-        <v>-37.824981299999997</v>
+        <v>-37.790782999999998</v>
       </c>
       <c r="K73" s="1">
-        <v>144.98361299999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.99816200000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="2">
@@ -4201,24 +4212,24 @@
         <v>43911</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J74" s="1">
-        <v>-37.841103699999998</v>
+        <v>-37.824981299999997</v>
       </c>
       <c r="K74" s="1">
-        <v>144.955806</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.98361299999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="2">
@@ -4234,37 +4245,37 @@
         <v>43911</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J75" s="1">
-        <v>-37.832173099999999</v>
+        <v>-37.841103699999998</v>
       </c>
       <c r="K75" s="1">
-        <v>144.9564881</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.955806</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F76" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H76" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>103</v>
@@ -4276,61 +4287,61 @@
         <v>144.9564881</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F77" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H77" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J77" s="1">
-        <v>-38.199002999999998</v>
+        <v>-37.832173099999999</v>
       </c>
       <c r="K77" s="1">
-        <v>144.31841800000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.9564881</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F78" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H78" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>104</v>
@@ -4342,81 +4353,81 @@
         <v>144.31841800000001</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F79" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H79" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J79" s="1">
-        <v>-37.863344400000003</v>
+        <v>-38.199002999999998</v>
       </c>
       <c r="K79" s="1">
-        <v>145.08682759999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.31841800000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="F80" s="2">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H80" s="2">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J80" s="1">
-        <v>-37.809265000000003</v>
+        <v>-37.863344400000003</v>
       </c>
       <c r="K80" s="1">
-        <v>144.99495099999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.08682759999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="2">
@@ -4432,57 +4443,57 @@
         <v>43910</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J81" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.809265000000003</v>
       </c>
       <c r="K81" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.99495099999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="F82" s="2">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H82" s="2">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J82" s="1">
-        <v>-37.797809200000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K82" s="1">
-        <v>144.96801239999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="2">
@@ -4498,16 +4509,16 @@
         <v>43909</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J83" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.797809200000003</v>
       </c>
       <c r="K83" s="1">
-        <v>144.9526066</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.96801239999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>57</v>
       </c>
@@ -4531,57 +4542,57 @@
         <v>43909</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J84" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K84" s="1">
-        <v>144.35683760000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="F85" s="2">
-        <v>43893</v>
+        <v>43895</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H85" s="2">
-        <v>43907</v>
+        <v>43909</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J85" s="1">
-        <v>-37.028215000000003</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K85" s="1">
-        <v>145.14336</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.35683760000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="2">
@@ -4591,22 +4602,22 @@
         <v>43893</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H86" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J86" s="1">
-        <v>-37.720556999999999</v>
+        <v>-37.028215000000003</v>
       </c>
       <c r="K86" s="1">
-        <v>145.04823200000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.14336</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>67</v>
       </c>
@@ -4618,7 +4629,7 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="F87" s="2">
         <v>43893</v>
@@ -4639,7 +4650,7 @@
         <v>145.04823200000001</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>67</v>
       </c>
@@ -4651,7 +4662,7 @@
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="F88" s="2">
         <v>43893</v>
@@ -4672,48 +4683,48 @@
         <v>145.04823200000001</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="2">
-        <v>43892</v>
+        <v>43895</v>
       </c>
       <c r="F89" s="2">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H89" s="2">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="J89" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.720556999999999</v>
       </c>
       <c r="K89" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.04823200000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="2">
@@ -4729,16 +4740,16 @@
         <v>43906</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J90" s="1">
-        <v>-38.145009600000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K90" s="1">
-        <v>144.35683760000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>71</v>
       </c>
@@ -4762,24 +4773,24 @@
         <v>43906</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J91" s="1">
-        <v>-37.816394899999999</v>
+        <v>-38.145009600000002</v>
       </c>
       <c r="K91" s="1">
-        <v>144.9526066</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.35683760000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="2">
@@ -4804,7 +4815,7 @@
         <v>144.9526066</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>71</v>
       </c>
@@ -4828,24 +4839,24 @@
         <v>43906</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J93" s="1">
-        <v>-37.826660799999999</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K93" s="1">
-        <v>145.0587903</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="2">
@@ -4855,22 +4866,22 @@
         <v>43892</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H94" s="2">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J94" s="1">
-        <v>-37.848232000000003</v>
+        <v>-37.826660799999999</v>
       </c>
       <c r="K94" s="1">
-        <v>145.00550799999999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.0587903</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>78</v>
       </c>
@@ -4882,7 +4893,7 @@
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="2">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="F95" s="2">
         <v>43892</v>
@@ -4903,7 +4914,7 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>78</v>
       </c>
@@ -4915,7 +4926,7 @@
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="2">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="F96" s="2">
         <v>43892</v>
@@ -4936,7 +4947,7 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>78</v>
       </c>
@@ -4948,7 +4959,7 @@
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="2">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="F97" s="2">
         <v>43892</v>
@@ -4969,7 +4980,7 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>78</v>
       </c>
@@ -4981,7 +4992,7 @@
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="2">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="F98" s="2">
         <v>43892</v>
@@ -5002,48 +5013,48 @@
         <v>145.00550799999999</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="2">
-        <v>43890</v>
+        <v>43896</v>
       </c>
       <c r="F99" s="2">
-        <v>43890</v>
+        <v>43892</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H99" s="2">
-        <v>43904</v>
+        <v>43910</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="J99" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.848232000000003</v>
       </c>
       <c r="K99" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+        <v>145.00550799999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="2">
@@ -5068,28 +5079,28 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="F101" s="2">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H101" s="2">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>97</v>
@@ -5098,53 +5109,87 @@
         <v>-37.667110999999998</v>
       </c>
       <c r="K101" s="1">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="2">
+        <v>43889</v>
+      </c>
+      <c r="F102" s="2">
+        <v>43889</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H102" s="2">
+        <v>43903</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J102" s="1">
+        <v>-37.667110999999998</v>
+      </c>
+      <c r="K102" s="1">
         <v>144.83348079999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D25" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
-    <hyperlink ref="D26" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
-    <hyperlink ref="D27" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
-    <hyperlink ref="D30" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
-    <hyperlink ref="D29" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
-    <hyperlink ref="D60" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
-    <hyperlink ref="D31" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
-    <hyperlink ref="D32" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
-    <hyperlink ref="D33" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
-    <hyperlink ref="D34" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
-    <hyperlink ref="D35" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
-    <hyperlink ref="D36:D47" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
-    <hyperlink ref="D48" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
-    <hyperlink ref="D50" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
-    <hyperlink ref="D49" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
-    <hyperlink ref="D28" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
-    <hyperlink ref="D23" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
-    <hyperlink ref="D22" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
-    <hyperlink ref="D17" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
-    <hyperlink ref="D20" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
-    <hyperlink ref="D15:D16" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
-    <hyperlink ref="D21" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{ADFF70FF-B572-4083-B069-A34FABCEEE29}"/>
-    <hyperlink ref="D13" r:id="rId24" xr:uid="{39762B51-FBC9-4C83-B725-24D65F821264}"/>
-    <hyperlink ref="D18" r:id="rId25" xr:uid="{25CD2705-535F-408C-AC8C-9413E356E312}"/>
-    <hyperlink ref="D19" r:id="rId26" xr:uid="{08B72755-1C40-4191-B51C-AA4D4C7889E1}"/>
-    <hyperlink ref="D10" r:id="rId27" xr:uid="{315023A9-6D45-4B3F-8B6F-2206B89FE865}"/>
-    <hyperlink ref="D9" r:id="rId28" xr:uid="{D3F01B42-483E-4457-B15B-7B422F9B1CEF}"/>
-    <hyperlink ref="D11" r:id="rId29" xr:uid="{C397C076-A3D4-4565-B129-28C10B762899}"/>
-    <hyperlink ref="D12" r:id="rId30" xr:uid="{CA8A9952-417C-40E2-A9FC-A0F00A994C30}"/>
-    <hyperlink ref="D8" r:id="rId31" xr:uid="{ECD5DECC-1914-4279-93C7-86443510C010}"/>
-    <hyperlink ref="D3" r:id="rId32" xr:uid="{C56D2F01-A35A-4F57-9367-8C60BC067338}"/>
-    <hyperlink ref="D4" r:id="rId33" xr:uid="{6687F5A5-45C9-49E9-98A0-C2993AE58B7A}"/>
-    <hyperlink ref="D6:D7" r:id="rId34" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-13-june-2020" xr:uid="{12D2CBD5-7ECB-45DB-8C61-70A5B9459D7D}"/>
-    <hyperlink ref="D2" r:id="rId35" xr:uid="{05179549-B110-48DB-ABEE-E84F1C91EFC0}"/>
-    <hyperlink ref="D3:D5" r:id="rId36" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-15-june-2020" xr:uid="{866036F4-AAD6-446F-A22F-4A330182CBB2}"/>
+    <hyperlink ref="D26" r:id="rId1" xr:uid="{749829C2-2E1C-42D9-B978-96E1CCA318A5}"/>
+    <hyperlink ref="D27" r:id="rId2" xr:uid="{9EB7CEE6-1D1E-48D4-87EB-57F032D65C71}"/>
+    <hyperlink ref="D28" r:id="rId3" xr:uid="{EF91E6F8-D448-4ABF-BE87-69045D0D09B3}"/>
+    <hyperlink ref="D31" r:id="rId4" xr:uid="{B8A1B6A4-8FA6-453F-8542-0947FD20C1AB}"/>
+    <hyperlink ref="D30" r:id="rId5" xr:uid="{5BCA6A45-2D51-40E1-9DA3-57732998A885}"/>
+    <hyperlink ref="D61" r:id="rId6" xr:uid="{49D36FA6-49A9-46A7-BDB3-4B3E568A8A8E}"/>
+    <hyperlink ref="D32" r:id="rId7" xr:uid="{8252F903-B065-4BC9-A575-0F1E14D9F779}"/>
+    <hyperlink ref="D33" r:id="rId8" xr:uid="{EEB20ADD-9CCD-4FE2-BEDE-6B6FB9D9837C}"/>
+    <hyperlink ref="D34" r:id="rId9" xr:uid="{83C38169-D3BA-4B88-9CBC-2BF2B1984E30}"/>
+    <hyperlink ref="D35" r:id="rId10" xr:uid="{D1E1B5AD-0BD6-4F7E-9BE9-2B432345B906}"/>
+    <hyperlink ref="D36" r:id="rId11" xr:uid="{26C9CDE1-683D-4037-942A-017DFA0431F9}"/>
+    <hyperlink ref="D37:D48" r:id="rId12" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-18-may-2020" xr:uid="{1BA5B038-A176-4CFB-ADCA-6896A4534263}"/>
+    <hyperlink ref="D49" r:id="rId13" xr:uid="{4C8D6633-C8A6-44EE-ACC7-DECE853A3D83}"/>
+    <hyperlink ref="D51" r:id="rId14" xr:uid="{DC3BAA78-7966-4BB2-9EFB-1F39DBE32ABB}"/>
+    <hyperlink ref="D50" r:id="rId15" xr:uid="{5C3D9195-D37C-4437-9873-C8257F0DCE81}"/>
+    <hyperlink ref="D29" r:id="rId16" xr:uid="{20477B42-D775-4B18-858C-21FCE031E83B}"/>
+    <hyperlink ref="D24" r:id="rId17" xr:uid="{70CA8169-CAB9-419A-A76B-24119FDE8D80}"/>
+    <hyperlink ref="D23" r:id="rId18" xr:uid="{25BCAD08-8598-41F1-A05B-15577E526141}"/>
+    <hyperlink ref="D18" r:id="rId19" xr:uid="{2F69A088-D802-4046-9116-ED5248A1C725}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{EF82360E-47BB-499A-BC4B-5857F35A24CC}"/>
+    <hyperlink ref="D16:D17" r:id="rId21" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-saturday-2-june-2020" xr:uid="{1BD98E9F-F6E2-488F-ACC4-C14B246ECEDD}"/>
+    <hyperlink ref="D22" r:id="rId22" xr:uid="{0E827504-C054-4EC1-BB8F-8FB5EC2EE4C6}"/>
+    <hyperlink ref="D25" r:id="rId23" xr:uid="{ADFF70FF-B572-4083-B069-A34FABCEEE29}"/>
+    <hyperlink ref="D14" r:id="rId24" xr:uid="{39762B51-FBC9-4C83-B725-24D65F821264}"/>
+    <hyperlink ref="D19" r:id="rId25" xr:uid="{25CD2705-535F-408C-AC8C-9413E356E312}"/>
+    <hyperlink ref="D20" r:id="rId26" xr:uid="{08B72755-1C40-4191-B51C-AA4D4C7889E1}"/>
+    <hyperlink ref="D11" r:id="rId27" xr:uid="{315023A9-6D45-4B3F-8B6F-2206B89FE865}"/>
+    <hyperlink ref="D10" r:id="rId28" xr:uid="{D3F01B42-483E-4457-B15B-7B422F9B1CEF}"/>
+    <hyperlink ref="D12" r:id="rId29" xr:uid="{C397C076-A3D4-4565-B129-28C10B762899}"/>
+    <hyperlink ref="D13" r:id="rId30" xr:uid="{CA8A9952-417C-40E2-A9FC-A0F00A994C30}"/>
+    <hyperlink ref="D9" r:id="rId31" xr:uid="{ECD5DECC-1914-4279-93C7-86443510C010}"/>
+    <hyperlink ref="D4" r:id="rId32" xr:uid="{C56D2F01-A35A-4F57-9367-8C60BC067338}"/>
+    <hyperlink ref="D5" r:id="rId33" xr:uid="{6687F5A5-45C9-49E9-98A0-C2993AE58B7A}"/>
+    <hyperlink ref="D7:D8" r:id="rId34" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-13-june-2020" xr:uid="{12D2CBD5-7ECB-45DB-8C61-70A5B9459D7D}"/>
+    <hyperlink ref="D3" r:id="rId35" xr:uid="{05179549-B110-48DB-ABEE-E84F1C91EFC0}"/>
+    <hyperlink ref="D4:D6" r:id="rId36" display="https://www.dhhs.vic.gov.au/coronavirus-update-victoria-15-june-2020" xr:uid="{866036F4-AAD6-446F-A22F-4A330182CBB2}"/>
+    <hyperlink ref="D2" r:id="rId37" xr:uid="{96E8C439-7EAC-40A7-B33F-93ADAD827735}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
   <tableParts count="1">
-    <tablePart r:id="rId38"/>
+    <tablePart r:id="rId39"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike Honey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4011BA1A-1ACC-4383-BEEE-73CD9E6B1464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89541F5-792E-4026-848C-167FAC96A77E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{C1F6E7A0-A7A4-47D5-AD7F-F3EBAD16E3EC}"/>
   </bookViews>
   <sheets>
     <sheet name="VIC public exposure sites" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="256">
   <si>
     <t>Date</t>
   </si>
@@ -777,6 +777,33 @@
   </si>
   <si>
     <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+  </si>
+  <si>
+    <t>Rosstown Community aged care facility, Carnegie</t>
+  </si>
+  <si>
+    <t>https://www.dhhs.vic.gov.au/coronavirus-update-victoria-17-june-2020</t>
+  </si>
+  <si>
+    <t>6 Ames Ave, Carnegie VIC 3163</t>
+  </si>
+  <si>
+    <t>Stamford Plaza Hotel</t>
+  </si>
+  <si>
+    <t>111 Little Collins St, Melbourne VIC 3000</t>
+  </si>
+  <si>
+    <t>Sunbury Animal Hospital</t>
+  </si>
+  <si>
+    <t>63 Macedon St, Sunbury VIC 3429</t>
+  </si>
+  <si>
+    <t>Inspira Early Learning Centre, Gladstone Park</t>
+  </si>
+  <si>
+    <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
   </si>
 </sst>
 </file>
@@ -1218,8 +1245,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K102" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K102" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF0AD162-445E-46F7-85C5-4B75D46AC720}" name="VIC_public_exposure_sites" displayName="VIC_public_exposure_sites" ref="A1:K106" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K106" xr:uid="{E956DEE3-32AF-422C-8945-A806F07C6AC2}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5A7CEFDC-6EA3-4DEE-B5C8-AB790FDA1FCC}" name="Date" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{BA3AF1B8-FB76-4C40-9B40-C1E23BD6D880}" name="Time" dataDxfId="9"/>
@@ -1534,26 +1561,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5400F71B-E440-4BF4-8B9B-D008C4544C4B}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.86328125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.73046875" customWidth="1"/>
+    <col min="4" max="4" width="15.73046875" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" customWidth="1"/>
+    <col min="7" max="7" width="25.265625" customWidth="1"/>
+    <col min="8" max="8" width="16.73046875" customWidth="1"/>
     <col min="9" max="9" width="57" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.3984375" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1588,959 +1617,959 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="F2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="G2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="H2" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="J2" s="1">
-        <v>-37.735247000000001</v>
+        <v>-37.890642999999997</v>
       </c>
       <c r="K2" s="1">
-        <v>144.917023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.062546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
-        <v>43996</v>
+        <v>43998</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="E3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43996</v>
+        <v>43998</v>
       </c>
       <c r="F3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43996</v>
+        <v>43998</v>
       </c>
       <c r="G3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44010</v>
+        <v>44012</v>
       </c>
       <c r="H3" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44010</v>
+        <v>44012</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="J3" s="1">
-        <v>-37.975684999999999</v>
+        <v>-37.813499999999998</v>
       </c>
       <c r="K3" s="1">
-        <v>145.21652900000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.969933</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
-        <v>43993</v>
+        <v>43998</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="E4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43993</v>
+        <v>43998</v>
       </c>
       <c r="F4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43993</v>
+        <v>43998</v>
       </c>
       <c r="G4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44007</v>
+        <v>44012</v>
       </c>
       <c r="H4" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44007</v>
+        <v>44012</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="J4" s="1">
-        <v>-37.691401999999997</v>
+        <v>-37.581294999999997</v>
       </c>
       <c r="K4" s="1">
-        <v>145.21388899999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.738024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
-        <v>43993</v>
+        <v>43998</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="E5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43993</v>
+        <v>43998</v>
       </c>
       <c r="F5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43993</v>
+        <v>43998</v>
       </c>
       <c r="G5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44007</v>
+        <v>44012</v>
       </c>
       <c r="H5" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44007</v>
+        <v>44012</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="J5" s="1">
-        <v>-37.760449000000001</v>
+        <v>-37.688119</v>
       </c>
       <c r="K5" s="1">
-        <v>145.348691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.884379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
-        <v>43992</v>
+        <v>43997</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43992</v>
+        <v>43997</v>
       </c>
       <c r="F6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43992</v>
+        <v>43997</v>
       </c>
       <c r="G6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44006</v>
+        <v>44011</v>
       </c>
       <c r="H6" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44006</v>
+        <v>44011</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J6" s="1">
-        <v>-38.085076000000001</v>
+        <v>-37.735247000000001</v>
       </c>
       <c r="K6" s="1">
-        <v>145.46966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.917023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
-        <v>43991</v>
+        <v>43996</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43991</v>
+        <v>43996</v>
       </c>
       <c r="F7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43991</v>
+        <v>43996</v>
       </c>
       <c r="G7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44005</v>
+        <v>44010</v>
       </c>
       <c r="H7" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44005</v>
+        <v>44010</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="J7" s="1">
-        <v>-37.740107000000002</v>
+        <v>-37.975684999999999</v>
       </c>
       <c r="K7" s="1">
-        <v>144.95604700000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.21652900000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="F8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="G8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="H8" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J8" s="1">
-        <v>-37.772858999999997</v>
+        <v>-37.691401999999997</v>
       </c>
       <c r="K8" s="1">
-        <v>145.294713</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.21388899999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="F9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="G9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="H9" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44005</v>
+        <v>44007</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="J9" s="1">
-        <v>-37.798171000000004</v>
+        <v>-37.760449000000001</v>
       </c>
       <c r="K9" s="1">
-        <v>144.95666499999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.348691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="E10" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43992</v>
+      </c>
+      <c r="F10" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43992</v>
+      </c>
+      <c r="G10" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>44006</v>
+      </c>
+      <c r="H10" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>44006</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-38.085076000000001</v>
+      </c>
+      <c r="K10" s="1">
+        <v>145.46966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="4">
         <v>43991</v>
-      </c>
-      <c r="F10" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43991</v>
-      </c>
-      <c r="G10" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44005</v>
-      </c>
-      <c r="H10" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44005</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-38.012110999999997</v>
-      </c>
-      <c r="K10" s="1">
-        <v>145.09015400000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43989</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="E11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="F11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43989</v>
+        <v>43991</v>
       </c>
       <c r="G11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="H11" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="J11" s="1">
-        <v>-36.732517999999999</v>
+        <v>-37.740107000000002</v>
       </c>
       <c r="K11" s="1">
-        <v>146.96735699999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.95604700000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
-        <v>43988</v>
+        <v>43991</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43988</v>
+        <v>43991</v>
       </c>
       <c r="F12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43988</v>
+        <v>43991</v>
       </c>
       <c r="G12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44002</v>
+        <v>44005</v>
       </c>
       <c r="H12" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44002</v>
+        <v>44005</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="J12" s="1">
-        <v>-37.811362000000003</v>
+        <v>-37.772858999999997</v>
       </c>
       <c r="K12" s="1">
-        <v>144.97320300000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.294713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
-        <v>43986</v>
+        <v>43991</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43986</v>
+        <v>43991</v>
       </c>
       <c r="F13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43986</v>
+        <v>43991</v>
       </c>
       <c r="G13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44000</v>
+        <v>44005</v>
       </c>
       <c r="H13" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44000</v>
+        <v>44005</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J13" s="1">
-        <v>-37.927427000000002</v>
+        <v>-37.798171000000004</v>
       </c>
       <c r="K13" s="1">
-        <v>145.11615699999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.95666499999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
-        <v>43986</v>
+        <v>43991</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="E14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43986</v>
+        <v>43991</v>
       </c>
       <c r="F14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43986</v>
+        <v>43991</v>
       </c>
       <c r="G14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>44000</v>
+        <v>44005</v>
       </c>
       <c r="H14" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>44000</v>
+        <v>44005</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="J14" s="1">
-        <v>-37.571235999999999</v>
+        <v>-38.012110999999997</v>
       </c>
       <c r="K14" s="1">
-        <v>144.90978000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.09015400000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
-        <v>43984</v>
+        <v>43989</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="E15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43984</v>
+        <v>43989</v>
       </c>
       <c r="F15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43984</v>
+        <v>43989</v>
       </c>
       <c r="G15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43998</v>
+        <v>44003</v>
       </c>
       <c r="H15" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43998</v>
+        <v>44003</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="J15" s="1">
-        <v>-37.685248999999999</v>
+        <v>-36.732517999999999</v>
       </c>
       <c r="K15" s="1">
-        <v>144.92446000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>146.96735699999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
-        <v>43984</v>
+        <v>43988</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="E16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43984</v>
+        <v>43988</v>
       </c>
       <c r="F16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43984</v>
+        <v>43988</v>
       </c>
       <c r="G16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43998</v>
+        <v>44002</v>
       </c>
       <c r="H16" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43998</v>
+        <v>44002</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="J16" s="1">
-        <v>-37.704174999999999</v>
+        <v>-37.811362000000003</v>
       </c>
       <c r="K16" s="1">
-        <v>144.998741</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.97320300000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="E17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="F17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="G17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="H17" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="J17" s="1">
-        <v>-37.726306000000001</v>
+        <v>-37.927427000000002</v>
       </c>
       <c r="K17" s="1">
-        <v>145.06991400000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.11615699999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="E18" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43986</v>
+      </c>
+      <c r="F18" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43986</v>
+      </c>
+      <c r="G18" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>44000</v>
+      </c>
+      <c r="H18" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>44000</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-37.571235999999999</v>
+      </c>
+      <c r="K18" s="1">
+        <v>144.90978000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="4">
         <v>43984</v>
-      </c>
-      <c r="F18" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43984</v>
-      </c>
-      <c r="G18" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43998</v>
-      </c>
-      <c r="H18" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43998</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J18" s="1">
-        <v>-37.801332000000002</v>
-      </c>
-      <c r="K18" s="1">
-        <v>144.96363500000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>43983</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="E19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="F19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="H19" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43997</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>108</v>
+        <v>43998</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="J19" s="1">
-        <v>-37.816394899999999</v>
+        <v>-37.685248999999999</v>
       </c>
       <c r="K19" s="1">
-        <v>144.9526066</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.92446000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
-        <v>43983</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>43984</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="F20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="H20" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43997</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>211</v>
+        <v>43998</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="J20" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.704174999999999</v>
       </c>
       <c r="K20" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.998741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="F21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="G21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="H21" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="J21" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.726306000000001</v>
       </c>
       <c r="K21" s="1">
-        <v>144.96363500000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.06991400000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
-        <v>43982</v>
+        <v>43984</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43982</v>
+        <v>43984</v>
       </c>
       <c r="F22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43982</v>
+        <v>43984</v>
       </c>
       <c r="G22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43996</v>
+        <v>43998</v>
       </c>
       <c r="H22" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43996</v>
+        <v>43998</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="J22" s="1">
-        <v>-37.836081999999998</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K22" s="1">
-        <v>144.91538299999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.96363500000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="F23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="G23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="H23" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43996</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>172</v>
+        <v>43997</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="J23" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.816394899999999</v>
       </c>
       <c r="K23" s="1">
-        <v>144.96363500000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.9526066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
-        <v>43981</v>
-      </c>
-      <c r="B24" s="1"/>
+        <v>43983</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="E24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="F24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43981</v>
+        <v>43983</v>
       </c>
       <c r="G24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43995</v>
+        <v>43997</v>
       </c>
       <c r="H24" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43995</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>172</v>
+        <v>43997</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="J24" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K24" s="1">
-        <v>144.96363500000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>202</v>
+        <v>171</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="E25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="F25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="G25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="H25" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43994</v>
+        <v>43997</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="J25" s="1">
-        <v>-37.837907999999999</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K25" s="1">
-        <v>144.78621799999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.96363500000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
-        <v>43979</v>
+        <v>43982</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="E26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43979</v>
+        <v>43982</v>
       </c>
       <c r="F26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43979</v>
+        <v>43982</v>
       </c>
       <c r="G26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43993</v>
+        <v>43996</v>
       </c>
       <c r="H26" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43993</v>
+        <v>43996</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="J26" s="1">
-        <v>-37.801332000000002</v>
+        <v>-37.836081999999998</v>
       </c>
       <c r="K26" s="1">
-        <v>144.96363500000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.91538299999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
-        <v>43978</v>
+        <v>43982</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="E27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43982</v>
       </c>
       <c r="F27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43982</v>
       </c>
       <c r="G27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43996</v>
       </c>
       <c r="H27" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43996</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>172</v>
@@ -2552,291 +2581,291 @@
         <v>144.96363500000001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
-        <v>43978</v>
+        <v>43981</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="E28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43978</v>
+        <v>43981</v>
       </c>
       <c r="F28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43978</v>
+        <v>43981</v>
       </c>
       <c r="G28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43992</v>
+        <v>43995</v>
       </c>
       <c r="H28" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43992</v>
+        <v>43995</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J28" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K28" s="1">
-        <v>145.08623499999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.96363500000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
-        <v>43977</v>
+        <v>43980</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>189</v>
+        <v>201</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="E29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43980</v>
       </c>
       <c r="F29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43980</v>
       </c>
       <c r="G29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43994</v>
       </c>
       <c r="H29" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43994</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="J29" s="1">
-        <v>-37.756286000000003</v>
+        <v>-37.837907999999999</v>
       </c>
       <c r="K29" s="1">
-        <v>144.811104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.78621799999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="F30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="G30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="H30" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J30" s="1">
-        <v>-37.715384</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K30" s="1">
-        <v>144.811994</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.96363500000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="F31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="G31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="H31" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="J31" s="1">
-        <v>-37.884267000000001</v>
+        <v>-37.801332000000002</v>
       </c>
       <c r="K31" s="1">
-        <v>145.01711499999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.96363500000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
-        <v>43971</v>
+        <v>43978</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43978</v>
       </c>
       <c r="F32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43978</v>
       </c>
       <c r="G32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43992</v>
       </c>
       <c r="H32" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43992</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J32" s="1">
-        <v>-36.314870999999997</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K32" s="1">
-        <v>145.04196999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.08623499999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="F33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43971</v>
+        <v>43977</v>
       </c>
       <c r="G33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="H33" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43985</v>
+        <v>43991</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="J33" s="1">
-        <v>-37.928489999999996</v>
+        <v>-37.756286000000003</v>
       </c>
       <c r="K33" s="1">
-        <v>145.007454</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.811104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="F34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="G34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43991</v>
       </c>
       <c r="H34" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43991</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="J34" s="1">
-        <v>-37.841634999999997</v>
+        <v>-37.715384</v>
       </c>
       <c r="K34" s="1">
-        <v>145.08623499999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.811994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>165</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="F35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43970</v>
+        <v>43977</v>
       </c>
       <c r="G35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43984</v>
+        <v>43991</v>
       </c>
       <c r="H35" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43984</v>
+        <v>43991</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>166</v>
@@ -2848,161 +2877,161 @@
         <v>145.01711499999999</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="F36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="G36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="H36" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="J36" s="1">
-        <v>-37.692610000000002</v>
+        <v>-36.314870999999997</v>
       </c>
       <c r="K36" s="1">
-        <v>145.06382099999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.04196999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="F37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="G37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="H37" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="J37" s="1">
-        <v>-37.689222999999998</v>
+        <v>-37.928489999999996</v>
       </c>
       <c r="K37" s="1">
-        <v>144.60470799999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.007454</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H38" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="J38" s="1">
-        <v>-37.843631999999999</v>
+        <v>-37.841634999999997</v>
       </c>
       <c r="K38" s="1">
-        <v>144.78155899999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.08623499999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="F39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="H39" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="J39" s="1">
-        <v>-37.730747999999998</v>
+        <v>-37.884267000000001</v>
       </c>
       <c r="K39" s="1">
-        <v>145.086489</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.01711499999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
         <v>43969</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>184</v>
@@ -3024,22 +3053,22 @@
         <v>43983</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="J40" s="1">
-        <v>-37.702513000000003</v>
+        <v>-37.692610000000002</v>
       </c>
       <c r="K40" s="1">
-        <v>144.80232599999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.06382099999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
         <v>43969</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>184</v>
@@ -3061,22 +3090,22 @@
         <v>43983</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J41" s="1">
-        <v>-37.673996000000002</v>
+        <v>-37.689222999999998</v>
       </c>
       <c r="K41" s="1">
-        <v>144.955354</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.60470799999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
         <v>43969</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>184</v>
@@ -3098,22 +3127,22 @@
         <v>43983</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J42" s="1">
-        <v>-37.576594</v>
+        <v>-37.843631999999999</v>
       </c>
       <c r="K42" s="1">
-        <v>144.72866500000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.78155899999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
         <v>43969</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>184</v>
@@ -3135,22 +3164,22 @@
         <v>43983</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J43" s="1">
-        <v>-37.879995000000001</v>
+        <v>-37.730747999999998</v>
       </c>
       <c r="K43" s="1">
-        <v>144.70157699999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.086489</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
         <v>43969</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>184</v>
@@ -3172,22 +3201,22 @@
         <v>43983</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J44" s="1">
-        <v>-37.834014000000003</v>
+        <v>-37.702513000000003</v>
       </c>
       <c r="K44" s="1">
-        <v>144.65285299999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.80232599999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
         <v>43969</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>184</v>
@@ -3209,22 +3238,22 @@
         <v>43983</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J45" s="1">
-        <v>-37.942098999999999</v>
+        <v>-37.673996000000002</v>
       </c>
       <c r="K45" s="1">
-        <v>145.16768400000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.955354</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
         <v>43969</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>184</v>
@@ -3246,22 +3275,22 @@
         <v>43983</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J46" s="1">
-        <v>-37.664667000000001</v>
+        <v>-37.576594</v>
       </c>
       <c r="K46" s="1">
-        <v>144.74749</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.72866500000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
         <v>43969</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>184</v>
@@ -3283,22 +3312,22 @@
         <v>43983</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J47" s="1">
-        <v>-37.665416999999998</v>
+        <v>-37.879995000000001</v>
       </c>
       <c r="K47" s="1">
-        <v>144.75335899999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.70157699999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
         <v>43969</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>184</v>
@@ -3320,698 +3349,714 @@
         <v>43983</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J48" s="1">
-        <v>-37.738990000000001</v>
+        <v>-37.834014000000003</v>
       </c>
       <c r="K48" s="1">
-        <v>144.67997600000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.65285299999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B49" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H49" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>125</v>
+        <v>43983</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="J49" s="1">
-        <v>-37.596122999999999</v>
+        <v>-37.942098999999999</v>
       </c>
       <c r="K49" s="1">
-        <v>144.921401</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.16768400000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="4">
-        <v>43966</v>
-      </c>
-      <c r="B50" s="5"/>
+        <v>43969</v>
+      </c>
+      <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="F50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43966</v>
+        <v>43969</v>
       </c>
       <c r="G50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43980</v>
+        <v>43983</v>
       </c>
       <c r="H50" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43980</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>126</v>
+        <v>43983</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="J50" s="1">
-        <v>-37.772379999999998</v>
+        <v>-37.664667000000001</v>
       </c>
       <c r="K50" s="1">
-        <v>144.888195</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.74749</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E51" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="F51" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="G51" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43983</v>
       </c>
       <c r="H51" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>124</v>
+        <v>43983</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="J51" s="1">
-        <v>-37.783104999999999</v>
+        <v>-37.665416999999998</v>
       </c>
       <c r="K51" s="1">
-        <v>144.78539799999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.75335899999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="4">
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="E52" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="F52" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
+        <v>43969</v>
       </c>
       <c r="G52" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
+        <v>43983</v>
       </c>
       <c r="H52" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>123</v>
+        <v>43983</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="J52" s="1">
-        <v>-37.766146999999997</v>
+        <v>-37.738990000000001</v>
       </c>
       <c r="K52" s="1">
-        <v>145.02005199999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.67997600000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="4">
-        <v>43959</v>
+        <v>43966</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D53" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="E53" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43966</v>
+      </c>
+      <c r="F53" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43966</v>
+      </c>
+      <c r="G53" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43980</v>
+      </c>
+      <c r="H53" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43980</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J53" s="1">
+        <v>-37.596122999999999</v>
+      </c>
+      <c r="K53" s="1">
+        <v>144.921401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54" s="4">
+        <v>43966</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43966</v>
+      </c>
+      <c r="F54" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43966</v>
+      </c>
+      <c r="G54" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43980</v>
+      </c>
+      <c r="H54" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43980</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J54" s="1">
+        <v>-37.772379999999998</v>
+      </c>
+      <c r="K54" s="1">
+        <v>144.888195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A55" s="4">
         <v>43959</v>
-      </c>
-      <c r="F53" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43959</v>
-      </c>
-      <c r="G53" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43973</v>
-      </c>
-      <c r="H53" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43973</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J53" s="1">
-        <v>-37.689366</v>
-      </c>
-      <c r="K53" s="1">
-        <v>144.958878</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>43953</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
-      </c>
-      <c r="F54" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
-      </c>
-      <c r="G54" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
-      </c>
-      <c r="H54" s="2">
-        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J54" s="1">
-        <v>-37.678277999999999</v>
-      </c>
-      <c r="K54" s="1">
-        <v>144.43268900000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <v>43953</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="E55" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="F55" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43953</v>
+        <v>43959</v>
       </c>
       <c r="G55" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="H55" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43967</v>
+        <v>43973</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J55" s="1">
-        <v>-37.810712000000002</v>
+        <v>-37.783104999999999</v>
       </c>
       <c r="K55" s="1">
-        <v>144.836118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.78539799999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="4">
-        <v>43951</v>
+        <v>43959</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43951</v>
+        <v>43959</v>
       </c>
       <c r="F56" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43951</v>
+        <v>43959</v>
       </c>
       <c r="G56" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43965</v>
+        <v>43973</v>
       </c>
       <c r="H56" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43965</v>
+        <v>43973</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="J56" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.766146999999997</v>
       </c>
       <c r="K56" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.02005199999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="4">
-        <v>43950</v>
-      </c>
-      <c r="B57" s="1"/>
+        <v>43959</v>
+      </c>
+      <c r="B57" s="5"/>
       <c r="C57" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43950</v>
+        <v>43959</v>
       </c>
       <c r="F57" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43950</v>
+        <v>43959</v>
       </c>
       <c r="G57" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43964</v>
+        <v>43973</v>
       </c>
       <c r="H57" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43964</v>
+        <v>43973</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J57" s="1">
-        <v>-37.811678000000001</v>
+        <v>-37.689366</v>
       </c>
       <c r="K57" s="1">
-        <v>144.889926</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.958878</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="4">
-        <v>43947</v>
+        <v>43953</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43947</v>
+        <v>43953</v>
       </c>
       <c r="F58" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43947</v>
+        <v>43953</v>
       </c>
       <c r="G58" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43961</v>
+        <v>43967</v>
       </c>
       <c r="H58" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43961</v>
+        <v>43967</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J58" s="1">
-        <v>-37.797176999999998</v>
+        <v>-37.678277999999999</v>
       </c>
       <c r="K58" s="1">
-        <v>144.894632</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.43268900000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="4">
-        <v>43944</v>
+        <v>43953</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43944</v>
+        <v>43953</v>
       </c>
       <c r="F59" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43944</v>
+        <v>43953</v>
       </c>
       <c r="G59" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43958</v>
+        <v>43967</v>
       </c>
       <c r="H59" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43958</v>
+        <v>43967</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J59" s="1">
-        <v>-37.759222999999999</v>
+        <v>-37.810712000000002</v>
       </c>
       <c r="K59" s="1">
-        <v>144.816754</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>43907</v>
+        <v>144.836118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A60" s="4">
+        <v>43951</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43907</v>
+        <v>43951</v>
       </c>
       <c r="F60" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43907</v>
+        <v>43951</v>
       </c>
       <c r="G60" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43921</v>
+        <v>43965</v>
       </c>
       <c r="H60" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43921</v>
+        <v>43965</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="J60" s="1">
-        <v>-37.844318000000001</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K60" s="1">
-        <v>145.009818</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>43905</v>
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A61" s="4">
+        <v>43950</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>180</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D61" s="1"/>
       <c r="E61" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
-        <v>43905</v>
+        <v>43950</v>
       </c>
       <c r="F61" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
-        <v>43905</v>
+        <v>43950</v>
       </c>
       <c r="G61" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
-        <v>43919</v>
+        <v>43964</v>
       </c>
       <c r="H61" s="2">
         <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
-        <v>43919</v>
+        <v>43964</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J61" s="1">
-        <v>-37.813239000000003</v>
+        <v>-37.811678000000001</v>
       </c>
       <c r="K61" s="1">
-        <v>145.048047</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>144.889926</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A62" s="4">
+        <v>43947</v>
+      </c>
+      <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43947</v>
       </c>
       <c r="F62" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>12</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43947</v>
+      </c>
+      <c r="G62" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43961</v>
       </c>
       <c r="H62" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43961</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="J62" s="1">
-        <v>-37.776940699999997</v>
+        <v>-37.797176999999998</v>
       </c>
       <c r="K62" s="1">
-        <v>144.98702499999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>144.894632</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A63" s="4">
+        <v>43944</v>
+      </c>
+      <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43944</v>
       </c>
       <c r="F63" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>12</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43944</v>
+      </c>
+      <c r="G63" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43958</v>
       </c>
       <c r="H63" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43958</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="J63" s="1">
-        <v>-37.772095999999998</v>
+        <v>-37.759222999999999</v>
       </c>
       <c r="K63" s="1">
-        <v>144.91609500000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>144.816754</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A64" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2">
-        <v>43900</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43907</v>
       </c>
       <c r="F64" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>12</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43907</v>
+      </c>
+      <c r="G64" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43921</v>
       </c>
       <c r="H64" s="2">
-        <v>43914</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43921</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="J64" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.844318000000001</v>
       </c>
       <c r="K64" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>145.009818</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A65" s="2">
+        <v>43905</v>
+      </c>
+      <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="E65" s="2">
-        <v>43899</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]</f>
+        <v>43905</v>
       </c>
       <c r="F65" s="2">
-        <v>43899</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>20</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Exposure Date]]</f>
+        <v>43905</v>
+      </c>
+      <c r="G65" s="2">
+        <f>VIC_public_exposure_sites[[#This Row],[Date]]+14</f>
+        <v>43919</v>
       </c>
       <c r="H65" s="2">
-        <v>43913</v>
+        <f>VIC_public_exposure_sites[[#This Row],[Onset of symptoms up to]]</f>
+        <v>43919</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="J65" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.813239000000003</v>
       </c>
       <c r="K65" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145.048047</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="F66" s="2">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H66" s="2">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J66" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.776940699999997</v>
       </c>
       <c r="K66" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.98702499999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="F67" s="2">
-        <v>43898</v>
+        <v>43900</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H67" s="2">
-        <v>43912</v>
+        <v>43914</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J67" s="1">
-        <v>-37.667110999999998</v>
+        <v>-37.772095999999998</v>
       </c>
       <c r="K67" s="1">
-        <v>144.83348079999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.91609500000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="2">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="F68" s="2">
-        <v>43897</v>
+        <v>43900</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H68" s="2">
-        <v>43911</v>
+        <v>43914</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>97</v>
@@ -4023,28 +4068,28 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="2">
-        <v>43896</v>
+        <v>43899</v>
       </c>
       <c r="F69" s="2">
-        <v>43896</v>
+        <v>43899</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H69" s="2">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>97</v>
@@ -4056,28 +4101,28 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="2">
-        <v>43896</v>
+        <v>43899</v>
       </c>
       <c r="F70" s="2">
-        <v>43896</v>
+        <v>43899</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H70" s="2">
-        <v>43910</v>
+        <v>43913</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>97</v>
@@ -4089,15 +4134,15 @@
         <v>144.83348079999999</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="2">
@@ -4113,222 +4158,222 @@
         <v>43912</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J71" s="1">
-        <v>-37.821452700000002</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K71" s="1">
-        <v>144.98347200000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="2">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="F72" s="2">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H72" s="2">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J72" s="1">
-        <v>-37.800963000000003</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K72" s="1">
-        <v>145.0729384</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="F73" s="2">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H73" s="2">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J73" s="1">
-        <v>-37.790782999999998</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K73" s="1">
-        <v>144.99816200000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="F74" s="2">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H74" s="2">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J74" s="1">
-        <v>-37.824981299999997</v>
+        <v>-37.667110999999998</v>
       </c>
       <c r="K74" s="1">
-        <v>144.98361299999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.83348079999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F75" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H75" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J75" s="1">
-        <v>-37.841103699999998</v>
+        <v>-37.821452700000002</v>
       </c>
       <c r="K75" s="1">
-        <v>144.955806</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144.98347200000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="F76" s="2">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H76" s="2">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J76" s="